--- a/input/reg_employmentSelection.xlsx
+++ b/input/reg_employmentSelection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPathsFork\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F84D41-A331-4BCD-B796-5804C8F17919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43ABCB5-C942-4947-8F95-5D9586965BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="989" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,12 +78,6 @@
     <t>This file contains regression estimates used to calculate the Inverse Mills Ratio  (Heckman selection model) that is subsequently used by a wage regression. Worksheets ending in _source are linked to estimation results; other worksheets are copies of those in a format readable by the simulation.</t>
   </si>
   <si>
-    <t>REGRESSORS</t>
-  </si>
-  <si>
-    <t>COEFFICENTS</t>
-  </si>
-  <si>
     <t>D_Children</t>
   </si>
   <si>
@@ -103,6 +97,12 @@
   </si>
   <si>
     <t>HUB</t>
+  </si>
+  <si>
+    <t>REGRESSOR</t>
+  </si>
+  <si>
+    <t>COEFFICENT</t>
   </si>
 </sst>
 </file>
@@ -159,6 +159,7 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -171,7 +172,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,82 +504,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4">
         <v>45623</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -595,20 +595,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02CE3350-4A93-42D4-A29F-C2F61C83EA8F}">
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="25.5703125" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -635,28 +637,28 @@
         <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L1" t="s">
         <v>8</v>
       </c>
       <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>17</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>18</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" t="s">
-        <v>20</v>
       </c>
       <c r="S1" t="s">
         <v>3</v>
@@ -1136,7 +1138,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>-0.2412241755320812</v>
@@ -1254,7 +1256,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>0.35833596067174045</v>
@@ -1313,7 +1315,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>0.66103537168090976</v>
@@ -1372,7 +1374,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>0.73334028513632865</v>
@@ -1431,7 +1433,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>0.74749040697873315</v>
@@ -1490,7 +1492,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>0.15940654703342902</v>
@@ -1549,7 +1551,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>8.8257923214638281E-2</v>
@@ -1674,20 +1676,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EF7C3FD-31A1-4DD9-B07D-B9FF738D5357}">
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="26.7109375" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -1714,28 +1718,28 @@
         <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L1" t="s">
         <v>8</v>
       </c>
       <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>17</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>18</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" t="s">
-        <v>20</v>
       </c>
       <c r="S1" t="s">
         <v>3</v>
@@ -2215,7 +2219,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>1.729121951725948E-3</v>
@@ -2333,7 +2337,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>0.3923890316888044</v>
@@ -2392,7 +2396,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>0.74379923165852668</v>
@@ -2451,7 +2455,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>0.92726474772914158</v>
@@ -2510,7 +2514,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>0.95511527010149877</v>
@@ -2569,7 +2573,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>0.17904048738740611</v>
@@ -2628,7 +2632,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0.12521105821158601</v>
@@ -2753,20 +2757,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B0716A-7AD7-48C5-B132-6B376B317883}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="23.5703125" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -2790,28 +2796,28 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
       </c>
       <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>18</v>
-      </c>
-      <c r="P1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>20</v>
       </c>
       <c r="R1" t="s">
         <v>3</v>
@@ -3211,7 +3217,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>-0.16738654861163121</v>
@@ -3323,7 +3329,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>0.35373436516013401</v>
@@ -3379,7 +3385,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>0.54428575722636208</v>
@@ -3435,7 +3441,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>0.5447466277319567</v>
@@ -3491,7 +3497,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>0.73002233937492689</v>
@@ -3547,7 +3553,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>-6.4736071635387903E-4</v>
@@ -3603,7 +3609,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>2.9189559390160425E-2</v>
@@ -3722,20 +3728,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287274D1-3866-4EF0-9DE7-D6181E6D59EB}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="23.85546875" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -3759,28 +3767,28 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
       </c>
       <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>18</v>
-      </c>
-      <c r="P1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>20</v>
       </c>
       <c r="R1" t="s">
         <v>3</v>
@@ -4180,7 +4188,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>-0.21793231469482144</v>
@@ -4292,7 +4300,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>0.20897451199705794</v>
@@ -4348,7 +4356,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>0.37045912590376845</v>
@@ -4404,7 +4412,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>0.37477684048021226</v>
@@ -4460,7 +4468,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>0.66536599311032674</v>
@@ -4516,7 +4524,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>-4.3262044104285427E-2</v>
@@ -4572,7 +4580,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>-3.6201205600387788E-2</v>

--- a/input/reg_employmentSelection.xlsx
+++ b/input/reg_employmentSelection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPathsFork\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43ABCB5-C942-4947-8F95-5D9586965BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74BD663-D45B-4D16-9EAB-7EEC38374794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="989" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="989" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="13" r:id="rId1"/>
@@ -102,7 +102,7 @@
     <t>REGRESSOR</t>
   </si>
   <si>
-    <t>COEFFICENT</t>
+    <t>COEFFICIENT</t>
   </si>
 </sst>
 </file>
@@ -595,9 +595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02CE3350-4A93-42D4-A29F-C2F61C83EA8F}">
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1677,7 +1675,7 @@
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2758,7 +2756,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3728,14 +3726,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287274D1-3866-4EF0-9DE7-D6181E6D59EB}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="19.7109375" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">

--- a/input/reg_employmentSelection.xlsx
+++ b/input/reg_employmentSelection.xlsx
@@ -1,46 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPathsFork\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74BD663-D45B-4D16-9EAB-7EEC38374794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505F2DB9-AFF7-44AB-98C4-D58AF9E8D28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="989" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Info" sheetId="13" r:id="rId1"/>
-    <sheet name="HU_EmploymentSelection_FemaleNE" sheetId="32" r:id="rId2"/>
-    <sheet name="HU_EmploymentSelection_MaleNE" sheetId="33" r:id="rId3"/>
-    <sheet name="HU_EmploymentSelection_FemaleE" sheetId="34" r:id="rId4"/>
-    <sheet name="HU_EmploymentSelection_MaleE" sheetId="35" r:id="rId5"/>
+    <sheet name="Info" sheetId="1" r:id="rId1"/>
+    <sheet name="PL_EmploymentSelection_FemaleNE" sheetId="2" r:id="rId2"/>
+    <sheet name="PL_EmploymentSelection_MaleNE" sheetId="3" r:id="rId3"/>
+    <sheet name="PL_EmploymentSelection_FemaleE" sheetId="4" r:id="rId4"/>
+    <sheet name="PL_EmploymentSelection_MaleE" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="41">
+  <si>
+    <t>Description:</t>
+  </si>
+  <si>
+    <t>This file contains regression estimates from the first stage of the Heckman selection model used to estimates wages.</t>
+  </si>
+  <si>
+    <t>Process:</t>
+  </si>
+  <si>
+    <t>PL_EmploymentSelection_FemaleNE</t>
+  </si>
+  <si>
+    <t>First stage Heckman selection estimates for women that do not have an observed wage in the previous year</t>
+  </si>
+  <si>
+    <t>PL_EmploymentSelection_MaleNE</t>
+  </si>
+  <si>
+    <t>PL_EmploymentSelection_FemaleE</t>
+  </si>
+  <si>
+    <t>First stage Heckman selection estimates for women that have an observed wage in the previous year</t>
+  </si>
+  <si>
+    <t>PL_EmploymentSelection_MaleE</t>
+  </si>
+  <si>
+    <t>First stage Heckman selection estimates for men that have an observed wage in the previous year</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>Estimated on panel data unlike the labour supply estimates</t>
+  </si>
+  <si>
+    <t>Predicted wages used as input into union parameters and income process estimates</t>
+  </si>
+  <si>
+    <t>Two-step Heckman command is used which does not permit weights</t>
+  </si>
+  <si>
+    <t>Estimate the models without the lagged wage observation on the full working age sample. Choice made because otherwise the reduction in the sample size makes the sigma used when correcting the bias when transforming the log wages to wage levels too large.</t>
+  </si>
+  <si>
+    <t>REGRESSOR</t>
+  </si>
+  <si>
+    <t>COEFFICIENT</t>
+  </si>
+  <si>
+    <t>Les_c3_Student_L1</t>
+  </si>
+  <si>
+    <t>Les_c3_NotEmployed_L1</t>
+  </si>
   <si>
     <t>Dag</t>
   </si>
@@ -51,31 +92,10 @@
     <t>Deh_c3_Medium</t>
   </si>
   <si>
-    <t>Constant</t>
-  </si>
-  <si>
     <t>Deh_c3_Low</t>
   </si>
   <si>
-    <t>Date modified</t>
-  </si>
-  <si>
-    <t>Les_c3_NotEmployed_L1</t>
-  </si>
-  <si>
     <t>Dcpst_Partnered</t>
-  </si>
-  <si>
-    <t>Dlltsd</t>
-  </si>
-  <si>
-    <t>Deh_c3_Medium_Dag</t>
-  </si>
-  <si>
-    <t>Deh_c3_Low_Dag</t>
-  </si>
-  <si>
-    <t>This file contains regression estimates used to calculate the Inverse Mills Ratio  (Heckman selection model) that is subsequently used by a wage regression. Worksheets ending in _source are linked to estimation results; other worksheets are copies of those in a format readable by the simulation.</t>
   </si>
   <si>
     <t>D_Children</t>
@@ -93,16 +113,40 @@
     <t>Dhe_Excellent</t>
   </si>
   <si>
-    <t>HUA</t>
+    <t>Pt</t>
   </si>
   <si>
-    <t>HUB</t>
+    <t>RealWageGrowth</t>
   </si>
   <si>
-    <t>REGRESSOR</t>
+    <t>Y2020</t>
   </si>
   <si>
-    <t>COEFFICIENT</t>
+    <t>Y2021</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>Deh_c3_Medium_Dag</t>
+  </si>
+  <si>
+    <t>Deh_c3_Low_Dag</t>
+  </si>
+  <si>
+    <t>PL10</t>
+  </si>
+  <si>
+    <t>PL4</t>
+  </si>
+  <si>
+    <t>PL5</t>
+  </si>
+  <si>
+    <t>PL6</t>
+  </si>
+  <si>
+    <t>Regions: PL4 = Polnocno-Zachodni, PL5 = Poludniowo-Zachodni, PL6 = Polnocy, PL10 = Central + East. Poludniowy is the omitted category.</t>
   </si>
 </sst>
 </file>
@@ -112,24 +156,25 @@
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -140,7 +185,28 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -149,36 +215,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 4" xfId="4" xr:uid="{EBBF4FB7-8561-4DD5-8F3A-F3D3B3E5B8B7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -194,9 +241,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -204,39 +251,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -288,7 +335,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -340,7 +387,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -399,13 +446,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -414,6 +454,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -478,11 +525,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -490,1179 +557,1666 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F9"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4">
-        <v>45623</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A2:F9"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02CE3350-4A93-42D4-A29F-C2F61C83EA8F}">
-  <dimension ref="A1:S18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="K1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="M1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="N1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="O1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="P1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="Q1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="R1" t="s">
+      <c r="B2">
+        <v>-2.2095799584893689</v>
+      </c>
+      <c r="C2">
+        <v>9.1040682423005595E-4</v>
+      </c>
+      <c r="D2">
+        <v>7.6064551588544976E-5</v>
+      </c>
+      <c r="E2">
+        <v>4.6720908866435454E-5</v>
+      </c>
+      <c r="F2">
+        <v>-4.9635093209582316E-7</v>
+      </c>
+      <c r="G2">
+        <v>-8.1344770520847361E-5</v>
+      </c>
+      <c r="H2">
+        <v>-2.6033151933058845E-4</v>
+      </c>
+      <c r="I2">
+        <v>1.3435756717598738E-6</v>
+      </c>
+      <c r="J2">
+        <v>4.6879573042563071E-6</v>
+      </c>
+      <c r="K2">
+        <v>2.7803187975272759E-5</v>
+      </c>
+      <c r="L2">
+        <v>1.7954020644123419E-5</v>
+      </c>
+      <c r="M2">
+        <v>1.6158402475342608E-6</v>
+      </c>
+      <c r="N2">
+        <v>3.062488981388548E-6</v>
+      </c>
+      <c r="O2">
+        <v>7.8754101839696505E-6</v>
+      </c>
+      <c r="P2">
+        <v>-1.1897893973778655E-5</v>
+      </c>
+      <c r="Q2">
+        <v>3.3039902456651438E-6</v>
+      </c>
+      <c r="R2">
+        <v>3.1772632622600145E-7</v>
+      </c>
+      <c r="S2">
+        <v>-5.6880662623694356E-7</v>
+      </c>
+      <c r="T2">
+        <v>-5.0264764638347043E-6</v>
+      </c>
+      <c r="U2">
+        <v>6.1713269955912683E-6</v>
+      </c>
+      <c r="V2">
+        <v>9.4106416464093808E-7</v>
+      </c>
+      <c r="W2">
+        <v>-1.1043856368654944E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="S1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>0.40952509296311007</v>
-      </c>
-      <c r="C2">
-        <v>2.3275775906513303E-3</v>
-      </c>
-      <c r="D2">
-        <v>-1.8714812420391854E-4</v>
-      </c>
-      <c r="E2">
-        <v>1.7733760822851084E-6</v>
-      </c>
-      <c r="F2">
-        <v>-2.7733473590196237E-4</v>
-      </c>
-      <c r="G2">
-        <v>-8.618298961913923E-4</v>
-      </c>
-      <c r="H2">
-        <v>5.7340070196809313E-6</v>
-      </c>
-      <c r="I2">
-        <v>1.7482516347750133E-5</v>
-      </c>
-      <c r="J2">
-        <v>-1.5422064400803391E-4</v>
-      </c>
-      <c r="K2">
-        <v>-2.1660382480333438E-4</v>
-      </c>
-      <c r="L2">
-        <v>-2.7982920129024362E-5</v>
-      </c>
-      <c r="M2">
-        <v>2.7881217298163295E-5</v>
-      </c>
-      <c r="N2">
-        <v>-2.6583405447699014E-6</v>
-      </c>
-      <c r="O2">
-        <v>2.2220239723418729E-6</v>
-      </c>
-      <c r="P2">
-        <v>1.3371268846366913E-4</v>
-      </c>
-      <c r="Q2">
-        <v>1.8172697328570783E-5</v>
-      </c>
-      <c r="R2">
-        <v>6.4583828968666838E-6</v>
-      </c>
-      <c r="S2">
-        <v>2.5610463806704422E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
       <c r="B3">
-        <v>0.18742998641371927</v>
+        <v>-2.3748715039120012</v>
       </c>
       <c r="C3">
-        <v>-1.8714812420391854E-4</v>
+        <v>7.6064551588544976E-5</v>
       </c>
       <c r="D3">
-        <v>7.4972069518476939E-5</v>
+        <v>1.3381663013473213E-4</v>
       </c>
       <c r="E3">
-        <v>-7.7557539214614699E-7</v>
+        <v>3.5846841952989511E-6</v>
       </c>
       <c r="F3">
-        <v>3.1012044319812945E-4</v>
+        <v>-3.936678581499368E-8</v>
       </c>
       <c r="G3">
-        <v>4.065801368757865E-4</v>
+        <v>-2.6092064584809472E-5</v>
       </c>
       <c r="H3">
-        <v>-7.1150174870425059E-6</v>
+        <v>-1.5515294016882136E-5</v>
       </c>
       <c r="I3">
-        <v>-9.0719197713623329E-6</v>
+        <v>1.8488282712645062E-7</v>
       </c>
       <c r="J3">
-        <v>-5.4457863317199559E-5</v>
+        <v>-2.5632926854597278E-7</v>
       </c>
       <c r="K3">
-        <v>-5.6163327258087624E-5</v>
+        <v>-5.9807298093860338E-6</v>
       </c>
       <c r="L3">
-        <v>-2.7085688584028331E-5</v>
+        <v>-8.5125420885722432E-6</v>
       </c>
       <c r="M3">
-        <v>5.5867431346801727E-6</v>
+        <v>1.1944715996880349E-6</v>
       </c>
       <c r="N3">
-        <v>1.8242208687651923E-5</v>
+        <v>5.1812216057259131E-6</v>
       </c>
       <c r="O3">
-        <v>2.0030135838923209E-5</v>
+        <v>8.596096648302314E-6</v>
       </c>
       <c r="P3">
-        <v>6.1489643241535523E-5</v>
+        <v>9.3958060856061087E-6</v>
       </c>
       <c r="Q3">
-        <v>1.2109694468228494E-5</v>
+        <v>3.2815199105095804E-6</v>
       </c>
       <c r="R3">
-        <v>1.0378124612031819E-5</v>
+        <v>3.3041357557163955E-6</v>
       </c>
       <c r="S3">
-        <v>-1.453612767902595E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1.537725184082833E-6</v>
+      </c>
+      <c r="T3">
+        <v>2.585473096061281E-6</v>
+      </c>
+      <c r="U3">
+        <v>4.3024489147469974E-6</v>
+      </c>
+      <c r="V3">
+        <v>-3.0668364228317393E-7</v>
+      </c>
+      <c r="W3">
+        <v>-1.2728793101969392E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B4">
-        <v>-2.4514741867794976E-3</v>
+        <v>0.16407994797268624</v>
       </c>
       <c r="C4">
-        <v>1.7733760822851084E-6</v>
+        <v>4.6720908866435454E-5</v>
       </c>
       <c r="D4">
-        <v>-7.7557539214614699E-7</v>
+        <v>3.5846841952989511E-6</v>
       </c>
       <c r="E4">
-        <v>8.6599557754772367E-9</v>
+        <v>1.6098390196377427E-5</v>
       </c>
       <c r="F4">
-        <v>-1.4280215780212563E-6</v>
+        <v>-1.7659048095438886E-7</v>
       </c>
       <c r="G4">
-        <v>-2.4262437242658887E-6</v>
+        <v>3.8172260576028318E-5</v>
       </c>
       <c r="H4">
-        <v>2.7654122145124706E-8</v>
+        <v>5.2896211751901173E-5</v>
       </c>
       <c r="I4">
-        <v>4.8105828367059159E-8</v>
+        <v>-8.572692865677304E-7</v>
       </c>
       <c r="J4">
-        <v>5.506980298671625E-7</v>
+        <v>-1.0958769391561336E-6</v>
       </c>
       <c r="K4">
-        <v>7.667893214258164E-7</v>
+        <v>-1.2297566248489893E-5</v>
       </c>
       <c r="L4">
-        <v>2.9932408531082515E-7</v>
+        <v>-1.0404196650150613E-5</v>
       </c>
       <c r="M4">
-        <v>-8.6369456114027877E-8</v>
+        <v>1.3041648071195706E-6</v>
       </c>
       <c r="N4">
-        <v>-2.4279305128169216E-7</v>
+        <v>3.7940771431965053E-6</v>
       </c>
       <c r="O4">
-        <v>-1.6075309552336896E-7</v>
+        <v>4.3058994086847297E-6</v>
       </c>
       <c r="P4">
-        <v>-5.1545653324300121E-7</v>
+        <v>1.1963563222168645E-5</v>
       </c>
       <c r="Q4">
-        <v>-1.0073124954324747E-7</v>
+        <v>5.1491523163810276E-7</v>
       </c>
       <c r="R4">
-        <v>-5.0205343678327296E-8</v>
+        <v>1.8503556199266614E-6</v>
       </c>
       <c r="S4">
-        <v>1.3935226290111964E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+        <v>4.7392289047950583E-7</v>
+      </c>
+      <c r="T4">
+        <v>5.7218994212042388E-7</v>
+      </c>
+      <c r="U4">
+        <v>3.1124976718003207E-7</v>
+      </c>
+      <c r="V4">
+        <v>-2.361900330388523E-7</v>
+      </c>
+      <c r="W4">
+        <v>-3.3461378997220358E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B5">
-        <v>-0.40815037257324416</v>
+        <v>-1.9177805154249952E-3</v>
       </c>
       <c r="C5">
-        <v>-2.7733473590196237E-4</v>
+        <v>-4.9635093209582316E-7</v>
       </c>
       <c r="D5">
-        <v>3.1012044319812945E-4</v>
+        <v>-3.936678581499368E-8</v>
       </c>
       <c r="E5">
-        <v>-1.4280215780212563E-6</v>
+        <v>-1.7659048095438886E-7</v>
       </c>
       <c r="F5">
-        <v>1.0295147115375646E-2</v>
+        <v>2.0461155021374035E-9</v>
       </c>
       <c r="G5">
-        <v>8.3572367996208336E-3</v>
+        <v>-1.0428255166752853E-7</v>
       </c>
       <c r="H5">
-        <v>-2.3528094739859505E-4</v>
+        <v>-2.8942518426558699E-7</v>
       </c>
       <c r="I5">
-        <v>-1.9206545616761637E-4</v>
+        <v>1.4809119214644504E-9</v>
       </c>
       <c r="J5">
-        <v>-1.298713837701799E-5</v>
+        <v>4.5159382560166246E-9</v>
       </c>
       <c r="K5">
-        <v>-2.4111324974799089E-4</v>
+        <v>1.1922332365134969E-7</v>
       </c>
       <c r="L5">
-        <v>2.1696451997941358E-5</v>
+        <v>1.4902824434294724E-7</v>
       </c>
       <c r="M5">
-        <v>1.6288276873278364E-5</v>
+        <v>-1.4489547008999636E-8</v>
       </c>
       <c r="N5">
-        <v>7.0770515485287649E-7</v>
+        <v>-4.2729861188902573E-8</v>
       </c>
       <c r="O5">
-        <v>-1.7583354672324764E-5</v>
+        <v>-3.1261667968958035E-8</v>
       </c>
       <c r="P5">
-        <v>1.5836421141088687E-4</v>
+        <v>-9.527090273701043E-8</v>
       </c>
       <c r="Q5">
-        <v>9.7494876782615206E-6</v>
+        <v>-8.7629178789426177E-9</v>
       </c>
       <c r="R5">
-        <v>1.507976235496088E-5</v>
+        <v>-2.4504241021934044E-8</v>
       </c>
       <c r="S5">
-        <v>-1.0162977222433771E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+        <v>-8.5870310247903211E-9</v>
+      </c>
+      <c r="T5">
+        <v>-8.7388238703419799E-9</v>
+      </c>
+      <c r="U5">
+        <v>-8.571916865803244E-9</v>
+      </c>
+      <c r="V5">
+        <v>-6.5446817603424968E-9</v>
+      </c>
+      <c r="W5">
+        <v>3.460670395065402E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B6">
-        <v>-1.2268192744023849</v>
+        <v>0.18770082638112701</v>
       </c>
       <c r="C6">
-        <v>-8.618298961913923E-4</v>
+        <v>-8.1344770520847361E-5</v>
       </c>
       <c r="D6">
-        <v>4.065801368757865E-4</v>
+        <v>-2.6092064584809472E-5</v>
       </c>
       <c r="E6">
-        <v>-2.4262437242658887E-6</v>
+        <v>3.8172260576028318E-5</v>
       </c>
       <c r="F6">
-        <v>8.3572367996208336E-3</v>
+        <v>-1.0428255166752853E-7</v>
       </c>
       <c r="G6">
-        <v>1.4410933759596681E-2</v>
+        <v>1.9495064150428514E-3</v>
       </c>
       <c r="H6">
-        <v>-1.9203163089533321E-4</v>
+        <v>1.3680517272646288E-3</v>
       </c>
       <c r="I6">
-        <v>-3.1903179918418872E-4</v>
+        <v>-4.3513050580284618E-5</v>
       </c>
       <c r="J6">
-        <v>-8.4779959172638636E-5</v>
+        <v>-3.1123783129555209E-5</v>
       </c>
       <c r="K6">
-        <v>-4.1905454747779365E-4</v>
+        <v>3.5285621086160121E-6</v>
       </c>
       <c r="L6">
-        <v>-6.120116936211194E-5</v>
+        <v>-4.2309201661784993E-5</v>
       </c>
       <c r="M6">
-        <v>-5.1742213506744857E-5</v>
+        <v>9.7102288648493948E-6</v>
       </c>
       <c r="N6">
-        <v>-1.2660479819085E-4</v>
+        <v>6.4374552234243649E-6</v>
       </c>
       <c r="O6">
-        <v>-1.3528493014229289E-4</v>
+        <v>-9.4428199708565357E-6</v>
       </c>
       <c r="P6">
-        <v>1.7080230679732741E-4</v>
+        <v>1.838080346106474E-5</v>
       </c>
       <c r="Q6">
-        <v>2.1691625354276317E-5</v>
+        <v>-1.4166210351775328E-5</v>
       </c>
       <c r="R6">
-        <v>1.6255908307942816E-6</v>
+        <v>-6.2274083979280243E-6</v>
       </c>
       <c r="S6">
-        <v>-1.1568635308319237E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+        <v>-1.1767192541441555E-5</v>
+      </c>
+      <c r="T6">
+        <v>-1.1784511289598293E-6</v>
+      </c>
+      <c r="U6">
+        <v>4.2300565733944102E-6</v>
+      </c>
+      <c r="V6">
+        <v>-8.3724968653016308E-6</v>
+      </c>
+      <c r="W6">
+        <v>-1.4101587643521683E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B7">
-        <v>5.5315069710956902E-3</v>
+        <v>-0.41814159129937878</v>
       </c>
       <c r="C7">
-        <v>5.7340070196809313E-6</v>
+        <v>-2.6033151933058845E-4</v>
       </c>
       <c r="D7">
-        <v>-7.1150174870425059E-6</v>
+        <v>-1.5515294016882136E-5</v>
       </c>
       <c r="E7">
-        <v>2.7654122145124706E-8</v>
+        <v>5.2896211751901173E-5</v>
       </c>
       <c r="F7">
-        <v>-2.3528094739859505E-4</v>
+        <v>-2.8942518426558699E-7</v>
       </c>
       <c r="G7">
-        <v>-1.9203163089533321E-4</v>
+        <v>1.3680517272646288E-3</v>
       </c>
       <c r="H7">
-        <v>5.9723461683918969E-6</v>
+        <v>5.1801957708797527E-3</v>
       </c>
       <c r="I7">
-        <v>4.8894121714024867E-6</v>
+        <v>-3.1151059561195196E-5</v>
       </c>
       <c r="J7">
-        <v>2.7859396967854857E-7</v>
+        <v>-1.0907054770491351E-4</v>
       </c>
       <c r="K7">
-        <v>5.1302032531072965E-6</v>
+        <v>3.6263119976348323E-6</v>
       </c>
       <c r="L7">
-        <v>-1.1249607796274443E-6</v>
+        <v>-5.7574376356305009E-5</v>
       </c>
       <c r="M7">
-        <v>1.9134069174227243E-8</v>
+        <v>8.4568691079709227E-7</v>
       </c>
       <c r="N7">
-        <v>7.921699214579012E-7</v>
+        <v>-3.435691937437777E-6</v>
       </c>
       <c r="O7">
-        <v>3.3190772895134801E-6</v>
+        <v>-2.1071640196561564E-5</v>
       </c>
       <c r="P7">
-        <v>7.1497102004821592E-7</v>
+        <v>2.1256736606262627E-5</v>
       </c>
       <c r="Q7">
-        <v>-3.5424636710575101E-6</v>
+        <v>-2.1085682457980707E-5</v>
       </c>
       <c r="R7">
-        <v>-3.6711430998421278E-6</v>
+        <v>-1.1125714936645146E-5</v>
       </c>
       <c r="S7">
-        <v>2.2501784238926158E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+        <v>-1.592533416875693E-5</v>
+      </c>
+      <c r="T7">
+        <v>2.6859944943256544E-6</v>
+      </c>
+      <c r="U7">
+        <v>3.1372171594469165E-6</v>
+      </c>
+      <c r="V7">
+        <v>-2.0017225179748168E-5</v>
+      </c>
+      <c r="W7">
+        <v>-1.6566149339020009E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B8">
-        <v>1.880510970722446E-2</v>
+        <v>-8.2768301144902218E-3</v>
       </c>
       <c r="C8">
-        <v>1.7482516347750133E-5</v>
+        <v>1.3435756717598738E-6</v>
       </c>
       <c r="D8">
-        <v>-9.0719197713623329E-6</v>
+        <v>1.8488282712645062E-7</v>
       </c>
       <c r="E8">
-        <v>4.8105828367059159E-8</v>
+        <v>-8.572692865677304E-7</v>
       </c>
       <c r="F8">
-        <v>-1.9206545616761637E-4</v>
+        <v>1.4809119214644504E-9</v>
       </c>
       <c r="G8">
-        <v>-3.1903179918418872E-4</v>
+        <v>-4.3513050580284618E-5</v>
       </c>
       <c r="H8">
-        <v>4.8894121714024867E-6</v>
+        <v>-3.1151059561195196E-5</v>
       </c>
       <c r="I8">
-        <v>7.8418238307855522E-6</v>
+        <v>1.0584072825419997E-6</v>
       </c>
       <c r="J8">
-        <v>2.3436017059515395E-6</v>
+        <v>7.7407903113000334E-7</v>
       </c>
       <c r="K8">
-        <v>7.6766940772722314E-6</v>
+        <v>-1.7414226455252055E-7</v>
       </c>
       <c r="L8">
-        <v>1.0684150188437446E-7</v>
+        <v>8.7969459647864223E-7</v>
       </c>
       <c r="M8">
-        <v>2.2979509740297022E-6</v>
+        <v>-3.5669758599562745E-7</v>
       </c>
       <c r="N8">
-        <v>6.1440317512110362E-6</v>
+        <v>-1.3285439552024497E-7</v>
       </c>
       <c r="O8">
-        <v>1.0465741034986726E-5</v>
+        <v>5.5919065845472993E-7</v>
       </c>
       <c r="P8">
-        <v>5.4013390737438796E-6</v>
+        <v>2.0076445541134818E-7</v>
       </c>
       <c r="Q8">
-        <v>-4.709201041612274E-6</v>
+        <v>2.3140203684693463E-7</v>
       </c>
       <c r="R8">
-        <v>-4.6512969062745795E-6</v>
+        <v>1.9020235384717303E-7</v>
       </c>
       <c r="S8">
-        <v>2.4986644073418608E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2.4384338222133683E-7</v>
+      </c>
+      <c r="T8">
+        <v>1.3322787069099014E-7</v>
+      </c>
+      <c r="U8">
+        <v>7.6836055837247177E-8</v>
+      </c>
+      <c r="V8">
+        <v>3.1709497898056324E-7</v>
+      </c>
+      <c r="W8">
+        <v>3.0726343967020221E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B9">
-        <v>-0.13881505830669394</v>
+        <v>-9.2236436887844608E-4</v>
       </c>
       <c r="C9">
-        <v>-1.5422064400803391E-4</v>
+        <v>4.6879573042563071E-6</v>
       </c>
       <c r="D9">
-        <v>-5.4457863317199559E-5</v>
+        <v>-2.5632926854597278E-7</v>
       </c>
       <c r="E9">
-        <v>5.506980298671625E-7</v>
+        <v>-1.0958769391561336E-6</v>
       </c>
       <c r="F9">
-        <v>-1.298713837701799E-5</v>
+        <v>4.5159382560166246E-9</v>
       </c>
       <c r="G9">
-        <v>-8.4779959172638636E-5</v>
+        <v>-3.1123783129555209E-5</v>
       </c>
       <c r="H9">
-        <v>2.7859396967854857E-7</v>
+        <v>-1.0907054770491351E-4</v>
       </c>
       <c r="I9">
-        <v>2.3436017059515395E-6</v>
+        <v>7.7407903113000334E-7</v>
       </c>
       <c r="J9">
-        <v>7.7922669473044119E-4</v>
+        <v>2.5467814789783458E-6</v>
       </c>
       <c r="K9">
-        <v>-1.7914840079398265E-4</v>
+        <v>5.3387196061842057E-8</v>
       </c>
       <c r="L9">
-        <v>5.8062087242541452E-5</v>
+        <v>9.7280887798503573E-7</v>
       </c>
       <c r="M9">
-        <v>-3.2664973145506029E-5</v>
+        <v>3.2997367931061306E-7</v>
       </c>
       <c r="N9">
-        <v>-6.85248830147937E-5</v>
+        <v>8.4995786063417816E-7</v>
       </c>
       <c r="O9">
-        <v>-8.9107491679634452E-5</v>
+        <v>1.9470686751692604E-6</v>
       </c>
       <c r="P9">
-        <v>-8.7313218848148095E-5</v>
+        <v>1.3435211829151614E-6</v>
       </c>
       <c r="Q9">
-        <v>-2.1609458776534895E-5</v>
+        <v>7.646774415683198E-8</v>
       </c>
       <c r="R9">
-        <v>-3.1360525251278809E-5</v>
+        <v>1.8660334940216702E-7</v>
       </c>
       <c r="S9">
-        <v>1.0837667911789025E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+        <v>-8.7126403142833725E-8</v>
+      </c>
+      <c r="T9">
+        <v>-6.4718894612246874E-8</v>
+      </c>
+      <c r="U9">
+        <v>2.4244487820362249E-7</v>
+      </c>
+      <c r="V9">
+        <v>6.9116122433189419E-7</v>
+      </c>
+      <c r="W9">
+        <v>3.3669799982803579E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B10">
-        <v>-0.2412241755320812</v>
+        <v>3.2419356305676522E-2</v>
       </c>
       <c r="C10">
-        <v>-2.1660382480333438E-4</v>
+        <v>2.7803187975272759E-5</v>
       </c>
       <c r="D10">
-        <v>-5.6163327258087624E-5</v>
+        <v>-5.9807298093860338E-6</v>
       </c>
       <c r="E10">
-        <v>7.667893214258164E-7</v>
+        <v>-1.2297566248489893E-5</v>
       </c>
       <c r="F10">
-        <v>-2.4111324974799089E-4</v>
+        <v>1.1922332365134969E-7</v>
       </c>
       <c r="G10">
-        <v>-4.1905454747779365E-4</v>
+        <v>3.5285621086160121E-6</v>
       </c>
       <c r="H10">
-        <v>5.1302032531072965E-6</v>
+        <v>3.6263119976348323E-6</v>
       </c>
       <c r="I10">
-        <v>7.6766940772722314E-6</v>
+        <v>-1.7414226455252055E-7</v>
       </c>
       <c r="J10">
-        <v>-1.7914840079398265E-4</v>
+        <v>5.3387196061842057E-8</v>
       </c>
       <c r="K10">
-        <v>8.7507342865214533E-4</v>
+        <v>1.8102748998005563E-4</v>
       </c>
       <c r="L10">
-        <v>1.5232563621831331E-4</v>
+        <v>-4.168623304819395E-5</v>
       </c>
       <c r="M10">
-        <v>-2.1845717073919494E-5</v>
+        <v>-2.0845830042933361E-6</v>
       </c>
       <c r="N10">
-        <v>-2.2249536738010438E-5</v>
+        <v>-1.3581737473783841E-5</v>
       </c>
       <c r="O10">
-        <v>-6.9575524860072285E-5</v>
+        <v>-2.2784905404844838E-5</v>
       </c>
       <c r="P10">
-        <v>-4.5323667970161469E-5</v>
+        <v>-2.1088303540028669E-5</v>
       </c>
       <c r="Q10">
-        <v>4.0741907935681345E-7</v>
+        <v>1.1876225404820692E-6</v>
       </c>
       <c r="R10">
-        <v>2.7014587009686609E-6</v>
+        <v>-8.254483979519819E-7</v>
       </c>
       <c r="S10">
-        <v>8.3164814967714952E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+        <v>-1.5830452250582411E-6</v>
+      </c>
+      <c r="T10">
+        <v>-1.31003172053456E-7</v>
+      </c>
+      <c r="U10">
+        <v>1.0991871295984516E-6</v>
+      </c>
+      <c r="V10">
+        <v>-5.1227243545270175E-7</v>
+      </c>
+      <c r="W10">
+        <v>2.0942001706939642E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B11">
-        <v>-0.63991923599567013</v>
+        <v>-9.4453028221835544E-2</v>
       </c>
       <c r="C11">
-        <v>-2.7982920129024362E-5</v>
+        <v>1.7954020644123419E-5</v>
       </c>
       <c r="D11">
-        <v>-2.7085688584028331E-5</v>
+        <v>-8.5125420885722432E-6</v>
       </c>
       <c r="E11">
-        <v>2.9932408531082515E-7</v>
+        <v>-1.0404196650150613E-5</v>
       </c>
       <c r="F11">
-        <v>2.1696451997941358E-5</v>
+        <v>1.4902824434294724E-7</v>
       </c>
       <c r="G11">
-        <v>-6.120116936211194E-5</v>
+        <v>-4.2309201661784993E-5</v>
       </c>
       <c r="H11">
-        <v>-1.1249607796274443E-6</v>
+        <v>-5.7574376356305009E-5</v>
       </c>
       <c r="I11">
-        <v>1.0684150188437446E-7</v>
+        <v>8.7969459647864223E-7</v>
       </c>
       <c r="J11">
-        <v>5.8062087242541452E-5</v>
+        <v>9.7280887798503573E-7</v>
       </c>
       <c r="K11">
-        <v>1.5232563621831331E-4</v>
+        <v>-4.168623304819395E-5</v>
       </c>
       <c r="L11">
-        <v>2.4471625815538217E-3</v>
+        <v>1.7232258704788083E-4</v>
       </c>
       <c r="M11">
-        <v>3.7421334849808616E-4</v>
+        <v>-8.9082043892846211E-6</v>
       </c>
       <c r="N11">
-        <v>1.0267740188079767E-3</v>
+        <v>-1.3576881005792381E-5</v>
       </c>
       <c r="O11">
-        <v>1.2518380731282759E-3</v>
+        <v>-1.8921365587434963E-5</v>
       </c>
       <c r="P11">
-        <v>1.2361308964315839E-3</v>
+        <v>-1.7229037891088894E-5</v>
       </c>
       <c r="Q11">
-        <v>-6.2838557397981297E-5</v>
+        <v>-4.5813426818187664E-6</v>
       </c>
       <c r="R11">
-        <v>-5.2732662429913151E-5</v>
+        <v>-3.5786720301120439E-6</v>
       </c>
       <c r="S11">
-        <v>-7.556680394635104E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+        <v>-3.4323900371129482E-6</v>
+      </c>
+      <c r="T11">
+        <v>-4.4063710726647768E-6</v>
+      </c>
+      <c r="U11">
+        <v>-1.6850491194656788E-6</v>
+      </c>
+      <c r="V11">
+        <v>-2.2541980480785488E-6</v>
+      </c>
+      <c r="W11">
+        <v>1.2511953403210861E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B12">
-        <v>0.35833596067174045</v>
+        <v>0.34348933143887217</v>
       </c>
       <c r="C12">
-        <v>2.7881217298163295E-5</v>
+        <v>1.6158402475342608E-6</v>
       </c>
       <c r="D12">
-        <v>5.5867431346801727E-6</v>
+        <v>1.1944715996880349E-6</v>
       </c>
       <c r="E12">
-        <v>-8.6369456114027877E-8</v>
+        <v>1.3041648071195706E-6</v>
       </c>
       <c r="F12">
-        <v>1.6288276873278364E-5</v>
+        <v>-1.4489547008999636E-8</v>
       </c>
       <c r="G12">
-        <v>-5.1742213506744857E-5</v>
+        <v>9.7102288648493948E-6</v>
       </c>
       <c r="H12">
-        <v>1.9134069174227243E-8</v>
+        <v>8.4568691079709227E-7</v>
       </c>
       <c r="I12">
-        <v>2.2979509740297022E-6</v>
+        <v>-3.5669758599562745E-7</v>
       </c>
       <c r="J12">
-        <v>-3.2664973145506029E-5</v>
+        <v>3.2997367931061306E-7</v>
       </c>
       <c r="K12">
-        <v>-2.1845717073919494E-5</v>
+        <v>-2.0845830042933361E-6</v>
       </c>
       <c r="L12">
-        <v>3.7421334849808616E-4</v>
+        <v>-8.9082043892846211E-6</v>
       </c>
       <c r="M12">
-        <v>1.3287880740543313E-2</v>
+        <v>7.0888875061105123E-3</v>
       </c>
       <c r="N12">
-        <v>1.1536195812851568E-2</v>
+        <v>6.4533344659481184E-3</v>
       </c>
       <c r="O12">
-        <v>1.157815238649533E-2</v>
+        <v>6.4539192725652002E-3</v>
       </c>
       <c r="P12">
-        <v>1.1574965932334228E-2</v>
+        <v>6.4530915395093653E-3</v>
       </c>
       <c r="Q12">
-        <v>-1.5310375462145845E-5</v>
+        <v>5.8071444311622413E-7</v>
       </c>
       <c r="R12">
-        <v>-6.3753129445594974E-5</v>
+        <v>-4.0609770961235869E-6</v>
       </c>
       <c r="S12">
-        <v>-1.1628232750512262E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+        <v>-1.7612943985001109E-6</v>
+      </c>
+      <c r="T12">
+        <v>-3.5256223512326868E-6</v>
+      </c>
+      <c r="U12">
+        <v>-1.2592730842266382E-7</v>
+      </c>
+      <c r="V12">
+        <v>2.0717862886595651E-6</v>
+      </c>
+      <c r="W12">
+        <v>-6.4713675224149303E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B13">
-        <v>0.66103537168090976</v>
+        <v>0.6485025294028236</v>
       </c>
       <c r="C13">
-        <v>-2.6583405447699014E-6</v>
+        <v>3.062488981388548E-6</v>
       </c>
       <c r="D13">
-        <v>1.8242208687651923E-5</v>
+        <v>5.1812216057259131E-6</v>
       </c>
       <c r="E13">
-        <v>-2.4279305128169216E-7</v>
+        <v>3.7940771431965053E-6</v>
       </c>
       <c r="F13">
-        <v>7.0770515485287649E-7</v>
+        <v>-4.2729861188902573E-8</v>
       </c>
       <c r="G13">
-        <v>-1.2660479819085E-4</v>
+        <v>6.4374552234243649E-6</v>
       </c>
       <c r="H13">
-        <v>7.921699214579012E-7</v>
+        <v>-3.435691937437777E-6</v>
       </c>
       <c r="I13">
-        <v>6.1440317512110362E-6</v>
+        <v>-1.3285439552024497E-7</v>
       </c>
       <c r="J13">
-        <v>-6.85248830147937E-5</v>
+        <v>8.4995786063417816E-7</v>
       </c>
       <c r="K13">
-        <v>-2.2249536738010438E-5</v>
+        <v>-1.3581737473783841E-5</v>
       </c>
       <c r="L13">
-        <v>1.0267740188079767E-3</v>
+        <v>-1.3576881005792381E-5</v>
       </c>
       <c r="M13">
-        <v>1.1536195812851568E-2</v>
+        <v>6.4533344659481184E-3</v>
       </c>
       <c r="N13">
-        <v>1.2388681306422244E-2</v>
+        <v>6.5829593006303793E-3</v>
       </c>
       <c r="O13">
-        <v>1.19806573858416E-2</v>
+        <v>6.461703367522097E-3</v>
       </c>
       <c r="P13">
-        <v>1.1992200326599901E-2</v>
+        <v>6.463755070400496E-3</v>
       </c>
       <c r="Q13">
-        <v>-2.4445917528833239E-5</v>
+        <v>2.463143163607183E-6</v>
       </c>
       <c r="R13">
-        <v>-7.2779344581963958E-5</v>
+        <v>-2.750319247340219E-7</v>
       </c>
       <c r="S13">
-        <v>-1.2239139749967936E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+        <v>3.1814205144837577E-6</v>
+      </c>
+      <c r="T13">
+        <v>-1.4168420444190155E-6</v>
+      </c>
+      <c r="U13">
+        <v>-3.2992768818963525E-6</v>
+      </c>
+      <c r="V13">
+        <v>-7.4402934062541791E-7</v>
+      </c>
+      <c r="W13">
+        <v>-6.5279141140810858E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B14">
-        <v>0.73334028513632865</v>
+        <v>0.79890024400008086</v>
       </c>
       <c r="C14">
-        <v>2.2220239723418729E-6</v>
+        <v>7.8754101839696505E-6</v>
       </c>
       <c r="D14">
-        <v>2.0030135838923209E-5</v>
+        <v>8.596096648302314E-6</v>
       </c>
       <c r="E14">
-        <v>-1.6075309552336896E-7</v>
+        <v>4.3058994086847297E-6</v>
       </c>
       <c r="F14">
-        <v>-1.7583354672324764E-5</v>
+        <v>-3.1261667968958035E-8</v>
       </c>
       <c r="G14">
-        <v>-1.3528493014229289E-4</v>
+        <v>-9.4428199708565357E-6</v>
       </c>
       <c r="H14">
-        <v>3.3190772895134801E-6</v>
+        <v>-2.1071640196561564E-5</v>
       </c>
       <c r="I14">
-        <v>1.0465741034986726E-5</v>
+        <v>5.5919065845472993E-7</v>
       </c>
       <c r="J14">
-        <v>-8.9107491679634452E-5</v>
+        <v>1.9470686751692604E-6</v>
       </c>
       <c r="K14">
-        <v>-6.9575524860072285E-5</v>
+        <v>-2.2784905404844838E-5</v>
       </c>
       <c r="L14">
-        <v>1.2518380731282759E-3</v>
+        <v>-1.8921365587434963E-5</v>
       </c>
       <c r="M14">
-        <v>1.157815238649533E-2</v>
+        <v>6.4539192725652002E-3</v>
       </c>
       <c r="N14">
-        <v>1.19806573858416E-2</v>
+        <v>6.461703367522097E-3</v>
       </c>
       <c r="O14">
-        <v>1.2592665662530582E-2</v>
+        <v>6.544812866546703E-3</v>
       </c>
       <c r="P14">
-        <v>1.2426495348407993E-2</v>
+        <v>6.5070480150457854E-3</v>
       </c>
       <c r="Q14">
-        <v>-3.4034425822210561E-5</v>
+        <v>1.0780375196845491E-6</v>
       </c>
       <c r="R14">
-        <v>-4.379591338442301E-5</v>
+        <v>-1.8649969926537934E-7</v>
       </c>
       <c r="S14">
-        <v>-1.2832351522161164E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1.3534066126211626E-6</v>
+      </c>
+      <c r="T14">
+        <v>5.4166768783105667E-8</v>
+      </c>
+      <c r="U14">
+        <v>-9.1271171763782983E-6</v>
+      </c>
+      <c r="V14">
+        <v>-9.3829839082349672E-6</v>
+      </c>
+      <c r="W14">
+        <v>-6.59874078329435E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B15">
-        <v>0.74749040697873315</v>
+        <v>0.79339474285789213</v>
       </c>
       <c r="C15">
-        <v>1.3371268846366913E-4</v>
+        <v>-1.1897893973778655E-5</v>
       </c>
       <c r="D15">
-        <v>6.1489643241535523E-5</v>
+        <v>9.3958060856061087E-6</v>
       </c>
       <c r="E15">
-        <v>-5.1545653324300121E-7</v>
+        <v>1.1963563222168645E-5</v>
       </c>
       <c r="F15">
-        <v>1.5836421141088687E-4</v>
+        <v>-9.527090273701043E-8</v>
       </c>
       <c r="G15">
-        <v>1.7080230679732741E-4</v>
+        <v>1.838080346106474E-5</v>
       </c>
       <c r="H15">
-        <v>7.1497102004821592E-7</v>
+        <v>2.1256736606262627E-5</v>
       </c>
       <c r="I15">
-        <v>5.4013390737438796E-6</v>
+        <v>2.0076445541134818E-7</v>
       </c>
       <c r="J15">
-        <v>-8.7313218848148095E-5</v>
+        <v>1.3435211829151614E-6</v>
       </c>
       <c r="K15">
-        <v>-4.5323667970161469E-5</v>
+        <v>-2.1088303540028669E-5</v>
       </c>
       <c r="L15">
-        <v>1.2361308964315839E-3</v>
+        <v>-1.7229037891088894E-5</v>
       </c>
       <c r="M15">
-        <v>1.1574965932334228E-2</v>
+        <v>6.4530915395093653E-3</v>
       </c>
       <c r="N15">
-        <v>1.1992200326599901E-2</v>
+        <v>6.463755070400496E-3</v>
       </c>
       <c r="O15">
-        <v>1.2426495348407993E-2</v>
+        <v>6.5070480150457854E-3</v>
       </c>
       <c r="P15">
-        <v>1.3424714860227137E-2</v>
+        <v>6.7259736030105891E-3</v>
       </c>
       <c r="Q15">
-        <v>5.2568840600734977E-6</v>
+        <v>3.5015683695562054E-6</v>
       </c>
       <c r="R15">
-        <v>2.4998078284528416E-5</v>
+        <v>3.8124580398520697E-6</v>
       </c>
       <c r="S15">
-        <v>-1.4212013563392474E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1.5488100888906412E-7</v>
+      </c>
+      <c r="T15">
+        <v>4.891236238021852E-6</v>
+      </c>
+      <c r="U15">
+        <v>-8.2084064267482438E-6</v>
+      </c>
+      <c r="V15">
+        <v>-9.4273579031486526E-6</v>
+      </c>
+      <c r="W15">
+        <v>-6.8293159250289864E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B16">
-        <v>0.15940654703342902</v>
+        <v>4.9379126041699146E-2</v>
       </c>
       <c r="C16">
-        <v>1.8172697328570783E-5</v>
+        <v>3.3039902456651438E-6</v>
       </c>
       <c r="D16">
-        <v>1.2109694468228494E-5</v>
+        <v>3.2815199105095804E-6</v>
       </c>
       <c r="E16">
-        <v>-1.0073124954324747E-7</v>
+        <v>5.1491523163810276E-7</v>
       </c>
       <c r="F16">
-        <v>9.7494876782615206E-6</v>
+        <v>-8.7629178789426177E-9</v>
       </c>
       <c r="G16">
-        <v>2.1691625354276317E-5</v>
+        <v>-1.4166210351775328E-5</v>
       </c>
       <c r="H16">
-        <v>-3.5424636710575101E-6</v>
+        <v>-2.1085682457980707E-5</v>
       </c>
       <c r="I16">
-        <v>-4.709201041612274E-6</v>
+        <v>2.3140203684693463E-7</v>
       </c>
       <c r="J16">
-        <v>-2.1609458776534895E-5</v>
+        <v>7.646774415683198E-8</v>
       </c>
       <c r="K16">
-        <v>4.0741907935681345E-7</v>
+        <v>1.1876225404820692E-6</v>
       </c>
       <c r="L16">
-        <v>-6.2838557397981297E-5</v>
+        <v>-4.5813426818187664E-6</v>
       </c>
       <c r="M16">
-        <v>-1.5310375462145845E-5</v>
+        <v>5.8071444311622413E-7</v>
       </c>
       <c r="N16">
-        <v>-2.4445917528833239E-5</v>
+        <v>2.463143163607183E-6</v>
       </c>
       <c r="O16">
-        <v>-3.4034425822210561E-5</v>
+        <v>1.0780375196845491E-6</v>
       </c>
       <c r="P16">
-        <v>5.2568840600734977E-6</v>
+        <v>3.5015683695562054E-6</v>
       </c>
       <c r="Q16">
-        <v>1.3192681180925591E-3</v>
+        <v>3.7199733988664568E-4</v>
       </c>
       <c r="R16">
-        <v>8.647233454426302E-4</v>
+        <v>1.7482420599293472E-4</v>
       </c>
       <c r="S16">
-        <v>-1.0211244767197791E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1.7539720862645277E-4</v>
+      </c>
+      <c r="T16">
+        <v>1.7471811477027887E-4</v>
+      </c>
+      <c r="U16">
+        <v>-4.5818738608219376E-6</v>
+      </c>
+      <c r="V16">
+        <v>-7.7537293178669987E-6</v>
+      </c>
+      <c r="W16">
+        <v>-1.7656392396173096E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B17">
-        <v>8.8257923214638281E-2</v>
+        <v>0.1025095884110902</v>
       </c>
       <c r="C17">
-        <v>6.4583828968666838E-6</v>
+        <v>3.1772632622600145E-7</v>
       </c>
       <c r="D17">
-        <v>1.0378124612031819E-5</v>
+        <v>3.3041357557163955E-6</v>
       </c>
       <c r="E17">
-        <v>-5.0205343678327296E-8</v>
+        <v>1.8503556199266614E-6</v>
       </c>
       <c r="F17">
-        <v>1.507976235496088E-5</v>
+        <v>-2.4504241021934044E-8</v>
       </c>
       <c r="G17">
-        <v>1.6255908307942816E-6</v>
+        <v>-6.2274083979280243E-6</v>
       </c>
       <c r="H17">
-        <v>-3.6711430998421278E-6</v>
+        <v>-1.1125714936645146E-5</v>
       </c>
       <c r="I17">
-        <v>-4.6512969062745795E-6</v>
+        <v>1.9020235384717303E-7</v>
       </c>
       <c r="J17">
-        <v>-3.1360525251278809E-5</v>
+        <v>1.8660334940216702E-7</v>
       </c>
       <c r="K17">
-        <v>2.7014587009686609E-6</v>
+        <v>-8.254483979519819E-7</v>
       </c>
       <c r="L17">
-        <v>-5.2732662429913151E-5</v>
+        <v>-3.5786720301120439E-6</v>
       </c>
       <c r="M17">
-        <v>-6.3753129445594974E-5</v>
+        <v>-4.0609770961235869E-6</v>
       </c>
       <c r="N17">
-        <v>-7.2779344581963958E-5</v>
+        <v>-2.750319247340219E-7</v>
       </c>
       <c r="O17">
-        <v>-4.379591338442301E-5</v>
+        <v>-1.8649969926537934E-7</v>
       </c>
       <c r="P17">
-        <v>2.4998078284528416E-5</v>
+        <v>3.8124580398520697E-6</v>
       </c>
       <c r="Q17">
-        <v>8.647233454426302E-4</v>
+        <v>1.7482420599293472E-4</v>
       </c>
       <c r="R17">
-        <v>1.1237109721803648E-3</v>
+        <v>4.7690786533667687E-4</v>
       </c>
       <c r="S17">
-        <v>-1.0157073105362567E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1.7481509121980646E-4</v>
+      </c>
+      <c r="T17">
+        <v>1.7477494130073001E-4</v>
+      </c>
+      <c r="U17">
+        <v>-1.3121364056213113E-6</v>
+      </c>
+      <c r="V17">
+        <v>-3.0643669461901746E-6</v>
+      </c>
+      <c r="W17">
+        <v>-2.0534488763298289E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B18">
-        <v>-4.6982600055626547</v>
+        <v>5.636675896777852E-2</v>
       </c>
       <c r="C18">
-        <v>2.5610463806704422E-3</v>
+        <v>-5.6880662623694356E-7</v>
       </c>
       <c r="D18">
-        <v>-1.453612767902595E-3</v>
+        <v>1.537725184082833E-6</v>
       </c>
       <c r="E18">
-        <v>1.3935226290111964E-5</v>
+        <v>4.7392289047950583E-7</v>
       </c>
       <c r="F18">
-        <v>-1.0162977222433771E-2</v>
+        <v>-8.5870310247903211E-9</v>
       </c>
       <c r="G18">
-        <v>-1.1568635308319237E-2</v>
+        <v>-1.1767192541441555E-5</v>
       </c>
       <c r="H18">
-        <v>2.2501784238926158E-4</v>
+        <v>-1.592533416875693E-5</v>
       </c>
       <c r="I18">
-        <v>2.4986644073418608E-4</v>
+        <v>2.4384338222133683E-7</v>
       </c>
       <c r="J18">
-        <v>1.0837667911789025E-3</v>
+        <v>-8.7126403142833725E-8</v>
       </c>
       <c r="K18">
-        <v>8.3164814967714952E-4</v>
+        <v>-1.5830452250582411E-6</v>
       </c>
       <c r="L18">
-        <v>-7.556680394635104E-4</v>
+        <v>-3.4323900371129482E-6</v>
       </c>
       <c r="M18">
-        <v>-1.1628232750512262E-2</v>
+        <v>-1.7612943985001109E-6</v>
       </c>
       <c r="N18">
-        <v>-1.2239139749967936E-2</v>
+        <v>3.1814205144837577E-6</v>
       </c>
       <c r="O18">
-        <v>-1.2832351522161164E-2</v>
+        <v>1.3534066126211626E-6</v>
       </c>
       <c r="P18">
-        <v>-1.4212013563392474E-2</v>
+        <v>1.5488100888906412E-7</v>
       </c>
       <c r="Q18">
-        <v>-1.0211244767197791E-3</v>
+        <v>1.7539720862645277E-4</v>
       </c>
       <c r="R18">
-        <v>-1.0157073105362567E-3</v>
+        <v>1.7481509121980646E-4</v>
       </c>
       <c r="S18">
-        <v>4.483126183110657E-2</v>
+        <v>3.542979489209692E-4</v>
+      </c>
+      <c r="T18">
+        <v>1.7473138565862365E-4</v>
+      </c>
+      <c r="U18">
+        <v>-4.0892767259137208E-6</v>
+      </c>
+      <c r="V18">
+        <v>-6.3481594764320499E-6</v>
+      </c>
+      <c r="W18">
+        <v>-1.7433438141251258E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>2.1531172081879747E-2</v>
+      </c>
+      <c r="C19">
+        <v>-5.0264764638347043E-6</v>
+      </c>
+      <c r="D19">
+        <v>2.585473096061281E-6</v>
+      </c>
+      <c r="E19">
+        <v>5.7218994212042388E-7</v>
+      </c>
+      <c r="F19">
+        <v>-8.7388238703419799E-9</v>
+      </c>
+      <c r="G19">
+        <v>-1.1784511289598293E-6</v>
+      </c>
+      <c r="H19">
+        <v>2.6859944943256544E-6</v>
+      </c>
+      <c r="I19">
+        <v>1.3322787069099014E-7</v>
+      </c>
+      <c r="J19">
+        <v>-6.4718894612246874E-8</v>
+      </c>
+      <c r="K19">
+        <v>-1.31003172053456E-7</v>
+      </c>
+      <c r="L19">
+        <v>-4.4063710726647768E-6</v>
+      </c>
+      <c r="M19">
+        <v>-3.5256223512326868E-6</v>
+      </c>
+      <c r="N19">
+        <v>-1.4168420444190155E-6</v>
+      </c>
+      <c r="O19">
+        <v>5.4166768783105667E-8</v>
+      </c>
+      <c r="P19">
+        <v>4.891236238021852E-6</v>
+      </c>
+      <c r="Q19">
+        <v>1.7471811477027887E-4</v>
+      </c>
+      <c r="R19">
+        <v>1.7477494130073001E-4</v>
+      </c>
+      <c r="S19">
+        <v>1.7473138565862365E-4</v>
+      </c>
+      <c r="T19">
+        <v>2.5035985571565233E-4</v>
+      </c>
+      <c r="U19">
+        <v>-3.6032638067903034E-6</v>
+      </c>
+      <c r="V19">
+        <v>-5.8868375026028528E-6</v>
+      </c>
+      <c r="W19">
+        <v>-1.8295571632742362E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>-2.1968462322950747E-2</v>
+      </c>
+      <c r="C20">
+        <v>6.1713269955912683E-6</v>
+      </c>
+      <c r="D20">
+        <v>4.3024489147469974E-6</v>
+      </c>
+      <c r="E20">
+        <v>3.1124976718003207E-7</v>
+      </c>
+      <c r="F20">
+        <v>-8.571916865803244E-9</v>
+      </c>
+      <c r="G20">
+        <v>4.2300565733944102E-6</v>
+      </c>
+      <c r="H20">
+        <v>3.1372171594469165E-6</v>
+      </c>
+      <c r="I20">
+        <v>7.6836055837247177E-8</v>
+      </c>
+      <c r="J20">
+        <v>2.4244487820362249E-7</v>
+      </c>
+      <c r="K20">
+        <v>1.0991871295984516E-6</v>
+      </c>
+      <c r="L20">
+        <v>-1.6850491194656788E-6</v>
+      </c>
+      <c r="M20">
+        <v>-1.2592730842266382E-7</v>
+      </c>
+      <c r="N20">
+        <v>-3.2992768818963525E-6</v>
+      </c>
+      <c r="O20">
+        <v>-9.1271171763782983E-6</v>
+      </c>
+      <c r="P20">
+        <v>-8.2084064267482438E-6</v>
+      </c>
+      <c r="Q20">
+        <v>-4.5818738608219376E-6</v>
+      </c>
+      <c r="R20">
+        <v>-1.3121364056213113E-6</v>
+      </c>
+      <c r="S20">
+        <v>-4.0892767259137208E-6</v>
+      </c>
+      <c r="T20">
+        <v>-3.6032638067903034E-6</v>
+      </c>
+      <c r="U20">
+        <v>3.0733492414733416E-4</v>
+      </c>
+      <c r="V20">
+        <v>3.8873401587358696E-5</v>
+      </c>
+      <c r="W20">
+        <v>-3.1972633697850879E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21">
+        <v>7.3964889682024318E-2</v>
+      </c>
+      <c r="C21">
+        <v>9.4106416464093808E-7</v>
+      </c>
+      <c r="D21">
+        <v>-3.0668364228317393E-7</v>
+      </c>
+      <c r="E21">
+        <v>-2.361900330388523E-7</v>
+      </c>
+      <c r="F21">
+        <v>-6.5446817603424968E-9</v>
+      </c>
+      <c r="G21">
+        <v>-8.3724968653016308E-6</v>
+      </c>
+      <c r="H21">
+        <v>-2.0017225179748168E-5</v>
+      </c>
+      <c r="I21">
+        <v>3.1709497898056324E-7</v>
+      </c>
+      <c r="J21">
+        <v>6.9116122433189419E-7</v>
+      </c>
+      <c r="K21">
+        <v>-5.1227243545270175E-7</v>
+      </c>
+      <c r="L21">
+        <v>-2.2541980480785488E-6</v>
+      </c>
+      <c r="M21">
+        <v>2.0717862886595651E-6</v>
+      </c>
+      <c r="N21">
+        <v>-7.4402934062541791E-7</v>
+      </c>
+      <c r="O21">
+        <v>-9.3829839082349672E-6</v>
+      </c>
+      <c r="P21">
+        <v>-9.4273579031486526E-6</v>
+      </c>
+      <c r="Q21">
+        <v>-7.7537293178669987E-6</v>
+      </c>
+      <c r="R21">
+        <v>-3.0643669461901746E-6</v>
+      </c>
+      <c r="S21">
+        <v>-6.3481594764320499E-6</v>
+      </c>
+      <c r="T21">
+        <v>-5.8868375026028528E-6</v>
+      </c>
+      <c r="U21">
+        <v>3.8873401587358696E-5</v>
+      </c>
+      <c r="V21">
+        <v>4.3026831945843755E-4</v>
+      </c>
+      <c r="W21">
+        <v>-5.8491637162025094E-6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22">
+        <v>-2.7051043523384593</v>
+      </c>
+      <c r="C22">
+        <v>-1.1043856368654944E-3</v>
+      </c>
+      <c r="D22">
+        <v>-1.2728793101969392E-4</v>
+      </c>
+      <c r="E22">
+        <v>-3.3461378997220358E-4</v>
+      </c>
+      <c r="F22">
+        <v>3.460670395065402E-6</v>
+      </c>
+      <c r="G22">
+        <v>-1.4101587643521683E-3</v>
+      </c>
+      <c r="H22">
+        <v>-1.6566149339020009E-3</v>
+      </c>
+      <c r="I22">
+        <v>3.0726343967020221E-5</v>
+      </c>
+      <c r="J22">
+        <v>3.3669799982803579E-5</v>
+      </c>
+      <c r="K22">
+        <v>2.0942001706939642E-4</v>
+      </c>
+      <c r="L22">
+        <v>1.2511953403210861E-4</v>
+      </c>
+      <c r="M22">
+        <v>-6.4713675224149303E-3</v>
+      </c>
+      <c r="N22">
+        <v>-6.5279141140810858E-3</v>
+      </c>
+      <c r="O22">
+        <v>-6.59874078329435E-3</v>
+      </c>
+      <c r="P22">
+        <v>-6.8293159250289864E-3</v>
+      </c>
+      <c r="Q22">
+        <v>-1.7656392396173096E-4</v>
+      </c>
+      <c r="R22">
+        <v>-2.0534488763298289E-4</v>
+      </c>
+      <c r="S22">
+        <v>-1.7433438141251258E-4</v>
+      </c>
+      <c r="T22">
+        <v>-1.8295571632742362E-4</v>
+      </c>
+      <c r="U22">
+        <v>-3.1972633697850879E-5</v>
+      </c>
+      <c r="V22">
+        <v>-5.8491637162025094E-6</v>
+      </c>
+      <c r="W22">
+        <v>1.4158625737186311E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1671,1079 +2225,1578 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EF7C3FD-31A1-4DD9-B07D-B9FF738D5357}">
-  <dimension ref="A1:S18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B1" sqref="B1:W1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="K1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="M1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="N1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="O1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="P1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="Q1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="R1" t="s">
+      <c r="B2">
+        <v>-2.4132219460944495</v>
+      </c>
+      <c r="C2">
+        <v>8.391006635581087E-4</v>
+      </c>
+      <c r="D2">
+        <v>7.9858747764207603E-5</v>
+      </c>
+      <c r="E2">
+        <v>4.0016471127054433E-5</v>
+      </c>
+      <c r="F2">
+        <v>-4.4737763104254817E-7</v>
+      </c>
+      <c r="G2">
+        <v>-1.0404961868873183E-4</v>
+      </c>
+      <c r="H2">
+        <v>-3.0524767476176483E-4</v>
+      </c>
+      <c r="I2">
+        <v>2.058496092571179E-6</v>
+      </c>
+      <c r="J2">
+        <v>5.9978071496770554E-6</v>
+      </c>
+      <c r="K2">
+        <v>1.0016672966040313E-5</v>
+      </c>
+      <c r="L2">
+        <v>-1.3150945274765995E-5</v>
+      </c>
+      <c r="M2">
+        <v>-6.4944266400219857E-6</v>
+      </c>
+      <c r="N2">
+        <v>-3.0037310362765555E-6</v>
+      </c>
+      <c r="O2">
+        <v>-1.8196619165979934E-6</v>
+      </c>
+      <c r="P2">
+        <v>-1.4391881837289976E-5</v>
+      </c>
+      <c r="Q2">
+        <v>8.7233023728791132E-6</v>
+      </c>
+      <c r="R2">
+        <v>-2.3193425987480221E-7</v>
+      </c>
+      <c r="S2">
+        <v>-6.8901203938031931E-7</v>
+      </c>
+      <c r="T2">
+        <v>-4.6632037175324241E-6</v>
+      </c>
+      <c r="U2">
+        <v>-9.806503372608666E-7</v>
+      </c>
+      <c r="V2">
+        <v>-1.1096981248850792E-6</v>
+      </c>
+      <c r="W2">
+        <v>-8.6623956613111344E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="S1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>0.78651694127358063</v>
-      </c>
-      <c r="C2">
-        <v>1.9871502356149967E-3</v>
-      </c>
-      <c r="D2">
-        <v>-1.8984959488827706E-4</v>
-      </c>
-      <c r="E2">
-        <v>1.8381349275415541E-6</v>
-      </c>
-      <c r="F2">
-        <v>-4.1732333593434186E-4</v>
-      </c>
-      <c r="G2">
-        <v>-1.1829194370494727E-3</v>
-      </c>
-      <c r="H2">
-        <v>7.7678803938668926E-6</v>
-      </c>
-      <c r="I2">
-        <v>2.2879791410711083E-5</v>
-      </c>
-      <c r="J2">
-        <v>-5.6156941773235713E-5</v>
-      </c>
-      <c r="K2">
-        <v>-4.0645061569740694E-5</v>
-      </c>
-      <c r="L2">
-        <v>-3.235385062300051E-6</v>
-      </c>
-      <c r="M2">
-        <v>-3.0592093046973847E-5</v>
-      </c>
-      <c r="N2">
-        <v>-3.4494389078431188E-5</v>
-      </c>
-      <c r="O2">
-        <v>-3.7246523469036024E-5</v>
-      </c>
-      <c r="P2">
-        <v>1.0466685181951456E-4</v>
-      </c>
-      <c r="Q2">
-        <v>-9.8925078877475168E-6</v>
-      </c>
-      <c r="R2">
-        <v>-5.7450784840138572E-5</v>
-      </c>
-      <c r="S2">
-        <v>2.8732604107089572E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
       <c r="B3">
-        <v>0.11050111191664029</v>
+        <v>-2.2929381208101356</v>
       </c>
       <c r="C3">
-        <v>-1.8984959488827706E-4</v>
+        <v>7.9858747764207603E-5</v>
       </c>
       <c r="D3">
-        <v>7.6120057654467893E-5</v>
+        <v>1.3403223037482151E-4</v>
       </c>
       <c r="E3">
-        <v>-7.4790522849004062E-7</v>
+        <v>3.0435539065346813E-6</v>
       </c>
       <c r="F3">
-        <v>4.5268908064271645E-4</v>
+        <v>-3.8470204789157891E-8</v>
       </c>
       <c r="G3">
-        <v>6.2836260499550491E-4</v>
+        <v>-3.9944294613022769E-5</v>
       </c>
       <c r="H3">
-        <v>-1.0128206157431875E-5</v>
+        <v>-3.5090936115401739E-5</v>
       </c>
       <c r="I3">
-        <v>-1.4135376604364091E-5</v>
+        <v>5.8348694438792581E-7</v>
       </c>
       <c r="J3">
-        <v>-6.1704692260177598E-5</v>
+        <v>3.4150318991156596E-7</v>
       </c>
       <c r="K3">
-        <v>-1.6601158361121101E-5</v>
+        <v>7.8143565916649588E-6</v>
       </c>
       <c r="L3">
-        <v>-2.0504915454596157E-5</v>
+        <v>1.1413866182600136E-6</v>
       </c>
       <c r="M3">
-        <v>1.6684451655575832E-5</v>
+        <v>-4.5185910954905606E-6</v>
       </c>
       <c r="N3">
-        <v>1.8341214156424913E-5</v>
+        <v>1.0973150343767456E-6</v>
       </c>
       <c r="O3">
-        <v>6.8934652799555176E-6</v>
+        <v>4.3280814247850831E-6</v>
       </c>
       <c r="P3">
-        <v>4.805207038577721E-5</v>
+        <v>3.678262928669357E-6</v>
       </c>
       <c r="Q3">
-        <v>1.9070326766160424E-5</v>
+        <v>1.209030139505457E-5</v>
       </c>
       <c r="R3">
-        <v>2.9664775078279023E-5</v>
+        <v>1.0745082449964204E-5</v>
       </c>
       <c r="S3">
-        <v>-1.582587139979215E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+        <v>9.743049533203712E-6</v>
+      </c>
+      <c r="T3">
+        <v>9.7968293565904117E-6</v>
+      </c>
+      <c r="U3">
+        <v>-5.1515299103112016E-6</v>
+      </c>
+      <c r="V3">
+        <v>-5.783380069827635E-6</v>
+      </c>
+      <c r="W3">
+        <v>-1.134384316306886E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B4">
-        <v>-1.6388600226071152E-3</v>
+        <v>6.1838418521753979E-2</v>
       </c>
       <c r="C4">
-        <v>1.8381349275415541E-6</v>
+        <v>4.0016471127054433E-5</v>
       </c>
       <c r="D4">
-        <v>-7.4790522849004062E-7</v>
+        <v>3.0435539065346813E-6</v>
       </c>
       <c r="E4">
-        <v>8.2433999308988585E-9</v>
+        <v>1.3822789820783773E-5</v>
       </c>
       <c r="F4">
-        <v>-1.8284344213471886E-6</v>
+        <v>-1.4613979430283583E-7</v>
       </c>
       <c r="G4">
-        <v>-3.617242632111223E-6</v>
+        <v>4.9529547209085681E-5</v>
       </c>
       <c r="H4">
-        <v>3.5276661285991854E-8</v>
+        <v>6.840822266599602E-5</v>
       </c>
       <c r="I4">
-        <v>7.677683740150323E-8</v>
+        <v>-1.0821493628447797E-6</v>
       </c>
       <c r="J4">
-        <v>3.9132163105535278E-7</v>
+        <v>-1.4199229961482714E-6</v>
       </c>
       <c r="K4">
-        <v>3.0903382924757039E-7</v>
+        <v>-1.2251283500515322E-5</v>
       </c>
       <c r="L4">
-        <v>2.1865171903521392E-7</v>
+        <v>-6.660139924594399E-6</v>
       </c>
       <c r="M4">
-        <v>-2.0883358472509904E-7</v>
+        <v>-9.4592863456491425E-7</v>
       </c>
       <c r="N4">
-        <v>-2.6079051259154621E-7</v>
+        <v>-2.0973593870555329E-6</v>
       </c>
       <c r="O4">
-        <v>-4.4003254204761819E-9</v>
+        <v>-3.8352974932546194E-6</v>
       </c>
       <c r="P4">
-        <v>-3.5777106320020804E-7</v>
+        <v>3.1331951114968633E-6</v>
       </c>
       <c r="Q4">
-        <v>-1.7568652577762842E-7</v>
+        <v>4.4682056616998677E-7</v>
       </c>
       <c r="R4">
-        <v>-2.6597584017351772E-7</v>
+        <v>2.0909074803170628E-7</v>
       </c>
       <c r="S4">
-        <v>1.3877078640669314E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+        <v>3.6071070524177536E-7</v>
+      </c>
+      <c r="T4">
+        <v>1.3775278020172767E-7</v>
+      </c>
+      <c r="U4">
+        <v>-2.7573115086355124E-7</v>
+      </c>
+      <c r="V4">
+        <v>-4.9981672867173607E-7</v>
+      </c>
+      <c r="W4">
+        <v>-2.9092707053352527E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B5">
-        <v>-0.39676675352207996</v>
+        <v>-7.3117391294866523E-4</v>
       </c>
       <c r="C5">
-        <v>-4.1732333593434186E-4</v>
+        <v>-4.4737763104254817E-7</v>
       </c>
       <c r="D5">
-        <v>4.5268908064271645E-4</v>
+        <v>-3.8470204789157891E-8</v>
       </c>
       <c r="E5">
-        <v>-1.8284344213471886E-6</v>
+        <v>-1.4613979430283583E-7</v>
       </c>
       <c r="F5">
-        <v>1.5563001888876469E-2</v>
+        <v>1.6827294385711299E-9</v>
       </c>
       <c r="G5">
-        <v>1.4109110497581016E-2</v>
+        <v>-1.1946661235662632E-7</v>
       </c>
       <c r="H5">
-        <v>-3.3952593832661283E-4</v>
+        <v>-3.4428355898454885E-7</v>
       </c>
       <c r="I5">
-        <v>-3.0760228183749526E-4</v>
+        <v>1.3412178438971137E-9</v>
       </c>
       <c r="J5">
-        <v>-5.4272605048703046E-5</v>
+        <v>5.2789596658406411E-9</v>
       </c>
       <c r="K5">
-        <v>-2.5715082754736293E-4</v>
+        <v>8.6747092327668123E-8</v>
       </c>
       <c r="L5">
-        <v>2.716144929637809E-5</v>
+        <v>1.0498335130059452E-7</v>
       </c>
       <c r="M5">
-        <v>5.753408509872552E-5</v>
+        <v>5.9124326154105295E-9</v>
       </c>
       <c r="N5">
-        <v>-4.0215247695098502E-6</v>
+        <v>1.8634754621981999E-8</v>
       </c>
       <c r="O5">
-        <v>-1.0208832234492263E-4</v>
+        <v>5.7271857417952469E-8</v>
       </c>
       <c r="P5">
-        <v>-4.985805160543505E-5</v>
+        <v>9.9866561967447812E-10</v>
       </c>
       <c r="Q5">
-        <v>4.6658856854230079E-5</v>
+        <v>-7.0184873213705703E-9</v>
       </c>
       <c r="R5">
-        <v>1.960600936334948E-5</v>
+        <v>-6.9874885023449579E-9</v>
       </c>
       <c r="S5">
-        <v>-1.6058940981721122E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+        <v>-5.3695142846036841E-9</v>
+      </c>
+      <c r="T5">
+        <v>-1.9038626884281495E-9</v>
+      </c>
+      <c r="U5">
+        <v>6.4814537386942593E-10</v>
+      </c>
+      <c r="V5">
+        <v>-2.181089676606792E-10</v>
+      </c>
+      <c r="W5">
+        <v>2.8310059416734898E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B6">
-        <v>-1.2793456943052504</v>
+        <v>0.73097951931712091</v>
       </c>
       <c r="C6">
-        <v>-1.1829194370494727E-3</v>
+        <v>-1.0404961868873183E-4</v>
       </c>
       <c r="D6">
-        <v>6.2836260499550491E-4</v>
+        <v>-3.9944294613022769E-5</v>
       </c>
       <c r="E6">
-        <v>-3.617242632111223E-6</v>
+        <v>4.9529547209085681E-5</v>
       </c>
       <c r="F6">
-        <v>1.4109110497581016E-2</v>
+        <v>-1.1946661235662632E-7</v>
       </c>
       <c r="G6">
-        <v>1.9933248529728817E-2</v>
+        <v>2.2737654594702124E-3</v>
       </c>
       <c r="H6">
-        <v>-3.0589999799002162E-4</v>
+        <v>1.8491422214524881E-3</v>
       </c>
       <c r="I6">
-        <v>-4.3931189078675351E-4</v>
+        <v>-5.0915436077511005E-5</v>
       </c>
       <c r="J6">
-        <v>-3.2893456010682086E-4</v>
+        <v>-4.1752733630115265E-5</v>
       </c>
       <c r="K6">
-        <v>-4.0496232757704451E-4</v>
+        <v>1.6005502202711064E-5</v>
       </c>
       <c r="L6">
-        <v>-7.691120796404885E-5</v>
+        <v>-3.4145581827401077E-5</v>
       </c>
       <c r="M6">
-        <v>5.2522265848652279E-5</v>
+        <v>-2.2695829045694818E-5</v>
       </c>
       <c r="N6">
-        <v>-1.2997345483830528E-4</v>
+        <v>-3.7530285735346762E-5</v>
       </c>
       <c r="O6">
-        <v>-1.8918886781289172E-4</v>
+        <v>-5.5656301018082379E-5</v>
       </c>
       <c r="P6">
-        <v>5.6029012934952563E-5</v>
+        <v>-3.0934392788234811E-5</v>
       </c>
       <c r="Q6">
-        <v>5.6004962950312494E-7</v>
+        <v>-8.4145446496354214E-6</v>
       </c>
       <c r="R6">
-        <v>3.7667157218110509E-5</v>
+        <v>-9.1609191003665002E-6</v>
       </c>
       <c r="S6">
-        <v>-1.9112075662264354E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+        <v>-5.3994083220619501E-6</v>
+      </c>
+      <c r="T6">
+        <v>-1.835962479646535E-6</v>
+      </c>
+      <c r="U6">
+        <v>1.1797908314689816E-5</v>
+      </c>
+      <c r="V6">
+        <v>-6.0910212224120289E-6</v>
+      </c>
+      <c r="W6">
+        <v>-1.8523414762881254E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B7">
-        <v>9.1788697462190771E-3</v>
+        <v>0.10748208077176927</v>
       </c>
       <c r="C7">
-        <v>7.7678803938668926E-6</v>
+        <v>-3.0524767476176483E-4</v>
       </c>
       <c r="D7">
-        <v>-1.0128206157431875E-5</v>
+        <v>-3.5090936115401739E-5</v>
       </c>
       <c r="E7">
-        <v>3.5276661285991854E-8</v>
+        <v>6.840822266599602E-5</v>
       </c>
       <c r="F7">
-        <v>-3.3952593832661283E-4</v>
+        <v>-3.4428355898454885E-7</v>
       </c>
       <c r="G7">
-        <v>-3.0589999799002162E-4</v>
+        <v>1.8491422214524881E-3</v>
       </c>
       <c r="H7">
-        <v>8.2706693934031823E-6</v>
+        <v>3.8376590395029697E-3</v>
       </c>
       <c r="I7">
-        <v>7.4110477114606621E-6</v>
+        <v>-4.1678397035483968E-5</v>
       </c>
       <c r="J7">
-        <v>1.7125576771912016E-6</v>
+        <v>-8.4213314236992209E-5</v>
       </c>
       <c r="K7">
-        <v>5.2412985676670381E-6</v>
+        <v>5.0243189116963517E-6</v>
       </c>
       <c r="L7">
-        <v>-2.4479911712053644E-6</v>
+        <v>-5.5216720244796117E-5</v>
       </c>
       <c r="M7">
-        <v>-8.2457396797502706E-7</v>
+        <v>-4.6424891896799892E-6</v>
       </c>
       <c r="N7">
-        <v>1.4509223874756386E-6</v>
+        <v>-2.937753132353847E-5</v>
       </c>
       <c r="O7">
-        <v>6.8126254031787635E-6</v>
+        <v>-4.5836341026451598E-5</v>
       </c>
       <c r="P7">
-        <v>6.4704211268023999E-6</v>
+        <v>-7.4991858375430577E-6</v>
       </c>
       <c r="Q7">
-        <v>-5.7605405544250086E-6</v>
+        <v>-2.6300514692432075E-5</v>
       </c>
       <c r="R7">
-        <v>-5.1900659535332845E-6</v>
+        <v>-1.4237446570418895E-5</v>
       </c>
       <c r="S7">
-        <v>3.4109955905497482E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+        <v>-1.8685944007882242E-5</v>
+      </c>
+      <c r="T7">
+        <v>6.2187114242975722E-6</v>
+      </c>
+      <c r="U7">
+        <v>6.0384718823279154E-6</v>
+      </c>
+      <c r="V7">
+        <v>-1.1423237270550025E-5</v>
+      </c>
+      <c r="W7">
+        <v>-2.2103634876055869E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B8">
-        <v>2.4448128924624182E-2</v>
+        <v>-9.6943610435658942E-3</v>
       </c>
       <c r="C8">
-        <v>2.2879791410711083E-5</v>
+        <v>2.058496092571179E-6</v>
       </c>
       <c r="D8">
-        <v>-1.4135376604364091E-5</v>
+        <v>5.8348694438792581E-7</v>
       </c>
       <c r="E8">
-        <v>7.677683740150323E-8</v>
+        <v>-1.0821493628447797E-6</v>
       </c>
       <c r="F8">
-        <v>-3.0760228183749526E-4</v>
+        <v>1.3412178438971137E-9</v>
       </c>
       <c r="G8">
-        <v>-4.3931189078675351E-4</v>
+        <v>-5.0915436077511005E-5</v>
       </c>
       <c r="H8">
-        <v>7.4110477114606621E-6</v>
+        <v>-4.1678397035483968E-5</v>
       </c>
       <c r="I8">
-        <v>1.0870203084830044E-5</v>
+        <v>1.24050169983731E-6</v>
       </c>
       <c r="J8">
-        <v>8.6281214834885751E-6</v>
+        <v>1.0214390907237789E-6</v>
       </c>
       <c r="K8">
-        <v>6.040665020627644E-6</v>
+        <v>-4.2358376576362597E-7</v>
       </c>
       <c r="L8">
-        <v>3.4326749522655939E-8</v>
+        <v>7.5819327819602457E-7</v>
       </c>
       <c r="M8">
-        <v>-1.2762624988045188E-7</v>
+        <v>7.034043825841672E-7</v>
       </c>
       <c r="N8">
-        <v>7.0929073225948971E-6</v>
+        <v>1.1946353214068647E-6</v>
       </c>
       <c r="O8">
-        <v>1.3577200636811658E-5</v>
+        <v>1.9222766493720403E-6</v>
       </c>
       <c r="P8">
-        <v>9.6197978446312539E-6</v>
+        <v>1.5869833230194538E-6</v>
       </c>
       <c r="Q8">
-        <v>-5.3198972962569178E-6</v>
+        <v>-3.1109608999777683E-9</v>
       </c>
       <c r="R8">
-        <v>-6.6889474738087896E-6</v>
+        <v>2.2385386238897459E-7</v>
       </c>
       <c r="S8">
-        <v>4.076453765696343E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1.6010669531811741E-8</v>
+      </c>
+      <c r="T8">
+        <v>2.7162343312630559E-9</v>
+      </c>
+      <c r="U8">
+        <v>-1.1599498758379085E-7</v>
+      </c>
+      <c r="V8">
+        <v>1.6510288920723594E-7</v>
+      </c>
+      <c r="W8">
+        <v>3.9348261928328192E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B9">
-        <v>0.15452932839870515</v>
+        <v>-5.7892892771677063E-4</v>
       </c>
       <c r="C9">
-        <v>-5.6156941773235713E-5</v>
+        <v>5.9978071496770554E-6</v>
       </c>
       <c r="D9">
-        <v>-6.1704692260177598E-5</v>
+        <v>3.4150318991156596E-7</v>
       </c>
       <c r="E9">
-        <v>3.9132163105535278E-7</v>
+        <v>-1.4199229961482714E-6</v>
       </c>
       <c r="F9">
-        <v>-5.4272605048703046E-5</v>
+        <v>5.2789596658406411E-9</v>
       </c>
       <c r="G9">
-        <v>-3.2893456010682086E-4</v>
+        <v>-4.1752733630115265E-5</v>
       </c>
       <c r="H9">
-        <v>1.7125576771912016E-6</v>
+        <v>-8.4213314236992209E-5</v>
       </c>
       <c r="I9">
-        <v>8.6281214834885751E-6</v>
+        <v>1.0214390907237789E-6</v>
       </c>
       <c r="J9">
-        <v>1.2334814831781559E-3</v>
+        <v>2.0765090090594311E-6</v>
       </c>
       <c r="K9">
-        <v>-4.0613065021202158E-4</v>
+        <v>2.9818717197999637E-7</v>
       </c>
       <c r="L9">
-        <v>7.9986068685385399E-5</v>
+        <v>9.4363098057950299E-7</v>
       </c>
       <c r="M9">
-        <v>-2.4240115504341902E-5</v>
+        <v>2.1608049053415898E-7</v>
       </c>
       <c r="N9">
-        <v>-3.3403319690278853E-5</v>
+        <v>1.1609410768695951E-6</v>
       </c>
       <c r="O9">
-        <v>-5.2628238469907814E-5</v>
+        <v>1.9709102491643967E-6</v>
       </c>
       <c r="P9">
-        <v>-7.8373299717757845E-5</v>
+        <v>1.4371526097531562E-6</v>
       </c>
       <c r="Q9">
-        <v>6.3176215659144886E-6</v>
+        <v>1.9572924232101328E-7</v>
       </c>
       <c r="R9">
-        <v>-3.2568270055214753E-5</v>
+        <v>2.1198136168505683E-7</v>
       </c>
       <c r="S9">
-        <v>1.4072066216154161E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+        <v>-8.8269456932243E-9</v>
+      </c>
+      <c r="T9">
+        <v>-4.3666783690779538E-7</v>
+      </c>
+      <c r="U9">
+        <v>1.2803612397507383E-7</v>
+      </c>
+      <c r="V9">
+        <v>4.2865312934901943E-7</v>
+      </c>
+      <c r="W9">
+        <v>4.5651278771337761E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B10">
-        <v>1.729121951725948E-3</v>
+        <v>0.43469246008464979</v>
       </c>
       <c r="C10">
-        <v>-4.0645061569740694E-5</v>
+        <v>1.0016672966040313E-5</v>
       </c>
       <c r="D10">
-        <v>-1.6601158361121101E-5</v>
+        <v>7.8143565916649588E-6</v>
       </c>
       <c r="E10">
-        <v>3.0903382924757039E-7</v>
+        <v>-1.2251283500515322E-5</v>
       </c>
       <c r="F10">
-        <v>-2.5715082754736293E-4</v>
+        <v>8.6747092327668123E-8</v>
       </c>
       <c r="G10">
-        <v>-4.0496232757704451E-4</v>
+        <v>1.6005502202711064E-5</v>
       </c>
       <c r="H10">
-        <v>5.2412985676670381E-6</v>
+        <v>5.0243189116963517E-6</v>
       </c>
       <c r="I10">
-        <v>6.040665020627644E-6</v>
+        <v>-4.2358376576362597E-7</v>
       </c>
       <c r="J10">
-        <v>-4.0613065021202158E-4</v>
+        <v>2.9818717197999637E-7</v>
       </c>
       <c r="K10">
-        <v>9.1702508194259379E-4</v>
+        <v>2.4040117468807242E-4</v>
       </c>
       <c r="L10">
-        <v>3.7626288546167796E-5</v>
+        <v>-9.0739662729649547E-5</v>
       </c>
       <c r="M10">
-        <v>2.4086125331495724E-5</v>
+        <v>-4.0909768556242327E-6</v>
       </c>
       <c r="N10">
-        <v>-4.2917578323717836E-6</v>
+        <v>-2.4378509536161151E-6</v>
       </c>
       <c r="O10">
-        <v>-3.6131229186836667E-5</v>
+        <v>-6.9121454632418522E-6</v>
       </c>
       <c r="P10">
-        <v>-7.1172205508027183E-6</v>
+        <v>-6.6312577230503777E-6</v>
       </c>
       <c r="Q10">
-        <v>-8.2883657565052433E-6</v>
+        <v>4.1587011938260139E-6</v>
       </c>
       <c r="R10">
-        <v>-4.3017240761036946E-5</v>
+        <v>4.0829975217938303E-6</v>
       </c>
       <c r="S10">
-        <v>1.1989401991599705E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1.5191254485832465E-6</v>
+      </c>
+      <c r="T10">
+        <v>4.731085834109382E-6</v>
+      </c>
+      <c r="U10">
+        <v>2.0801801219749639E-6</v>
+      </c>
+      <c r="V10">
+        <v>1.0538813916604527E-6</v>
+      </c>
+      <c r="W10">
+        <v>2.3403933044891887E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B11">
-        <v>-0.91020048934948339</v>
+        <v>-2.9418192579189345E-2</v>
       </c>
       <c r="C11">
-        <v>-3.235385062300051E-6</v>
+        <v>-1.3150945274765995E-5</v>
       </c>
       <c r="D11">
-        <v>-2.0504915454596157E-5</v>
+        <v>1.1413866182600136E-6</v>
       </c>
       <c r="E11">
-        <v>2.1865171903521392E-7</v>
+        <v>-6.660139924594399E-6</v>
       </c>
       <c r="F11">
-        <v>2.716144929637809E-5</v>
+        <v>1.0498335130059452E-7</v>
       </c>
       <c r="G11">
-        <v>-7.691120796404885E-5</v>
+        <v>-3.4145581827401077E-5</v>
       </c>
       <c r="H11">
-        <v>-2.4479911712053644E-6</v>
+        <v>-5.5216720244796117E-5</v>
       </c>
       <c r="I11">
-        <v>3.4326749522655939E-8</v>
+        <v>7.5819327819602457E-7</v>
       </c>
       <c r="J11">
-        <v>7.9986068685385399E-5</v>
+        <v>9.4363098057950299E-7</v>
       </c>
       <c r="K11">
-        <v>3.7626288546167796E-5</v>
+        <v>-9.0739662729649547E-5</v>
       </c>
       <c r="L11">
-        <v>2.835876209480752E-3</v>
+        <v>1.7591728724933867E-4</v>
       </c>
       <c r="M11">
-        <v>8.4984053727399047E-5</v>
+        <v>6.0442855572144966E-6</v>
       </c>
       <c r="N11">
-        <v>9.0893219990358391E-4</v>
+        <v>9.7301380313928783E-7</v>
       </c>
       <c r="O11">
-        <v>1.2185332801927385E-3</v>
+        <v>-4.4112645868245524E-7</v>
       </c>
       <c r="P11">
-        <v>1.2095779869325156E-3</v>
+        <v>1.3006855403740757E-6</v>
       </c>
       <c r="Q11">
-        <v>-5.6897367177495081E-5</v>
+        <v>-2.0732916722159091E-6</v>
       </c>
       <c r="R11">
-        <v>-7.9582875953180621E-5</v>
+        <v>1.5752576655403844E-6</v>
       </c>
       <c r="S11">
-        <v>-7.7823907841851508E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+        <v>-2.24468524920215E-6</v>
+      </c>
+      <c r="T11">
+        <v>-3.0463733304180842E-6</v>
+      </c>
+      <c r="U11">
+        <v>-8.402698097057777E-7</v>
+      </c>
+      <c r="V11">
+        <v>1.9658183176025665E-7</v>
+      </c>
+      <c r="W11">
+        <v>6.5920778106270272E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B12">
-        <v>0.3923890316888044</v>
+        <v>0.39096711162486092</v>
       </c>
       <c r="C12">
-        <v>-3.0592093046973847E-5</v>
+        <v>-6.4944266400219857E-6</v>
       </c>
       <c r="D12">
-        <v>1.6684451655575832E-5</v>
+        <v>-4.5185910954905606E-6</v>
       </c>
       <c r="E12">
-        <v>-2.0883358472509904E-7</v>
+        <v>-9.4592863456491425E-7</v>
       </c>
       <c r="F12">
-        <v>5.753408509872552E-5</v>
+        <v>5.9124326154105295E-9</v>
       </c>
       <c r="G12">
-        <v>5.2522265848652279E-5</v>
+        <v>-2.2695829045694818E-5</v>
       </c>
       <c r="H12">
-        <v>-8.2457396797502706E-7</v>
+        <v>-4.6424891896799892E-6</v>
       </c>
       <c r="I12">
-        <v>-1.2762624988045188E-7</v>
+        <v>7.034043825841672E-7</v>
       </c>
       <c r="J12">
-        <v>-2.4240115504341902E-5</v>
+        <v>2.1608049053415898E-7</v>
       </c>
       <c r="K12">
-        <v>2.4086125331495724E-5</v>
+        <v>-4.0909768556242327E-6</v>
       </c>
       <c r="L12">
-        <v>8.4984053727399047E-5</v>
+        <v>6.0442855572144966E-6</v>
       </c>
       <c r="M12">
-        <v>1.6054896822642516E-2</v>
+        <v>5.4689827140691621E-3</v>
       </c>
       <c r="N12">
-        <v>1.3848166675760602E-2</v>
+        <v>4.9271798851974035E-3</v>
       </c>
       <c r="O12">
-        <v>1.3827182251372552E-2</v>
+        <v>4.9274931951985117E-3</v>
       </c>
       <c r="P12">
-        <v>1.3815916427760748E-2</v>
+        <v>4.9276080580561762E-3</v>
       </c>
       <c r="Q12">
-        <v>-1.824099509547877E-5</v>
+        <v>9.9667535600376177E-7</v>
       </c>
       <c r="R12">
-        <v>-8.1705215180906843E-5</v>
+        <v>3.0156863460939563E-6</v>
       </c>
       <c r="S12">
-        <v>-1.4071958731727296E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+        <v>5.6511239708319629E-7</v>
+      </c>
+      <c r="T12">
+        <v>-3.246973421237539E-6</v>
+      </c>
+      <c r="U12">
+        <v>3.7802808269368249E-6</v>
+      </c>
+      <c r="V12">
+        <v>4.6999465487526408E-6</v>
+      </c>
+      <c r="W12">
+        <v>-4.902404983128798E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B13">
-        <v>0.74379923165852668</v>
+        <v>0.83787126207374696</v>
       </c>
       <c r="C13">
-        <v>-3.4494389078431188E-5</v>
+        <v>-3.0037310362765555E-6</v>
       </c>
       <c r="D13">
-        <v>1.8341214156424913E-5</v>
+        <v>1.0973150343767456E-6</v>
       </c>
       <c r="E13">
-        <v>-2.6079051259154621E-7</v>
+        <v>-2.0973593870555329E-6</v>
       </c>
       <c r="F13">
-        <v>-4.0215247695098502E-6</v>
+        <v>1.8634754621981999E-8</v>
       </c>
       <c r="G13">
-        <v>-1.2997345483830528E-4</v>
+        <v>-3.7530285735346762E-5</v>
       </c>
       <c r="H13">
-        <v>1.4509223874756386E-6</v>
+        <v>-2.937753132353847E-5</v>
       </c>
       <c r="I13">
-        <v>7.0929073225948971E-6</v>
+        <v>1.1946353214068647E-6</v>
       </c>
       <c r="J13">
-        <v>-3.3403319690278853E-5</v>
+        <v>1.1609410768695951E-6</v>
       </c>
       <c r="K13">
-        <v>-4.2917578323717836E-6</v>
+        <v>-2.4378509536161151E-6</v>
       </c>
       <c r="L13">
-        <v>9.0893219990358391E-4</v>
+        <v>9.7301380313928783E-7</v>
       </c>
       <c r="M13">
-        <v>1.3848166675760602E-2</v>
+        <v>4.9271798851974035E-3</v>
       </c>
       <c r="N13">
-        <v>1.4862563954224514E-2</v>
+        <v>5.06219018670683E-3</v>
       </c>
       <c r="O13">
-        <v>1.4231387600922166E-2</v>
+        <v>4.9360480324543068E-3</v>
       </c>
       <c r="P13">
-        <v>1.4235847108544983E-2</v>
+        <v>4.9394727001215583E-3</v>
       </c>
       <c r="Q13">
-        <v>-3.6439431865515064E-5</v>
+        <v>5.2428085102104841E-6</v>
       </c>
       <c r="R13">
-        <v>-8.4444305399556426E-5</v>
+        <v>5.8807322188017227E-6</v>
       </c>
       <c r="S13">
-        <v>-1.4475746378943092E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+        <v>3.6631069257121626E-6</v>
+      </c>
+      <c r="T13">
+        <v>-2.0454556172730474E-7</v>
+      </c>
+      <c r="U13">
+        <v>1.8464256532699591E-6</v>
+      </c>
+      <c r="V13">
+        <v>1.8560709934670515E-6</v>
+      </c>
+      <c r="W13">
+        <v>-4.8955427629285174E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B14">
-        <v>0.92726474772914158</v>
+        <v>1.0727940500458497</v>
       </c>
       <c r="C14">
-        <v>-3.7246523469036024E-5</v>
+        <v>-1.8196619165979934E-6</v>
       </c>
       <c r="D14">
-        <v>6.8934652799555176E-6</v>
+        <v>4.3280814247850831E-6</v>
       </c>
       <c r="E14">
-        <v>-4.4003254204761819E-9</v>
+        <v>-3.8352974932546194E-6</v>
       </c>
       <c r="F14">
-        <v>-1.0208832234492263E-4</v>
+        <v>5.7271857417952469E-8</v>
       </c>
       <c r="G14">
-        <v>-1.8918886781289172E-4</v>
+        <v>-5.5656301018082379E-5</v>
       </c>
       <c r="H14">
-        <v>6.8126254031787635E-6</v>
+        <v>-4.5836341026451598E-5</v>
       </c>
       <c r="I14">
-        <v>1.3577200636811658E-5</v>
+        <v>1.9222766493720403E-6</v>
       </c>
       <c r="J14">
-        <v>-5.2628238469907814E-5</v>
+        <v>1.9709102491643967E-6</v>
       </c>
       <c r="K14">
-        <v>-3.6131229186836667E-5</v>
+        <v>-6.9121454632418522E-6</v>
       </c>
       <c r="L14">
-        <v>1.2185332801927385E-3</v>
+        <v>-4.4112645868245524E-7</v>
       </c>
       <c r="M14">
-        <v>1.3827182251372552E-2</v>
+        <v>4.9274931951985117E-3</v>
       </c>
       <c r="N14">
-        <v>1.4231387600922166E-2</v>
+        <v>4.9360480324543068E-3</v>
       </c>
       <c r="O14">
-        <v>1.4918737116888358E-2</v>
+        <v>5.0240659972065616E-3</v>
       </c>
       <c r="P14">
-        <v>1.4718704775254342E-2</v>
+        <v>4.9862745570408099E-3</v>
       </c>
       <c r="Q14">
-        <v>-3.6926472400665845E-5</v>
+        <v>8.2182166262426007E-6</v>
       </c>
       <c r="R14">
-        <v>-7.6472789093684664E-5</v>
+        <v>6.5347452540191297E-6</v>
       </c>
       <c r="S14">
-        <v>-1.4895936789019508E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+        <v>6.0222890057667374E-6</v>
+      </c>
+      <c r="T14">
+        <v>4.7403060960482464E-6</v>
+      </c>
+      <c r="U14">
+        <v>-4.2993916711634746E-6</v>
+      </c>
+      <c r="V14">
+        <v>-7.2849907009464952E-6</v>
+      </c>
+      <c r="W14">
+        <v>-4.9343911366685747E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B15">
-        <v>0.95511527010149877</v>
+        <v>1.0602904655316663</v>
       </c>
       <c r="C15">
-        <v>1.0466685181951456E-4</v>
+        <v>-1.4391881837289976E-5</v>
       </c>
       <c r="D15">
-        <v>4.805207038577721E-5</v>
+        <v>3.678262928669357E-6</v>
       </c>
       <c r="E15">
-        <v>-3.5777106320020804E-7</v>
+        <v>3.1331951114968633E-6</v>
       </c>
       <c r="F15">
-        <v>-4.985805160543505E-5</v>
+        <v>9.9866561967447812E-10</v>
       </c>
       <c r="G15">
-        <v>5.6029012934952563E-5</v>
+        <v>-3.0934392788234811E-5</v>
       </c>
       <c r="H15">
-        <v>6.4704211268023999E-6</v>
+        <v>-7.4991858375430577E-6</v>
       </c>
       <c r="I15">
-        <v>9.6197978446312539E-6</v>
+        <v>1.5869833230194538E-6</v>
       </c>
       <c r="J15">
-        <v>-7.8373299717757845E-5</v>
+        <v>1.4371526097531562E-6</v>
       </c>
       <c r="K15">
-        <v>-7.1172205508027183E-6</v>
+        <v>-6.6312577230503777E-6</v>
       </c>
       <c r="L15">
-        <v>1.2095779869325156E-3</v>
+        <v>1.3006855403740757E-6</v>
       </c>
       <c r="M15">
-        <v>1.3815916427760748E-2</v>
+        <v>4.9276080580561762E-3</v>
       </c>
       <c r="N15">
-        <v>1.4235847108544983E-2</v>
+        <v>4.9394727001215583E-3</v>
       </c>
       <c r="O15">
-        <v>1.4718704775254342E-2</v>
+        <v>4.9862745570408099E-3</v>
       </c>
       <c r="P15">
-        <v>1.5681346145828806E-2</v>
+        <v>5.1667877660710477E-3</v>
       </c>
       <c r="Q15">
-        <v>2.588698961063533E-5</v>
+        <v>9.5179282985679084E-6</v>
       </c>
       <c r="R15">
-        <v>3.7059723152401552E-6</v>
+        <v>1.0564675489800382E-5</v>
       </c>
       <c r="S15">
-        <v>-1.6259796219309511E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+        <v>7.5749897300061953E-6</v>
+      </c>
+      <c r="T15">
+        <v>6.8859272721492009E-6</v>
+      </c>
+      <c r="U15">
+        <v>-5.9787020595052145E-6</v>
+      </c>
+      <c r="V15">
+        <v>-8.0676681017171761E-6</v>
+      </c>
+      <c r="W15">
+        <v>-5.1484316712182322E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B16">
-        <v>0.17904048738740611</v>
+        <v>6.18312513243328E-2</v>
       </c>
       <c r="C16">
-        <v>-9.8925078877475168E-6</v>
+        <v>8.7233023728791132E-6</v>
       </c>
       <c r="D16">
-        <v>1.9070326766160424E-5</v>
+        <v>1.209030139505457E-5</v>
       </c>
       <c r="E16">
-        <v>-1.7568652577762842E-7</v>
+        <v>4.4682056616998677E-7</v>
       </c>
       <c r="F16">
-        <v>4.6658856854230079E-5</v>
+        <v>-7.0184873213705703E-9</v>
       </c>
       <c r="G16">
-        <v>5.6004962950312494E-7</v>
+        <v>-8.4145446496354214E-6</v>
       </c>
       <c r="H16">
-        <v>-5.7605405544250086E-6</v>
+        <v>-2.6300514692432075E-5</v>
       </c>
       <c r="I16">
-        <v>-5.3198972962569178E-6</v>
+        <v>-3.1109608999777683E-9</v>
       </c>
       <c r="J16">
-        <v>6.3176215659144886E-6</v>
+        <v>1.9572924232101328E-7</v>
       </c>
       <c r="K16">
-        <v>-8.2883657565052433E-6</v>
+        <v>4.1587011938260139E-6</v>
       </c>
       <c r="L16">
-        <v>-5.6897367177495081E-5</v>
+        <v>-2.0732916722159091E-6</v>
       </c>
       <c r="M16">
-        <v>-1.824099509547877E-5</v>
+        <v>9.9667535600376177E-7</v>
       </c>
       <c r="N16">
-        <v>-3.6439431865515064E-5</v>
+        <v>5.2428085102104841E-6</v>
       </c>
       <c r="O16">
-        <v>-3.6926472400665845E-5</v>
+        <v>8.2182166262426007E-6</v>
       </c>
       <c r="P16">
-        <v>2.588698961063533E-5</v>
+        <v>9.5179282985679084E-6</v>
       </c>
       <c r="Q16">
-        <v>1.5103759365932992E-3</v>
+        <v>3.6243267157482655E-4</v>
       </c>
       <c r="R16">
-        <v>9.6885125113098229E-4</v>
+        <v>1.666105780708602E-4</v>
       </c>
       <c r="S16">
-        <v>-1.2038783072624692E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1.6704039097351225E-4</v>
+      </c>
+      <c r="T16">
+        <v>1.6670584920891384E-4</v>
+      </c>
+      <c r="U16">
+        <v>-5.2091910138035543E-6</v>
+      </c>
+      <c r="V16">
+        <v>-8.0956604361316978E-6</v>
+      </c>
+      <c r="W16">
+        <v>-1.7701729987158328E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B17">
-        <v>0.12521105821158601</v>
+        <v>9.8428640729046543E-2</v>
       </c>
       <c r="C17">
-        <v>-5.7450784840138572E-5</v>
+        <v>-2.3193425987480221E-7</v>
       </c>
       <c r="D17">
-        <v>2.9664775078279023E-5</v>
+        <v>1.0745082449964204E-5</v>
       </c>
       <c r="E17">
-        <v>-2.6597584017351772E-7</v>
+        <v>2.0909074803170628E-7</v>
       </c>
       <c r="F17">
-        <v>1.960600936334948E-5</v>
+        <v>-6.9874885023449579E-9</v>
       </c>
       <c r="G17">
-        <v>3.7667157218110509E-5</v>
+        <v>-9.1609191003665002E-6</v>
       </c>
       <c r="H17">
-        <v>-5.1900659535332845E-6</v>
+        <v>-1.4237446570418895E-5</v>
       </c>
       <c r="I17">
-        <v>-6.6889474738087896E-6</v>
+        <v>2.2385386238897459E-7</v>
       </c>
       <c r="J17">
-        <v>-3.2568270055214753E-5</v>
+        <v>2.1198136168505683E-7</v>
       </c>
       <c r="K17">
-        <v>-4.3017240761036946E-5</v>
+        <v>4.0829975217938303E-6</v>
       </c>
       <c r="L17">
-        <v>-7.9582875953180621E-5</v>
+        <v>1.5752576655403844E-6</v>
       </c>
       <c r="M17">
-        <v>-8.1705215180906843E-5</v>
+        <v>3.0156863460939563E-6</v>
       </c>
       <c r="N17">
-        <v>-8.4444305399556426E-5</v>
+        <v>5.8807322188017227E-6</v>
       </c>
       <c r="O17">
-        <v>-7.6472789093684664E-5</v>
+        <v>6.5347452540191297E-6</v>
       </c>
       <c r="P17">
-        <v>3.7059723152401552E-6</v>
+        <v>1.0564675489800382E-5</v>
       </c>
       <c r="Q17">
-        <v>9.6885125113098229E-4</v>
+        <v>1.666105780708602E-4</v>
       </c>
       <c r="R17">
-        <v>1.2688021107042785E-3</v>
+        <v>4.5794396771842182E-4</v>
       </c>
       <c r="S17">
-        <v>-1.3550857758053176E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1.6643712448747398E-4</v>
+      </c>
+      <c r="T17">
+        <v>1.6638223454483258E-4</v>
+      </c>
+      <c r="U17">
+        <v>-4.7127405782183026E-6</v>
+      </c>
+      <c r="V17">
+        <v>-5.6341796432684774E-6</v>
+      </c>
+      <c r="W17">
+        <v>-1.7431857314935059E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B18">
-        <v>-3.6283861926610577</v>
+        <v>9.8681223922581884E-2</v>
       </c>
       <c r="C18">
-        <v>2.8732604107089572E-3</v>
+        <v>-6.8901203938031931E-7</v>
       </c>
       <c r="D18">
-        <v>-1.582587139979215E-3</v>
+        <v>9.743049533203712E-6</v>
       </c>
       <c r="E18">
-        <v>1.3877078640669314E-5</v>
+        <v>3.6071070524177536E-7</v>
       </c>
       <c r="F18">
-        <v>-1.6058940981721122E-2</v>
+        <v>-5.3695142846036841E-9</v>
       </c>
       <c r="G18">
-        <v>-1.9112075662264354E-2</v>
+        <v>-5.3994083220619501E-6</v>
       </c>
       <c r="H18">
-        <v>3.4109955905497482E-4</v>
+        <v>-1.8685944007882242E-5</v>
       </c>
       <c r="I18">
-        <v>4.076453765696343E-4</v>
+        <v>1.6010669531811741E-8</v>
       </c>
       <c r="J18">
-        <v>1.4072066216154161E-3</v>
+        <v>-8.8269456932243E-9</v>
       </c>
       <c r="K18">
-        <v>1.1989401991599705E-4</v>
+        <v>1.5191254485832465E-6</v>
       </c>
       <c r="L18">
-        <v>-7.7823907841851508E-4</v>
+        <v>-2.24468524920215E-6</v>
       </c>
       <c r="M18">
-        <v>-1.4071958731727296E-2</v>
+        <v>5.6511239708319629E-7</v>
       </c>
       <c r="N18">
-        <v>-1.4475746378943092E-2</v>
+        <v>3.6631069257121626E-6</v>
       </c>
       <c r="O18">
-        <v>-1.4895936789019508E-2</v>
+        <v>6.0222890057667374E-6</v>
       </c>
       <c r="P18">
-        <v>-1.6259796219309511E-2</v>
+        <v>7.5749897300061953E-6</v>
       </c>
       <c r="Q18">
-        <v>-1.2038783072624692E-3</v>
+        <v>1.6704039097351225E-4</v>
       </c>
       <c r="R18">
-        <v>-1.3550857758053176E-3</v>
+        <v>1.6643712448747398E-4</v>
       </c>
       <c r="S18">
-        <v>5.347828305862673E-2</v>
+        <v>3.4378533640940976E-4</v>
+      </c>
+      <c r="T18">
+        <v>1.6672858716061361E-4</v>
+      </c>
+      <c r="U18">
+        <v>-5.1140589851895173E-6</v>
+      </c>
+      <c r="V18">
+        <v>-7.063638071864166E-6</v>
+      </c>
+      <c r="W18">
+        <v>-1.7408501120838021E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>8.5749434341879399E-2</v>
+      </c>
+      <c r="C19">
+        <v>-4.6632037175324241E-6</v>
+      </c>
+      <c r="D19">
+        <v>9.7968293565904117E-6</v>
+      </c>
+      <c r="E19">
+        <v>1.3775278020172767E-7</v>
+      </c>
+      <c r="F19">
+        <v>-1.9038626884281495E-9</v>
+      </c>
+      <c r="G19">
+        <v>-1.835962479646535E-6</v>
+      </c>
+      <c r="H19">
+        <v>6.2187114242975722E-6</v>
+      </c>
+      <c r="I19">
+        <v>2.7162343312630559E-9</v>
+      </c>
+      <c r="J19">
+        <v>-4.3666783690779538E-7</v>
+      </c>
+      <c r="K19">
+        <v>4.731085834109382E-6</v>
+      </c>
+      <c r="L19">
+        <v>-3.0463733304180842E-6</v>
+      </c>
+      <c r="M19">
+        <v>-3.246973421237539E-6</v>
+      </c>
+      <c r="N19">
+        <v>-2.0454556172730474E-7</v>
+      </c>
+      <c r="O19">
+        <v>4.7403060960482464E-6</v>
+      </c>
+      <c r="P19">
+        <v>6.8859272721492009E-6</v>
+      </c>
+      <c r="Q19">
+        <v>1.6670584920891384E-4</v>
+      </c>
+      <c r="R19">
+        <v>1.6638223454483258E-4</v>
+      </c>
+      <c r="S19">
+        <v>1.6672858716061361E-4</v>
+      </c>
+      <c r="T19">
+        <v>2.3990976650778041E-4</v>
+      </c>
+      <c r="U19">
+        <v>-4.7902926470356743E-6</v>
+      </c>
+      <c r="V19">
+        <v>-7.6901418306633477E-6</v>
+      </c>
+      <c r="W19">
+        <v>-1.738583802453145E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>5.959206908595658E-2</v>
+      </c>
+      <c r="C20">
+        <v>-9.806503372608666E-7</v>
+      </c>
+      <c r="D20">
+        <v>-5.1515299103112016E-6</v>
+      </c>
+      <c r="E20">
+        <v>-2.7573115086355124E-7</v>
+      </c>
+      <c r="F20">
+        <v>6.4814537386942593E-10</v>
+      </c>
+      <c r="G20">
+        <v>1.1797908314689816E-5</v>
+      </c>
+      <c r="H20">
+        <v>6.0384718823279154E-6</v>
+      </c>
+      <c r="I20">
+        <v>-1.1599498758379085E-7</v>
+      </c>
+      <c r="J20">
+        <v>1.2803612397507383E-7</v>
+      </c>
+      <c r="K20">
+        <v>2.0801801219749639E-6</v>
+      </c>
+      <c r="L20">
+        <v>-8.402698097057777E-7</v>
+      </c>
+      <c r="M20">
+        <v>3.7802808269368249E-6</v>
+      </c>
+      <c r="N20">
+        <v>1.8464256532699591E-6</v>
+      </c>
+      <c r="O20">
+        <v>-4.2993916711634746E-6</v>
+      </c>
+      <c r="P20">
+        <v>-5.9787020595052145E-6</v>
+      </c>
+      <c r="Q20">
+        <v>-5.2091910138035543E-6</v>
+      </c>
+      <c r="R20">
+        <v>-4.7127405782183026E-6</v>
+      </c>
+      <c r="S20">
+        <v>-5.1140589851895173E-6</v>
+      </c>
+      <c r="T20">
+        <v>-4.7902926470356743E-6</v>
+      </c>
+      <c r="U20">
+        <v>3.0104652938202744E-4</v>
+      </c>
+      <c r="V20">
+        <v>3.7302230073063516E-5</v>
+      </c>
+      <c r="W20">
+        <v>-2.3835254505444461E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21">
+        <v>0.10807124587793093</v>
+      </c>
+      <c r="C21">
+        <v>-1.1096981248850792E-6</v>
+      </c>
+      <c r="D21">
+        <v>-5.783380069827635E-6</v>
+      </c>
+      <c r="E21">
+        <v>-4.9981672867173607E-7</v>
+      </c>
+      <c r="F21">
+        <v>-2.181089676606792E-10</v>
+      </c>
+      <c r="G21">
+        <v>-6.0910212224120289E-6</v>
+      </c>
+      <c r="H21">
+        <v>-1.1423237270550025E-5</v>
+      </c>
+      <c r="I21">
+        <v>1.6510288920723594E-7</v>
+      </c>
+      <c r="J21">
+        <v>4.2865312934901943E-7</v>
+      </c>
+      <c r="K21">
+        <v>1.0538813916604527E-6</v>
+      </c>
+      <c r="L21">
+        <v>1.9658183176025665E-7</v>
+      </c>
+      <c r="M21">
+        <v>4.6999465487526408E-6</v>
+      </c>
+      <c r="N21">
+        <v>1.8560709934670515E-6</v>
+      </c>
+      <c r="O21">
+        <v>-7.2849907009464952E-6</v>
+      </c>
+      <c r="P21">
+        <v>-8.0676681017171761E-6</v>
+      </c>
+      <c r="Q21">
+        <v>-8.0956604361316978E-6</v>
+      </c>
+      <c r="R21">
+        <v>-5.6341796432684774E-6</v>
+      </c>
+      <c r="S21">
+        <v>-7.063638071864166E-6</v>
+      </c>
+      <c r="T21">
+        <v>-7.6901418306633477E-6</v>
+      </c>
+      <c r="U21">
+        <v>3.7302230073063516E-5</v>
+      </c>
+      <c r="V21">
+        <v>4.2372006037556234E-4</v>
+      </c>
+      <c r="W21">
+        <v>-3.9086227046988296E-6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22">
+        <v>-1.5281417877611283</v>
+      </c>
+      <c r="C22">
+        <v>-8.6623956613111344E-4</v>
+      </c>
+      <c r="D22">
+        <v>-1.134384316306886E-4</v>
+      </c>
+      <c r="E22">
+        <v>-2.9092707053352527E-4</v>
+      </c>
+      <c r="F22">
+        <v>2.8310059416734898E-6</v>
+      </c>
+      <c r="G22">
+        <v>-1.8523414762881254E-3</v>
+      </c>
+      <c r="H22">
+        <v>-2.2103634876055869E-3</v>
+      </c>
+      <c r="I22">
+        <v>3.9348261928328192E-5</v>
+      </c>
+      <c r="J22">
+        <v>4.5651278771337761E-5</v>
+      </c>
+      <c r="K22">
+        <v>2.3403933044891887E-4</v>
+      </c>
+      <c r="L22">
+        <v>6.5920778106270272E-5</v>
+      </c>
+      <c r="M22">
+        <v>-4.902404983128798E-3</v>
+      </c>
+      <c r="N22">
+        <v>-4.8955427629285174E-3</v>
+      </c>
+      <c r="O22">
+        <v>-4.9343911366685747E-3</v>
+      </c>
+      <c r="P22">
+        <v>-5.1484316712182322E-3</v>
+      </c>
+      <c r="Q22">
+        <v>-1.7701729987158328E-4</v>
+      </c>
+      <c r="R22">
+        <v>-1.7431857314935059E-4</v>
+      </c>
+      <c r="S22">
+        <v>-1.7408501120838021E-4</v>
+      </c>
+      <c r="T22">
+        <v>-1.738583802453145E-4</v>
+      </c>
+      <c r="U22">
+        <v>-2.3835254505444461E-5</v>
+      </c>
+      <c r="V22">
+        <v>-3.9086227046988296E-6</v>
+      </c>
+      <c r="W22">
+        <v>1.1896660266168764E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2752,969 +3805,1316 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B0716A-7AD7-48C5-B132-6B376B317883}">
-  <dimension ref="A1:R17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B1" sqref="B1:U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="H1" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="K1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="L1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="N1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="O1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="P1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="Q1" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="R1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B2">
-        <v>0.22631868292032631</v>
+        <v>0.23216378380887107</v>
       </c>
       <c r="C2">
-        <v>7.7651203458025159E-5</v>
+        <v>3.8033685225490681E-5</v>
       </c>
       <c r="D2">
-        <v>-8.5028072760585472E-7</v>
+        <v>-4.2770688976234718E-7</v>
       </c>
       <c r="E2">
-        <v>2.1022461201483802E-4</v>
+        <v>6.2623113547266479E-5</v>
       </c>
       <c r="F2">
-        <v>1.4366374992263341E-4</v>
+        <v>8.8273261342106484E-5</v>
       </c>
       <c r="G2">
-        <v>-4.6679531098624355E-6</v>
+        <v>-1.2846255155156888E-6</v>
       </c>
       <c r="H2">
-        <v>-3.0960202856542621E-6</v>
+        <v>-1.6931083284546069E-6</v>
       </c>
       <c r="I2">
-        <v>-3.9749009609073806E-5</v>
+        <v>-2.2108130936924618E-5</v>
       </c>
       <c r="J2">
-        <v>-6.9661501792601377E-5</v>
+        <v>-2.9689699682348396E-5</v>
       </c>
       <c r="K2">
-        <v>8.8421015091308343E-6</v>
+        <v>-2.7697114965211642E-6</v>
       </c>
       <c r="L2">
-        <v>1.6085577879934761E-5</v>
+        <v>2.898771846588581E-6</v>
       </c>
       <c r="M2">
-        <v>1.7849435101213859E-5</v>
+        <v>4.4676039417657618E-6</v>
       </c>
       <c r="N2">
-        <v>1.4588057721068759E-5</v>
+        <v>2.1644387141768484E-5</v>
       </c>
       <c r="O2">
-        <v>6.1336160001339702E-5</v>
+        <v>3.1297232276421708E-6</v>
       </c>
       <c r="P2">
-        <v>-2.8534138400756467E-7</v>
+        <v>6.3629493690606674E-6</v>
       </c>
       <c r="Q2">
-        <v>3.0948622998538909E-7</v>
+        <v>3.1209019464327874E-6</v>
       </c>
       <c r="R2">
-        <v>-1.6321105455625858E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>2.5013660098625245E-6</v>
+      </c>
+      <c r="S2">
+        <v>6.5220872586495709E-8</v>
+      </c>
+      <c r="T2">
+        <v>-1.847668256206979E-6</v>
+      </c>
+      <c r="U2">
+        <v>-7.6798725286602568E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B3">
-        <v>-2.4763342987114334E-3</v>
+        <v>-2.5622970077814992E-3</v>
       </c>
       <c r="C3">
-        <v>-8.5028072760585472E-7</v>
+        <v>-4.2770688976234718E-7</v>
       </c>
       <c r="D3">
-        <v>9.7885401041772255E-9</v>
+        <v>5.019999399785485E-9</v>
       </c>
       <c r="E3">
-        <v>-6.9306660222151474E-7</v>
+        <v>-7.049815118605287E-8</v>
       </c>
       <c r="F3">
-        <v>8.2586220481516472E-8</v>
+        <v>-3.6964966354747712E-7</v>
       </c>
       <c r="G3">
-        <v>1.3853616001486691E-8</v>
+        <v>-1.2975381570768067E-9</v>
       </c>
       <c r="H3">
-        <v>-4.2719860390317967E-9</v>
+        <v>3.5009201937962103E-9</v>
       </c>
       <c r="I3">
-        <v>3.8148335594775103E-7</v>
+        <v>2.1644735953997107E-7</v>
       </c>
       <c r="J3">
-        <v>8.7230052576653517E-7</v>
+        <v>4.0595447782955309E-7</v>
       </c>
       <c r="K3">
-        <v>-9.096976204439846E-8</v>
+        <v>2.3433591932986087E-8</v>
       </c>
       <c r="L3">
-        <v>-1.8625480181782308E-7</v>
+        <v>-3.9862786421839066E-8</v>
       </c>
       <c r="M3">
-        <v>-2.2302876931093128E-7</v>
+        <v>-2.2772101762793333E-8</v>
       </c>
       <c r="N3">
-        <v>-1.0550940739351458E-7</v>
+        <v>-1.6260954306951804E-7</v>
       </c>
       <c r="O3">
-        <v>-5.2159384788359643E-7</v>
+        <v>-4.5183227063700985E-8</v>
       </c>
       <c r="P3">
-        <v>1.2049835516143592E-8</v>
+        <v>-8.0609988916930968E-8</v>
       </c>
       <c r="Q3">
-        <v>8.0343208336362217E-9</v>
+        <v>-4.7377863933641638E-8</v>
       </c>
       <c r="R3">
-        <v>1.6852222283021417E-5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>-3.7429002910934282E-8</v>
+      </c>
+      <c r="S3">
+        <v>-1.2635539363903215E-8</v>
+      </c>
+      <c r="T3">
+        <v>1.5561768791072757E-9</v>
+      </c>
+      <c r="U3">
+        <v>8.2351551980110485E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B4">
-        <v>0.18003085539679323</v>
+        <v>0.32643939625035095</v>
       </c>
       <c r="C4">
-        <v>2.1022461201483802E-4</v>
+        <v>6.2623113547266479E-5</v>
       </c>
       <c r="D4">
-        <v>-6.9306660222151474E-7</v>
+        <v>-7.049815118605287E-8</v>
       </c>
       <c r="E4">
-        <v>1.030286639434866E-2</v>
+        <v>4.3755430928115943E-3</v>
       </c>
       <c r="F4">
-        <v>7.1244679991555003E-3</v>
+        <v>2.524485484114841E-3</v>
       </c>
       <c r="G4">
-        <v>-2.2077024088487039E-4</v>
+        <v>-9.6125216876268157E-5</v>
       </c>
       <c r="H4">
-        <v>-1.5381411874706622E-4</v>
+        <v>-5.8087556959719042E-5</v>
       </c>
       <c r="I4">
-        <v>3.0881185392259559E-6</v>
+        <v>2.5635463107200535E-5</v>
       </c>
       <c r="J4">
-        <v>-2.2472607936359335E-4</v>
+        <v>-8.9033577313836601E-5</v>
       </c>
       <c r="K4">
-        <v>1.7786202918941281E-4</v>
+        <v>-4.1559145247559029E-5</v>
       </c>
       <c r="L4">
-        <v>1.0490283697320866E-4</v>
+        <v>-5.4156976991669072E-5</v>
       </c>
       <c r="M4">
-        <v>2.0297018501569918E-5</v>
+        <v>-7.4181546800714069E-5</v>
       </c>
       <c r="N4">
-        <v>-8.9409278258155596E-6</v>
+        <v>1.0509863948654063E-5</v>
       </c>
       <c r="O4">
-        <v>1.0344590083602835E-4</v>
+        <v>-5.1102674870487151E-5</v>
       </c>
       <c r="P4">
-        <v>-6.6119321545317168E-5</v>
+        <v>-1.9029834220205613E-5</v>
       </c>
       <c r="Q4">
-        <v>-5.370471368795151E-5</v>
+        <v>-4.0050158088986845E-5</v>
       </c>
       <c r="R4">
-        <v>-8.045509535291661E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1.0954139479236026E-6</v>
+      </c>
+      <c r="S4">
+        <v>-8.9468516979209097E-7</v>
+      </c>
+      <c r="T4">
+        <v>-1.4299619845155114E-5</v>
+      </c>
+      <c r="U4">
+        <v>-2.4735151439129687E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B5">
-        <v>-0.1577970475777668</v>
+        <v>-0.38437070729580985</v>
       </c>
       <c r="C5">
-        <v>1.4366374992263341E-4</v>
+        <v>8.8273261342106484E-5</v>
       </c>
       <c r="D5">
-        <v>8.2586220481516472E-8</v>
+        <v>-3.6964966354747712E-7</v>
       </c>
       <c r="E5">
-        <v>7.1244679991555003E-3</v>
+        <v>2.524485484114841E-3</v>
       </c>
       <c r="F5">
-        <v>2.4439379227069111E-2</v>
+        <v>2.2154301725372121E-2</v>
       </c>
       <c r="G5">
-        <v>-1.5402720298398386E-4</v>
+        <v>-5.8044004032941429E-5</v>
       </c>
       <c r="H5">
-        <v>-4.9570788619699596E-4</v>
+        <v>-4.4704454499632803E-4</v>
       </c>
       <c r="I5">
-        <v>-6.2766318430628438E-5</v>
+        <v>4.3656926874755865E-5</v>
       </c>
       <c r="J5">
-        <v>-4.6968649925907308E-4</v>
+        <v>-1.160824614868648E-4</v>
       </c>
       <c r="K5">
-        <v>2.5696642069232708E-4</v>
+        <v>-2.5548431473599231E-4</v>
       </c>
       <c r="L5">
-        <v>1.7401790463893608E-4</v>
+        <v>-2.8415128973748342E-4</v>
       </c>
       <c r="M5">
-        <v>1.1066381415341265E-5</v>
+        <v>-3.1105408784397911E-4</v>
       </c>
       <c r="N5">
-        <v>-3.3798194459368561E-5</v>
+        <v>-1.6329258416996847E-4</v>
       </c>
       <c r="O5">
-        <v>2.8524091831153443E-4</v>
+        <v>-1.1194962061175171E-4</v>
       </c>
       <c r="P5">
-        <v>-3.9752103300731896E-5</v>
+        <v>2.0805794938787947E-5</v>
       </c>
       <c r="Q5">
-        <v>-5.3142857639408277E-5</v>
+        <v>-4.3383546650216088E-5</v>
       </c>
       <c r="R5">
-        <v>-6.6369066943382116E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>-2.0077398226053585E-5</v>
+      </c>
+      <c r="S5">
+        <v>3.5585299649267759E-5</v>
+      </c>
+      <c r="T5">
+        <v>6.9608474720226181E-6</v>
+      </c>
+      <c r="U5">
+        <v>-2.7582818307635357E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B6">
-        <v>-6.4223329521294475E-3</v>
+        <v>-8.9272679669241493E-3</v>
       </c>
       <c r="C6">
-        <v>-4.6679531098624355E-6</v>
+        <v>-1.2846255155156888E-6</v>
       </c>
       <c r="D6">
-        <v>1.3853616001486691E-8</v>
+        <v>-1.2975381570768067E-9</v>
       </c>
       <c r="E6">
-        <v>-2.2077024088487039E-4</v>
+        <v>-9.6125216876268157E-5</v>
       </c>
       <c r="F6">
-        <v>-1.5402720298398386E-4</v>
+        <v>-5.8044004032941429E-5</v>
       </c>
       <c r="G6">
-        <v>5.0791007441823064E-6</v>
+        <v>2.2758073809183658E-6</v>
       </c>
       <c r="H6">
-        <v>3.5821848940891238E-6</v>
+        <v>1.4426397902955898E-6</v>
       </c>
       <c r="I6">
-        <v>-3.8189656655171251E-7</v>
+        <v>-6.6196679993813412E-7</v>
       </c>
       <c r="J6">
-        <v>4.7269470424102415E-6</v>
+        <v>1.8866481616474779E-6</v>
       </c>
       <c r="K6">
-        <v>-5.4456398448492658E-6</v>
+        <v>7.4651638927815251E-7</v>
       </c>
       <c r="L6">
-        <v>-3.0805352458525067E-6</v>
+        <v>1.246027541628298E-6</v>
       </c>
       <c r="M6">
-        <v>-6.1224240254822949E-7</v>
+        <v>2.415759627951395E-6</v>
       </c>
       <c r="N6">
-        <v>1.2551888331589829E-6</v>
+        <v>1.1266685266456383E-6</v>
       </c>
       <c r="O6">
-        <v>1.0245404409449756E-7</v>
+        <v>1.043781585618886E-6</v>
       </c>
       <c r="P6">
-        <v>-4.6324626572046809E-7</v>
+        <v>6.2219640625559392E-7</v>
       </c>
       <c r="Q6">
-        <v>-4.3147221995909979E-7</v>
+        <v>9.8763863484706962E-7</v>
       </c>
       <c r="R6">
-        <v>1.7154989787195255E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>3.4748827085385132E-7</v>
+      </c>
+      <c r="S6">
+        <v>2.7813512865824845E-7</v>
+      </c>
+      <c r="T6">
+        <v>6.0956611967859153E-7</v>
+      </c>
+      <c r="U6">
+        <v>5.0956563696591661E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B7">
-        <v>-3.559688337234601E-3</v>
+        <v>1.0936842331063089E-3</v>
       </c>
       <c r="C7">
-        <v>-3.0960202856542621E-6</v>
+        <v>-1.6931083284546069E-6</v>
       </c>
       <c r="D7">
-        <v>-4.2719860390317967E-9</v>
+        <v>3.5009201937962103E-9</v>
       </c>
       <c r="E7">
-        <v>-1.5381411874706622E-4</v>
+        <v>-5.8087556959719042E-5</v>
       </c>
       <c r="F7">
-        <v>-4.9570788619699596E-4</v>
+        <v>-4.4704454499632803E-4</v>
       </c>
       <c r="G7">
-        <v>3.5821848940891238E-6</v>
+        <v>1.4426397902955898E-6</v>
       </c>
       <c r="H7">
-        <v>1.0673720660909428E-5</v>
+        <v>9.6694774715704331E-6</v>
       </c>
       <c r="I7">
-        <v>1.1682119697230496E-6</v>
+        <v>-5.7326142379600452E-7</v>
       </c>
       <c r="J7">
-        <v>8.493379193651847E-6</v>
+        <v>1.9143216428132787E-6</v>
       </c>
       <c r="K7">
-        <v>-6.267307036053484E-6</v>
+        <v>6.7465653533341578E-6</v>
       </c>
       <c r="L7">
-        <v>-3.5293385356878381E-6</v>
+        <v>8.4088307852517586E-6</v>
       </c>
       <c r="M7">
-        <v>2.7496146584132347E-6</v>
+        <v>1.0561171717445801E-5</v>
       </c>
       <c r="N7">
-        <v>6.5782845889064876E-6</v>
+        <v>8.2034638329221025E-6</v>
       </c>
       <c r="O7">
-        <v>1.6259673652372229E-6</v>
+        <v>1.638787670446916E-6</v>
       </c>
       <c r="P7">
-        <v>-1.7356981343608313E-6</v>
+        <v>-1.4357599838097473E-7</v>
       </c>
       <c r="Q7">
-        <v>-1.1443763466430396E-6</v>
+        <v>2.5008714605104772E-7</v>
       </c>
       <c r="R7">
-        <v>1.3443700185652437E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>6.1931651741851975E-7</v>
+      </c>
+      <c r="S7">
+        <v>-2.4038956332068334E-7</v>
+      </c>
+      <c r="T7">
+        <v>4.203600119667606E-7</v>
+      </c>
+      <c r="U7">
+        <v>5.1403689253894474E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B8">
-        <v>0.10871227841234643</v>
+        <v>8.2461146679909975E-2</v>
       </c>
       <c r="C8">
-        <v>-3.9749009609073806E-5</v>
+        <v>-2.2108130936924618E-5</v>
       </c>
       <c r="D8">
-        <v>3.8148335594775103E-7</v>
+        <v>2.1644735953997107E-7</v>
       </c>
       <c r="E8">
-        <v>3.0881185392259559E-6</v>
+        <v>2.5635463107200535E-5</v>
       </c>
       <c r="F8">
-        <v>-6.2766318430628438E-5</v>
+        <v>4.3656926874755865E-5</v>
       </c>
       <c r="G8">
-        <v>-3.8189656655171251E-7</v>
+        <v>-6.6196679993813412E-7</v>
       </c>
       <c r="H8">
-        <v>1.1682119697230496E-6</v>
+        <v>-5.7326142379600452E-7</v>
       </c>
       <c r="I8">
-        <v>5.8380440250922706E-4</v>
+        <v>3.5742835125635616E-4</v>
       </c>
       <c r="J8">
-        <v>-1.2715708090908632E-4</v>
+        <v>-8.8560606441244301E-5</v>
       </c>
       <c r="K8">
-        <v>-1.64721935568037E-5</v>
+        <v>3.0591489611239388E-5</v>
       </c>
       <c r="L8">
-        <v>-9.8095864964041772E-6</v>
+        <v>9.1348491399454216E-6</v>
       </c>
       <c r="M8">
-        <v>-2.2065179306763894E-5</v>
+        <v>-4.4028019533617934E-6</v>
       </c>
       <c r="N8">
-        <v>-3.8375890269001474E-5</v>
+        <v>-6.9543573823259777E-7</v>
       </c>
       <c r="O8">
-        <v>-4.1051181293713098E-5</v>
+        <v>3.9830282664956808E-6</v>
       </c>
       <c r="P8">
-        <v>-2.2832518841860447E-5</v>
+        <v>-6.7936263555133643E-6</v>
       </c>
       <c r="Q8">
-        <v>-2.878315030818674E-5</v>
+        <v>-8.6791753554066473E-6</v>
       </c>
       <c r="R8">
-        <v>7.3233530796113638E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>-7.4583589039826227E-7</v>
+      </c>
+      <c r="S8">
+        <v>4.4543053736400301E-7</v>
+      </c>
+      <c r="T8">
+        <v>-5.2797315671259609E-6</v>
+      </c>
+      <c r="U8">
+        <v>3.2103307475813493E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B9">
-        <v>-0.16738654861163121</v>
+        <v>-0.10105382457524609</v>
       </c>
       <c r="C9">
-        <v>-6.9661501792601377E-5</v>
+        <v>-2.9689699682348396E-5</v>
       </c>
       <c r="D9">
-        <v>8.7230052576653517E-7</v>
+        <v>4.0595447782955309E-7</v>
       </c>
       <c r="E9">
-        <v>-2.2472607936359335E-4</v>
+        <v>-8.9033577313836601E-5</v>
       </c>
       <c r="F9">
-        <v>-4.6968649925907308E-4</v>
+        <v>-1.160824614868648E-4</v>
       </c>
       <c r="G9">
-        <v>4.7269470424102415E-6</v>
+        <v>1.8866481616474779E-6</v>
       </c>
       <c r="H9">
-        <v>8.493379193651847E-6</v>
+        <v>1.9143216428132787E-6</v>
       </c>
       <c r="I9">
-        <v>-1.2715708090908632E-4</v>
+        <v>-8.8560606441244301E-5</v>
       </c>
       <c r="J9">
-        <v>7.4174847669903482E-4</v>
+        <v>3.8375741353650526E-4</v>
       </c>
       <c r="K9">
-        <v>4.5543802630172633E-5</v>
+        <v>-1.013889615663084E-5</v>
       </c>
       <c r="L9">
-        <v>8.2547143839681791E-7</v>
+        <v>-1.6787365426230332E-5</v>
       </c>
       <c r="M9">
-        <v>-6.4932781996575317E-7</v>
+        <v>-2.6121653048079307E-5</v>
       </c>
       <c r="N9">
-        <v>-2.2824502199345108E-6</v>
+        <v>-2.1147060824363537E-5</v>
       </c>
       <c r="O9">
-        <v>1.6117246590135093E-6</v>
+        <v>-9.5583774621139916E-6</v>
       </c>
       <c r="P9">
-        <v>-4.9433391925456608E-6</v>
+        <v>-5.1153500367626869E-6</v>
       </c>
       <c r="Q9">
-        <v>-8.7925736489692518E-6</v>
+        <v>-3.5791038827865223E-6</v>
       </c>
       <c r="R9">
-        <v>1.1036651800808476E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>-7.4103672116575423E-6</v>
+      </c>
+      <c r="S9">
+        <v>-1.4649821750342313E-6</v>
+      </c>
+      <c r="T9">
+        <v>-3.9064698293048365E-6</v>
+      </c>
+      <c r="U9">
+        <v>3.8868593361844047E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B10">
-        <v>-1.5273608918626485</v>
+        <v>0.51105718062760763</v>
       </c>
       <c r="C10">
-        <v>8.8421015091308343E-6</v>
+        <v>-2.7697114965211642E-6</v>
       </c>
       <c r="D10">
-        <v>-9.096976204439846E-8</v>
+        <v>2.3433591932986087E-8</v>
       </c>
       <c r="E10">
-        <v>1.7786202918941281E-4</v>
+        <v>-4.1559145247559029E-5</v>
       </c>
       <c r="F10">
-        <v>2.5696642069232708E-4</v>
+        <v>-2.5548431473599231E-4</v>
       </c>
       <c r="G10">
-        <v>-5.4456398448492658E-6</v>
+        <v>7.4651638927815251E-7</v>
       </c>
       <c r="H10">
-        <v>-6.267307036053484E-6</v>
+        <v>6.7465653533341578E-6</v>
       </c>
       <c r="I10">
-        <v>-1.64721935568037E-5</v>
+        <v>3.0591489611239388E-5</v>
       </c>
       <c r="J10">
-        <v>4.5543802630172633E-5</v>
+        <v>-1.013889615663084E-5</v>
       </c>
       <c r="K10">
-        <v>1.0512414611450274E-2</v>
+        <v>1.5960050295526749E-2</v>
       </c>
       <c r="L10">
-        <v>1.4583527906433641E-3</v>
+        <v>1.4482019222500895E-2</v>
       </c>
       <c r="M10">
-        <v>2.2182739079216044E-3</v>
+        <v>1.4486698535989655E-2</v>
       </c>
       <c r="N10">
-        <v>2.3805427437065094E-3</v>
+        <v>1.4488338152004744E-2</v>
       </c>
       <c r="O10">
-        <v>2.3632753860340439E-3</v>
+        <v>2.7491222958392049E-5</v>
       </c>
       <c r="P10">
-        <v>-9.3700640268392423E-5</v>
+        <v>2.1195226050612585E-5</v>
       </c>
       <c r="Q10">
-        <v>-7.3663126828088141E-5</v>
+        <v>2.2126792789370283E-5</v>
       </c>
       <c r="R10">
-        <v>-2.5078519463427357E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>8.0861670587044116E-6</v>
+      </c>
+      <c r="S10">
+        <v>7.6593942240455578E-6</v>
+      </c>
+      <c r="T10">
+        <v>1.4813783893215076E-6</v>
+      </c>
+      <c r="U10">
+        <v>-1.444284189389043E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B11">
-        <v>0.35373436516013401</v>
+        <v>0.81285586416391264</v>
       </c>
       <c r="C11">
-        <v>1.6085577879934761E-5</v>
+        <v>2.898771846588581E-6</v>
       </c>
       <c r="D11">
-        <v>-1.8625480181782308E-7</v>
+        <v>-3.9862786421839066E-8</v>
       </c>
       <c r="E11">
-        <v>1.0490283697320866E-4</v>
+        <v>-5.4156976991669072E-5</v>
       </c>
       <c r="F11">
-        <v>1.7401790463893608E-4</v>
+        <v>-2.8415128973748342E-4</v>
       </c>
       <c r="G11">
-        <v>-3.0805352458525067E-6</v>
+        <v>1.246027541628298E-6</v>
       </c>
       <c r="H11">
-        <v>-3.5293385356878381E-6</v>
+        <v>8.4088307852517586E-6</v>
       </c>
       <c r="I11">
-        <v>-9.8095864964041772E-6</v>
+        <v>9.1348491399454216E-6</v>
       </c>
       <c r="J11">
-        <v>8.2547143839681791E-7</v>
+        <v>-1.6787365426230332E-5</v>
       </c>
       <c r="K11">
-        <v>1.4583527906433641E-3</v>
+        <v>1.4482019222500895E-2</v>
       </c>
       <c r="L11">
-        <v>2.0902909621068964E-2</v>
+        <v>1.4773274927482222E-2</v>
       </c>
       <c r="M11">
-        <v>1.8323220789430411E-2</v>
+        <v>1.4501212650788329E-2</v>
       </c>
       <c r="N11">
-        <v>1.8329086685413588E-2</v>
+        <v>1.4508975413145615E-2</v>
       </c>
       <c r="O11">
-        <v>1.831992717775224E-2</v>
+        <v>2.1923385318478513E-5</v>
       </c>
       <c r="P11">
-        <v>6.9527131174456931E-6</v>
+        <v>2.5767208143661973E-5</v>
       </c>
       <c r="Q11">
-        <v>2.7708902116628509E-6</v>
+        <v>2.5650481909981701E-5</v>
       </c>
       <c r="R11">
-        <v>-1.8638491928052763E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <v>6.6517203363896185E-6</v>
+      </c>
+      <c r="S11">
+        <v>7.2226550198710793E-6</v>
+      </c>
+      <c r="T11">
+        <v>-4.1300130950150467E-6</v>
+      </c>
+      <c r="U11">
+        <v>-1.4563646497825914E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B12">
-        <v>0.54428575722636208</v>
+        <v>0.95611045522050853</v>
       </c>
       <c r="C12">
-        <v>1.7849435101213859E-5</v>
+        <v>4.4676039417657618E-6</v>
       </c>
       <c r="D12">
-        <v>-2.2302876931093128E-7</v>
+        <v>-2.2772101762793333E-8</v>
       </c>
       <c r="E12">
-        <v>2.0297018501569918E-5</v>
+        <v>-7.4181546800714069E-5</v>
       </c>
       <c r="F12">
-        <v>1.1066381415341265E-5</v>
+        <v>-3.1105408784397911E-4</v>
       </c>
       <c r="G12">
-        <v>-6.1224240254822949E-7</v>
+        <v>2.415759627951395E-6</v>
       </c>
       <c r="H12">
-        <v>2.7496146584132347E-6</v>
+        <v>1.0561171717445801E-5</v>
       </c>
       <c r="I12">
-        <v>-2.2065179306763894E-5</v>
+        <v>-4.4028019533617934E-6</v>
       </c>
       <c r="J12">
-        <v>-6.4932781996575317E-7</v>
+        <v>-2.6121653048079307E-5</v>
       </c>
       <c r="K12">
-        <v>2.2182739079216044E-3</v>
+        <v>1.4486698535989655E-2</v>
       </c>
       <c r="L12">
-        <v>1.8323220789430411E-2</v>
+        <v>1.4501212650788329E-2</v>
       </c>
       <c r="M12">
-        <v>1.8999126774858405E-2</v>
+        <v>1.4672595554607076E-2</v>
       </c>
       <c r="N12">
-        <v>1.8544400975780851E-2</v>
+        <v>1.4591929304815298E-2</v>
       </c>
       <c r="O12">
-        <v>1.8548287400995237E-2</v>
+        <v>2.2519037286228906E-5</v>
       </c>
       <c r="P12">
-        <v>-2.9638669806016549E-5</v>
+        <v>2.810199881185402E-5</v>
       </c>
       <c r="Q12">
-        <v>-2.0251895819155827E-5</v>
+        <v>2.1714258076295512E-5</v>
       </c>
       <c r="R12">
-        <v>-1.8856007107679651E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1.2034724037946799E-5</v>
+      </c>
+      <c r="S12">
+        <v>-3.6875191896548106E-6</v>
+      </c>
+      <c r="T12">
+        <v>-2.2613006366635018E-5</v>
+      </c>
+      <c r="U12">
+        <v>-1.4719991500099372E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B13">
-        <v>0.5447466277319567</v>
+        <v>0.97569584104542528</v>
       </c>
       <c r="C13">
-        <v>1.4588057721068759E-5</v>
+        <v>2.1644387141768484E-5</v>
       </c>
       <c r="D13">
-        <v>-1.0550940739351458E-7</v>
+        <v>-1.6260954306951804E-7</v>
       </c>
       <c r="E13">
-        <v>-8.9409278258155596E-6</v>
+        <v>1.0509863948654063E-5</v>
       </c>
       <c r="F13">
-        <v>-3.3798194459368561E-5</v>
+        <v>-1.6329258416996847E-4</v>
       </c>
       <c r="G13">
-        <v>1.2551888331589829E-6</v>
+        <v>1.1266685266456383E-6</v>
       </c>
       <c r="H13">
-        <v>6.5782845889064876E-6</v>
+        <v>8.2034638329221025E-6</v>
       </c>
       <c r="I13">
-        <v>-3.8375890269001474E-5</v>
+        <v>-6.9543573823259777E-7</v>
       </c>
       <c r="J13">
-        <v>-2.2824502199345108E-6</v>
+        <v>-2.1147060824363537E-5</v>
       </c>
       <c r="K13">
-        <v>2.3805427437065094E-3</v>
+        <v>1.4488338152004744E-2</v>
       </c>
       <c r="L13">
-        <v>1.8329086685413588E-2</v>
+        <v>1.4508975413145615E-2</v>
       </c>
       <c r="M13">
-        <v>1.8544400975780851E-2</v>
+        <v>1.4591929304815298E-2</v>
       </c>
       <c r="N13">
-        <v>1.889080519004422E-2</v>
+        <v>1.5082449843927731E-2</v>
       </c>
       <c r="O13">
-        <v>1.8751793449415074E-2</v>
+        <v>2.7535579681136344E-5</v>
       </c>
       <c r="P13">
-        <v>-2.6892745924405914E-5</v>
+        <v>3.6482765876084565E-5</v>
       </c>
       <c r="Q13">
-        <v>3.6050445477317722E-6</v>
+        <v>1.8864608498273119E-5</v>
       </c>
       <c r="R13">
-        <v>-1.9131985569891465E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+        <v>2.1848255689932184E-5</v>
+      </c>
+      <c r="S13">
+        <v>-2.7180409234654797E-6</v>
+      </c>
+      <c r="T13">
+        <v>-2.1733179174269202E-5</v>
+      </c>
+      <c r="U13">
+        <v>-1.5247264641309915E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B14">
-        <v>0.73002233937492689</v>
+        <v>0.12428439373941973</v>
       </c>
       <c r="C14">
-        <v>6.1336160001339702E-5</v>
+        <v>3.1297232276421708E-6</v>
       </c>
       <c r="D14">
-        <v>-5.2159384788359643E-7</v>
+        <v>-4.5183227063700985E-8</v>
       </c>
       <c r="E14">
-        <v>1.0344590083602835E-4</v>
+        <v>-5.1102674870487151E-5</v>
       </c>
       <c r="F14">
-        <v>2.8524091831153443E-4</v>
+        <v>-1.1194962061175171E-4</v>
       </c>
       <c r="G14">
-        <v>1.0245404409449756E-7</v>
+        <v>1.043781585618886E-6</v>
       </c>
       <c r="H14">
-        <v>1.6259673652372229E-6</v>
+        <v>1.638787670446916E-6</v>
       </c>
       <c r="I14">
-        <v>-4.1051181293713098E-5</v>
+        <v>3.9830282664956808E-6</v>
       </c>
       <c r="J14">
-        <v>1.6117246590135093E-6</v>
+        <v>-9.5583774621139916E-6</v>
       </c>
       <c r="K14">
-        <v>2.3632753860340439E-3</v>
+        <v>2.7491222958392049E-5</v>
       </c>
       <c r="L14">
-        <v>1.831992717775224E-2</v>
+        <v>2.1923385318478513E-5</v>
       </c>
       <c r="M14">
-        <v>1.8548287400995237E-2</v>
+        <v>2.2519037286228906E-5</v>
       </c>
       <c r="N14">
-        <v>1.8751793449415074E-2</v>
+        <v>2.7535579681136344E-5</v>
       </c>
       <c r="O14">
-        <v>1.9879500581741306E-2</v>
+        <v>8.4526242258118548E-4</v>
       </c>
       <c r="P14">
-        <v>-2.458566599709502E-5</v>
+        <v>3.9403463058944229E-4</v>
       </c>
       <c r="Q14">
-        <v>2.8790942844971124E-5</v>
+        <v>3.9514539381209287E-4</v>
       </c>
       <c r="R14">
-        <v>-2.0464114106240532E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+        <v>3.9387410654610717E-4</v>
+      </c>
+      <c r="S14">
+        <v>-1.159183954749644E-5</v>
+      </c>
+      <c r="T14">
+        <v>-1.6360300870537539E-5</v>
+      </c>
+      <c r="U14">
+        <v>-4.5341639196352088E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B15">
-        <v>-6.4736071635387903E-4</v>
+        <v>5.2839303256144797E-2</v>
       </c>
       <c r="C15">
-        <v>-2.8534138400756467E-7</v>
+        <v>6.3629493690606674E-6</v>
       </c>
       <c r="D15">
-        <v>1.2049835516143592E-8</v>
+        <v>-8.0609988916930968E-8</v>
       </c>
       <c r="E15">
-        <v>-6.6119321545317168E-5</v>
+        <v>-1.9029834220205613E-5</v>
       </c>
       <c r="F15">
-        <v>-3.9752103300731896E-5</v>
+        <v>2.0805794938787947E-5</v>
       </c>
       <c r="G15">
-        <v>-4.6324626572046809E-7</v>
+        <v>6.2219640625559392E-7</v>
       </c>
       <c r="H15">
-        <v>-1.7356981343608313E-6</v>
+        <v>-1.4357599838097473E-7</v>
       </c>
       <c r="I15">
-        <v>-2.2832518841860447E-5</v>
+        <v>-6.7936263555133643E-6</v>
       </c>
       <c r="J15">
-        <v>-4.9433391925456608E-6</v>
+        <v>-5.1153500367626869E-6</v>
       </c>
       <c r="K15">
-        <v>-9.3700640268392423E-5</v>
+        <v>2.1195226050612585E-5</v>
       </c>
       <c r="L15">
-        <v>6.9527131174456931E-6</v>
+        <v>2.5767208143661973E-5</v>
       </c>
       <c r="M15">
-        <v>-2.9638669806016549E-5</v>
+        <v>2.810199881185402E-5</v>
       </c>
       <c r="N15">
-        <v>-2.6892745924405914E-5</v>
+        <v>3.6482765876084565E-5</v>
       </c>
       <c r="O15">
-        <v>-2.458566599709502E-5</v>
+        <v>3.9403463058944229E-4</v>
       </c>
       <c r="P15">
-        <v>1.0818934160242953E-3</v>
+        <v>1.0246501751746645E-3</v>
       </c>
       <c r="Q15">
-        <v>6.6945803799702734E-4</v>
+        <v>3.9436433503440372E-4</v>
       </c>
       <c r="R15">
-        <v>-5.6823211635214396E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+        <v>3.944910407137122E-4</v>
+      </c>
+      <c r="S15">
+        <v>-6.0482900466395487E-6</v>
+      </c>
+      <c r="T15">
+        <v>-9.6026083338146956E-6</v>
+      </c>
+      <c r="U15">
+        <v>-5.3280727378317088E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B16">
-        <v>2.9189559390160425E-2</v>
+        <v>6.3705217939564726E-2</v>
       </c>
       <c r="C16">
-        <v>3.0948622998538909E-7</v>
+        <v>3.1209019464327874E-6</v>
       </c>
       <c r="D16">
-        <v>8.0343208336362217E-9</v>
+        <v>-4.7377863933641638E-8</v>
       </c>
       <c r="E16">
-        <v>-5.370471368795151E-5</v>
+        <v>-4.0050158088986845E-5</v>
       </c>
       <c r="F16">
-        <v>-5.3142857639408277E-5</v>
+        <v>-4.3383546650216088E-5</v>
       </c>
       <c r="G16">
-        <v>-4.3147221995909979E-7</v>
+        <v>9.8763863484706962E-7</v>
       </c>
       <c r="H16">
-        <v>-1.1443763466430396E-6</v>
+        <v>2.5008714605104772E-7</v>
       </c>
       <c r="I16">
-        <v>-2.878315030818674E-5</v>
+        <v>-8.6791753554066473E-6</v>
       </c>
       <c r="J16">
-        <v>-8.7925736489692518E-6</v>
+        <v>-3.5791038827865223E-6</v>
       </c>
       <c r="K16">
-        <v>-7.3663126828088141E-5</v>
+        <v>2.2126792789370283E-5</v>
       </c>
       <c r="L16">
-        <v>2.7708902116628509E-6</v>
+        <v>2.5650481909981701E-5</v>
       </c>
       <c r="M16">
-        <v>-2.0251895819155827E-5</v>
+        <v>2.1714258076295512E-5</v>
       </c>
       <c r="N16">
-        <v>3.6050445477317722E-6</v>
+        <v>1.8864608498273119E-5</v>
       </c>
       <c r="O16">
-        <v>2.8790942844971124E-5</v>
+        <v>3.9514539381209287E-4</v>
       </c>
       <c r="P16">
-        <v>6.6945803799702734E-4</v>
+        <v>3.9436433503440372E-4</v>
       </c>
       <c r="Q16">
-        <v>9.0919696925045629E-4</v>
+        <v>7.9462451275269302E-4</v>
       </c>
       <c r="R16">
-        <v>-6.1870813755848504E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+        <v>3.9413991201388802E-4</v>
+      </c>
+      <c r="S16">
+        <v>-7.8206152357976166E-6</v>
+      </c>
+      <c r="T16">
+        <v>-1.1220925211390883E-5</v>
+      </c>
+      <c r="U16">
+        <v>-4.4724332840749261E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B17">
-        <v>-4.2123778410144608</v>
+        <v>1.5108084380617825E-2</v>
       </c>
       <c r="C17">
-        <v>-1.6321105455625858E-3</v>
+        <v>2.5013660098625245E-6</v>
       </c>
       <c r="D17">
-        <v>1.6852222283021417E-5</v>
+        <v>-3.7429002910934282E-8</v>
       </c>
       <c r="E17">
-        <v>-8.045509535291661E-3</v>
+        <v>1.0954139479236026E-6</v>
       </c>
       <c r="F17">
-        <v>-6.6369066943382116E-3</v>
+        <v>-2.0077398226053585E-5</v>
       </c>
       <c r="G17">
-        <v>1.7154989787195255E-4</v>
+        <v>3.4748827085385132E-7</v>
       </c>
       <c r="H17">
-        <v>1.3443700185652437E-4</v>
+        <v>6.1931651741851975E-7</v>
       </c>
       <c r="I17">
-        <v>7.3233530796113638E-4</v>
+        <v>-7.4583589039826227E-7</v>
       </c>
       <c r="J17">
-        <v>1.1036651800808476E-3</v>
+        <v>-7.4103672116575423E-6</v>
       </c>
       <c r="K17">
-        <v>-2.5078519463427357E-3</v>
+        <v>8.0861670587044116E-6</v>
       </c>
       <c r="L17">
-        <v>-1.8638491928052763E-2</v>
+        <v>6.6517203363896185E-6</v>
       </c>
       <c r="M17">
-        <v>-1.8856007107679651E-2</v>
+        <v>1.2034724037946799E-5</v>
       </c>
       <c r="N17">
-        <v>-1.9131985569891465E-2</v>
+        <v>2.1848255689932184E-5</v>
       </c>
       <c r="O17">
-        <v>-2.0464114106240532E-2</v>
+        <v>3.9387410654610717E-4</v>
       </c>
       <c r="P17">
-        <v>-5.6823211635214396E-4</v>
+        <v>3.944910407137122E-4</v>
       </c>
       <c r="Q17">
-        <v>-6.1870813755848504E-4</v>
+        <v>3.9413991201388802E-4</v>
       </c>
       <c r="R17">
-        <v>5.618318527899404E-2</v>
+        <v>5.5828009760885186E-4</v>
+      </c>
+      <c r="S17">
+        <v>-7.060608196128441E-6</v>
+      </c>
+      <c r="T17">
+        <v>-1.2506996341813627E-5</v>
+      </c>
+      <c r="U17">
+        <v>-4.4302521242736519E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18">
+        <v>-0.12929503441779289</v>
+      </c>
+      <c r="C18">
+        <v>6.5220872586495709E-8</v>
+      </c>
+      <c r="D18">
+        <v>-1.2635539363903215E-8</v>
+      </c>
+      <c r="E18">
+        <v>-8.9468516979209097E-7</v>
+      </c>
+      <c r="F18">
+        <v>3.5585299649267759E-5</v>
+      </c>
+      <c r="G18">
+        <v>2.7813512865824845E-7</v>
+      </c>
+      <c r="H18">
+        <v>-2.4038956332068334E-7</v>
+      </c>
+      <c r="I18">
+        <v>4.4543053736400301E-7</v>
+      </c>
+      <c r="J18">
+        <v>-1.4649821750342313E-6</v>
+      </c>
+      <c r="K18">
+        <v>7.6593942240455578E-6</v>
+      </c>
+      <c r="L18">
+        <v>7.2226550198710793E-6</v>
+      </c>
+      <c r="M18">
+        <v>-3.6875191896548106E-6</v>
+      </c>
+      <c r="N18">
+        <v>-2.7180409234654797E-6</v>
+      </c>
+      <c r="O18">
+        <v>-1.159183954749644E-5</v>
+      </c>
+      <c r="P18">
+        <v>-6.0482900466395487E-6</v>
+      </c>
+      <c r="Q18">
+        <v>-7.8206152357976166E-6</v>
+      </c>
+      <c r="R18">
+        <v>-7.060608196128441E-6</v>
+      </c>
+      <c r="S18">
+        <v>5.6286775133699684E-4</v>
+      </c>
+      <c r="T18">
+        <v>8.9107167392621912E-5</v>
+      </c>
+      <c r="U18">
+        <v>-6.4278844129376516E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>3.9913540105343488E-2</v>
+      </c>
+      <c r="C19">
+        <v>-1.847668256206979E-6</v>
+      </c>
+      <c r="D19">
+        <v>1.5561768791072757E-9</v>
+      </c>
+      <c r="E19">
+        <v>-1.4299619845155114E-5</v>
+      </c>
+      <c r="F19">
+        <v>6.9608474720226181E-6</v>
+      </c>
+      <c r="G19">
+        <v>6.0956611967859153E-7</v>
+      </c>
+      <c r="H19">
+        <v>4.203600119667606E-7</v>
+      </c>
+      <c r="I19">
+        <v>-5.2797315671259609E-6</v>
+      </c>
+      <c r="J19">
+        <v>-3.9064698293048365E-6</v>
+      </c>
+      <c r="K19">
+        <v>1.4813783893215076E-6</v>
+      </c>
+      <c r="L19">
+        <v>-4.1300130950150467E-6</v>
+      </c>
+      <c r="M19">
+        <v>-2.2613006366635018E-5</v>
+      </c>
+      <c r="N19">
+        <v>-2.1733179174269202E-5</v>
+      </c>
+      <c r="O19">
+        <v>-1.6360300870537539E-5</v>
+      </c>
+      <c r="P19">
+        <v>-9.6026083338146956E-6</v>
+      </c>
+      <c r="Q19">
+        <v>-1.1220925211390883E-5</v>
+      </c>
+      <c r="R19">
+        <v>-1.2506996341813627E-5</v>
+      </c>
+      <c r="S19">
+        <v>8.9107167392621912E-5</v>
+      </c>
+      <c r="T19">
+        <v>8.6619736872024268E-4</v>
+      </c>
+      <c r="U19">
+        <v>1.4104822730096462E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>-4.6133528127737682</v>
+      </c>
+      <c r="C20">
+        <v>-7.6798725286602568E-4</v>
+      </c>
+      <c r="D20">
+        <v>8.2351551980110485E-6</v>
+      </c>
+      <c r="E20">
+        <v>-2.4735151439129687E-3</v>
+      </c>
+      <c r="F20">
+        <v>-2.7582818307635357E-3</v>
+      </c>
+      <c r="G20">
+        <v>5.0956563696591661E-5</v>
+      </c>
+      <c r="H20">
+        <v>5.1403689253894474E-5</v>
+      </c>
+      <c r="I20">
+        <v>3.2103307475813493E-4</v>
+      </c>
+      <c r="J20">
+        <v>3.8868593361844047E-4</v>
+      </c>
+      <c r="K20">
+        <v>-1.444284189389043E-2</v>
+      </c>
+      <c r="L20">
+        <v>-1.4563646497825914E-2</v>
+      </c>
+      <c r="M20">
+        <v>-1.4719991500099372E-2</v>
+      </c>
+      <c r="N20">
+        <v>-1.5247264641309915E-2</v>
+      </c>
+      <c r="O20">
+        <v>-4.5341639196352088E-4</v>
+      </c>
+      <c r="P20">
+        <v>-5.3280727378317088E-4</v>
+      </c>
+      <c r="Q20">
+        <v>-4.4724332840749261E-4</v>
+      </c>
+      <c r="R20">
+        <v>-4.4302521242736519E-4</v>
+      </c>
+      <c r="S20">
+        <v>-6.4278844129376516E-5</v>
+      </c>
+      <c r="T20">
+        <v>1.4104822730096462E-5</v>
+      </c>
+      <c r="U20">
+        <v>3.151050412854834E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3723,970 +5123,1316 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287274D1-3866-4EF0-9DE7-D6181E6D59EB}">
-  <dimension ref="A1:R17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B1" sqref="B1:U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="H1" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="K1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="L1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="N1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="O1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="P1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="Q1" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="R1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B2">
-        <v>8.6202303753547593E-2</v>
+        <v>8.774488805090945E-2</v>
       </c>
       <c r="C2">
-        <v>6.3870270423670947E-5</v>
+        <v>3.100832040274602E-5</v>
       </c>
       <c r="D2">
-        <v>-6.5243112127805002E-7</v>
+        <v>-3.3650652155852693E-7</v>
       </c>
       <c r="E2">
-        <v>3.2412903165935703E-4</v>
+        <v>7.7524947911866579E-5</v>
       </c>
       <c r="F2">
-        <v>4.0870134245807175E-4</v>
+        <v>1.1283647563206751E-4</v>
       </c>
       <c r="G2">
-        <v>-7.2272867915517042E-6</v>
+        <v>-1.6593866537701591E-6</v>
       </c>
       <c r="H2">
-        <v>-9.1297108130513041E-6</v>
+        <v>-2.238015097356736E-6</v>
       </c>
       <c r="I2">
-        <v>-3.2547377843146458E-5</v>
+        <v>-2.3893432831350503E-5</v>
       </c>
       <c r="J2">
-        <v>-4.0387001455349558E-5</v>
+        <v>-2.0002905107660874E-5</v>
       </c>
       <c r="K2">
-        <v>8.4974148420205071E-6</v>
+        <v>-4.5952240811606153E-6</v>
       </c>
       <c r="L2">
-        <v>-9.2393128626455916E-6</v>
+        <v>-7.8993665694019623E-6</v>
       </c>
       <c r="M2">
-        <v>-1.7722852483142526E-5</v>
+        <v>-1.2937488715070178E-5</v>
       </c>
       <c r="N2">
-        <v>-3.0902379440253818E-5</v>
+        <v>2.2652535394156376E-6</v>
       </c>
       <c r="O2">
-        <v>1.2152529841430904E-5</v>
+        <v>2.8039055504005326E-6</v>
       </c>
       <c r="P2">
-        <v>2.1481347739229437E-6</v>
+        <v>1.2841212194248363E-6</v>
       </c>
       <c r="Q2">
-        <v>8.1734365381689261E-6</v>
+        <v>2.334744511159637E-6</v>
       </c>
       <c r="R2">
-        <v>-1.4087183286513388E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>8.1158435342185659E-7</v>
+      </c>
+      <c r="S2">
+        <v>-6.7768235916325072E-7</v>
+      </c>
+      <c r="T2">
+        <v>-1.3182963464722673E-6</v>
+      </c>
+      <c r="U2">
+        <v>-6.3194152414876672E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B3">
-        <v>-1.02932842063135E-3</v>
+        <v>-9.182288736556978E-4</v>
       </c>
       <c r="C3">
-        <v>-6.5243112127805002E-7</v>
+        <v>-3.3650652155852693E-7</v>
       </c>
       <c r="D3">
-        <v>7.300603876469714E-9</v>
+        <v>3.8975974099173515E-9</v>
       </c>
       <c r="E3">
-        <v>-1.182291070193728E-6</v>
+        <v>-1.1119883992802032E-7</v>
       </c>
       <c r="F3">
-        <v>-2.099235847517097E-6</v>
+        <v>-5.1673687165792785E-7</v>
       </c>
       <c r="G3">
-        <v>2.4743657837924166E-8</v>
+        <v>-2.7657681214373321E-10</v>
       </c>
       <c r="H3">
-        <v>4.5345124203471098E-8</v>
+        <v>6.190025368951823E-9</v>
       </c>
       <c r="I3">
-        <v>1.9175430484149621E-7</v>
+        <v>1.8220524740473982E-7</v>
       </c>
       <c r="J3">
-        <v>5.4978754675856993E-7</v>
+        <v>2.877764436951481E-7</v>
       </c>
       <c r="K3">
-        <v>-7.9035281097244285E-8</v>
+        <v>4.1534321059049876E-8</v>
       </c>
       <c r="L3">
-        <v>8.2218452617291619E-8</v>
+        <v>8.0804465970253933E-8</v>
       </c>
       <c r="M3">
-        <v>1.6573333884871471E-7</v>
+        <v>1.740479714040542E-7</v>
       </c>
       <c r="N3">
-        <v>3.9297546229457309E-7</v>
+        <v>4.9828575577774656E-8</v>
       </c>
       <c r="O3">
-        <v>1.2703387055540379E-8</v>
+        <v>-3.8207717941410721E-8</v>
       </c>
       <c r="P3">
-        <v>-3.191408989754877E-8</v>
+        <v>-2.6784596268666941E-8</v>
       </c>
       <c r="Q3">
-        <v>-8.6788219579794393E-8</v>
+        <v>-2.9475076389353519E-8</v>
       </c>
       <c r="R3">
-        <v>1.3075498575651646E-5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>-9.8707815535896679E-9</v>
+      </c>
+      <c r="S3">
+        <v>5.8116234271642392E-9</v>
+      </c>
+      <c r="T3">
+        <v>3.0216140695887568E-9</v>
+      </c>
+      <c r="U3">
+        <v>6.4173455911124541E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B4">
-        <v>2.3562767401524166E-2</v>
+        <v>0.88487143663978329</v>
       </c>
       <c r="C4">
-        <v>3.2412903165935703E-4</v>
+        <v>7.7524947911866579E-5</v>
       </c>
       <c r="D4">
-        <v>-1.182291070193728E-6</v>
+        <v>-1.1119883992802032E-7</v>
       </c>
       <c r="E4">
-        <v>1.2664934883282583E-2</v>
+        <v>4.2630557953604389E-3</v>
       </c>
       <c r="F4">
-        <v>1.0619694189834985E-2</v>
+        <v>2.9929345341599646E-3</v>
       </c>
       <c r="G4">
-        <v>-2.7172063387433451E-4</v>
+        <v>-9.5918952630272164E-5</v>
       </c>
       <c r="H4">
-        <v>-2.2803256913286229E-4</v>
+        <v>-6.9389522625746861E-5</v>
       </c>
       <c r="I4">
-        <v>4.7406993558328601E-5</v>
+        <v>4.1656008765393043E-5</v>
       </c>
       <c r="J4">
-        <v>-2.0137252551615526E-4</v>
+        <v>-7.3207592190564048E-5</v>
       </c>
       <c r="K4">
-        <v>1.393614379076238E-4</v>
+        <v>-7.9536433618475171E-5</v>
       </c>
       <c r="L4">
-        <v>-4.3887495888677609E-5</v>
+        <v>-9.2754148952367598E-5</v>
       </c>
       <c r="M4">
-        <v>-1.4809025360811631E-4</v>
+        <v>-1.2846775713814726E-4</v>
       </c>
       <c r="N4">
-        <v>-1.9570848811492191E-4</v>
+        <v>-7.2889347884078992E-5</v>
       </c>
       <c r="O4">
-        <v>-8.5895010958281053E-5</v>
+        <v>-2.0467613887471522E-5</v>
       </c>
       <c r="P4">
-        <v>-1.5334698222548346E-4</v>
+        <v>-1.9954969308192534E-5</v>
       </c>
       <c r="Q4">
-        <v>-1.1527795402893314E-4</v>
+        <v>-1.2228164919102909E-5</v>
       </c>
       <c r="R4">
-        <v>-1.20575732975589E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>3.8674312929412773E-6</v>
+      </c>
+      <c r="S4">
+        <v>3.1265671290609972E-5</v>
+      </c>
+      <c r="T4">
+        <v>-1.5244330856000703E-5</v>
+      </c>
+      <c r="U4">
+        <v>-2.9991001354662452E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B5">
-        <v>-0.64578349617790709</v>
+        <v>0.56461508818924067</v>
       </c>
       <c r="C5">
-        <v>4.0870134245807175E-4</v>
+        <v>1.1283647563206751E-4</v>
       </c>
       <c r="D5">
-        <v>-2.099235847517097E-6</v>
+        <v>-5.1673687165792785E-7</v>
       </c>
       <c r="E5">
-        <v>1.0619694189834985E-2</v>
+        <v>2.9929345341599646E-3</v>
       </c>
       <c r="F5">
-        <v>2.1444712081840327E-2</v>
+        <v>1.1333367273799367E-2</v>
       </c>
       <c r="G5">
-        <v>-2.2819279015536006E-4</v>
+        <v>-6.9172291091385636E-5</v>
       </c>
       <c r="H5">
-        <v>-4.651091975973216E-4</v>
+        <v>-2.3935806741184434E-4</v>
       </c>
       <c r="I5">
-        <v>-7.5030464865235097E-5</v>
+        <v>2.7695492831242204E-5</v>
       </c>
       <c r="J5">
-        <v>-3.7229533327480578E-4</v>
+        <v>-8.9908108081153951E-5</v>
       </c>
       <c r="K5">
-        <v>8.3516060487565211E-5</v>
+        <v>-2.6641188371969056E-7</v>
       </c>
       <c r="L5">
-        <v>1.3630436341688541E-4</v>
+        <v>-3.5893895572057868E-5</v>
       </c>
       <c r="M5">
-        <v>-3.6833780042395264E-5</v>
+        <v>-7.1680420442059387E-5</v>
       </c>
       <c r="N5">
-        <v>-1.0346245973351723E-4</v>
+        <v>1.2243948702108515E-5</v>
       </c>
       <c r="O5">
-        <v>1.4049486863351637E-4</v>
+        <v>-7.026417869399175E-5</v>
       </c>
       <c r="P5">
-        <v>-1.4106631261330693E-4</v>
+        <v>-3.3342044462742102E-5</v>
       </c>
       <c r="Q5">
-        <v>-1.0020977904269616E-4</v>
+        <v>-5.1293798882825789E-5</v>
       </c>
       <c r="R5">
-        <v>-1.3881236120587585E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>2.1057687190228168E-5</v>
+      </c>
+      <c r="S5">
+        <v>-4.8532821812215341E-6</v>
+      </c>
+      <c r="T5">
+        <v>-2.4103741254495447E-5</v>
+      </c>
+      <c r="U5">
+        <v>-3.7518913086700507E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B6">
-        <v>-8.4332282230374666E-4</v>
+        <v>-1.1459896271934058E-2</v>
       </c>
       <c r="C6">
-        <v>-7.2272867915517042E-6</v>
+        <v>-1.6593866537701591E-6</v>
       </c>
       <c r="D6">
-        <v>2.4743657837924166E-8</v>
+        <v>-2.7657681214373321E-10</v>
       </c>
       <c r="E6">
-        <v>-2.7172063387433451E-4</v>
+        <v>-9.5918952630272164E-5</v>
       </c>
       <c r="F6">
-        <v>-2.2819279015536006E-4</v>
+        <v>-6.9172291091385636E-5</v>
       </c>
       <c r="G6">
-        <v>6.2505031219547191E-6</v>
+        <v>2.3295876259092916E-6</v>
       </c>
       <c r="H6">
-        <v>5.2464981717751536E-6</v>
+        <v>1.7287826148865959E-6</v>
       </c>
       <c r="I6">
-        <v>-5.2024574800919671E-7</v>
+        <v>-1.1444558724013674E-6</v>
       </c>
       <c r="J6">
-        <v>4.407393536779885E-6</v>
+        <v>1.6982123852882996E-6</v>
       </c>
       <c r="K6">
-        <v>-4.0642198592018532E-6</v>
+        <v>2.3141204662321318E-6</v>
       </c>
       <c r="L6">
-        <v>9.65608970357175E-7</v>
+        <v>2.8288912000098234E-6</v>
       </c>
       <c r="M6">
-        <v>3.8908610140461715E-6</v>
+        <v>4.164775092160352E-6</v>
       </c>
       <c r="N6">
-        <v>6.1194540076434377E-6</v>
+        <v>3.4465064265085342E-6</v>
       </c>
       <c r="O6">
-        <v>4.8301945640284418E-6</v>
+        <v>-3.0534901680205825E-8</v>
       </c>
       <c r="P6">
-        <v>8.4788966855237874E-7</v>
+        <v>4.9925491241124715E-7</v>
       </c>
       <c r="Q6">
-        <v>2.5525066676766119E-7</v>
+        <v>-4.3797378857120606E-8</v>
       </c>
       <c r="R6">
-        <v>2.5688971663025649E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>-2.1222752581347187E-7</v>
+      </c>
+      <c r="S6">
+        <v>-5.0698908390639331E-7</v>
+      </c>
+      <c r="T6">
+        <v>3.0591375685384943E-7</v>
+      </c>
+      <c r="U6">
+        <v>6.325575096781303E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B7">
-        <v>9.6350645601530095E-3</v>
+        <v>-7.9703962396881853E-3</v>
       </c>
       <c r="C7">
-        <v>-9.1297108130513041E-6</v>
+        <v>-2.238015097356736E-6</v>
       </c>
       <c r="D7">
-        <v>4.5345124203471098E-8</v>
+        <v>6.190025368951823E-9</v>
       </c>
       <c r="E7">
-        <v>-2.2803256913286229E-4</v>
+        <v>-6.9389522625746861E-5</v>
       </c>
       <c r="F7">
-        <v>-4.651091975973216E-4</v>
+        <v>-2.3935806741184434E-4</v>
       </c>
       <c r="G7">
-        <v>5.2464981717751536E-6</v>
+        <v>1.7287826148865959E-6</v>
       </c>
       <c r="H7">
-        <v>1.0859721962282748E-5</v>
+        <v>5.5407362261324227E-6</v>
       </c>
       <c r="I7">
-        <v>3.0340641067149135E-6</v>
+        <v>6.0858898582660309E-8</v>
       </c>
       <c r="J7">
-        <v>6.3720325236428756E-6</v>
+        <v>1.3988194124013659E-6</v>
       </c>
       <c r="K7">
-        <v>-3.8755393446306126E-6</v>
+        <v>1.25882565940299E-7</v>
       </c>
       <c r="L7">
-        <v>-3.5831864102675077E-6</v>
+        <v>1.3636018156218834E-6</v>
       </c>
       <c r="M7">
-        <v>1.8971812953018493E-6</v>
+        <v>2.892782422899862E-6</v>
       </c>
       <c r="N7">
-        <v>5.435267808649922E-6</v>
+        <v>1.8093966516781869E-6</v>
       </c>
       <c r="O7">
-        <v>1.6968265440685997E-6</v>
+        <v>7.5146619343991334E-7</v>
       </c>
       <c r="P7">
-        <v>1.9688965621162179E-7</v>
+        <v>5.4770681124987334E-7</v>
       </c>
       <c r="Q7">
-        <v>-8.7138031752735286E-7</v>
+        <v>2.7295165313254608E-7</v>
       </c>
       <c r="R7">
-        <v>2.9723814330323892E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>-1.1225539750592949E-6</v>
+      </c>
+      <c r="S7">
+        <v>4.2261138296998003E-7</v>
+      </c>
+      <c r="T7">
+        <v>8.2223304118498791E-7</v>
+      </c>
+      <c r="U7">
+        <v>7.6169817088135103E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B8">
-        <v>0.55965625582030332</v>
+        <v>0.50449664618420464</v>
       </c>
       <c r="C8">
-        <v>-3.2547377843146458E-5</v>
+        <v>-2.3893432831350503E-5</v>
       </c>
       <c r="D8">
-        <v>1.9175430484149621E-7</v>
+        <v>1.8220524740473982E-7</v>
       </c>
       <c r="E8">
-        <v>4.7406993558328601E-5</v>
+        <v>4.1656008765393043E-5</v>
       </c>
       <c r="F8">
-        <v>-7.5030464865235097E-5</v>
+        <v>2.7695492831242204E-5</v>
       </c>
       <c r="G8">
-        <v>-5.2024574800919671E-7</v>
+        <v>-1.1444558724013674E-6</v>
       </c>
       <c r="H8">
-        <v>3.0340641067149135E-6</v>
+        <v>6.0858898582660309E-8</v>
       </c>
       <c r="I8">
-        <v>7.7155605501930558E-4</v>
+        <v>4.5469098222607212E-4</v>
       </c>
       <c r="J8">
-        <v>-3.4636828994617536E-4</v>
+        <v>-1.9184285818953103E-4</v>
       </c>
       <c r="K8">
-        <v>-3.4092172529602589E-5</v>
+        <v>-8.8435669905221291E-6</v>
       </c>
       <c r="L8">
-        <v>8.5916091035933087E-5</v>
+        <v>5.1453224341304672E-6</v>
       </c>
       <c r="M8">
-        <v>6.5573049203160132E-5</v>
+        <v>-6.3900723541870388E-7</v>
       </c>
       <c r="N8">
-        <v>6.9846197270008524E-5</v>
+        <v>7.8391547196949457E-7</v>
       </c>
       <c r="O8">
-        <v>8.0520769629509694E-5</v>
+        <v>5.3754726367799707E-6</v>
       </c>
       <c r="P8">
-        <v>-3.5724152791381781E-6</v>
+        <v>5.572390276930808E-6</v>
       </c>
       <c r="Q8">
-        <v>-3.4616149440854319E-5</v>
+        <v>-4.5073794946818325E-6</v>
       </c>
       <c r="R8">
-        <v>6.1905793652870767E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>3.4257145941330277E-6</v>
+      </c>
+      <c r="S8">
+        <v>4.359867156799673E-6</v>
+      </c>
+      <c r="T8">
+        <v>5.8557025098306829E-6</v>
+      </c>
+      <c r="U8">
+        <v>4.4286604403342148E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B9">
-        <v>-0.21793231469482144</v>
+        <v>-4.8133280392593278E-2</v>
       </c>
       <c r="C9">
-        <v>-4.0387001455349558E-5</v>
+        <v>-2.0002905107660874E-5</v>
       </c>
       <c r="D9">
-        <v>5.4978754675856993E-7</v>
+        <v>2.877764436951481E-7</v>
       </c>
       <c r="E9">
-        <v>-2.0137252551615526E-4</v>
+        <v>-7.3207592190564048E-5</v>
       </c>
       <c r="F9">
-        <v>-3.7229533327480578E-4</v>
+        <v>-8.9908108081153951E-5</v>
       </c>
       <c r="G9">
-        <v>4.407393536779885E-6</v>
+        <v>1.6982123852882996E-6</v>
       </c>
       <c r="H9">
-        <v>6.3720325236428756E-6</v>
+        <v>1.3988194124013659E-6</v>
       </c>
       <c r="I9">
-        <v>-3.4636828994617536E-4</v>
+        <v>-1.9184285818953103E-4</v>
       </c>
       <c r="J9">
-        <v>7.2292027796990485E-4</v>
+        <v>3.7231393972080913E-4</v>
       </c>
       <c r="K9">
-        <v>2.9035521251542975E-5</v>
+        <v>3.3671615608490288E-5</v>
       </c>
       <c r="L9">
-        <v>-3.6894990315287771E-5</v>
+        <v>1.8482540695252748E-5</v>
       </c>
       <c r="M9">
-        <v>-3.8929411697125982E-5</v>
+        <v>1.6518506162419887E-5</v>
       </c>
       <c r="N9">
-        <v>-5.0989985708779718E-5</v>
+        <v>2.268867609015406E-5</v>
       </c>
       <c r="O9">
-        <v>-4.8274318898793418E-5</v>
+        <v>-7.9496735800323352E-6</v>
       </c>
       <c r="P9">
-        <v>-1.1195026956656622E-5</v>
+        <v>-2.0407312660388601E-6</v>
       </c>
       <c r="Q9">
-        <v>-2.0112442527853019E-5</v>
+        <v>-7.4627087886435856E-6</v>
       </c>
       <c r="R9">
-        <v>6.6343801497852702E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>-6.5619736428965436E-6</v>
+      </c>
+      <c r="S9">
+        <v>1.4839132130415644E-6</v>
+      </c>
+      <c r="T9">
+        <v>-1.9693281318273898E-6</v>
+      </c>
+      <c r="U9">
+        <v>2.4277059330810722E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B10">
-        <v>-1.8034893584637397</v>
+        <v>0.48098465525704337</v>
       </c>
       <c r="C10">
-        <v>8.4974148420205071E-6</v>
+        <v>-4.5952240811606153E-6</v>
       </c>
       <c r="D10">
-        <v>-7.9035281097244285E-8</v>
+        <v>4.1534321059049876E-8</v>
       </c>
       <c r="E10">
-        <v>1.393614379076238E-4</v>
+        <v>-7.9536433618475171E-5</v>
       </c>
       <c r="F10">
-        <v>8.3516060487565211E-5</v>
+        <v>-2.6641188371969056E-7</v>
       </c>
       <c r="G10">
-        <v>-4.0642198592018532E-6</v>
+        <v>2.3141204662321318E-6</v>
       </c>
       <c r="H10">
-        <v>-3.8755393446306126E-6</v>
+        <v>1.25882565940299E-7</v>
       </c>
       <c r="I10">
-        <v>-3.4092172529602589E-5</v>
+        <v>-8.8435669905221291E-6</v>
       </c>
       <c r="J10">
-        <v>2.9035521251542975E-5</v>
+        <v>3.3671615608490288E-5</v>
       </c>
       <c r="K10">
-        <v>1.2535085389610016E-2</v>
+        <v>1.0359438874627185E-2</v>
       </c>
       <c r="L10">
-        <v>6.4113088199739467E-4</v>
+        <v>9.2288355750037663E-3</v>
       </c>
       <c r="M10">
-        <v>1.773018955508571E-3</v>
+        <v>9.2318152349927102E-3</v>
       </c>
       <c r="N10">
-        <v>1.9371097687477144E-3</v>
+        <v>9.2345683599566759E-3</v>
       </c>
       <c r="O10">
-        <v>1.915080660766651E-3</v>
+        <v>1.8091837707516717E-5</v>
       </c>
       <c r="P10">
-        <v>-2.2622541980037467E-5</v>
+        <v>1.7465547494978074E-5</v>
       </c>
       <c r="Q10">
-        <v>-2.7175779574259259E-5</v>
+        <v>3.0227101559897448E-6</v>
       </c>
       <c r="R10">
-        <v>-2.1014895049823994E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>2.7977084493281939E-6</v>
+      </c>
+      <c r="S10">
+        <v>5.2107118368417764E-6</v>
+      </c>
+      <c r="T10">
+        <v>2.7083623310090318E-5</v>
+      </c>
+      <c r="U10">
+        <v>-9.1490930182491839E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B11">
-        <v>0.20897451199705794</v>
+        <v>1.0047332789077668</v>
       </c>
       <c r="C11">
-        <v>-9.2393128626455916E-6</v>
+        <v>-7.8993665694019623E-6</v>
       </c>
       <c r="D11">
-        <v>8.2218452617291619E-8</v>
+        <v>8.0804465970253933E-8</v>
       </c>
       <c r="E11">
-        <v>-4.3887495888677609E-5</v>
+        <v>-9.2754148952367598E-5</v>
       </c>
       <c r="F11">
-        <v>1.3630436341688541E-4</v>
+        <v>-3.5893895572057868E-5</v>
       </c>
       <c r="G11">
-        <v>9.65608970357175E-7</v>
+        <v>2.8288912000098234E-6</v>
       </c>
       <c r="H11">
-        <v>-3.5831864102675077E-6</v>
+        <v>1.3636018156218834E-6</v>
       </c>
       <c r="I11">
-        <v>8.5916091035933087E-5</v>
+        <v>5.1453224341304672E-6</v>
       </c>
       <c r="J11">
-        <v>-3.6894990315287771E-5</v>
+        <v>1.8482540695252748E-5</v>
       </c>
       <c r="K11">
-        <v>6.4113088199739467E-4</v>
+        <v>9.2288355750037663E-3</v>
       </c>
       <c r="L11">
-        <v>2.7145899790468581E-2</v>
+        <v>9.5031932215435214E-3</v>
       </c>
       <c r="M11">
-        <v>2.416632024807883E-2</v>
+        <v>9.2459301471421382E-3</v>
       </c>
       <c r="N11">
-        <v>2.417284025222096E-2</v>
+        <v>9.2548263195274746E-3</v>
       </c>
       <c r="O11">
-        <v>2.4164779484611987E-2</v>
+        <v>1.8433752466039501E-5</v>
       </c>
       <c r="P11">
-        <v>-4.3511745447819775E-5</v>
+        <v>1.5005589686721798E-5</v>
       </c>
       <c r="Q11">
-        <v>-1.2451458129297173E-4</v>
+        <v>1.0286997135957438E-6</v>
       </c>
       <c r="R11">
-        <v>-2.3895083698823417E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <v>-2.6402316833109521E-6</v>
+      </c>
+      <c r="S11">
+        <v>6.9120279260759339E-6</v>
+      </c>
+      <c r="T11">
+        <v>2.4727574391197626E-5</v>
+      </c>
+      <c r="U11">
+        <v>-9.1058309629993769E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B12">
-        <v>0.37045912590376845</v>
+        <v>1.2337244929217372</v>
       </c>
       <c r="C12">
-        <v>-1.7722852483142526E-5</v>
+        <v>-1.2937488715070178E-5</v>
       </c>
       <c r="D12">
-        <v>1.6573333884871471E-7</v>
+        <v>1.740479714040542E-7</v>
       </c>
       <c r="E12">
-        <v>-1.4809025360811631E-4</v>
+        <v>-1.2846775713814726E-4</v>
       </c>
       <c r="F12">
-        <v>-3.6833780042395264E-5</v>
+        <v>-7.1680420442059387E-5</v>
       </c>
       <c r="G12">
-        <v>3.8908610140461715E-6</v>
+        <v>4.164775092160352E-6</v>
       </c>
       <c r="H12">
-        <v>1.8971812953018493E-6</v>
+        <v>2.892782422899862E-6</v>
       </c>
       <c r="I12">
-        <v>6.5573049203160132E-5</v>
+        <v>-6.3900723541870388E-7</v>
       </c>
       <c r="J12">
-        <v>-3.8929411697125982E-5</v>
+        <v>1.6518506162419887E-5</v>
       </c>
       <c r="K12">
-        <v>1.773018955508571E-3</v>
+        <v>9.2318152349927102E-3</v>
       </c>
       <c r="L12">
-        <v>2.416632024807883E-2</v>
+        <v>9.2459301471421382E-3</v>
       </c>
       <c r="M12">
-        <v>2.4855854064682638E-2</v>
+        <v>9.4114535860621192E-3</v>
       </c>
       <c r="N12">
-        <v>2.4375594604409627E-2</v>
+        <v>9.33750069303994E-3</v>
       </c>
       <c r="O12">
-        <v>2.4373320669575978E-2</v>
+        <v>1.7572116039646357E-5</v>
       </c>
       <c r="P12">
-        <v>-3.0101589347229698E-5</v>
+        <v>1.4586241072844926E-5</v>
       </c>
       <c r="Q12">
-        <v>-1.2528619834091724E-4</v>
+        <v>7.1832238522778215E-7</v>
       </c>
       <c r="R12">
-        <v>-2.3912419704164009E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+        <v>3.0404954523714561E-6</v>
+      </c>
+      <c r="S12">
+        <v>-2.6024737797333678E-6</v>
+      </c>
+      <c r="T12">
+        <v>4.0305216144007191E-6</v>
+      </c>
+      <c r="U12">
+        <v>-9.1359273568503551E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B13">
-        <v>0.37477684048021226</v>
+        <v>1.249799766134015</v>
       </c>
       <c r="C13">
-        <v>-3.0902379440253818E-5</v>
+        <v>2.2652535394156376E-6</v>
       </c>
       <c r="D13">
-        <v>3.9297546229457309E-7</v>
+        <v>4.9828575577774656E-8</v>
       </c>
       <c r="E13">
-        <v>-1.9570848811492191E-4</v>
+        <v>-7.2889347884078992E-5</v>
       </c>
       <c r="F13">
-        <v>-1.0346245973351723E-4</v>
+        <v>1.2243948702108515E-5</v>
       </c>
       <c r="G13">
-        <v>6.1194540076434377E-6</v>
+        <v>3.4465064265085342E-6</v>
       </c>
       <c r="H13">
-        <v>5.435267808649922E-6</v>
+        <v>1.8093966516781869E-6</v>
       </c>
       <c r="I13">
-        <v>6.9846197270008524E-5</v>
+        <v>7.8391547196949457E-7</v>
       </c>
       <c r="J13">
-        <v>-5.0989985708779718E-5</v>
+        <v>2.268867609015406E-5</v>
       </c>
       <c r="K13">
-        <v>1.9371097687477144E-3</v>
+        <v>9.2345683599566759E-3</v>
       </c>
       <c r="L13">
-        <v>2.417284025222096E-2</v>
+        <v>9.2548263195274746E-3</v>
       </c>
       <c r="M13">
-        <v>2.4375594604409627E-2</v>
+        <v>9.33750069303994E-3</v>
       </c>
       <c r="N13">
-        <v>2.4699587133598013E-2</v>
+        <v>9.7176598105555376E-3</v>
       </c>
       <c r="O13">
-        <v>2.4571768072977312E-2</v>
+        <v>1.7283522527700569E-5</v>
       </c>
       <c r="P13">
-        <v>-3.4759765935937894E-5</v>
+        <v>2.5323847985255258E-5</v>
       </c>
       <c r="Q13">
-        <v>-1.1518681715978285E-4</v>
+        <v>2.1793661260869615E-6</v>
       </c>
       <c r="R13">
-        <v>-2.3968829803228911E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+        <v>4.2081259626270589E-6</v>
+      </c>
+      <c r="S13">
+        <v>-1.6264708935952327E-6</v>
+      </c>
+      <c r="T13">
+        <v>5.2737302667064419E-6</v>
+      </c>
+      <c r="U13">
+        <v>-9.6031873537355313E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B14">
-        <v>0.66536599311032674</v>
+        <v>9.506080617162338E-2</v>
       </c>
       <c r="C14">
-        <v>1.2152529841430904E-5</v>
+        <v>2.8039055504005326E-6</v>
       </c>
       <c r="D14">
-        <v>1.2703387055540379E-8</v>
+        <v>-3.8207717941410721E-8</v>
       </c>
       <c r="E14">
-        <v>-8.5895010958281053E-5</v>
+        <v>-2.0467613887471522E-5</v>
       </c>
       <c r="F14">
-        <v>1.4049486863351637E-4</v>
+        <v>-7.026417869399175E-5</v>
       </c>
       <c r="G14">
-        <v>4.8301945640284418E-6</v>
+        <v>-3.0534901680205825E-8</v>
       </c>
       <c r="H14">
-        <v>1.6968265440685997E-6</v>
+        <v>7.5146619343991334E-7</v>
       </c>
       <c r="I14">
-        <v>8.0520769629509694E-5</v>
+        <v>5.3754726367799707E-6</v>
       </c>
       <c r="J14">
-        <v>-4.8274318898793418E-5</v>
+        <v>-7.9496735800323352E-6</v>
       </c>
       <c r="K14">
-        <v>1.915080660766651E-3</v>
+        <v>1.8091837707516717E-5</v>
       </c>
       <c r="L14">
-        <v>2.4164779484611987E-2</v>
+        <v>1.8433752466039501E-5</v>
       </c>
       <c r="M14">
-        <v>2.4373320669575978E-2</v>
+        <v>1.7572116039646357E-5</v>
       </c>
       <c r="N14">
-        <v>2.4571768072977312E-2</v>
+        <v>1.7283522527700569E-5</v>
       </c>
       <c r="O14">
-        <v>2.5421596730853108E-2</v>
+        <v>7.6189169842692816E-4</v>
       </c>
       <c r="P14">
-        <v>-2.3811409742752795E-6</v>
+        <v>3.7112046595395235E-4</v>
       </c>
       <c r="Q14">
-        <v>-7.9082329404998788E-5</v>
+        <v>3.722925116867246E-4</v>
       </c>
       <c r="R14">
-        <v>-2.5215331870324677E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+        <v>3.7102157239695576E-4</v>
+      </c>
+      <c r="S14">
+        <v>-1.628611982096819E-5</v>
+      </c>
+      <c r="T14">
+        <v>-9.4574926483285218E-6</v>
+      </c>
+      <c r="U14">
+        <v>-4.137502615364964E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B15">
-        <v>-4.3262044104285427E-2</v>
+        <v>1.0407334397005244E-2</v>
       </c>
       <c r="C15">
-        <v>2.1481347739229437E-6</v>
+        <v>1.2841212194248363E-6</v>
       </c>
       <c r="D15">
-        <v>-3.191408989754877E-8</v>
+        <v>-2.6784596268666941E-8</v>
       </c>
       <c r="E15">
-        <v>-1.5334698222548346E-4</v>
+        <v>-1.9954969308192534E-5</v>
       </c>
       <c r="F15">
-        <v>-1.4106631261330693E-4</v>
+        <v>-3.3342044462742102E-5</v>
       </c>
       <c r="G15">
-        <v>8.4788966855237874E-7</v>
+        <v>4.9925491241124715E-7</v>
       </c>
       <c r="H15">
-        <v>1.9688965621162179E-7</v>
+        <v>5.4770681124987334E-7</v>
       </c>
       <c r="I15">
-        <v>-3.5724152791381781E-6</v>
+        <v>5.572390276930808E-6</v>
       </c>
       <c r="J15">
-        <v>-1.1195026956656622E-5</v>
+        <v>-2.0407312660388601E-6</v>
       </c>
       <c r="K15">
-        <v>-2.2622541980037467E-5</v>
+        <v>1.7465547494978074E-5</v>
       </c>
       <c r="L15">
-        <v>-4.3511745447819775E-5</v>
+        <v>1.5005589686721798E-5</v>
       </c>
       <c r="M15">
-        <v>-3.0101589347229698E-5</v>
+        <v>1.4586241072844926E-5</v>
       </c>
       <c r="N15">
-        <v>-3.4759765935937894E-5</v>
+        <v>2.5323847985255258E-5</v>
       </c>
       <c r="O15">
-        <v>-2.3811409742752795E-6</v>
+        <v>3.7112046595395235E-4</v>
       </c>
       <c r="P15">
-        <v>1.023233342379744E-3</v>
+        <v>9.1055532455883495E-4</v>
       </c>
       <c r="Q15">
-        <v>6.5932664982538936E-4</v>
+        <v>3.7077556999551135E-4</v>
       </c>
       <c r="R15">
-        <v>-5.5026768546349207E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+        <v>3.7057441362425164E-4</v>
+      </c>
+      <c r="S15">
+        <v>-1.3715779983177077E-5</v>
+      </c>
+      <c r="T15">
+        <v>-1.402442678436255E-5</v>
+      </c>
+      <c r="U15">
+        <v>-3.8953171722350095E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B16">
-        <v>-3.6201205600387788E-2</v>
+        <v>7.1802129841086262E-2</v>
       </c>
       <c r="C16">
-        <v>8.1734365381689261E-6</v>
+        <v>2.334744511159637E-6</v>
       </c>
       <c r="D16">
-        <v>-8.6788219579794393E-8</v>
+        <v>-2.9475076389353519E-8</v>
       </c>
       <c r="E16">
-        <v>-1.1527795402893314E-4</v>
+        <v>-1.2228164919102909E-5</v>
       </c>
       <c r="F16">
-        <v>-1.0020977904269616E-4</v>
+        <v>-5.1293798882825789E-5</v>
       </c>
       <c r="G16">
-        <v>2.5525066676766119E-7</v>
+        <v>-4.3797378857120606E-8</v>
       </c>
       <c r="H16">
-        <v>-8.7138031752735286E-7</v>
+        <v>2.7295165313254608E-7</v>
       </c>
       <c r="I16">
-        <v>-3.4616149440854319E-5</v>
+        <v>-4.5073794946818325E-6</v>
       </c>
       <c r="J16">
-        <v>-2.0112442527853019E-5</v>
+        <v>-7.4627087886435856E-6</v>
       </c>
       <c r="K16">
-        <v>-2.7175779574259259E-5</v>
+        <v>3.0227101559897448E-6</v>
       </c>
       <c r="L16">
-        <v>-1.2451458129297173E-4</v>
+        <v>1.0286997135957438E-6</v>
       </c>
       <c r="M16">
-        <v>-1.2528619834091724E-4</v>
+        <v>7.1832238522778215E-7</v>
       </c>
       <c r="N16">
-        <v>-1.1518681715978285E-4</v>
+        <v>2.1793661260869615E-6</v>
       </c>
       <c r="O16">
-        <v>-7.9082329404998788E-5</v>
+        <v>3.722925116867246E-4</v>
       </c>
       <c r="P16">
-        <v>6.5932664982538936E-4</v>
+        <v>3.7077556999551135E-4</v>
       </c>
       <c r="Q16">
-        <v>8.7728845160220783E-4</v>
+        <v>7.209773771963174E-4</v>
       </c>
       <c r="R16">
-        <v>-6.0589237474363187E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+        <v>3.7110252839695499E-4</v>
+      </c>
+      <c r="S16">
+        <v>-1.4570401343359713E-5</v>
+      </c>
+      <c r="T16">
+        <v>-1.291030701853572E-5</v>
+      </c>
+      <c r="U16">
+        <v>-3.9273945154040307E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B17">
-        <v>-1.2086141112023341</v>
+        <v>6.3158790368034678E-2</v>
       </c>
       <c r="C17">
-        <v>-1.4087183286513388E-3</v>
+        <v>8.1158435342185659E-7</v>
       </c>
       <c r="D17">
-        <v>1.3075498575651646E-5</v>
+        <v>-9.8707815535896679E-9</v>
       </c>
       <c r="E17">
-        <v>-1.20575732975589E-2</v>
+        <v>3.8674312929412773E-6</v>
       </c>
       <c r="F17">
-        <v>-1.3881236120587585E-2</v>
+        <v>2.1057687190228168E-5</v>
       </c>
       <c r="G17">
-        <v>2.5688971663025649E-4</v>
+        <v>-2.1222752581347187E-7</v>
       </c>
       <c r="H17">
-        <v>2.9723814330323892E-4</v>
+        <v>-1.1225539750592949E-6</v>
       </c>
       <c r="I17">
-        <v>6.1905793652870767E-4</v>
+        <v>3.4257145941330277E-6</v>
       </c>
       <c r="J17">
-        <v>6.6343801497852702E-4</v>
+        <v>-6.5619736428965436E-6</v>
       </c>
       <c r="K17">
-        <v>-2.1014895049823994E-3</v>
+        <v>2.7977084493281939E-6</v>
       </c>
       <c r="L17">
-        <v>-2.3895083698823417E-2</v>
+        <v>-2.6402316833109521E-6</v>
       </c>
       <c r="M17">
-        <v>-2.3912419704164009E-2</v>
+        <v>3.0404954523714561E-6</v>
       </c>
       <c r="N17">
-        <v>-2.3968829803228911E-2</v>
+        <v>4.2081259626270589E-6</v>
       </c>
       <c r="O17">
-        <v>-2.5215331870324677E-2</v>
+        <v>3.7102157239695576E-4</v>
       </c>
       <c r="P17">
-        <v>-5.5026768546349207E-4</v>
+        <v>3.7057441362425164E-4</v>
       </c>
       <c r="Q17">
-        <v>-6.0589237474363187E-4</v>
+        <v>3.7110252839695499E-4</v>
       </c>
       <c r="R17">
-        <v>5.9439481936509247E-2</v>
+        <v>5.1658199308140444E-4</v>
+      </c>
+      <c r="S17">
+        <v>-1.3648973854005952E-5</v>
+      </c>
+      <c r="T17">
+        <v>-1.5585915883907392E-5</v>
+      </c>
+      <c r="U17">
+        <v>-3.7869882246899358E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18">
+        <v>-2.4807921822105738E-2</v>
+      </c>
+      <c r="C18">
+        <v>-6.7768235916325072E-7</v>
+      </c>
+      <c r="D18">
+        <v>5.8116234271642392E-9</v>
+      </c>
+      <c r="E18">
+        <v>3.1265671290609972E-5</v>
+      </c>
+      <c r="F18">
+        <v>-4.8532821812215341E-6</v>
+      </c>
+      <c r="G18">
+        <v>-5.0698908390639331E-7</v>
+      </c>
+      <c r="H18">
+        <v>4.2261138296998003E-7</v>
+      </c>
+      <c r="I18">
+        <v>4.359867156799673E-6</v>
+      </c>
+      <c r="J18">
+        <v>1.4839132130415644E-6</v>
+      </c>
+      <c r="K18">
+        <v>5.2107118368417764E-6</v>
+      </c>
+      <c r="L18">
+        <v>6.9120279260759339E-6</v>
+      </c>
+      <c r="M18">
+        <v>-2.6024737797333678E-6</v>
+      </c>
+      <c r="N18">
+        <v>-1.6264708935952327E-6</v>
+      </c>
+      <c r="O18">
+        <v>-1.628611982096819E-5</v>
+      </c>
+      <c r="P18">
+        <v>-1.3715779983177077E-5</v>
+      </c>
+      <c r="Q18">
+        <v>-1.4570401343359713E-5</v>
+      </c>
+      <c r="R18">
+        <v>-1.3648973854005952E-5</v>
+      </c>
+      <c r="S18">
+        <v>5.5390434027278101E-4</v>
+      </c>
+      <c r="T18">
+        <v>7.5355750070279541E-5</v>
+      </c>
+      <c r="U18">
+        <v>-5.4862151394057946E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>0.15655933932919541</v>
+      </c>
+      <c r="C19">
+        <v>-1.3182963464722673E-6</v>
+      </c>
+      <c r="D19">
+        <v>3.0216140695887568E-9</v>
+      </c>
+      <c r="E19">
+        <v>-1.5244330856000703E-5</v>
+      </c>
+      <c r="F19">
+        <v>-2.4103741254495447E-5</v>
+      </c>
+      <c r="G19">
+        <v>3.0591375685384943E-7</v>
+      </c>
+      <c r="H19">
+        <v>8.2223304118498791E-7</v>
+      </c>
+      <c r="I19">
+        <v>5.8557025098306829E-6</v>
+      </c>
+      <c r="J19">
+        <v>-1.9693281318273898E-6</v>
+      </c>
+      <c r="K19">
+        <v>2.7083623310090318E-5</v>
+      </c>
+      <c r="L19">
+        <v>2.4727574391197626E-5</v>
+      </c>
+      <c r="M19">
+        <v>4.0305216144007191E-6</v>
+      </c>
+      <c r="N19">
+        <v>5.2737302667064419E-6</v>
+      </c>
+      <c r="O19">
+        <v>-9.4574926483285218E-6</v>
+      </c>
+      <c r="P19">
+        <v>-1.402442678436255E-5</v>
+      </c>
+      <c r="Q19">
+        <v>-1.291030701853572E-5</v>
+      </c>
+      <c r="R19">
+        <v>-1.5585915883907392E-5</v>
+      </c>
+      <c r="S19">
+        <v>7.5355750070279541E-5</v>
+      </c>
+      <c r="T19">
+        <v>8.6002343691424243E-4</v>
+      </c>
+      <c r="U19">
+        <v>-2.4995082133169119E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>-2.5129923012969702</v>
+      </c>
+      <c r="C20">
+        <v>-6.3194152414876672E-4</v>
+      </c>
+      <c r="D20">
+        <v>6.4173455911124541E-6</v>
+      </c>
+      <c r="E20">
+        <v>-2.9991001354662452E-3</v>
+      </c>
+      <c r="F20">
+        <v>-3.7518913086700507E-3</v>
+      </c>
+      <c r="G20">
+        <v>6.325575096781303E-5</v>
+      </c>
+      <c r="H20">
+        <v>7.6169817088135103E-5</v>
+      </c>
+      <c r="I20">
+        <v>4.4286604403342148E-4</v>
+      </c>
+      <c r="J20">
+        <v>2.4277059330810722E-4</v>
+      </c>
+      <c r="K20">
+        <v>-9.1490930182491839E-3</v>
+      </c>
+      <c r="L20">
+        <v>-9.1058309629993769E-3</v>
+      </c>
+      <c r="M20">
+        <v>-9.1359273568503551E-3</v>
+      </c>
+      <c r="N20">
+        <v>-9.6031873537355313E-3</v>
+      </c>
+      <c r="O20">
+        <v>-4.137502615364964E-4</v>
+      </c>
+      <c r="P20">
+        <v>-3.8953171722350095E-4</v>
+      </c>
+      <c r="Q20">
+        <v>-3.9273945154040307E-4</v>
+      </c>
+      <c r="R20">
+        <v>-3.7869882246899358E-4</v>
+      </c>
+      <c r="S20">
+        <v>-5.4862151394057946E-5</v>
+      </c>
+      <c r="T20">
+        <v>-2.4995082133169119E-5</v>
+      </c>
+      <c r="U20">
+        <v>2.3646709350612485E-2</v>
       </c>
     </row>
   </sheetData>

--- a/input/reg_employmentSelection.xlsx
+++ b/input/reg_employmentSelection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505F2DB9-AFF7-44AB-98C4-D58AF9E8D28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1600CAEA-F849-4B0B-997F-773A5EAEEBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="14566" windowHeight="17363" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -563,9 +563,9 @@
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -573,7 +573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -589,7 +589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -597,7 +597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -605,7 +605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -613,7 +613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -621,22 +621,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -650,14 +650,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -728,1495 +728,1495 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>17</v>
       </c>
       <c r="B2">
-        <v>-2.2095799584893689</v>
+        <v>-1.4608447354950025</v>
       </c>
       <c r="C2">
-        <v>9.1040682423005595E-4</v>
+        <v>9.6295266674577566E-4</v>
       </c>
       <c r="D2">
-        <v>7.6064551588544976E-5</v>
+        <v>5.9441596358152079E-5</v>
       </c>
       <c r="E2">
-        <v>4.6720908866435454E-5</v>
+        <v>4.3327230781620478E-5</v>
       </c>
       <c r="F2">
-        <v>-4.9635093209582316E-7</v>
+        <v>-4.6974686199315156E-7</v>
       </c>
       <c r="G2">
-        <v>-8.1344770520847361E-5</v>
+        <v>-1.3033044856263371E-4</v>
       </c>
       <c r="H2">
-        <v>-2.6033151933058845E-4</v>
+        <v>-4.3193550475469045E-4</v>
       </c>
       <c r="I2">
-        <v>1.3435756717598738E-6</v>
+        <v>2.5729554219048063E-6</v>
       </c>
       <c r="J2">
-        <v>4.6879573042563071E-6</v>
+        <v>8.2010738452522007E-6</v>
       </c>
       <c r="K2">
-        <v>2.7803187975272759E-5</v>
+        <v>2.0177209077014975E-5</v>
       </c>
       <c r="L2">
-        <v>1.7954020644123419E-5</v>
+        <v>2.9784664690818169E-5</v>
       </c>
       <c r="M2">
-        <v>1.6158402475342608E-6</v>
+        <v>8.1876726324516306E-6</v>
       </c>
       <c r="N2">
-        <v>3.062488981388548E-6</v>
+        <v>1.1086614158069231E-5</v>
       </c>
       <c r="O2">
-        <v>7.8754101839696505E-6</v>
+        <v>1.5018479845028889E-5</v>
       </c>
       <c r="P2">
-        <v>-1.1897893973778655E-5</v>
+        <v>1.2341817298956942E-6</v>
       </c>
       <c r="Q2">
-        <v>3.3039902456651438E-6</v>
+        <v>6.7526019448213863E-6</v>
       </c>
       <c r="R2">
-        <v>3.1772632622600145E-7</v>
+        <v>4.635829723761442E-6</v>
       </c>
       <c r="S2">
-        <v>-5.6880662623694356E-7</v>
+        <v>2.7444682554055377E-6</v>
       </c>
       <c r="T2">
-        <v>-5.0264764638347043E-6</v>
+        <v>-2.5517132136989691E-6</v>
       </c>
       <c r="U2">
-        <v>6.1713269955912683E-6</v>
+        <v>-6.3480531339584944E-6</v>
       </c>
       <c r="V2">
-        <v>9.4106416464093808E-7</v>
+        <v>-4.372955893652053E-6</v>
       </c>
       <c r="W2">
-        <v>-1.1043856368654944E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+        <v>-1.0071389860635052E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3">
-        <v>-2.3748715039120012</v>
+        <v>-1.5881339293260801</v>
       </c>
       <c r="C3">
-        <v>7.6064551588544976E-5</v>
+        <v>5.9441596358152079E-5</v>
       </c>
       <c r="D3">
-        <v>1.3381663013473213E-4</v>
+        <v>1.2778349095834182E-4</v>
       </c>
       <c r="E3">
-        <v>3.5846841952989511E-6</v>
+        <v>7.2915211408958606E-6</v>
       </c>
       <c r="F3">
-        <v>-3.936678581499368E-8</v>
+        <v>-7.9464115086728163E-8</v>
       </c>
       <c r="G3">
-        <v>-2.6092064584809472E-5</v>
+        <v>3.5420492954856429E-6</v>
       </c>
       <c r="H3">
-        <v>-1.5515294016882136E-5</v>
+        <v>8.069157641759884E-6</v>
       </c>
       <c r="I3">
-        <v>1.8488282712645062E-7</v>
+        <v>-3.600429131642144E-7</v>
       </c>
       <c r="J3">
-        <v>-2.5632926854597278E-7</v>
+        <v>-8.243753037895196E-7</v>
       </c>
       <c r="K3">
-        <v>-5.9807298093860338E-6</v>
+        <v>-2.2032535471422582E-6</v>
       </c>
       <c r="L3">
-        <v>-8.5125420885722432E-6</v>
+        <v>-7.7662538781118552E-6</v>
       </c>
       <c r="M3">
-        <v>1.1944715996880349E-6</v>
+        <v>1.3856301277964081E-5</v>
       </c>
       <c r="N3">
-        <v>5.1812216057259131E-6</v>
+        <v>2.5613985993846411E-5</v>
       </c>
       <c r="O3">
-        <v>8.596096648302314E-6</v>
+        <v>3.3767974050249005E-5</v>
       </c>
       <c r="P3">
-        <v>9.3958060856061087E-6</v>
+        <v>3.375804363539819E-5</v>
       </c>
       <c r="Q3">
-        <v>3.2815199105095804E-6</v>
+        <v>4.3210443102132539E-6</v>
       </c>
       <c r="R3">
-        <v>3.3041357557163955E-6</v>
+        <v>4.9015951912944429E-6</v>
       </c>
       <c r="S3">
-        <v>1.537725184082833E-6</v>
+        <v>1.8897251609308048E-6</v>
       </c>
       <c r="T3">
-        <v>2.585473096061281E-6</v>
+        <v>2.3549807470576682E-6</v>
       </c>
       <c r="U3">
-        <v>4.3024489147469974E-6</v>
+        <v>-1.0356635618192767E-5</v>
       </c>
       <c r="V3">
-        <v>-3.0668364228317393E-7</v>
+        <v>-6.1018550897357862E-6</v>
       </c>
       <c r="W3">
-        <v>-1.2728793101969392E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+        <v>-2.0899807815479211E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.16407994797268624</v>
+        <v>0.1035531451298726</v>
       </c>
       <c r="C4">
-        <v>4.6720908866435454E-5</v>
+        <v>4.3327230781620478E-5</v>
       </c>
       <c r="D4">
-        <v>3.5846841952989511E-6</v>
+        <v>7.2915211408958606E-6</v>
       </c>
       <c r="E4">
-        <v>1.6098390196377427E-5</v>
+        <v>1.4204925095800279E-5</v>
       </c>
       <c r="F4">
-        <v>-1.7659048095438886E-7</v>
+        <v>-1.6008607183456622E-7</v>
       </c>
       <c r="G4">
-        <v>3.8172260576028318E-5</v>
+        <v>2.3654644365677367E-5</v>
       </c>
       <c r="H4">
-        <v>5.2896211751901173E-5</v>
+        <v>3.4610447658408547E-5</v>
       </c>
       <c r="I4">
-        <v>-8.572692865677304E-7</v>
+        <v>-5.1145688868108626E-7</v>
       </c>
       <c r="J4">
-        <v>-1.0958769391561336E-6</v>
+        <v>-6.6282610588853965E-7</v>
       </c>
       <c r="K4">
-        <v>-1.2297566248489893E-5</v>
+        <v>-6.3170938595463141E-6</v>
       </c>
       <c r="L4">
-        <v>-1.0404196650150613E-5</v>
+        <v>-1.3849836575965802E-5</v>
       </c>
       <c r="M4">
-        <v>1.3041648071195706E-6</v>
+        <v>1.0984549845269374E-6</v>
       </c>
       <c r="N4">
-        <v>3.7940771431965053E-6</v>
+        <v>2.2588385306903226E-6</v>
       </c>
       <c r="O4">
-        <v>4.3058994086847297E-6</v>
+        <v>1.9215228275371477E-6</v>
       </c>
       <c r="P4">
-        <v>1.1963563222168645E-5</v>
+        <v>7.6049862341572244E-6</v>
       </c>
       <c r="Q4">
-        <v>5.1491523163810276E-7</v>
+        <v>2.2437707567036377E-7</v>
       </c>
       <c r="R4">
-        <v>1.8503556199266614E-6</v>
+        <v>1.3273663969615076E-6</v>
       </c>
       <c r="S4">
-        <v>4.7392289047950583E-7</v>
+        <v>5.9882063365977332E-7</v>
       </c>
       <c r="T4">
-        <v>5.7218994212042388E-7</v>
+        <v>5.3592793558268205E-7</v>
       </c>
       <c r="U4">
-        <v>3.1124976718003207E-7</v>
+        <v>1.2135077090261731E-6</v>
       </c>
       <c r="V4">
-        <v>-2.361900330388523E-7</v>
+        <v>4.7628137894048667E-7</v>
       </c>
       <c r="W4">
-        <v>-3.3461378997220358E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+        <v>-2.9081705459502199E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5">
-        <v>-1.9177805154249952E-3</v>
+        <v>-1.2596753336715733E-3</v>
       </c>
       <c r="C5">
-        <v>-4.9635093209582316E-7</v>
+        <v>-4.6974686199315156E-7</v>
       </c>
       <c r="D5">
-        <v>-3.936678581499368E-8</v>
+        <v>-7.9464115086728163E-8</v>
       </c>
       <c r="E5">
-        <v>-1.7659048095438886E-7</v>
+        <v>-1.6008607183456622E-7</v>
       </c>
       <c r="F5">
-        <v>2.0461155021374035E-9</v>
+        <v>1.8862184939125443E-9</v>
       </c>
       <c r="G5">
-        <v>-1.0428255166752853E-7</v>
+        <v>-2.742339016039967E-8</v>
       </c>
       <c r="H5">
-        <v>-2.8942518426558699E-7</v>
+        <v>-1.6818399578740445E-7</v>
       </c>
       <c r="I5">
-        <v>1.4809119214644504E-9</v>
+        <v>-1.1947531667752394E-10</v>
       </c>
       <c r="J5">
-        <v>4.5159382560166246E-9</v>
+        <v>1.8887316118449874E-9</v>
       </c>
       <c r="K5">
-        <v>1.1922332365134969E-7</v>
+        <v>5.6665230945447812E-8</v>
       </c>
       <c r="L5">
-        <v>1.4902824434294724E-7</v>
+        <v>1.8735983056675787E-7</v>
       </c>
       <c r="M5">
-        <v>-1.4489547008999636E-8</v>
+        <v>-1.2828658902818423E-8</v>
       </c>
       <c r="N5">
-        <v>-4.2729861188902573E-8</v>
+        <v>-2.5547934215911488E-8</v>
       </c>
       <c r="O5">
-        <v>-3.1261667968958035E-8</v>
+        <v>-9.5687092911662797E-9</v>
       </c>
       <c r="P5">
-        <v>-9.527090273701043E-8</v>
+        <v>-5.6097093013073447E-8</v>
       </c>
       <c r="Q5">
-        <v>-8.7629178789426177E-9</v>
+        <v>-4.7178957666202475E-9</v>
       </c>
       <c r="R5">
-        <v>-2.4504241021934044E-8</v>
+        <v>-1.7315230998079155E-8</v>
       </c>
       <c r="S5">
-        <v>-8.5870310247903211E-9</v>
+        <v>-1.0411923800154031E-8</v>
       </c>
       <c r="T5">
-        <v>-8.7388238703419799E-9</v>
+        <v>-8.3789964874922208E-9</v>
       </c>
       <c r="U5">
-        <v>-8.571916865803244E-9</v>
+        <v>-1.7286517208351635E-8</v>
       </c>
       <c r="V5">
-        <v>-6.5446817603424968E-9</v>
+        <v>-1.0369790708769978E-8</v>
       </c>
       <c r="W5">
-        <v>3.460670395065402E-6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+        <v>3.1152287131471001E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.18770082638112701</v>
+        <v>0.20701475057879357</v>
       </c>
       <c r="C6">
-        <v>-8.1344770520847361E-5</v>
+        <v>-1.3033044856263371E-4</v>
       </c>
       <c r="D6">
-        <v>-2.6092064584809472E-5</v>
+        <v>3.5420492954856429E-6</v>
       </c>
       <c r="E6">
-        <v>3.8172260576028318E-5</v>
+        <v>2.3654644365677367E-5</v>
       </c>
       <c r="F6">
-        <v>-1.0428255166752853E-7</v>
+        <v>-2.742339016039967E-8</v>
       </c>
       <c r="G6">
-        <v>1.9495064150428514E-3</v>
+        <v>1.5887438842935853E-3</v>
       </c>
       <c r="H6">
-        <v>1.3680517272646288E-3</v>
+        <v>1.0410851347557614E-3</v>
       </c>
       <c r="I6">
-        <v>-4.3513050580284618E-5</v>
+        <v>-3.5262819833378013E-5</v>
       </c>
       <c r="J6">
-        <v>-3.1123783129555209E-5</v>
+        <v>-2.3678242457824616E-5</v>
       </c>
       <c r="K6">
-        <v>3.5285621086160121E-6</v>
+        <v>8.6434543024680966E-6</v>
       </c>
       <c r="L6">
-        <v>-4.2309201661784993E-5</v>
+        <v>-3.215362028589726E-5</v>
       </c>
       <c r="M6">
-        <v>9.7102288648493948E-6</v>
+        <v>-1.5877007313489194E-6</v>
       </c>
       <c r="N6">
-        <v>6.4374552234243649E-6</v>
+        <v>-9.3455199920371807E-6</v>
       </c>
       <c r="O6">
-        <v>-9.4428199708565357E-6</v>
+        <v>-2.3119676196873553E-5</v>
       </c>
       <c r="P6">
-        <v>1.838080346106474E-5</v>
+        <v>3.2095283539373184E-6</v>
       </c>
       <c r="Q6">
-        <v>-1.4166210351775328E-5</v>
+        <v>-1.4790523549982556E-5</v>
       </c>
       <c r="R6">
-        <v>-6.2274083979280243E-6</v>
+        <v>-6.9529610714595409E-6</v>
       </c>
       <c r="S6">
-        <v>-1.1767192541441555E-5</v>
+        <v>-1.4903997662517025E-5</v>
       </c>
       <c r="T6">
-        <v>-1.1784511289598293E-6</v>
+        <v>-2.8960296384616957E-6</v>
       </c>
       <c r="U6">
-        <v>4.2300565733944102E-6</v>
+        <v>5.2578592900275747E-6</v>
       </c>
       <c r="V6">
-        <v>-8.3724968653016308E-6</v>
+        <v>4.2128333080199568E-6</v>
       </c>
       <c r="W6">
-        <v>-1.4101587643521683E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+        <v>-9.4194074600342716E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>22</v>
       </c>
       <c r="B7">
-        <v>-0.41814159129937878</v>
+        <v>-0.38229937524152424</v>
       </c>
       <c r="C7">
-        <v>-2.6033151933058845E-4</v>
+        <v>-4.3193550475469045E-4</v>
       </c>
       <c r="D7">
-        <v>-1.5515294016882136E-5</v>
+        <v>8.069157641759884E-6</v>
       </c>
       <c r="E7">
-        <v>5.2896211751901173E-5</v>
+        <v>3.4610447658408547E-5</v>
       </c>
       <c r="F7">
-        <v>-2.8942518426558699E-7</v>
+        <v>-1.6818399578740445E-7</v>
       </c>
       <c r="G7">
-        <v>1.3680517272646288E-3</v>
+        <v>1.0410851347557614E-3</v>
       </c>
       <c r="H7">
-        <v>5.1801957708797527E-3</v>
+        <v>4.9438514573633486E-3</v>
       </c>
       <c r="I7">
-        <v>-3.1151059561195196E-5</v>
+        <v>-2.3570664585406241E-5</v>
       </c>
       <c r="J7">
-        <v>-1.0907054770491351E-4</v>
+        <v>-1.0228649843875181E-4</v>
       </c>
       <c r="K7">
-        <v>3.6263119976348323E-6</v>
+        <v>6.1889065877286139E-6</v>
       </c>
       <c r="L7">
-        <v>-5.7574376356305009E-5</v>
+        <v>-3.3036477620689825E-5</v>
       </c>
       <c r="M7">
-        <v>8.4568691079709227E-7</v>
+        <v>2.2914501473427634E-6</v>
       </c>
       <c r="N7">
-        <v>-3.435691937437777E-6</v>
+        <v>-8.6025920347164138E-6</v>
       </c>
       <c r="O7">
-        <v>-2.1071640196561564E-5</v>
+        <v>-2.3707795422237823E-5</v>
       </c>
       <c r="P7">
-        <v>2.1256736606262627E-5</v>
+        <v>1.4418801854130061E-5</v>
       </c>
       <c r="Q7">
-        <v>-2.1085682457980707E-5</v>
+        <v>-2.0783728507237599E-5</v>
       </c>
       <c r="R7">
-        <v>-1.1125714936645146E-5</v>
+        <v>-6.187550922369687E-6</v>
       </c>
       <c r="S7">
-        <v>-1.592533416875693E-5</v>
+        <v>-1.7850892199371525E-5</v>
       </c>
       <c r="T7">
-        <v>2.6859944943256544E-6</v>
+        <v>-1.3277618954707798E-6</v>
       </c>
       <c r="U7">
-        <v>3.1372171594469165E-6</v>
+        <v>3.0300654498722656E-6</v>
       </c>
       <c r="V7">
-        <v>-2.0017225179748168E-5</v>
+        <v>-7.418382187778684E-6</v>
       </c>
       <c r="W7">
-        <v>-1.6566149339020009E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+        <v>-1.1315367511289219E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>23</v>
       </c>
       <c r="B8">
-        <v>-8.2768301144902218E-3</v>
+        <v>-3.6658957086177489E-3</v>
       </c>
       <c r="C8">
-        <v>1.3435756717598738E-6</v>
+        <v>2.5729554219048063E-6</v>
       </c>
       <c r="D8">
-        <v>1.8488282712645062E-7</v>
+        <v>-3.600429131642144E-7</v>
       </c>
       <c r="E8">
-        <v>-8.572692865677304E-7</v>
+        <v>-5.1145688868108626E-7</v>
       </c>
       <c r="F8">
-        <v>1.4809119214644504E-9</v>
+        <v>-1.1947531667752394E-10</v>
       </c>
       <c r="G8">
-        <v>-4.3513050580284618E-5</v>
+        <v>-3.5262819833378013E-5</v>
       </c>
       <c r="H8">
-        <v>-3.1151059561195196E-5</v>
+        <v>-2.3570664585406241E-5</v>
       </c>
       <c r="I8">
-        <v>1.0584072825419997E-6</v>
+        <v>8.3900055681297422E-7</v>
       </c>
       <c r="J8">
-        <v>7.7407903113000334E-7</v>
+        <v>5.7590965234265821E-7</v>
       </c>
       <c r="K8">
-        <v>-1.7414226455252055E-7</v>
+        <v>-2.7482877907758986E-7</v>
       </c>
       <c r="L8">
-        <v>8.7969459647864223E-7</v>
+        <v>7.9132047757514745E-7</v>
       </c>
       <c r="M8">
-        <v>-3.5669758599562745E-7</v>
+        <v>-5.5687158279750794E-8</v>
       </c>
       <c r="N8">
-        <v>-1.3285439552024497E-7</v>
+        <v>2.1313002999560009E-7</v>
       </c>
       <c r="O8">
-        <v>5.5919065845472993E-7</v>
+        <v>7.5666859330311475E-7</v>
       </c>
       <c r="P8">
-        <v>2.0076445541134818E-7</v>
+        <v>3.7322544335298081E-7</v>
       </c>
       <c r="Q8">
-        <v>2.3140203684693463E-7</v>
+        <v>2.653969988772113E-7</v>
       </c>
       <c r="R8">
-        <v>1.9020235384717303E-7</v>
+        <v>1.9036035145291696E-7</v>
       </c>
       <c r="S8">
-        <v>2.4384338222133683E-7</v>
+        <v>3.2175246345432441E-7</v>
       </c>
       <c r="T8">
-        <v>1.3322787069099014E-7</v>
+        <v>1.5325274168172059E-7</v>
       </c>
       <c r="U8">
-        <v>7.6836055837247177E-8</v>
+        <v>-1.9229053064119302E-8</v>
       </c>
       <c r="V8">
-        <v>3.1709497898056324E-7</v>
+        <v>2.4042571095013325E-8</v>
       </c>
       <c r="W8">
-        <v>3.0726343967020221E-5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+        <v>2.011272543446515E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>24</v>
       </c>
       <c r="B9">
-        <v>-9.2236436887844608E-4</v>
+        <v>5.2896944129911371E-3</v>
       </c>
       <c r="C9">
-        <v>4.6879573042563071E-6</v>
+        <v>8.2010738452522007E-6</v>
       </c>
       <c r="D9">
-        <v>-2.5632926854597278E-7</v>
+        <v>-8.243753037895196E-7</v>
       </c>
       <c r="E9">
-        <v>-1.0958769391561336E-6</v>
+        <v>-6.6282610588853965E-7</v>
       </c>
       <c r="F9">
-        <v>4.5159382560166246E-9</v>
+        <v>1.8887316118449874E-9</v>
       </c>
       <c r="G9">
-        <v>-3.1123783129555209E-5</v>
+        <v>-2.3678242457824616E-5</v>
       </c>
       <c r="H9">
-        <v>-1.0907054770491351E-4</v>
+        <v>-1.0228649843875181E-4</v>
       </c>
       <c r="I9">
-        <v>7.7407903113000334E-7</v>
+        <v>5.7590965234265821E-7</v>
       </c>
       <c r="J9">
-        <v>2.5467814789783458E-6</v>
+        <v>2.3283688832344349E-6</v>
       </c>
       <c r="K9">
-        <v>5.3387196061842057E-8</v>
+        <v>-1.1175819779104784E-7</v>
       </c>
       <c r="L9">
-        <v>9.7280887798503573E-7</v>
+        <v>7.2243640881555318E-7</v>
       </c>
       <c r="M9">
-        <v>3.2997367931061306E-7</v>
+        <v>3.8384632110115631E-7</v>
       </c>
       <c r="N9">
-        <v>8.4995786063417816E-7</v>
+        <v>9.7584514345277808E-7</v>
       </c>
       <c r="O9">
-        <v>1.9470686751692604E-6</v>
+        <v>1.8580913647236614E-6</v>
       </c>
       <c r="P9">
-        <v>1.3435211829151614E-6</v>
+        <v>1.2740349959162855E-6</v>
       </c>
       <c r="Q9">
-        <v>7.646774415683198E-8</v>
+        <v>1.5018307897153039E-7</v>
       </c>
       <c r="R9">
-        <v>1.8660334940216702E-7</v>
+        <v>1.1406022179739603E-7</v>
       </c>
       <c r="S9">
-        <v>-8.7126403142833725E-8</v>
+        <v>6.1433014209848061E-8</v>
       </c>
       <c r="T9">
-        <v>-6.4718894612246874E-8</v>
+        <v>1.7213087891994205E-8</v>
       </c>
       <c r="U9">
-        <v>2.4244487820362249E-7</v>
+        <v>1.2252019497901704E-7</v>
       </c>
       <c r="V9">
-        <v>6.9116122433189419E-7</v>
+        <v>3.4141072015470967E-7</v>
       </c>
       <c r="W9">
-        <v>3.3669799982803579E-5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+        <v>2.1690548766772008E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>25</v>
       </c>
       <c r="B10">
-        <v>3.2419356305676522E-2</v>
+        <v>4.0704310465464792E-2</v>
       </c>
       <c r="C10">
-        <v>2.7803187975272759E-5</v>
+        <v>2.0177209077014975E-5</v>
       </c>
       <c r="D10">
-        <v>-5.9807298093860338E-6</v>
+        <v>-2.2032535471422582E-6</v>
       </c>
       <c r="E10">
-        <v>-1.2297566248489893E-5</v>
+        <v>-6.3170938595463141E-6</v>
       </c>
       <c r="F10">
-        <v>1.1922332365134969E-7</v>
+        <v>5.6665230945447812E-8</v>
       </c>
       <c r="G10">
-        <v>3.5285621086160121E-6</v>
+        <v>8.6434543024680966E-6</v>
       </c>
       <c r="H10">
-        <v>3.6263119976348323E-6</v>
+        <v>6.1889065877286139E-6</v>
       </c>
       <c r="I10">
-        <v>-1.7414226455252055E-7</v>
+        <v>-2.7482877907758986E-7</v>
       </c>
       <c r="J10">
-        <v>5.3387196061842057E-8</v>
+        <v>-1.1175819779104784E-7</v>
       </c>
       <c r="K10">
-        <v>1.8102748998005563E-4</v>
+        <v>1.36286195258043E-4</v>
       </c>
       <c r="L10">
-        <v>-4.168623304819395E-5</v>
+        <v>-4.2103799979951362E-5</v>
       </c>
       <c r="M10">
-        <v>-2.0845830042933361E-6</v>
+        <v>-2.7962794483969703E-6</v>
       </c>
       <c r="N10">
-        <v>-1.3581737473783841E-5</v>
+        <v>-1.1093183895943622E-5</v>
       </c>
       <c r="O10">
-        <v>-2.2784905404844838E-5</v>
+        <v>-1.626941480027423E-5</v>
       </c>
       <c r="P10">
-        <v>-2.1088303540028669E-5</v>
+        <v>-1.439240645489255E-5</v>
       </c>
       <c r="Q10">
-        <v>1.1876225404820692E-6</v>
+        <v>1.4350678412355024E-6</v>
       </c>
       <c r="R10">
-        <v>-8.254483979519819E-7</v>
+        <v>-8.1488150705221541E-7</v>
       </c>
       <c r="S10">
-        <v>-1.5830452250582411E-6</v>
+        <v>-1.1406265512827754E-6</v>
       </c>
       <c r="T10">
-        <v>-1.31003172053456E-7</v>
+        <v>5.0182438573440769E-7</v>
       </c>
       <c r="U10">
-        <v>1.0991871295984516E-6</v>
+        <v>7.3905003032557611E-7</v>
       </c>
       <c r="V10">
-        <v>-5.1227243545270175E-7</v>
+        <v>9.7345295638107112E-7</v>
       </c>
       <c r="W10">
-        <v>2.0942001706939642E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+        <v>9.7492124948647153E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>26</v>
       </c>
       <c r="B11">
-        <v>-9.4453028221835544E-2</v>
+        <v>-6.7245083075304926E-2</v>
       </c>
       <c r="C11">
-        <v>1.7954020644123419E-5</v>
+        <v>2.9784664690818169E-5</v>
       </c>
       <c r="D11">
-        <v>-8.5125420885722432E-6</v>
+        <v>-7.7662538781118552E-6</v>
       </c>
       <c r="E11">
-        <v>-1.0404196650150613E-5</v>
+        <v>-1.3849836575965802E-5</v>
       </c>
       <c r="F11">
-        <v>1.4902824434294724E-7</v>
+        <v>1.8735983056675787E-7</v>
       </c>
       <c r="G11">
-        <v>-4.2309201661784993E-5</v>
+        <v>-3.215362028589726E-5</v>
       </c>
       <c r="H11">
-        <v>-5.7574376356305009E-5</v>
+        <v>-3.3036477620689825E-5</v>
       </c>
       <c r="I11">
-        <v>8.7969459647864223E-7</v>
+        <v>7.9132047757514745E-7</v>
       </c>
       <c r="J11">
-        <v>9.7280887798503573E-7</v>
+        <v>7.2243640881555318E-7</v>
       </c>
       <c r="K11">
-        <v>-4.168623304819395E-5</v>
+        <v>-4.2103799979951362E-5</v>
       </c>
       <c r="L11">
-        <v>1.7232258704788083E-4</v>
+        <v>1.50072895397211E-4</v>
       </c>
       <c r="M11">
-        <v>-8.9082043892846211E-6</v>
+        <v>-3.0122087507153806E-7</v>
       </c>
       <c r="N11">
-        <v>-1.3576881005792381E-5</v>
+        <v>-2.6543941537296526E-6</v>
       </c>
       <c r="O11">
-        <v>-1.8921365587434963E-5</v>
+        <v>-6.5106201338163043E-6</v>
       </c>
       <c r="P11">
-        <v>-1.7229037891088894E-5</v>
+        <v>-5.2365639839163739E-6</v>
       </c>
       <c r="Q11">
-        <v>-4.5813426818187664E-6</v>
+        <v>-2.4551450486649013E-6</v>
       </c>
       <c r="R11">
-        <v>-3.5786720301120439E-6</v>
+        <v>-1.6813461660369798E-6</v>
       </c>
       <c r="S11">
-        <v>-3.4323900371129482E-6</v>
+        <v>-3.4480613207151528E-6</v>
       </c>
       <c r="T11">
-        <v>-4.4063710726647768E-6</v>
+        <v>-2.8001286502476894E-6</v>
       </c>
       <c r="U11">
-        <v>-1.6850491194656788E-6</v>
+        <v>-2.4305230281734156E-6</v>
       </c>
       <c r="V11">
-        <v>-2.2541980480785488E-6</v>
+        <v>-2.7836418475961068E-6</v>
       </c>
       <c r="W11">
-        <v>1.2511953403210861E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+        <v>1.9849925595048524E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>27</v>
       </c>
       <c r="B12">
-        <v>0.34348933143887217</v>
+        <v>0.19954212694708759</v>
       </c>
       <c r="C12">
-        <v>1.6158402475342608E-6</v>
+        <v>8.1876726324516306E-6</v>
       </c>
       <c r="D12">
-        <v>1.1944715996880349E-6</v>
+        <v>1.3856301277964081E-5</v>
       </c>
       <c r="E12">
-        <v>1.3041648071195706E-6</v>
+        <v>1.0984549845269374E-6</v>
       </c>
       <c r="F12">
-        <v>-1.4489547008999636E-8</v>
+        <v>-1.2828658902818423E-8</v>
       </c>
       <c r="G12">
-        <v>9.7102288648493948E-6</v>
+        <v>-1.5877007313489194E-6</v>
       </c>
       <c r="H12">
-        <v>8.4568691079709227E-7</v>
+        <v>2.2914501473427634E-6</v>
       </c>
       <c r="I12">
-        <v>-3.5669758599562745E-7</v>
+        <v>-5.5687158279750794E-8</v>
       </c>
       <c r="J12">
-        <v>3.2997367931061306E-7</v>
+        <v>3.8384632110115631E-7</v>
       </c>
       <c r="K12">
-        <v>-2.0845830042933361E-6</v>
+        <v>-2.7962794483969703E-6</v>
       </c>
       <c r="L12">
-        <v>-8.9082043892846211E-6</v>
+        <v>-3.0122087507153806E-7</v>
       </c>
       <c r="M12">
-        <v>7.0888875061105123E-3</v>
+        <v>6.538829631341397E-3</v>
       </c>
       <c r="N12">
-        <v>6.4533344659481184E-3</v>
+        <v>5.9645822445313877E-3</v>
       </c>
       <c r="O12">
-        <v>6.4539192725652002E-3</v>
+        <v>5.9660467838965284E-3</v>
       </c>
       <c r="P12">
-        <v>6.4530915395093653E-3</v>
+        <v>5.9652997010630777E-3</v>
       </c>
       <c r="Q12">
-        <v>5.8071444311622413E-7</v>
+        <v>1.1143742849602332E-6</v>
       </c>
       <c r="R12">
-        <v>-4.0609770961235869E-6</v>
+        <v>-4.6469278404674035E-6</v>
       </c>
       <c r="S12">
-        <v>-1.7612943985001109E-6</v>
+        <v>-1.2798995553226319E-6</v>
       </c>
       <c r="T12">
-        <v>-3.5256223512326868E-6</v>
+        <v>-3.9338977068127667E-6</v>
       </c>
       <c r="U12">
-        <v>-1.2592730842266382E-7</v>
+        <v>4.8221007072414511E-7</v>
       </c>
       <c r="V12">
-        <v>2.0717862886595651E-6</v>
+        <v>2.9096555077623169E-6</v>
       </c>
       <c r="W12">
-        <v>-6.4713675224149303E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+        <v>-5.9861037050105651E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>28</v>
       </c>
       <c r="B13">
-        <v>0.6485025294028236</v>
+        <v>0.40681754235012502</v>
       </c>
       <c r="C13">
-        <v>3.062488981388548E-6</v>
+        <v>1.1086614158069231E-5</v>
       </c>
       <c r="D13">
-        <v>5.1812216057259131E-6</v>
+        <v>2.5613985993846411E-5</v>
       </c>
       <c r="E13">
-        <v>3.7940771431965053E-6</v>
+        <v>2.2588385306903226E-6</v>
       </c>
       <c r="F13">
-        <v>-4.2729861188902573E-8</v>
+        <v>-2.5547934215911488E-8</v>
       </c>
       <c r="G13">
-        <v>6.4374552234243649E-6</v>
+        <v>-9.3455199920371807E-6</v>
       </c>
       <c r="H13">
-        <v>-3.435691937437777E-6</v>
+        <v>-8.6025920347164138E-6</v>
       </c>
       <c r="I13">
-        <v>-1.3285439552024497E-7</v>
+        <v>2.1313002999560009E-7</v>
       </c>
       <c r="J13">
-        <v>8.4995786063417816E-7</v>
+        <v>9.7584514345277808E-7</v>
       </c>
       <c r="K13">
-        <v>-1.3581737473783841E-5</v>
+        <v>-1.1093183895943622E-5</v>
       </c>
       <c r="L13">
-        <v>-1.3576881005792381E-5</v>
+        <v>-2.6543941537296526E-6</v>
       </c>
       <c r="M13">
-        <v>6.4533344659481184E-3</v>
+        <v>5.9645822445313877E-3</v>
       </c>
       <c r="N13">
-        <v>6.5829593006303793E-3</v>
+        <v>6.0698896224999355E-3</v>
       </c>
       <c r="O13">
-        <v>6.461703367522097E-3</v>
+        <v>5.9759757545454796E-3</v>
       </c>
       <c r="P13">
-        <v>6.463755070400496E-3</v>
+        <v>5.9771492202911128E-3</v>
       </c>
       <c r="Q13">
-        <v>2.463143163607183E-6</v>
+        <v>2.6570658906978443E-6</v>
       </c>
       <c r="R13">
-        <v>-2.750319247340219E-7</v>
+        <v>-1.6400107835103876E-6</v>
       </c>
       <c r="S13">
-        <v>3.1814205144837577E-6</v>
+        <v>1.6231311468397881E-6</v>
       </c>
       <c r="T13">
-        <v>-1.4168420444190155E-6</v>
+        <v>-2.0093568213261625E-6</v>
       </c>
       <c r="U13">
-        <v>-3.2992768818963525E-6</v>
+        <v>-1.2939428223958788E-6</v>
       </c>
       <c r="V13">
-        <v>-7.4402934062541791E-7</v>
+        <v>1.9818298912544804E-6</v>
       </c>
       <c r="W13">
-        <v>-6.5279141140810858E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+        <v>-6.0209218294330485E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>37</v>
       </c>
       <c r="B14">
-        <v>0.79890024400008086</v>
+        <v>0.441236132492552</v>
       </c>
       <c r="C14">
-        <v>7.8754101839696505E-6</v>
+        <v>1.5018479845028889E-5</v>
       </c>
       <c r="D14">
-        <v>8.596096648302314E-6</v>
+        <v>3.3767974050249005E-5</v>
       </c>
       <c r="E14">
-        <v>4.3058994086847297E-6</v>
+        <v>1.9215228275371477E-6</v>
       </c>
       <c r="F14">
-        <v>-3.1261667968958035E-8</v>
+        <v>-9.5687092911662797E-9</v>
       </c>
       <c r="G14">
-        <v>-9.4428199708565357E-6</v>
+        <v>-2.3119676196873553E-5</v>
       </c>
       <c r="H14">
-        <v>-2.1071640196561564E-5</v>
+        <v>-2.3707795422237823E-5</v>
       </c>
       <c r="I14">
-        <v>5.5919065845472993E-7</v>
+        <v>7.5666859330311475E-7</v>
       </c>
       <c r="J14">
-        <v>1.9470686751692604E-6</v>
+        <v>1.8580913647236614E-6</v>
       </c>
       <c r="K14">
-        <v>-2.2784905404844838E-5</v>
+        <v>-1.626941480027423E-5</v>
       </c>
       <c r="L14">
-        <v>-1.8921365587434963E-5</v>
+        <v>-6.5106201338163043E-6</v>
       </c>
       <c r="M14">
-        <v>6.4539192725652002E-3</v>
+        <v>5.9660467838965284E-3</v>
       </c>
       <c r="N14">
-        <v>6.461703367522097E-3</v>
+        <v>5.9759757545454796E-3</v>
       </c>
       <c r="O14">
-        <v>6.544812866546703E-3</v>
+        <v>6.0364009140045629E-3</v>
       </c>
       <c r="P14">
-        <v>6.5070480150457854E-3</v>
+        <v>6.0084677978133596E-3</v>
       </c>
       <c r="Q14">
-        <v>1.0780375196845491E-6</v>
+        <v>5.2917238915084095E-7</v>
       </c>
       <c r="R14">
-        <v>-1.8649969926537934E-7</v>
+        <v>-2.0058718627798534E-6</v>
       </c>
       <c r="S14">
-        <v>1.3534066126211626E-6</v>
+        <v>-1.4680043384195096E-7</v>
       </c>
       <c r="T14">
-        <v>5.4166768783105667E-8</v>
+        <v>-1.612559253635898E-6</v>
       </c>
       <c r="U14">
-        <v>-9.1271171763782983E-6</v>
+        <v>-4.4557598212428609E-6</v>
       </c>
       <c r="V14">
-        <v>-9.3829839082349672E-6</v>
+        <v>-4.1613267674991045E-6</v>
       </c>
       <c r="W14">
-        <v>-6.59874078329435E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+        <v>-6.0599273410070374E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>38</v>
       </c>
       <c r="B15">
-        <v>0.79339474285789213</v>
+        <v>0.45588998708480438</v>
       </c>
       <c r="C15">
-        <v>-1.1897893973778655E-5</v>
+        <v>1.2341817298956942E-6</v>
       </c>
       <c r="D15">
-        <v>9.3958060856061087E-6</v>
+        <v>3.375804363539819E-5</v>
       </c>
       <c r="E15">
-        <v>1.1963563222168645E-5</v>
+        <v>7.6049862341572244E-6</v>
       </c>
       <c r="F15">
-        <v>-9.527090273701043E-8</v>
+        <v>-5.6097093013073447E-8</v>
       </c>
       <c r="G15">
-        <v>1.838080346106474E-5</v>
+        <v>3.2095283539373184E-6</v>
       </c>
       <c r="H15">
-        <v>2.1256736606262627E-5</v>
+        <v>1.4418801854130061E-5</v>
       </c>
       <c r="I15">
-        <v>2.0076445541134818E-7</v>
+        <v>3.7322544335298081E-7</v>
       </c>
       <c r="J15">
-        <v>1.3435211829151614E-6</v>
+        <v>1.2740349959162855E-6</v>
       </c>
       <c r="K15">
-        <v>-2.1088303540028669E-5</v>
+        <v>-1.439240645489255E-5</v>
       </c>
       <c r="L15">
-        <v>-1.7229037891088894E-5</v>
+        <v>-5.2365639839163739E-6</v>
       </c>
       <c r="M15">
-        <v>6.4530915395093653E-3</v>
+        <v>5.9652997010630777E-3</v>
       </c>
       <c r="N15">
-        <v>6.463755070400496E-3</v>
+        <v>5.9771492202911128E-3</v>
       </c>
       <c r="O15">
-        <v>6.5070480150457854E-3</v>
+        <v>6.0084677978133596E-3</v>
       </c>
       <c r="P15">
-        <v>6.7259736030105891E-3</v>
+        <v>6.1672534180372785E-3</v>
       </c>
       <c r="Q15">
-        <v>3.5015683695562054E-6</v>
+        <v>3.0188562430969232E-6</v>
       </c>
       <c r="R15">
-        <v>3.8124580398520697E-6</v>
+        <v>9.7756291355803908E-7</v>
       </c>
       <c r="S15">
-        <v>1.5488100888906412E-7</v>
+        <v>-2.7702362356410773E-7</v>
       </c>
       <c r="T15">
-        <v>4.891236238021852E-6</v>
+        <v>2.3692158880118713E-6</v>
       </c>
       <c r="U15">
-        <v>-8.2084064267482438E-6</v>
+        <v>-3.2307178068363509E-6</v>
       </c>
       <c r="V15">
-        <v>-9.4273579031486526E-6</v>
+        <v>-3.5451029239883484E-6</v>
       </c>
       <c r="W15">
-        <v>-6.8293159250289864E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+        <v>-6.2334126859746345E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>39</v>
       </c>
       <c r="B16">
-        <v>4.9379126041699146E-2</v>
+        <v>2.0021332352644361E-2</v>
       </c>
       <c r="C16">
-        <v>3.3039902456651438E-6</v>
+        <v>6.7526019448213863E-6</v>
       </c>
       <c r="D16">
-        <v>3.2815199105095804E-6</v>
+        <v>4.3210443102132539E-6</v>
       </c>
       <c r="E16">
-        <v>5.1491523163810276E-7</v>
+        <v>2.2437707567036377E-7</v>
       </c>
       <c r="F16">
-        <v>-8.7629178789426177E-9</v>
+        <v>-4.7178957666202475E-9</v>
       </c>
       <c r="G16">
-        <v>-1.4166210351775328E-5</v>
+        <v>-1.4790523549982556E-5</v>
       </c>
       <c r="H16">
-        <v>-2.1085682457980707E-5</v>
+        <v>-2.0783728507237599E-5</v>
       </c>
       <c r="I16">
-        <v>2.3140203684693463E-7</v>
+        <v>2.653969988772113E-7</v>
       </c>
       <c r="J16">
-        <v>7.646774415683198E-8</v>
+        <v>1.5018307897153039E-7</v>
       </c>
       <c r="K16">
-        <v>1.1876225404820692E-6</v>
+        <v>1.4350678412355024E-6</v>
       </c>
       <c r="L16">
-        <v>-4.5813426818187664E-6</v>
+        <v>-2.4551450486649013E-6</v>
       </c>
       <c r="M16">
-        <v>5.8071444311622413E-7</v>
+        <v>1.1143742849602332E-6</v>
       </c>
       <c r="N16">
-        <v>2.463143163607183E-6</v>
+        <v>2.6570658906978443E-6</v>
       </c>
       <c r="O16">
-        <v>1.0780375196845491E-6</v>
+        <v>5.2917238915084095E-7</v>
       </c>
       <c r="P16">
-        <v>3.5015683695562054E-6</v>
+        <v>3.0188562430969232E-6</v>
       </c>
       <c r="Q16">
-        <v>3.7199733988664568E-4</v>
+        <v>2.763295118894679E-4</v>
       </c>
       <c r="R16">
-        <v>1.7482420599293472E-4</v>
+        <v>1.3373649755008048E-4</v>
       </c>
       <c r="S16">
-        <v>1.7539720862645277E-4</v>
+        <v>1.3420539086749173E-4</v>
       </c>
       <c r="T16">
-        <v>1.7471811477027887E-4</v>
+        <v>1.3365760944491817E-4</v>
       </c>
       <c r="U16">
-        <v>-4.5818738608219376E-6</v>
+        <v>-4.0364034309100157E-6</v>
       </c>
       <c r="V16">
-        <v>-7.7537293178669987E-6</v>
+        <v>-5.8056744653379087E-6</v>
       </c>
       <c r="W16">
-        <v>-1.7656392396173096E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+        <v>-1.334105166655959E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>36</v>
       </c>
       <c r="B17">
-        <v>0.1025095884110902</v>
+        <v>5.335528302941682E-2</v>
       </c>
       <c r="C17">
-        <v>3.1772632622600145E-7</v>
+        <v>4.635829723761442E-6</v>
       </c>
       <c r="D17">
-        <v>3.3041357557163955E-6</v>
+        <v>4.9015951912944429E-6</v>
       </c>
       <c r="E17">
-        <v>1.8503556199266614E-6</v>
+        <v>1.3273663969615076E-6</v>
       </c>
       <c r="F17">
-        <v>-2.4504241021934044E-8</v>
+        <v>-1.7315230998079155E-8</v>
       </c>
       <c r="G17">
-        <v>-6.2274083979280243E-6</v>
+        <v>-6.9529610714595409E-6</v>
       </c>
       <c r="H17">
-        <v>-1.1125714936645146E-5</v>
+        <v>-6.187550922369687E-6</v>
       </c>
       <c r="I17">
-        <v>1.9020235384717303E-7</v>
+        <v>1.9036035145291696E-7</v>
       </c>
       <c r="J17">
-        <v>1.8660334940216702E-7</v>
+        <v>1.1406022179739603E-7</v>
       </c>
       <c r="K17">
-        <v>-8.254483979519819E-7</v>
+        <v>-8.1488150705221541E-7</v>
       </c>
       <c r="L17">
-        <v>-3.5786720301120439E-6</v>
+        <v>-1.6813461660369798E-6</v>
       </c>
       <c r="M17">
-        <v>-4.0609770961235869E-6</v>
+        <v>-4.6469278404674035E-6</v>
       </c>
       <c r="N17">
-        <v>-2.750319247340219E-7</v>
+        <v>-1.6400107835103876E-6</v>
       </c>
       <c r="O17">
-        <v>-1.8649969926537934E-7</v>
+        <v>-2.0058718627798534E-6</v>
       </c>
       <c r="P17">
-        <v>3.8124580398520697E-6</v>
+        <v>9.7756291355803908E-7</v>
       </c>
       <c r="Q17">
-        <v>1.7482420599293472E-4</v>
+        <v>1.3373649755008048E-4</v>
       </c>
       <c r="R17">
-        <v>4.7690786533667687E-4</v>
+        <v>3.5345283984541243E-4</v>
       </c>
       <c r="S17">
-        <v>1.7481509121980646E-4</v>
+        <v>1.3373604657970387E-4</v>
       </c>
       <c r="T17">
-        <v>1.7477494130073001E-4</v>
+        <v>1.3371461993335162E-4</v>
       </c>
       <c r="U17">
-        <v>-1.3121364056213113E-6</v>
+        <v>-2.0399616505403426E-6</v>
       </c>
       <c r="V17">
-        <v>-3.0643669461901746E-6</v>
+        <v>-3.1953388108194825E-6</v>
       </c>
       <c r="W17">
-        <v>-2.0534488763298289E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+        <v>-1.5530765643467201E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>29</v>
       </c>
       <c r="B18">
-        <v>5.636675896777852E-2</v>
+        <v>6.0039284486208683E-2</v>
       </c>
       <c r="C18">
-        <v>-5.6880662623694356E-7</v>
+        <v>2.7444682554055377E-6</v>
       </c>
       <c r="D18">
-        <v>1.537725184082833E-6</v>
+        <v>1.8897251609308048E-6</v>
       </c>
       <c r="E18">
-        <v>4.7392289047950583E-7</v>
+        <v>5.9882063365977332E-7</v>
       </c>
       <c r="F18">
-        <v>-8.5870310247903211E-9</v>
+        <v>-1.0411923800154031E-8</v>
       </c>
       <c r="G18">
-        <v>-1.1767192541441555E-5</v>
+        <v>-1.4903997662517025E-5</v>
       </c>
       <c r="H18">
-        <v>-1.592533416875693E-5</v>
+        <v>-1.7850892199371525E-5</v>
       </c>
       <c r="I18">
-        <v>2.4384338222133683E-7</v>
+        <v>3.2175246345432441E-7</v>
       </c>
       <c r="J18">
-        <v>-8.7126403142833725E-8</v>
+        <v>6.1433014209848061E-8</v>
       </c>
       <c r="K18">
-        <v>-1.5830452250582411E-6</v>
+        <v>-1.1406265512827754E-6</v>
       </c>
       <c r="L18">
-        <v>-3.4323900371129482E-6</v>
+        <v>-3.4480613207151528E-6</v>
       </c>
       <c r="M18">
-        <v>-1.7612943985001109E-6</v>
+        <v>-1.2798995553226319E-6</v>
       </c>
       <c r="N18">
-        <v>3.1814205144837577E-6</v>
+        <v>1.6231311468397881E-6</v>
       </c>
       <c r="O18">
-        <v>1.3534066126211626E-6</v>
+        <v>-1.4680043384195096E-7</v>
       </c>
       <c r="P18">
-        <v>1.5488100888906412E-7</v>
+        <v>-2.7702362356410773E-7</v>
       </c>
       <c r="Q18">
-        <v>1.7539720862645277E-4</v>
+        <v>1.3420539086749173E-4</v>
       </c>
       <c r="R18">
-        <v>1.7481509121980646E-4</v>
+        <v>1.3373604657970387E-4</v>
       </c>
       <c r="S18">
-        <v>3.542979489209692E-4</v>
+        <v>2.6551185745114146E-4</v>
       </c>
       <c r="T18">
-        <v>1.7473138565862365E-4</v>
+        <v>1.337307781801678E-4</v>
       </c>
       <c r="U18">
-        <v>-4.0892767259137208E-6</v>
+        <v>-3.7627149280542058E-6</v>
       </c>
       <c r="V18">
-        <v>-6.3481594764320499E-6</v>
+        <v>-5.5840974928389694E-6</v>
       </c>
       <c r="W18">
-        <v>-1.7433438141251258E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+        <v>-1.3533032276578753E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>30</v>
       </c>
       <c r="B19">
-        <v>2.1531172081879747E-2</v>
+        <v>2.9316564221910674E-2</v>
       </c>
       <c r="C19">
-        <v>-5.0264764638347043E-6</v>
+        <v>-2.5517132136989691E-6</v>
       </c>
       <c r="D19">
-        <v>2.585473096061281E-6</v>
+        <v>2.3549807470576682E-6</v>
       </c>
       <c r="E19">
-        <v>5.7218994212042388E-7</v>
+        <v>5.3592793558268205E-7</v>
       </c>
       <c r="F19">
-        <v>-8.7388238703419799E-9</v>
+        <v>-8.3789964874922208E-9</v>
       </c>
       <c r="G19">
-        <v>-1.1784511289598293E-6</v>
+        <v>-2.8960296384616957E-6</v>
       </c>
       <c r="H19">
-        <v>2.6859944943256544E-6</v>
+        <v>-1.3277618954707798E-6</v>
       </c>
       <c r="I19">
-        <v>1.3322787069099014E-7</v>
+        <v>1.5325274168172059E-7</v>
       </c>
       <c r="J19">
-        <v>-6.4718894612246874E-8</v>
+        <v>1.7213087891994205E-8</v>
       </c>
       <c r="K19">
-        <v>-1.31003172053456E-7</v>
+        <v>5.0182438573440769E-7</v>
       </c>
       <c r="L19">
-        <v>-4.4063710726647768E-6</v>
+        <v>-2.8001286502476894E-6</v>
       </c>
       <c r="M19">
-        <v>-3.5256223512326868E-6</v>
+        <v>-3.9338977068127667E-6</v>
       </c>
       <c r="N19">
-        <v>-1.4168420444190155E-6</v>
+        <v>-2.0093568213261625E-6</v>
       </c>
       <c r="O19">
-        <v>5.4166768783105667E-8</v>
+        <v>-1.612559253635898E-6</v>
       </c>
       <c r="P19">
-        <v>4.891236238021852E-6</v>
+        <v>2.3692158880118713E-6</v>
       </c>
       <c r="Q19">
-        <v>1.7471811477027887E-4</v>
+        <v>1.3365760944491817E-4</v>
       </c>
       <c r="R19">
-        <v>1.7477494130073001E-4</v>
+        <v>1.3371461993335162E-4</v>
       </c>
       <c r="S19">
-        <v>1.7473138565862365E-4</v>
+        <v>1.337307781801678E-4</v>
       </c>
       <c r="T19">
-        <v>2.5035985571565233E-4</v>
+        <v>1.8900448045557097E-4</v>
       </c>
       <c r="U19">
-        <v>-3.6032638067903034E-6</v>
+        <v>-2.9877432731657596E-6</v>
       </c>
       <c r="V19">
-        <v>-5.8868375026028528E-6</v>
+        <v>-3.9436246428751935E-6</v>
       </c>
       <c r="W19">
-        <v>-1.8295571632742362E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+        <v>-1.4019082113885434E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>31</v>
       </c>
       <c r="B20">
-        <v>-2.1968462322950747E-2</v>
+        <v>0.33579058600187167</v>
       </c>
       <c r="C20">
-        <v>6.1713269955912683E-6</v>
+        <v>-6.3480531339584944E-6</v>
       </c>
       <c r="D20">
-        <v>4.3024489147469974E-6</v>
+        <v>-1.0356635618192767E-5</v>
       </c>
       <c r="E20">
-        <v>3.1124976718003207E-7</v>
+        <v>1.2135077090261731E-6</v>
       </c>
       <c r="F20">
-        <v>-8.571916865803244E-9</v>
+        <v>-1.7286517208351635E-8</v>
       </c>
       <c r="G20">
-        <v>4.2300565733944102E-6</v>
+        <v>5.2578592900275747E-6</v>
       </c>
       <c r="H20">
-        <v>3.1372171594469165E-6</v>
+        <v>3.0300654498722656E-6</v>
       </c>
       <c r="I20">
-        <v>7.6836055837247177E-8</v>
+        <v>-1.9229053064119302E-8</v>
       </c>
       <c r="J20">
-        <v>2.4244487820362249E-7</v>
+        <v>1.2252019497901704E-7</v>
       </c>
       <c r="K20">
-        <v>1.0991871295984516E-6</v>
+        <v>7.3905003032557611E-7</v>
       </c>
       <c r="L20">
-        <v>-1.6850491194656788E-6</v>
+        <v>-2.4305230281734156E-6</v>
       </c>
       <c r="M20">
-        <v>-1.2592730842266382E-7</v>
+        <v>4.8221007072414511E-7</v>
       </c>
       <c r="N20">
-        <v>-3.2992768818963525E-6</v>
+        <v>-1.2939428223958788E-6</v>
       </c>
       <c r="O20">
-        <v>-9.1271171763782983E-6</v>
+        <v>-4.4557598212428609E-6</v>
       </c>
       <c r="P20">
-        <v>-8.2084064267482438E-6</v>
+        <v>-3.2307178068363509E-6</v>
       </c>
       <c r="Q20">
-        <v>-4.5818738608219376E-6</v>
+        <v>-4.0364034309100157E-6</v>
       </c>
       <c r="R20">
-        <v>-1.3121364056213113E-6</v>
+        <v>-2.0399616505403426E-6</v>
       </c>
       <c r="S20">
-        <v>-4.0892767259137208E-6</v>
+        <v>-3.7627149280542058E-6</v>
       </c>
       <c r="T20">
-        <v>-3.6032638067903034E-6</v>
+        <v>-2.9877432731657596E-6</v>
       </c>
       <c r="U20">
-        <v>3.0733492414733416E-4</v>
+        <v>2.303544981068181E-4</v>
       </c>
       <c r="V20">
-        <v>3.8873401587358696E-5</v>
+        <v>2.881128296972546E-5</v>
       </c>
       <c r="W20">
-        <v>-3.1972633697850879E-5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+        <v>-3.9258657286508027E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>32</v>
       </c>
       <c r="B21">
-        <v>7.3964889682024318E-2</v>
+        <v>0.25058453703089828</v>
       </c>
       <c r="C21">
-        <v>9.4106416464093808E-7</v>
+        <v>-4.372955893652053E-6</v>
       </c>
       <c r="D21">
-        <v>-3.0668364228317393E-7</v>
+        <v>-6.1018550897357862E-6</v>
       </c>
       <c r="E21">
-        <v>-2.361900330388523E-7</v>
+        <v>4.7628137894048667E-7</v>
       </c>
       <c r="F21">
-        <v>-6.5446817603424968E-9</v>
+        <v>-1.0369790708769978E-8</v>
       </c>
       <c r="G21">
-        <v>-8.3724968653016308E-6</v>
+        <v>4.2128333080199568E-6</v>
       </c>
       <c r="H21">
-        <v>-2.0017225179748168E-5</v>
+        <v>-7.418382187778684E-6</v>
       </c>
       <c r="I21">
-        <v>3.1709497898056324E-7</v>
+        <v>2.4042571095013325E-8</v>
       </c>
       <c r="J21">
-        <v>6.9116122433189419E-7</v>
+        <v>3.4141072015470967E-7</v>
       </c>
       <c r="K21">
-        <v>-5.1227243545270175E-7</v>
+        <v>9.7345295638107112E-7</v>
       </c>
       <c r="L21">
-        <v>-2.2541980480785488E-6</v>
+        <v>-2.7836418475961068E-6</v>
       </c>
       <c r="M21">
-        <v>2.0717862886595651E-6</v>
+        <v>2.9096555077623169E-6</v>
       </c>
       <c r="N21">
-        <v>-7.4402934062541791E-7</v>
+        <v>1.9818298912544804E-6</v>
       </c>
       <c r="O21">
-        <v>-9.3829839082349672E-6</v>
+        <v>-4.1613267674991045E-6</v>
       </c>
       <c r="P21">
-        <v>-9.4273579031486526E-6</v>
+        <v>-3.5451029239883484E-6</v>
       </c>
       <c r="Q21">
-        <v>-7.7537293178669987E-6</v>
+        <v>-5.8056744653379087E-6</v>
       </c>
       <c r="R21">
-        <v>-3.0643669461901746E-6</v>
+        <v>-3.1953388108194825E-6</v>
       </c>
       <c r="S21">
-        <v>-6.3481594764320499E-6</v>
+        <v>-5.5840974928389694E-6</v>
       </c>
       <c r="T21">
-        <v>-5.8868375026028528E-6</v>
+        <v>-3.9436246428751935E-6</v>
       </c>
       <c r="U21">
-        <v>3.8873401587358696E-5</v>
+        <v>2.881128296972546E-5</v>
       </c>
       <c r="V21">
-        <v>4.3026831945843755E-4</v>
+        <v>3.0724502307522732E-4</v>
       </c>
       <c r="W21">
-        <v>-5.8491637162025094E-6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+        <v>-2.272653648430121E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>33</v>
       </c>
       <c r="B22">
-        <v>-2.7051043523384593</v>
+        <v>-2.412125956400724</v>
       </c>
       <c r="C22">
-        <v>-1.1043856368654944E-3</v>
+        <v>-1.0071389860635052E-3</v>
       </c>
       <c r="D22">
-        <v>-1.2728793101969392E-4</v>
+        <v>-2.0899807815479211E-4</v>
       </c>
       <c r="E22">
-        <v>-3.3461378997220358E-4</v>
+        <v>-2.9081705459502199E-4</v>
       </c>
       <c r="F22">
-        <v>3.460670395065402E-6</v>
+        <v>3.1152287131471001E-6</v>
       </c>
       <c r="G22">
-        <v>-1.4101587643521683E-3</v>
+        <v>-9.4194074600342716E-4</v>
       </c>
       <c r="H22">
-        <v>-1.6566149339020009E-3</v>
+        <v>-1.1315367511289219E-3</v>
       </c>
       <c r="I22">
-        <v>3.0726343967020221E-5</v>
+        <v>2.011272543446515E-5</v>
       </c>
       <c r="J22">
-        <v>3.3669799982803579E-5</v>
+        <v>2.1690548766772008E-5</v>
       </c>
       <c r="K22">
-        <v>2.0942001706939642E-4</v>
+        <v>9.7492124948647153E-5</v>
       </c>
       <c r="L22">
-        <v>1.2511953403210861E-4</v>
+        <v>1.9849925595048524E-4</v>
       </c>
       <c r="M22">
-        <v>-6.4713675224149303E-3</v>
+        <v>-5.9861037050105651E-3</v>
       </c>
       <c r="N22">
-        <v>-6.5279141140810858E-3</v>
+        <v>-6.0209218294330485E-3</v>
       </c>
       <c r="O22">
-        <v>-6.59874078329435E-3</v>
+        <v>-6.0599273410070374E-3</v>
       </c>
       <c r="P22">
-        <v>-6.8293159250289864E-3</v>
+        <v>-6.2334126859746345E-3</v>
       </c>
       <c r="Q22">
-        <v>-1.7656392396173096E-4</v>
+        <v>-1.334105166655959E-4</v>
       </c>
       <c r="R22">
-        <v>-2.0534488763298289E-4</v>
+        <v>-1.5530765643467201E-4</v>
       </c>
       <c r="S22">
-        <v>-1.7433438141251258E-4</v>
+        <v>-1.3533032276578753E-4</v>
       </c>
       <c r="T22">
-        <v>-1.8295571632742362E-4</v>
+        <v>-1.4019082113885434E-4</v>
       </c>
       <c r="U22">
-        <v>-3.1972633697850879E-5</v>
+        <v>-3.9258657286508027E-5</v>
       </c>
       <c r="V22">
-        <v>-5.8491637162025094E-6</v>
+        <v>-2.272653648430121E-5</v>
       </c>
       <c r="W22">
-        <v>1.4158625737186311E-2</v>
+        <v>1.2500317422219189E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2228,16 +2228,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:W1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2308,1495 +2306,1495 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>17</v>
       </c>
       <c r="B2">
-        <v>-2.4132219460944495</v>
+        <v>-1.5243773344874889</v>
       </c>
       <c r="C2">
-        <v>8.391006635581087E-4</v>
+        <v>8.2941555221560984E-4</v>
       </c>
       <c r="D2">
-        <v>7.9858747764207603E-5</v>
+        <v>5.4060994961732226E-5</v>
       </c>
       <c r="E2">
-        <v>4.0016471127054433E-5</v>
+        <v>3.3997387550416536E-5</v>
       </c>
       <c r="F2">
-        <v>-4.4737763104254817E-7</v>
+        <v>-3.8169698691379826E-7</v>
       </c>
       <c r="G2">
-        <v>-1.0404961868873183E-4</v>
+        <v>-8.2024934030524405E-5</v>
       </c>
       <c r="H2">
-        <v>-3.0524767476176483E-4</v>
+        <v>-3.4973090875863776E-4</v>
       </c>
       <c r="I2">
-        <v>2.058496092571179E-6</v>
+        <v>1.8367402058503615E-6</v>
       </c>
       <c r="J2">
-        <v>5.9978071496770554E-6</v>
+        <v>6.996385729844091E-6</v>
       </c>
       <c r="K2">
-        <v>1.0016672966040313E-5</v>
+        <v>1.6053978336893239E-5</v>
       </c>
       <c r="L2">
-        <v>-1.3150945274765995E-5</v>
+        <v>-4.5569235597031728E-6</v>
       </c>
       <c r="M2">
-        <v>-6.4944266400219857E-6</v>
+        <v>-3.0186940861043777E-6</v>
       </c>
       <c r="N2">
-        <v>-3.0037310362765555E-6</v>
+        <v>2.6380482700732793E-6</v>
       </c>
       <c r="O2">
-        <v>-1.8196619165979934E-6</v>
+        <v>6.2423502819273775E-6</v>
       </c>
       <c r="P2">
-        <v>-1.4391881837289976E-5</v>
+        <v>-3.2648960271286346E-6</v>
       </c>
       <c r="Q2">
-        <v>8.7233023728791132E-6</v>
+        <v>7.1959925279693639E-6</v>
       </c>
       <c r="R2">
-        <v>-2.3193425987480221E-7</v>
+        <v>1.2761169673540028E-6</v>
       </c>
       <c r="S2">
-        <v>-6.8901203938031931E-7</v>
+        <v>2.4191918747966222E-6</v>
       </c>
       <c r="T2">
-        <v>-4.6632037175324241E-6</v>
+        <v>-1.0015852300465435E-6</v>
       </c>
       <c r="U2">
-        <v>-9.806503372608666E-7</v>
+        <v>-7.990994966092673E-6</v>
       </c>
       <c r="V2">
-        <v>-1.1096981248850792E-6</v>
+        <v>-2.1423882938798028E-6</v>
       </c>
       <c r="W2">
-        <v>-8.6623956613111344E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+        <v>-7.4546865616241726E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3">
-        <v>-2.2929381208101356</v>
+        <v>-1.4496400660284015</v>
       </c>
       <c r="C3">
-        <v>7.9858747764207603E-5</v>
+        <v>5.4060994961732226E-5</v>
       </c>
       <c r="D3">
-        <v>1.3403223037482151E-4</v>
+        <v>1.355132691913395E-4</v>
       </c>
       <c r="E3">
-        <v>3.0435539065346813E-6</v>
+        <v>3.9836603557519314E-6</v>
       </c>
       <c r="F3">
-        <v>-3.8470204789157891E-8</v>
+        <v>-4.5293062749568811E-8</v>
       </c>
       <c r="G3">
-        <v>-3.9944294613022769E-5</v>
+        <v>2.1523457268163117E-5</v>
       </c>
       <c r="H3">
-        <v>-3.5090936115401739E-5</v>
+        <v>1.4359970506243508E-5</v>
       </c>
       <c r="I3">
-        <v>5.8348694438792581E-7</v>
+        <v>-1.8759298706443378E-7</v>
       </c>
       <c r="J3">
-        <v>3.4150318991156596E-7</v>
+        <v>-3.1310814764874024E-7</v>
       </c>
       <c r="K3">
-        <v>7.8143565916649588E-6</v>
+        <v>1.7926585287721779E-5</v>
       </c>
       <c r="L3">
-        <v>1.1413866182600136E-6</v>
+        <v>2.2199729511521053E-6</v>
       </c>
       <c r="M3">
-        <v>-4.5185910954905606E-6</v>
+        <v>6.8174883534379829E-6</v>
       </c>
       <c r="N3">
-        <v>1.0973150343767456E-6</v>
+        <v>2.6124475121720696E-5</v>
       </c>
       <c r="O3">
-        <v>4.3280814247850831E-6</v>
+        <v>3.6998500785737748E-5</v>
       </c>
       <c r="P3">
-        <v>3.678262928669357E-6</v>
+        <v>3.7881574491580127E-5</v>
       </c>
       <c r="Q3">
-        <v>1.209030139505457E-5</v>
+        <v>9.3926125757064221E-6</v>
       </c>
       <c r="R3">
-        <v>1.0745082449964204E-5</v>
+        <v>8.7429790980343397E-6</v>
       </c>
       <c r="S3">
-        <v>9.743049533203712E-6</v>
+        <v>7.3752357360686691E-6</v>
       </c>
       <c r="T3">
-        <v>9.7968293565904117E-6</v>
+        <v>8.2667029123247681E-6</v>
       </c>
       <c r="U3">
-        <v>-5.1515299103112016E-6</v>
+        <v>-1.2167256952009685E-5</v>
       </c>
       <c r="V3">
-        <v>-5.783380069827635E-6</v>
+        <v>-6.972097867208136E-6</v>
       </c>
       <c r="W3">
-        <v>-1.134384316306886E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+        <v>-1.7181115487462776E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>19</v>
       </c>
       <c r="B4">
-        <v>6.1838418521753979E-2</v>
+        <v>3.9501005795621248E-2</v>
       </c>
       <c r="C4">
-        <v>4.0016471127054433E-5</v>
+        <v>3.3997387550416536E-5</v>
       </c>
       <c r="D4">
-        <v>3.0435539065346813E-6</v>
+        <v>3.9836603557519314E-6</v>
       </c>
       <c r="E4">
-        <v>1.3822789820783773E-5</v>
+        <v>1.1516437536120188E-5</v>
       </c>
       <c r="F4">
-        <v>-1.4613979430283583E-7</v>
+        <v>-1.2565511349505903E-7</v>
       </c>
       <c r="G4">
-        <v>4.9529547209085681E-5</v>
+        <v>3.1094601653761606E-5</v>
       </c>
       <c r="H4">
-        <v>6.840822266599602E-5</v>
+        <v>4.4342658176514697E-5</v>
       </c>
       <c r="I4">
-        <v>-1.0821493628447797E-6</v>
+        <v>-6.837588800322595E-7</v>
       </c>
       <c r="J4">
-        <v>-1.4199229961482714E-6</v>
+        <v>-9.0787456318686518E-7</v>
       </c>
       <c r="K4">
-        <v>-1.2251283500515322E-5</v>
+        <v>-4.1771184348820484E-6</v>
       </c>
       <c r="L4">
-        <v>-6.660139924594399E-6</v>
+        <v>-1.3653818196543394E-5</v>
       </c>
       <c r="M4">
-        <v>-9.4592863456491425E-7</v>
+        <v>-4.5350116784508867E-7</v>
       </c>
       <c r="N4">
-        <v>-2.0973593870555329E-6</v>
+        <v>-9.6112078684662278E-7</v>
       </c>
       <c r="O4">
-        <v>-3.8352974932546194E-6</v>
+        <v>-2.5412459390473409E-6</v>
       </c>
       <c r="P4">
-        <v>3.1331951114968633E-6</v>
+        <v>2.3019178073926716E-6</v>
       </c>
       <c r="Q4">
-        <v>4.4682056616998677E-7</v>
+        <v>2.0446226746274165E-7</v>
       </c>
       <c r="R4">
-        <v>2.0909074803170628E-7</v>
+        <v>2.2236608834385556E-7</v>
       </c>
       <c r="S4">
-        <v>3.6071070524177536E-7</v>
+        <v>2.2261379581563085E-7</v>
       </c>
       <c r="T4">
-        <v>1.3775278020172767E-7</v>
+        <v>1.3342168742475851E-7</v>
       </c>
       <c r="U4">
-        <v>-2.7573115086355124E-7</v>
+        <v>4.8279570392519803E-7</v>
       </c>
       <c r="V4">
-        <v>-4.9981672867173607E-7</v>
+        <v>8.7196570883540952E-8</v>
       </c>
       <c r="W4">
-        <v>-2.9092707053352527E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+        <v>-2.3748532191510274E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5">
-        <v>-7.3117391294866523E-4</v>
+        <v>-4.6760745362575522E-4</v>
       </c>
       <c r="C5">
-        <v>-4.4737763104254817E-7</v>
+        <v>-3.8169698691379826E-7</v>
       </c>
       <c r="D5">
-        <v>-3.8470204789157891E-8</v>
+        <v>-4.5293062749568811E-8</v>
       </c>
       <c r="E5">
-        <v>-1.4613979430283583E-7</v>
+        <v>-1.2565511349505903E-7</v>
       </c>
       <c r="F5">
-        <v>1.6827294385711299E-9</v>
+        <v>1.4690611487231626E-9</v>
       </c>
       <c r="G5">
-        <v>-1.1946661235662632E-7</v>
+        <v>-5.1833425743731924E-8</v>
       </c>
       <c r="H5">
-        <v>-3.4428355898454885E-7</v>
+        <v>-2.1044185306481927E-7</v>
       </c>
       <c r="I5">
-        <v>1.3412178438971137E-9</v>
+        <v>3.6939155375072039E-10</v>
       </c>
       <c r="J5">
-        <v>5.2789596658406411E-9</v>
+        <v>3.0006272103682699E-9</v>
       </c>
       <c r="K5">
-        <v>8.6747092327668123E-8</v>
+        <v>4.5252449205153409E-9</v>
       </c>
       <c r="L5">
-        <v>1.0498335130059452E-7</v>
+        <v>1.869217658644493E-7</v>
       </c>
       <c r="M5">
-        <v>5.9124326154105295E-9</v>
+        <v>2.8311499590966951E-9</v>
       </c>
       <c r="N5">
-        <v>1.8634754621981999E-8</v>
+        <v>1.0217229726988316E-8</v>
       </c>
       <c r="O5">
-        <v>5.7271857417952469E-8</v>
+        <v>4.0297735721285188E-8</v>
       </c>
       <c r="P5">
-        <v>9.9866561967447812E-10</v>
+        <v>1.3325727347236695E-9</v>
       </c>
       <c r="Q5">
-        <v>-7.0184873213705703E-9</v>
+        <v>-4.3917008448752607E-9</v>
       </c>
       <c r="R5">
-        <v>-6.9874885023449579E-9</v>
+        <v>-6.49892516367798E-9</v>
       </c>
       <c r="S5">
-        <v>-5.3695142846036841E-9</v>
+        <v>-4.7526867656193949E-9</v>
       </c>
       <c r="T5">
-        <v>-1.9038626884281495E-9</v>
+        <v>-2.6097197775856867E-9</v>
       </c>
       <c r="U5">
-        <v>6.4814537386942593E-10</v>
+        <v>-6.4471871326461096E-9</v>
       </c>
       <c r="V5">
-        <v>-2.181089676606792E-10</v>
+        <v>-4.1389268706963573E-9</v>
       </c>
       <c r="W5">
-        <v>2.8310059416734898E-6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+        <v>2.4175537424909493E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.73097951931712091</v>
+        <v>0.66952692734249153</v>
       </c>
       <c r="C6">
-        <v>-1.0404961868873183E-4</v>
+        <v>-8.2024934030524405E-5</v>
       </c>
       <c r="D6">
-        <v>-3.9944294613022769E-5</v>
+        <v>2.1523457268163117E-5</v>
       </c>
       <c r="E6">
-        <v>4.9529547209085681E-5</v>
+        <v>3.1094601653761606E-5</v>
       </c>
       <c r="F6">
-        <v>-1.1946661235662632E-7</v>
+        <v>-5.1833425743731924E-8</v>
       </c>
       <c r="G6">
-        <v>2.2737654594702124E-3</v>
+        <v>1.6173968062859151E-3</v>
       </c>
       <c r="H6">
-        <v>1.8491422214524881E-3</v>
+        <v>1.2483765055935612E-3</v>
       </c>
       <c r="I6">
-        <v>-5.0915436077511005E-5</v>
+        <v>-3.6181964811579328E-5</v>
       </c>
       <c r="J6">
-        <v>-4.1752733630115265E-5</v>
+        <v>-2.8368965619544966E-5</v>
       </c>
       <c r="K6">
-        <v>1.6005502202711064E-5</v>
+        <v>1.6269210969463266E-5</v>
       </c>
       <c r="L6">
-        <v>-3.4145581827401077E-5</v>
+        <v>-2.4229531068566545E-5</v>
       </c>
       <c r="M6">
-        <v>-2.2695829045694818E-5</v>
+        <v>-1.0823749781338878E-5</v>
       </c>
       <c r="N6">
-        <v>-3.7530285735346762E-5</v>
+        <v>-1.4928489587311003E-5</v>
       </c>
       <c r="O6">
-        <v>-5.5656301018082379E-5</v>
+        <v>-2.8468463475412372E-5</v>
       </c>
       <c r="P6">
-        <v>-3.0934392788234811E-5</v>
+        <v>-8.4555846227667413E-6</v>
       </c>
       <c r="Q6">
-        <v>-8.4145446496354214E-6</v>
+        <v>-1.0833893181538231E-5</v>
       </c>
       <c r="R6">
-        <v>-9.1609191003665002E-6</v>
+        <v>-1.0014243197720106E-5</v>
       </c>
       <c r="S6">
-        <v>-5.3994083220619501E-6</v>
+        <v>-1.2420427850084852E-5</v>
       </c>
       <c r="T6">
-        <v>-1.835962479646535E-6</v>
+        <v>-6.0893172607784078E-6</v>
       </c>
       <c r="U6">
-        <v>1.1797908314689816E-5</v>
+        <v>1.2105301694191473E-5</v>
       </c>
       <c r="V6">
-        <v>-6.0910212224120289E-6</v>
+        <v>7.7153475456632772E-6</v>
       </c>
       <c r="W6">
-        <v>-1.8523414762881254E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+        <v>-1.2312503965962926E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>22</v>
       </c>
       <c r="B7">
-        <v>0.10748208077176927</v>
+        <v>5.2704353524702874E-2</v>
       </c>
       <c r="C7">
-        <v>-3.0524767476176483E-4</v>
+        <v>-3.4973090875863776E-4</v>
       </c>
       <c r="D7">
-        <v>-3.5090936115401739E-5</v>
+        <v>1.4359970506243508E-5</v>
       </c>
       <c r="E7">
-        <v>6.840822266599602E-5</v>
+        <v>4.4342658176514697E-5</v>
       </c>
       <c r="F7">
-        <v>-3.4428355898454885E-7</v>
+        <v>-2.1044185306481927E-7</v>
       </c>
       <c r="G7">
-        <v>1.8491422214524881E-3</v>
+        <v>1.2483765055935612E-3</v>
       </c>
       <c r="H7">
-        <v>3.8376590395029697E-3</v>
+        <v>3.2473761925870311E-3</v>
       </c>
       <c r="I7">
-        <v>-4.1678397035483968E-5</v>
+        <v>-2.8228868309541339E-5</v>
       </c>
       <c r="J7">
-        <v>-8.4213314236992209E-5</v>
+        <v>-7.0111557381767823E-5</v>
       </c>
       <c r="K7">
-        <v>5.0243189116963517E-6</v>
+        <v>3.8387935945094359E-6</v>
       </c>
       <c r="L7">
-        <v>-5.5216720244796117E-5</v>
+        <v>-2.2740513726246546E-5</v>
       </c>
       <c r="M7">
-        <v>-4.6424891896799892E-6</v>
+        <v>1.4056201829175038E-6</v>
       </c>
       <c r="N7">
-        <v>-2.937753132353847E-5</v>
+        <v>-1.596982912773989E-5</v>
       </c>
       <c r="O7">
-        <v>-4.5836341026451598E-5</v>
+        <v>-3.0471339486381295E-5</v>
       </c>
       <c r="P7">
-        <v>-7.4991858375430577E-6</v>
+        <v>7.0764636670437361E-7</v>
       </c>
       <c r="Q7">
-        <v>-2.6300514692432075E-5</v>
+        <v>-2.1431377949067397E-5</v>
       </c>
       <c r="R7">
-        <v>-1.4237446570418895E-5</v>
+        <v>-1.0902488086059293E-5</v>
       </c>
       <c r="S7">
-        <v>-1.8685944007882242E-5</v>
+        <v>-2.0830186644244119E-5</v>
       </c>
       <c r="T7">
-        <v>6.2187114242975722E-6</v>
+        <v>1.3095882806600224E-6</v>
       </c>
       <c r="U7">
-        <v>6.0384718823279154E-6</v>
+        <v>7.6704548984093221E-6</v>
       </c>
       <c r="V7">
-        <v>-1.1423237270550025E-5</v>
+        <v>-3.3507220089985995E-6</v>
       </c>
       <c r="W7">
-        <v>-2.2103634876055869E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+        <v>-1.4750070199182875E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>23</v>
       </c>
       <c r="B8">
-        <v>-9.6943610435658942E-3</v>
+        <v>-7.4966954323647129E-3</v>
       </c>
       <c r="C8">
-        <v>2.058496092571179E-6</v>
+        <v>1.8367402058503615E-6</v>
       </c>
       <c r="D8">
-        <v>5.8348694438792581E-7</v>
+        <v>-1.8759298706443378E-7</v>
       </c>
       <c r="E8">
-        <v>-1.0821493628447797E-6</v>
+        <v>-6.837588800322595E-7</v>
       </c>
       <c r="F8">
-        <v>1.3412178438971137E-9</v>
+        <v>3.6939155375072039E-10</v>
       </c>
       <c r="G8">
-        <v>-5.0915436077511005E-5</v>
+        <v>-3.6181964811579328E-5</v>
       </c>
       <c r="H8">
-        <v>-4.1678397035483968E-5</v>
+        <v>-2.8228868309541339E-5</v>
       </c>
       <c r="I8">
-        <v>1.24050169983731E-6</v>
+        <v>8.7229736487736124E-7</v>
       </c>
       <c r="J8">
-        <v>1.0214390907237789E-6</v>
+        <v>6.9002536711569969E-7</v>
       </c>
       <c r="K8">
-        <v>-4.2358376576362597E-7</v>
+        <v>-3.3650039866663779E-7</v>
       </c>
       <c r="L8">
-        <v>7.5819327819602457E-7</v>
+        <v>6.1280689256980425E-7</v>
       </c>
       <c r="M8">
-        <v>7.034043825841672E-7</v>
+        <v>3.7760538392756983E-7</v>
       </c>
       <c r="N8">
-        <v>1.1946353214068647E-6</v>
+        <v>5.9239984484717387E-7</v>
       </c>
       <c r="O8">
-        <v>1.9222766493720403E-6</v>
+        <v>1.0890637722277017E-6</v>
       </c>
       <c r="P8">
-        <v>1.5869833230194538E-6</v>
+        <v>8.4058227112341588E-7</v>
       </c>
       <c r="Q8">
-        <v>-3.1109608999777683E-9</v>
+        <v>7.9292468775500773E-8</v>
       </c>
       <c r="R8">
-        <v>2.2385386238897459E-7</v>
+        <v>2.159628698618698E-7</v>
       </c>
       <c r="S8">
-        <v>1.6010669531811741E-8</v>
+        <v>1.3692564193061409E-7</v>
       </c>
       <c r="T8">
-        <v>2.7162343312630559E-9</v>
+        <v>6.3105169007978507E-8</v>
       </c>
       <c r="U8">
-        <v>-1.1599498758379085E-7</v>
+        <v>-1.572113906028167E-7</v>
       </c>
       <c r="V8">
-        <v>1.6510288920723594E-7</v>
+        <v>-7.2996400796518757E-8</v>
       </c>
       <c r="W8">
-        <v>3.9348261928328192E-5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+        <v>2.6148374564530763E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>24</v>
       </c>
       <c r="B9">
-        <v>-5.7892892771677063E-4</v>
+        <v>3.6943394499537648E-3</v>
       </c>
       <c r="C9">
-        <v>5.9978071496770554E-6</v>
+        <v>6.996385729844091E-6</v>
       </c>
       <c r="D9">
-        <v>3.4150318991156596E-7</v>
+        <v>-3.1310814764874024E-7</v>
       </c>
       <c r="E9">
-        <v>-1.4199229961482714E-6</v>
+        <v>-9.0787456318686518E-7</v>
       </c>
       <c r="F9">
-        <v>5.2789596658406411E-9</v>
+        <v>3.0006272103682699E-9</v>
       </c>
       <c r="G9">
-        <v>-4.1752733630115265E-5</v>
+        <v>-2.8368965619544966E-5</v>
       </c>
       <c r="H9">
-        <v>-8.4213314236992209E-5</v>
+        <v>-7.0111557381767823E-5</v>
       </c>
       <c r="I9">
-        <v>1.0214390907237789E-6</v>
+        <v>6.9002536711569969E-7</v>
       </c>
       <c r="J9">
-        <v>2.0765090090594311E-6</v>
+        <v>1.6844365659454936E-6</v>
       </c>
       <c r="K9">
-        <v>2.9818717197999637E-7</v>
+        <v>2.7608551466340485E-7</v>
       </c>
       <c r="L9">
-        <v>9.4363098057950299E-7</v>
+        <v>4.0467914069841969E-7</v>
       </c>
       <c r="M9">
-        <v>2.1608049053415898E-7</v>
+        <v>1.8215582506336556E-7</v>
       </c>
       <c r="N9">
-        <v>1.1609410768695951E-6</v>
+        <v>9.2574406554633917E-7</v>
       </c>
       <c r="O9">
-        <v>1.9709102491643967E-6</v>
+        <v>1.5821415221452121E-6</v>
       </c>
       <c r="P9">
-        <v>1.4371526097531562E-6</v>
+        <v>1.1696223122850472E-6</v>
       </c>
       <c r="Q9">
-        <v>1.9572924232101328E-7</v>
+        <v>1.7676020485192721E-7</v>
       </c>
       <c r="R9">
-        <v>2.1198136168505683E-7</v>
+        <v>1.7179678252118744E-7</v>
       </c>
       <c r="S9">
-        <v>-8.8269456932243E-9</v>
+        <v>1.0437863484187082E-7</v>
       </c>
       <c r="T9">
-        <v>-4.3666783690779538E-7</v>
+        <v>-2.8322360581471141E-7</v>
       </c>
       <c r="U9">
-        <v>1.2803612397507383E-7</v>
+        <v>1.4416508957218465E-8</v>
       </c>
       <c r="V9">
-        <v>4.2865312934901943E-7</v>
+        <v>2.3837397751174756E-7</v>
       </c>
       <c r="W9">
-        <v>4.5651278771337761E-5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+        <v>2.9894092396200698E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>25</v>
       </c>
       <c r="B10">
-        <v>0.43469246008464979</v>
+        <v>0.19802746623150908</v>
       </c>
       <c r="C10">
-        <v>1.0016672966040313E-5</v>
+        <v>1.6053978336893239E-5</v>
       </c>
       <c r="D10">
-        <v>7.8143565916649588E-6</v>
+        <v>1.7926585287721779E-5</v>
       </c>
       <c r="E10">
-        <v>-1.2251283500515322E-5</v>
+        <v>-4.1771184348820484E-6</v>
       </c>
       <c r="F10">
-        <v>8.6747092327668123E-8</v>
+        <v>4.5252449205153409E-9</v>
       </c>
       <c r="G10">
-        <v>1.6005502202711064E-5</v>
+        <v>1.6269210969463266E-5</v>
       </c>
       <c r="H10">
-        <v>5.0243189116963517E-6</v>
+        <v>3.8387935945094359E-6</v>
       </c>
       <c r="I10">
-        <v>-4.2358376576362597E-7</v>
+        <v>-3.3650039866663779E-7</v>
       </c>
       <c r="J10">
-        <v>2.9818717197999637E-7</v>
+        <v>2.7608551466340485E-7</v>
       </c>
       <c r="K10">
-        <v>2.4040117468807242E-4</v>
+        <v>2.0565147485240566E-4</v>
       </c>
       <c r="L10">
-        <v>-9.0739662729649547E-5</v>
+        <v>-1.0388122956151943E-4</v>
       </c>
       <c r="M10">
-        <v>-4.0909768556242327E-6</v>
+        <v>-6.6980143145742071E-6</v>
       </c>
       <c r="N10">
-        <v>-2.4378509536161151E-6</v>
+        <v>-9.1268983136207726E-6</v>
       </c>
       <c r="O10">
-        <v>-6.9121454632418522E-6</v>
+        <v>-1.0117958402731111E-5</v>
       </c>
       <c r="P10">
-        <v>-6.6312577230503777E-6</v>
+        <v>-8.0017851186414358E-6</v>
       </c>
       <c r="Q10">
-        <v>4.1587011938260139E-6</v>
+        <v>1.8010784436398542E-6</v>
       </c>
       <c r="R10">
-        <v>4.0829975217938303E-6</v>
+        <v>2.6549698076149699E-6</v>
       </c>
       <c r="S10">
-        <v>1.5191254485832465E-6</v>
+        <v>-2.2560782406653678E-7</v>
       </c>
       <c r="T10">
-        <v>4.731085834109382E-6</v>
+        <v>2.8309730350348471E-6</v>
       </c>
       <c r="U10">
-        <v>2.0801801219749639E-6</v>
+        <v>2.0471118700970398E-6</v>
       </c>
       <c r="V10">
-        <v>1.0538813916604527E-6</v>
+        <v>4.4212803203448492E-6</v>
       </c>
       <c r="W10">
-        <v>2.3403933044891887E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+        <v>6.585371723564381E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>26</v>
       </c>
       <c r="B11">
-        <v>-2.9418192579189345E-2</v>
+        <v>-1.0836002452806179E-2</v>
       </c>
       <c r="C11">
-        <v>-1.3150945274765995E-5</v>
+        <v>-4.5569235597031728E-6</v>
       </c>
       <c r="D11">
-        <v>1.1413866182600136E-6</v>
+        <v>2.2199729511521053E-6</v>
       </c>
       <c r="E11">
-        <v>-6.660139924594399E-6</v>
+        <v>-1.3653818196543394E-5</v>
       </c>
       <c r="F11">
-        <v>1.0498335130059452E-7</v>
+        <v>1.869217658644493E-7</v>
       </c>
       <c r="G11">
-        <v>-3.4145581827401077E-5</v>
+        <v>-2.4229531068566545E-5</v>
       </c>
       <c r="H11">
-        <v>-5.5216720244796117E-5</v>
+        <v>-2.2740513726246546E-5</v>
       </c>
       <c r="I11">
-        <v>7.5819327819602457E-7</v>
+        <v>6.1280689256980425E-7</v>
       </c>
       <c r="J11">
-        <v>9.4363098057950299E-7</v>
+        <v>4.0467914069841969E-7</v>
       </c>
       <c r="K11">
-        <v>-9.0739662729649547E-5</v>
+        <v>-1.0388122956151943E-4</v>
       </c>
       <c r="L11">
-        <v>1.7591728724933867E-4</v>
+        <v>1.7416171550209349E-4</v>
       </c>
       <c r="M11">
-        <v>6.0442855572144966E-6</v>
+        <v>5.8298743327665753E-6</v>
       </c>
       <c r="N11">
-        <v>9.7301380313928783E-7</v>
+        <v>4.8319846502375882E-6</v>
       </c>
       <c r="O11">
-        <v>-4.4112645868245524E-7</v>
+        <v>1.8534238607075432E-6</v>
       </c>
       <c r="P11">
-        <v>1.3006855403740757E-6</v>
+        <v>2.9937612530206794E-6</v>
       </c>
       <c r="Q11">
-        <v>-2.0732916722159091E-6</v>
+        <v>-1.1484335518807014E-6</v>
       </c>
       <c r="R11">
-        <v>1.5752576655403844E-6</v>
+        <v>-1.0645058160316232E-6</v>
       </c>
       <c r="S11">
-        <v>-2.24468524920215E-6</v>
+        <v>-2.2733808417844173E-6</v>
       </c>
       <c r="T11">
-        <v>-3.0463733304180842E-6</v>
+        <v>-2.4446638210528197E-6</v>
       </c>
       <c r="U11">
-        <v>-8.402698097057777E-7</v>
+        <v>-1.8953080739141892E-6</v>
       </c>
       <c r="V11">
-        <v>1.9658183176025665E-7</v>
+        <v>-2.0657000809283213E-6</v>
       </c>
       <c r="W11">
-        <v>6.5920778106270272E-5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+        <v>2.1809129998202545E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>27</v>
       </c>
       <c r="B12">
-        <v>0.39096711162486092</v>
+        <v>0.33491153162800658</v>
       </c>
       <c r="C12">
-        <v>-6.4944266400219857E-6</v>
+        <v>-3.0186940861043777E-6</v>
       </c>
       <c r="D12">
-        <v>-4.5185910954905606E-6</v>
+        <v>6.8174883534379829E-6</v>
       </c>
       <c r="E12">
-        <v>-9.4592863456491425E-7</v>
+        <v>-4.5350116784508867E-7</v>
       </c>
       <c r="F12">
-        <v>5.9124326154105295E-9</v>
+        <v>2.8311499590966951E-9</v>
       </c>
       <c r="G12">
-        <v>-2.2695829045694818E-5</v>
+        <v>-1.0823749781338878E-5</v>
       </c>
       <c r="H12">
-        <v>-4.6424891896799892E-6</v>
+        <v>1.4056201829175038E-6</v>
       </c>
       <c r="I12">
-        <v>7.034043825841672E-7</v>
+        <v>3.7760538392756983E-7</v>
       </c>
       <c r="J12">
-        <v>2.1608049053415898E-7</v>
+        <v>1.8215582506336556E-7</v>
       </c>
       <c r="K12">
-        <v>-4.0909768556242327E-6</v>
+        <v>-6.6980143145742071E-6</v>
       </c>
       <c r="L12">
-        <v>6.0442855572144966E-6</v>
+        <v>5.8298743327665753E-6</v>
       </c>
       <c r="M12">
-        <v>5.4689827140691621E-3</v>
+        <v>5.3080551404199646E-3</v>
       </c>
       <c r="N12">
-        <v>4.9271798851974035E-3</v>
+        <v>4.8125000086136453E-3</v>
       </c>
       <c r="O12">
-        <v>4.9274931951985117E-3</v>
+        <v>4.8131381033741111E-3</v>
       </c>
       <c r="P12">
-        <v>4.9276080580561762E-3</v>
+        <v>4.8128279748437357E-3</v>
       </c>
       <c r="Q12">
-        <v>9.9667535600376177E-7</v>
+        <v>1.7623002165971819E-6</v>
       </c>
       <c r="R12">
-        <v>3.0156863460939563E-6</v>
+        <v>7.6047555047197289E-7</v>
       </c>
       <c r="S12">
-        <v>5.6511239708319629E-7</v>
+        <v>8.6772652753135007E-7</v>
       </c>
       <c r="T12">
-        <v>-3.246973421237539E-6</v>
+        <v>-2.5032092652766021E-6</v>
       </c>
       <c r="U12">
-        <v>3.7802808269368249E-6</v>
+        <v>2.3256081894096016E-6</v>
       </c>
       <c r="V12">
-        <v>4.6999465487526408E-6</v>
+        <v>3.3824911299414734E-6</v>
       </c>
       <c r="W12">
-        <v>-4.902404983128798E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+        <v>-4.8024139771561921E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>28</v>
       </c>
       <c r="B13">
-        <v>0.83787126207374696</v>
+        <v>0.624096119747655</v>
       </c>
       <c r="C13">
-        <v>-3.0037310362765555E-6</v>
+        <v>2.6380482700732793E-6</v>
       </c>
       <c r="D13">
-        <v>1.0973150343767456E-6</v>
+        <v>2.6124475121720696E-5</v>
       </c>
       <c r="E13">
-        <v>-2.0973593870555329E-6</v>
+        <v>-9.6112078684662278E-7</v>
       </c>
       <c r="F13">
-        <v>1.8634754621981999E-8</v>
+        <v>1.0217229726988316E-8</v>
       </c>
       <c r="G13">
-        <v>-3.7530285735346762E-5</v>
+        <v>-1.4928489587311003E-5</v>
       </c>
       <c r="H13">
-        <v>-2.937753132353847E-5</v>
+        <v>-1.596982912773989E-5</v>
       </c>
       <c r="I13">
-        <v>1.1946353214068647E-6</v>
+        <v>5.9239984484717387E-7</v>
       </c>
       <c r="J13">
-        <v>1.1609410768695951E-6</v>
+        <v>9.2574406554633917E-7</v>
       </c>
       <c r="K13">
-        <v>-2.4378509536161151E-6</v>
+        <v>-9.1268983136207726E-6</v>
       </c>
       <c r="L13">
-        <v>9.7301380313928783E-7</v>
+        <v>4.8319846502375882E-6</v>
       </c>
       <c r="M13">
-        <v>4.9271798851974035E-3</v>
+        <v>4.8125000086136453E-3</v>
       </c>
       <c r="N13">
-        <v>5.06219018670683E-3</v>
+        <v>4.9192037668428848E-3</v>
       </c>
       <c r="O13">
-        <v>4.9360480324543068E-3</v>
+        <v>4.825490151553485E-3</v>
       </c>
       <c r="P13">
-        <v>4.9394727001215583E-3</v>
+        <v>4.8269906717387356E-3</v>
       </c>
       <c r="Q13">
-        <v>5.2428085102104841E-6</v>
+        <v>4.2989920106577129E-6</v>
       </c>
       <c r="R13">
-        <v>5.8807322188017227E-6</v>
+        <v>2.1633012213569729E-6</v>
       </c>
       <c r="S13">
-        <v>3.6631069257121626E-6</v>
+        <v>1.5622904839645153E-6</v>
       </c>
       <c r="T13">
-        <v>-2.0454556172730474E-7</v>
+        <v>-1.3793774695880384E-6</v>
       </c>
       <c r="U13">
-        <v>1.8464256532699591E-6</v>
+        <v>2.5294335072164292E-6</v>
       </c>
       <c r="V13">
-        <v>1.8560709934670515E-6</v>
+        <v>1.8634304458282195E-6</v>
       </c>
       <c r="W13">
-        <v>-4.8955427629285174E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+        <v>-4.8143952962827648E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>37</v>
       </c>
       <c r="B14">
-        <v>1.0727940500458497</v>
+        <v>0.68176793825740978</v>
       </c>
       <c r="C14">
-        <v>-1.8196619165979934E-6</v>
+        <v>6.2423502819273775E-6</v>
       </c>
       <c r="D14">
-        <v>4.3280814247850831E-6</v>
+        <v>3.6998500785737748E-5</v>
       </c>
       <c r="E14">
-        <v>-3.8352974932546194E-6</v>
+        <v>-2.5412459390473409E-6</v>
       </c>
       <c r="F14">
-        <v>5.7271857417952469E-8</v>
+        <v>4.0297735721285188E-8</v>
       </c>
       <c r="G14">
-        <v>-5.5656301018082379E-5</v>
+        <v>-2.8468463475412372E-5</v>
       </c>
       <c r="H14">
-        <v>-4.5836341026451598E-5</v>
+        <v>-3.0471339486381295E-5</v>
       </c>
       <c r="I14">
-        <v>1.9222766493720403E-6</v>
+        <v>1.0890637722277017E-6</v>
       </c>
       <c r="J14">
-        <v>1.9709102491643967E-6</v>
+        <v>1.5821415221452121E-6</v>
       </c>
       <c r="K14">
-        <v>-6.9121454632418522E-6</v>
+        <v>-1.0117958402731111E-5</v>
       </c>
       <c r="L14">
-        <v>-4.4112645868245524E-7</v>
+        <v>1.8534238607075432E-6</v>
       </c>
       <c r="M14">
-        <v>4.9274931951985117E-3</v>
+        <v>4.8131381033741111E-3</v>
       </c>
       <c r="N14">
-        <v>4.9360480324543068E-3</v>
+        <v>4.825490151553485E-3</v>
       </c>
       <c r="O14">
-        <v>5.0240659972065616E-3</v>
+        <v>4.8842765056034297E-3</v>
       </c>
       <c r="P14">
-        <v>4.9862745570408099E-3</v>
+        <v>4.858984124462562E-3</v>
       </c>
       <c r="Q14">
-        <v>8.2182166262426007E-6</v>
+        <v>4.380102086272753E-6</v>
       </c>
       <c r="R14">
-        <v>6.5347452540191297E-6</v>
+        <v>3.5593671194829774E-6</v>
       </c>
       <c r="S14">
-        <v>6.0222890057667374E-6</v>
+        <v>2.5037917791025346E-6</v>
       </c>
       <c r="T14">
-        <v>4.7403060960482464E-6</v>
+        <v>1.2652813893703572E-6</v>
       </c>
       <c r="U14">
-        <v>-4.2993916711634746E-6</v>
+        <v>-5.0042588451562007E-8</v>
       </c>
       <c r="V14">
-        <v>-7.2849907009464952E-6</v>
+        <v>-4.825685046793965E-6</v>
       </c>
       <c r="W14">
-        <v>-4.9343911366685747E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+        <v>-4.8342792607126922E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>38</v>
       </c>
       <c r="B15">
-        <v>1.0602904655316663</v>
+        <v>0.70340667518950417</v>
       </c>
       <c r="C15">
-        <v>-1.4391881837289976E-5</v>
+        <v>-3.2648960271286346E-6</v>
       </c>
       <c r="D15">
-        <v>3.678262928669357E-6</v>
+        <v>3.7881574491580127E-5</v>
       </c>
       <c r="E15">
-        <v>3.1331951114968633E-6</v>
+        <v>2.3019178073926716E-6</v>
       </c>
       <c r="F15">
-        <v>9.9866561967447812E-10</v>
+        <v>1.3325727347236695E-9</v>
       </c>
       <c r="G15">
-        <v>-3.0934392788234811E-5</v>
+        <v>-8.4555846227667413E-6</v>
       </c>
       <c r="H15">
-        <v>-7.4991858375430577E-6</v>
+        <v>7.0764636670437361E-7</v>
       </c>
       <c r="I15">
-        <v>1.5869833230194538E-6</v>
+        <v>8.4058227112341588E-7</v>
       </c>
       <c r="J15">
-        <v>1.4371526097531562E-6</v>
+        <v>1.1696223122850472E-6</v>
       </c>
       <c r="K15">
-        <v>-6.6312577230503777E-6</v>
+        <v>-8.0017851186414358E-6</v>
       </c>
       <c r="L15">
-        <v>1.3006855403740757E-6</v>
+        <v>2.9937612530206794E-6</v>
       </c>
       <c r="M15">
-        <v>4.9276080580561762E-3</v>
+        <v>4.8128279748437357E-3</v>
       </c>
       <c r="N15">
-        <v>4.9394727001215583E-3</v>
+        <v>4.8269906717387356E-3</v>
       </c>
       <c r="O15">
-        <v>4.9862745570408099E-3</v>
+        <v>4.858984124462562E-3</v>
       </c>
       <c r="P15">
-        <v>5.1667877660710477E-3</v>
+        <v>4.9866222707676752E-3</v>
       </c>
       <c r="Q15">
-        <v>9.5179282985679084E-6</v>
+        <v>4.8074088140564699E-6</v>
       </c>
       <c r="R15">
-        <v>1.0564675489800382E-5</v>
+        <v>5.3277499117524043E-6</v>
       </c>
       <c r="S15">
-        <v>7.5749897300061953E-6</v>
+        <v>1.7493089064862463E-6</v>
       </c>
       <c r="T15">
-        <v>6.8859272721492009E-6</v>
+        <v>1.9969993271814297E-6</v>
       </c>
       <c r="U15">
-        <v>-5.9787020595052145E-6</v>
+        <v>5.4733095356829535E-9</v>
       </c>
       <c r="V15">
-        <v>-8.0676681017171761E-6</v>
+        <v>-3.9242729142733372E-6</v>
       </c>
       <c r="W15">
-        <v>-5.1484316712182322E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+        <v>-4.9859003391398444E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>39</v>
       </c>
       <c r="B16">
-        <v>6.18312513243328E-2</v>
+        <v>2.0073061711154042E-2</v>
       </c>
       <c r="C16">
-        <v>8.7233023728791132E-6</v>
+        <v>7.1959925279693639E-6</v>
       </c>
       <c r="D16">
-        <v>1.209030139505457E-5</v>
+        <v>9.3926125757064221E-6</v>
       </c>
       <c r="E16">
-        <v>4.4682056616998677E-7</v>
+        <v>2.0446226746274165E-7</v>
       </c>
       <c r="F16">
-        <v>-7.0184873213705703E-9</v>
+        <v>-4.3917008448752607E-9</v>
       </c>
       <c r="G16">
-        <v>-8.4145446496354214E-6</v>
+        <v>-1.0833893181538231E-5</v>
       </c>
       <c r="H16">
-        <v>-2.6300514692432075E-5</v>
+        <v>-2.1431377949067397E-5</v>
       </c>
       <c r="I16">
-        <v>-3.1109608999777683E-9</v>
+        <v>7.9292468775500773E-8</v>
       </c>
       <c r="J16">
-        <v>1.9572924232101328E-7</v>
+        <v>1.7676020485192721E-7</v>
       </c>
       <c r="K16">
-        <v>4.1587011938260139E-6</v>
+        <v>1.8010784436398542E-6</v>
       </c>
       <c r="L16">
-        <v>-2.0732916722159091E-6</v>
+        <v>-1.1484335518807014E-6</v>
       </c>
       <c r="M16">
-        <v>9.9667535600376177E-7</v>
+        <v>1.7623002165971819E-6</v>
       </c>
       <c r="N16">
-        <v>5.2428085102104841E-6</v>
+        <v>4.2989920106577129E-6</v>
       </c>
       <c r="O16">
-        <v>8.2182166262426007E-6</v>
+        <v>4.380102086272753E-6</v>
       </c>
       <c r="P16">
-        <v>9.5179282985679084E-6</v>
+        <v>4.8074088140564699E-6</v>
       </c>
       <c r="Q16">
-        <v>3.6243267157482655E-4</v>
+        <v>2.5909508792109449E-4</v>
       </c>
       <c r="R16">
-        <v>1.666105780708602E-4</v>
+        <v>1.2772204356120841E-4</v>
       </c>
       <c r="S16">
-        <v>1.6704039097351225E-4</v>
+        <v>1.2819639162735795E-4</v>
       </c>
       <c r="T16">
-        <v>1.6670584920891384E-4</v>
+        <v>1.2785362694282517E-4</v>
       </c>
       <c r="U16">
-        <v>-5.2091910138035543E-6</v>
+        <v>-4.3346533776664819E-6</v>
       </c>
       <c r="V16">
-        <v>-8.0956604361316978E-6</v>
+        <v>-5.2703267262930462E-6</v>
       </c>
       <c r="W16">
-        <v>-1.7701729987158328E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+        <v>-1.2824369443721872E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>36</v>
       </c>
       <c r="B17">
-        <v>9.8428640729046543E-2</v>
+        <v>6.7176620935346432E-2</v>
       </c>
       <c r="C17">
-        <v>-2.3193425987480221E-7</v>
+        <v>1.2761169673540028E-6</v>
       </c>
       <c r="D17">
-        <v>1.0745082449964204E-5</v>
+        <v>8.7429790980343397E-6</v>
       </c>
       <c r="E17">
-        <v>2.0909074803170628E-7</v>
+        <v>2.2236608834385556E-7</v>
       </c>
       <c r="F17">
-        <v>-6.9874885023449579E-9</v>
+        <v>-6.49892516367798E-9</v>
       </c>
       <c r="G17">
-        <v>-9.1609191003665002E-6</v>
+        <v>-1.0014243197720106E-5</v>
       </c>
       <c r="H17">
-        <v>-1.4237446570418895E-5</v>
+        <v>-1.0902488086059293E-5</v>
       </c>
       <c r="I17">
-        <v>2.2385386238897459E-7</v>
+        <v>2.159628698618698E-7</v>
       </c>
       <c r="J17">
-        <v>2.1198136168505683E-7</v>
+        <v>1.7179678252118744E-7</v>
       </c>
       <c r="K17">
-        <v>4.0829975217938303E-6</v>
+        <v>2.6549698076149699E-6</v>
       </c>
       <c r="L17">
-        <v>1.5752576655403844E-6</v>
+        <v>-1.0645058160316232E-6</v>
       </c>
       <c r="M17">
-        <v>3.0156863460939563E-6</v>
+        <v>7.6047555047197289E-7</v>
       </c>
       <c r="N17">
-        <v>5.8807322188017227E-6</v>
+        <v>2.1633012213569729E-6</v>
       </c>
       <c r="O17">
-        <v>6.5347452540191297E-6</v>
+        <v>3.5593671194829774E-6</v>
       </c>
       <c r="P17">
-        <v>1.0564675489800382E-5</v>
+        <v>5.3277499117524043E-6</v>
       </c>
       <c r="Q17">
-        <v>1.666105780708602E-4</v>
+        <v>1.2772204356120841E-4</v>
       </c>
       <c r="R17">
-        <v>4.5794396771842182E-4</v>
+        <v>3.2962726284356845E-4</v>
       </c>
       <c r="S17">
-        <v>1.6643712448747398E-4</v>
+        <v>1.2759340405227662E-4</v>
       </c>
       <c r="T17">
-        <v>1.6638223454483258E-4</v>
+        <v>1.275461026251008E-4</v>
       </c>
       <c r="U17">
-        <v>-4.7127405782183026E-6</v>
+        <v>-4.1596509137828705E-6</v>
       </c>
       <c r="V17">
-        <v>-5.6341796432684774E-6</v>
+        <v>-5.4824368204940916E-6</v>
       </c>
       <c r="W17">
-        <v>-1.7431857314935059E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+        <v>-1.2929185912556452E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>29</v>
       </c>
       <c r="B18">
-        <v>9.8681223922581884E-2</v>
+        <v>5.55847506969755E-2</v>
       </c>
       <c r="C18">
-        <v>-6.8901203938031931E-7</v>
+        <v>2.4191918747966222E-6</v>
       </c>
       <c r="D18">
-        <v>9.743049533203712E-6</v>
+        <v>7.3752357360686691E-6</v>
       </c>
       <c r="E18">
-        <v>3.6071070524177536E-7</v>
+        <v>2.2261379581563085E-7</v>
       </c>
       <c r="F18">
-        <v>-5.3695142846036841E-9</v>
+        <v>-4.7526867656193949E-9</v>
       </c>
       <c r="G18">
-        <v>-5.3994083220619501E-6</v>
+        <v>-1.2420427850084852E-5</v>
       </c>
       <c r="H18">
-        <v>-1.8685944007882242E-5</v>
+        <v>-2.0830186644244119E-5</v>
       </c>
       <c r="I18">
-        <v>1.6010669531811741E-8</v>
+        <v>1.3692564193061409E-7</v>
       </c>
       <c r="J18">
-        <v>-8.8269456932243E-9</v>
+        <v>1.0437863484187082E-7</v>
       </c>
       <c r="K18">
-        <v>1.5191254485832465E-6</v>
+        <v>-2.2560782406653678E-7</v>
       </c>
       <c r="L18">
-        <v>-2.24468524920215E-6</v>
+        <v>-2.2733808417844173E-6</v>
       </c>
       <c r="M18">
-        <v>5.6511239708319629E-7</v>
+        <v>8.6772652753135007E-7</v>
       </c>
       <c r="N18">
-        <v>3.6631069257121626E-6</v>
+        <v>1.5622904839645153E-6</v>
       </c>
       <c r="O18">
-        <v>6.0222890057667374E-6</v>
+        <v>2.5037917791025346E-6</v>
       </c>
       <c r="P18">
-        <v>7.5749897300061953E-6</v>
+        <v>1.7493089064862463E-6</v>
       </c>
       <c r="Q18">
-        <v>1.6704039097351225E-4</v>
+        <v>1.2819639162735795E-4</v>
       </c>
       <c r="R18">
-        <v>1.6643712448747398E-4</v>
+        <v>1.2759340405227662E-4</v>
       </c>
       <c r="S18">
-        <v>3.4378533640940976E-4</v>
+        <v>2.4732712451039146E-4</v>
       </c>
       <c r="T18">
-        <v>1.6672858716061361E-4</v>
+        <v>1.2784730937255109E-4</v>
       </c>
       <c r="U18">
-        <v>-5.1140589851895173E-6</v>
+        <v>-4.3551260054562376E-6</v>
       </c>
       <c r="V18">
-        <v>-7.063638071864166E-6</v>
+        <v>-5.0156147209076525E-6</v>
       </c>
       <c r="W18">
-        <v>-1.7408501120838021E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+        <v>-1.2401384453298735E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>30</v>
       </c>
       <c r="B19">
-        <v>8.5749434341879399E-2</v>
+        <v>4.4553701130670212E-2</v>
       </c>
       <c r="C19">
-        <v>-4.6632037175324241E-6</v>
+        <v>-1.0015852300465435E-6</v>
       </c>
       <c r="D19">
-        <v>9.7968293565904117E-6</v>
+        <v>8.2667029123247681E-6</v>
       </c>
       <c r="E19">
-        <v>1.3775278020172767E-7</v>
+        <v>1.3342168742475851E-7</v>
       </c>
       <c r="F19">
-        <v>-1.9038626884281495E-9</v>
+        <v>-2.6097197775856867E-9</v>
       </c>
       <c r="G19">
-        <v>-1.835962479646535E-6</v>
+        <v>-6.0893172607784078E-6</v>
       </c>
       <c r="H19">
-        <v>6.2187114242975722E-6</v>
+        <v>1.3095882806600224E-6</v>
       </c>
       <c r="I19">
-        <v>2.7162343312630559E-9</v>
+        <v>6.3105169007978507E-8</v>
       </c>
       <c r="J19">
-        <v>-4.3666783690779538E-7</v>
+        <v>-2.8322360581471141E-7</v>
       </c>
       <c r="K19">
-        <v>4.731085834109382E-6</v>
+        <v>2.8309730350348471E-6</v>
       </c>
       <c r="L19">
-        <v>-3.0463733304180842E-6</v>
+        <v>-2.4446638210528197E-6</v>
       </c>
       <c r="M19">
-        <v>-3.246973421237539E-6</v>
+        <v>-2.5032092652766021E-6</v>
       </c>
       <c r="N19">
-        <v>-2.0454556172730474E-7</v>
+        <v>-1.3793774695880384E-6</v>
       </c>
       <c r="O19">
-        <v>4.7403060960482464E-6</v>
+        <v>1.2652813893703572E-6</v>
       </c>
       <c r="P19">
-        <v>6.8859272721492009E-6</v>
+        <v>1.9969993271814297E-6</v>
       </c>
       <c r="Q19">
-        <v>1.6670584920891384E-4</v>
+        <v>1.2785362694282517E-4</v>
       </c>
       <c r="R19">
-        <v>1.6638223454483258E-4</v>
+        <v>1.275461026251008E-4</v>
       </c>
       <c r="S19">
-        <v>1.6672858716061361E-4</v>
+        <v>1.2784730937255109E-4</v>
       </c>
       <c r="T19">
-        <v>2.3990976650778041E-4</v>
+        <v>1.7722828092949511E-4</v>
       </c>
       <c r="U19">
-        <v>-4.7902926470356743E-6</v>
+        <v>-3.97990477426306E-6</v>
       </c>
       <c r="V19">
-        <v>-7.6901418306633477E-6</v>
+        <v>-5.1898227411096832E-6</v>
       </c>
       <c r="W19">
-        <v>-1.738583802453145E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+        <v>-1.276771733628218E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>31</v>
       </c>
       <c r="B20">
-        <v>5.959206908595658E-2</v>
+        <v>0.37546556229824429</v>
       </c>
       <c r="C20">
-        <v>-9.806503372608666E-7</v>
+        <v>-7.990994966092673E-6</v>
       </c>
       <c r="D20">
-        <v>-5.1515299103112016E-6</v>
+        <v>-1.2167256952009685E-5</v>
       </c>
       <c r="E20">
-        <v>-2.7573115086355124E-7</v>
+        <v>4.8279570392519803E-7</v>
       </c>
       <c r="F20">
-        <v>6.4814537386942593E-10</v>
+        <v>-6.4471871326461096E-9</v>
       </c>
       <c r="G20">
-        <v>1.1797908314689816E-5</v>
+        <v>1.2105301694191473E-5</v>
       </c>
       <c r="H20">
-        <v>6.0384718823279154E-6</v>
+        <v>7.6704548984093221E-6</v>
       </c>
       <c r="I20">
-        <v>-1.1599498758379085E-7</v>
+        <v>-1.572113906028167E-7</v>
       </c>
       <c r="J20">
-        <v>1.2803612397507383E-7</v>
+        <v>1.4416508957218465E-8</v>
       </c>
       <c r="K20">
-        <v>2.0801801219749639E-6</v>
+        <v>2.0471118700970398E-6</v>
       </c>
       <c r="L20">
-        <v>-8.402698097057777E-7</v>
+        <v>-1.8953080739141892E-6</v>
       </c>
       <c r="M20">
-        <v>3.7802808269368249E-6</v>
+        <v>2.3256081894096016E-6</v>
       </c>
       <c r="N20">
-        <v>1.8464256532699591E-6</v>
+        <v>2.5294335072164292E-6</v>
       </c>
       <c r="O20">
-        <v>-4.2993916711634746E-6</v>
+        <v>-5.0042588451562007E-8</v>
       </c>
       <c r="P20">
-        <v>-5.9787020595052145E-6</v>
+        <v>5.4733095356829535E-9</v>
       </c>
       <c r="Q20">
-        <v>-5.2091910138035543E-6</v>
+        <v>-4.3346533776664819E-6</v>
       </c>
       <c r="R20">
-        <v>-4.7127405782183026E-6</v>
+        <v>-4.1596509137828705E-6</v>
       </c>
       <c r="S20">
-        <v>-5.1140589851895173E-6</v>
+        <v>-4.3551260054562376E-6</v>
       </c>
       <c r="T20">
-        <v>-4.7902926470356743E-6</v>
+        <v>-3.97990477426306E-6</v>
       </c>
       <c r="U20">
-        <v>3.0104652938202744E-4</v>
+        <v>2.1938096725814354E-4</v>
       </c>
       <c r="V20">
-        <v>3.7302230073063516E-5</v>
+        <v>2.6272362920976812E-5</v>
       </c>
       <c r="W20">
-        <v>-2.3835254505444461E-5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+        <v>-3.2132491983203326E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>32</v>
       </c>
       <c r="B21">
-        <v>0.10807124587793093</v>
+        <v>0.26513056981247701</v>
       </c>
       <c r="C21">
-        <v>-1.1096981248850792E-6</v>
+        <v>-2.1423882938798028E-6</v>
       </c>
       <c r="D21">
-        <v>-5.783380069827635E-6</v>
+        <v>-6.972097867208136E-6</v>
       </c>
       <c r="E21">
-        <v>-4.9981672867173607E-7</v>
+        <v>8.7196570883540952E-8</v>
       </c>
       <c r="F21">
-        <v>-2.181089676606792E-10</v>
+        <v>-4.1389268706963573E-9</v>
       </c>
       <c r="G21">
-        <v>-6.0910212224120289E-6</v>
+        <v>7.7153475456632772E-6</v>
       </c>
       <c r="H21">
-        <v>-1.1423237270550025E-5</v>
+        <v>-3.3507220089985995E-6</v>
       </c>
       <c r="I21">
-        <v>1.6510288920723594E-7</v>
+        <v>-7.2996400796518757E-8</v>
       </c>
       <c r="J21">
-        <v>4.2865312934901943E-7</v>
+        <v>2.3837397751174756E-7</v>
       </c>
       <c r="K21">
-        <v>1.0538813916604527E-6</v>
+        <v>4.4212803203448492E-6</v>
       </c>
       <c r="L21">
-        <v>1.9658183176025665E-7</v>
+        <v>-2.0657000809283213E-6</v>
       </c>
       <c r="M21">
-        <v>4.6999465487526408E-6</v>
+        <v>3.3824911299414734E-6</v>
       </c>
       <c r="N21">
-        <v>1.8560709934670515E-6</v>
+        <v>1.8634304458282195E-6</v>
       </c>
       <c r="O21">
-        <v>-7.2849907009464952E-6</v>
+        <v>-4.825685046793965E-6</v>
       </c>
       <c r="P21">
-        <v>-8.0676681017171761E-6</v>
+        <v>-3.9242729142733372E-6</v>
       </c>
       <c r="Q21">
-        <v>-8.0956604361316978E-6</v>
+        <v>-5.2703267262930462E-6</v>
       </c>
       <c r="R21">
-        <v>-5.6341796432684774E-6</v>
+        <v>-5.4824368204940916E-6</v>
       </c>
       <c r="S21">
-        <v>-7.063638071864166E-6</v>
+        <v>-5.0156147209076525E-6</v>
       </c>
       <c r="T21">
-        <v>-7.6901418306633477E-6</v>
+        <v>-5.1898227411096832E-6</v>
       </c>
       <c r="U21">
-        <v>3.7302230073063516E-5</v>
+        <v>2.6272362920976812E-5</v>
       </c>
       <c r="V21">
-        <v>4.2372006037556234E-4</v>
+        <v>2.8799553450069548E-4</v>
       </c>
       <c r="W21">
-        <v>-3.9086227046988296E-6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+        <v>-1.7624848438282727E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>33</v>
       </c>
       <c r="B22">
-        <v>-1.5281417877611283</v>
+        <v>-1.7950792310827621</v>
       </c>
       <c r="C22">
-        <v>-8.6623956613111344E-4</v>
+        <v>-7.4546865616241726E-4</v>
       </c>
       <c r="D22">
-        <v>-1.134384316306886E-4</v>
+        <v>-1.7181115487462776E-4</v>
       </c>
       <c r="E22">
-        <v>-2.9092707053352527E-4</v>
+        <v>-2.3748532191510274E-4</v>
       </c>
       <c r="F22">
-        <v>2.8310059416734898E-6</v>
+        <v>2.4175537424909493E-6</v>
       </c>
       <c r="G22">
-        <v>-1.8523414762881254E-3</v>
+        <v>-1.2312503965962926E-3</v>
       </c>
       <c r="H22">
-        <v>-2.2103634876055869E-3</v>
+        <v>-1.4750070199182875E-3</v>
       </c>
       <c r="I22">
-        <v>3.9348261928328192E-5</v>
+        <v>2.6148374564530763E-5</v>
       </c>
       <c r="J22">
-        <v>4.5651278771337761E-5</v>
+        <v>2.9894092396200698E-5</v>
       </c>
       <c r="K22">
-        <v>2.3403933044891887E-4</v>
+        <v>6.585371723564381E-5</v>
       </c>
       <c r="L22">
-        <v>6.5920778106270272E-5</v>
+        <v>2.1809129998202545E-4</v>
       </c>
       <c r="M22">
-        <v>-4.902404983128798E-3</v>
+        <v>-4.8024139771561921E-3</v>
       </c>
       <c r="N22">
-        <v>-4.8955427629285174E-3</v>
+        <v>-4.8143952962827648E-3</v>
       </c>
       <c r="O22">
-        <v>-4.9343911366685747E-3</v>
+        <v>-4.8342792607126922E-3</v>
       </c>
       <c r="P22">
-        <v>-5.1484316712182322E-3</v>
+        <v>-4.9859003391398444E-3</v>
       </c>
       <c r="Q22">
-        <v>-1.7701729987158328E-4</v>
+        <v>-1.2824369443721872E-4</v>
       </c>
       <c r="R22">
-        <v>-1.7431857314935059E-4</v>
+        <v>-1.2929185912556452E-4</v>
       </c>
       <c r="S22">
-        <v>-1.7408501120838021E-4</v>
+        <v>-1.2401384453298735E-4</v>
       </c>
       <c r="T22">
-        <v>-1.738583802453145E-4</v>
+        <v>-1.276771733628218E-4</v>
       </c>
       <c r="U22">
-        <v>-2.3835254505444461E-5</v>
+        <v>-3.2132491983203326E-5</v>
       </c>
       <c r="V22">
-        <v>-3.9086227046988296E-6</v>
+        <v>-1.7624848438282727E-5</v>
       </c>
       <c r="W22">
-        <v>1.1896660266168764E-2</v>
+        <v>1.0340682453142968E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3808,16 +3806,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:U1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -3882,1239 +3878,1239 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>19</v>
       </c>
       <c r="B2">
-        <v>0.23216378380887107</v>
+        <v>7.7966086257403117E-2</v>
       </c>
       <c r="C2">
-        <v>3.8033685225490681E-5</v>
+        <v>2.4517156216321084E-5</v>
       </c>
       <c r="D2">
-        <v>-4.2770688976234718E-7</v>
+        <v>-2.7829621519374347E-7</v>
       </c>
       <c r="E2">
-        <v>6.2623113547266479E-5</v>
+        <v>3.4822223458096773E-5</v>
       </c>
       <c r="F2">
-        <v>8.8273261342106484E-5</v>
+        <v>4.0734356482437556E-5</v>
       </c>
       <c r="G2">
-        <v>-1.2846255155156888E-6</v>
+        <v>-7.4167292971507907E-7</v>
       </c>
       <c r="H2">
-        <v>-1.6931083284546069E-6</v>
+        <v>-7.844323836705728E-7</v>
       </c>
       <c r="I2">
-        <v>-2.2108130936924618E-5</v>
+        <v>-8.848070453778449E-6</v>
       </c>
       <c r="J2">
-        <v>-2.9689699682348396E-5</v>
+        <v>-2.2371028361015454E-5</v>
       </c>
       <c r="K2">
-        <v>-2.7697114965211642E-6</v>
+        <v>-2.5864263911761702E-6</v>
       </c>
       <c r="L2">
-        <v>2.898771846588581E-6</v>
+        <v>-1.191126785650171E-6</v>
       </c>
       <c r="M2">
-        <v>4.4676039417657618E-6</v>
+        <v>-2.4148589438028646E-6</v>
       </c>
       <c r="N2">
-        <v>2.1644387141768484E-5</v>
+        <v>6.2198094278970661E-6</v>
       </c>
       <c r="O2">
-        <v>3.1297232276421708E-6</v>
+        <v>4.8067386658810871E-8</v>
       </c>
       <c r="P2">
-        <v>6.3629493690606674E-6</v>
+        <v>2.4576258736991839E-6</v>
       </c>
       <c r="Q2">
-        <v>3.1209019464327874E-6</v>
+        <v>1.0897743958416027E-6</v>
       </c>
       <c r="R2">
-        <v>2.5013660098625245E-6</v>
+        <v>1.1671689382890604E-6</v>
       </c>
       <c r="S2">
-        <v>6.5220872586495709E-8</v>
+        <v>1.6856677770768654E-6</v>
       </c>
       <c r="T2">
-        <v>-1.847668256206979E-6</v>
+        <v>1.7294047459000899E-7</v>
       </c>
       <c r="U2">
-        <v>-7.6798725286602568E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-4.9434713268882099E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>20</v>
       </c>
       <c r="B3">
-        <v>-2.5622970077814992E-3</v>
+        <v>-9.1547503387709526E-4</v>
       </c>
       <c r="C3">
-        <v>-4.2770688976234718E-7</v>
+        <v>-2.7829621519374347E-7</v>
       </c>
       <c r="D3">
-        <v>5.019999399785485E-9</v>
+        <v>3.2805845257929222E-9</v>
       </c>
       <c r="E3">
-        <v>-7.049815118605287E-8</v>
+        <v>-1.4462525557229504E-8</v>
       </c>
       <c r="F3">
-        <v>-3.6964966354747712E-7</v>
+        <v>-8.2093003009059312E-8</v>
       </c>
       <c r="G3">
-        <v>-1.2975381570768067E-9</v>
+        <v>-6.3280696888017525E-10</v>
       </c>
       <c r="H3">
-        <v>3.5009201937962103E-9</v>
+        <v>-1.060659627372726E-10</v>
       </c>
       <c r="I3">
-        <v>2.1644735953997107E-7</v>
+        <v>8.4068701176724991E-8</v>
       </c>
       <c r="J3">
-        <v>4.0595447782955309E-7</v>
+        <v>3.0062631703399667E-7</v>
       </c>
       <c r="K3">
-        <v>2.3433591932986087E-8</v>
+        <v>2.6877935599648306E-8</v>
       </c>
       <c r="L3">
-        <v>-3.9862786421839066E-8</v>
+        <v>1.1183209223956324E-8</v>
       </c>
       <c r="M3">
-        <v>-2.2772101762793333E-8</v>
+        <v>4.164066553254335E-8</v>
       </c>
       <c r="N3">
-        <v>-1.6260954306951804E-7</v>
+        <v>-2.7013317677477535E-8</v>
       </c>
       <c r="O3">
-        <v>-4.5183227063700985E-8</v>
+        <v>-4.4818957136057131E-9</v>
       </c>
       <c r="P3">
-        <v>-8.0609988916930968E-8</v>
+        <v>-3.0826060548175828E-8</v>
       </c>
       <c r="Q3">
-        <v>-4.7377863933641638E-8</v>
+        <v>-1.932631586831308E-8</v>
       </c>
       <c r="R3">
-        <v>-3.7429002910934282E-8</v>
+        <v>-1.7252960054289567E-8</v>
       </c>
       <c r="S3">
-        <v>-1.2635539363903215E-8</v>
+        <v>-2.3690952303665035E-8</v>
       </c>
       <c r="T3">
-        <v>1.5561768791072757E-9</v>
+        <v>-8.5573958576412941E-9</v>
       </c>
       <c r="U3">
-        <v>8.2351551980110485E-6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+        <v>5.3630877564070895E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>21</v>
       </c>
       <c r="B4">
-        <v>0.32643939625035095</v>
+        <v>7.6996588336017552E-2</v>
       </c>
       <c r="C4">
-        <v>6.2623113547266479E-5</v>
+        <v>3.4822223458096773E-5</v>
       </c>
       <c r="D4">
-        <v>-7.049815118605287E-8</v>
+        <v>-1.4462525557229504E-8</v>
       </c>
       <c r="E4">
-        <v>4.3755430928115943E-3</v>
+        <v>2.7791442525466658E-3</v>
       </c>
       <c r="F4">
-        <v>2.524485484114841E-3</v>
+        <v>1.5226000089801884E-3</v>
       </c>
       <c r="G4">
-        <v>-9.6125216876268157E-5</v>
+        <v>-6.0580045810905436E-5</v>
       </c>
       <c r="H4">
-        <v>-5.8087556959719042E-5</v>
+        <v>-3.4472436897545409E-5</v>
       </c>
       <c r="I4">
-        <v>2.5635463107200535E-5</v>
+        <v>2.9635908599534234E-5</v>
       </c>
       <c r="J4">
-        <v>-8.9033577313836601E-5</v>
+        <v>-3.2535278073201061E-5</v>
       </c>
       <c r="K4">
-        <v>-4.1559145247559029E-5</v>
+        <v>-2.0522211480038699E-5</v>
       </c>
       <c r="L4">
-        <v>-5.4156976991669072E-5</v>
+        <v>-3.8743398077276591E-5</v>
       </c>
       <c r="M4">
-        <v>-7.4181546800714069E-5</v>
+        <v>-5.6520933370749187E-5</v>
       </c>
       <c r="N4">
-        <v>1.0509863948654063E-5</v>
+        <v>-7.8941382302434842E-6</v>
       </c>
       <c r="O4">
-        <v>-5.1102674870487151E-5</v>
+        <v>-3.1937508175647534E-5</v>
       </c>
       <c r="P4">
-        <v>-1.9029834220205613E-5</v>
+        <v>-9.8450632127830353E-6</v>
       </c>
       <c r="Q4">
-        <v>-4.0050158088986845E-5</v>
+        <v>-2.6993597938759233E-5</v>
       </c>
       <c r="R4">
-        <v>1.0954139479236026E-6</v>
+        <v>1.1046434241641731E-6</v>
       </c>
       <c r="S4">
-        <v>-8.9468516979209097E-7</v>
+        <v>4.7696642707351446E-6</v>
       </c>
       <c r="T4">
-        <v>-1.4299619845155114E-5</v>
+        <v>3.9491590488315449E-6</v>
       </c>
       <c r="U4">
-        <v>-2.4735151439129687E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-1.458504830551482E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>22</v>
       </c>
       <c r="B5">
-        <v>-0.38437070729580985</v>
+        <v>-0.20781246160445424</v>
       </c>
       <c r="C5">
-        <v>8.8273261342106484E-5</v>
+        <v>4.0734356482437556E-5</v>
       </c>
       <c r="D5">
-        <v>-3.6964966354747712E-7</v>
+        <v>-8.2093003009059312E-8</v>
       </c>
       <c r="E5">
-        <v>2.524485484114841E-3</v>
+        <v>1.5226000089801884E-3</v>
       </c>
       <c r="F5">
-        <v>2.2154301725372121E-2</v>
+        <v>1.9753146223514845E-2</v>
       </c>
       <c r="G5">
-        <v>-5.8044004032941429E-5</v>
+        <v>-3.4479108587121973E-5</v>
       </c>
       <c r="H5">
-        <v>-4.4704454499632803E-4</v>
+        <v>-3.9654226490742488E-4</v>
       </c>
       <c r="I5">
-        <v>4.3656926874755865E-5</v>
+        <v>4.1448809205958609E-5</v>
       </c>
       <c r="J5">
-        <v>-1.160824614868648E-4</v>
+        <v>-4.4637627977567326E-5</v>
       </c>
       <c r="K5">
-        <v>-2.5548431473599231E-4</v>
+        <v>-2.4166749920766087E-4</v>
       </c>
       <c r="L5">
-        <v>-2.8415128973748342E-4</v>
+        <v>-2.6263532686512882E-4</v>
       </c>
       <c r="M5">
-        <v>-3.1105408784397911E-4</v>
+        <v>-2.8161037170074197E-4</v>
       </c>
       <c r="N5">
-        <v>-1.6329258416996847E-4</v>
+        <v>-2.0052805381657397E-4</v>
       </c>
       <c r="O5">
-        <v>-1.1194962061175171E-4</v>
+        <v>-6.0738152671358811E-5</v>
       </c>
       <c r="P5">
-        <v>2.0805794938787947E-5</v>
+        <v>5.9673308383683118E-6</v>
       </c>
       <c r="Q5">
-        <v>-4.3383546650216088E-5</v>
+        <v>-3.1782920819336018E-5</v>
       </c>
       <c r="R5">
-        <v>-2.0077398226053585E-5</v>
+        <v>-7.9921667637801675E-6</v>
       </c>
       <c r="S5">
-        <v>3.5585299649267759E-5</v>
+        <v>1.2909146961455837E-5</v>
       </c>
       <c r="T5">
-        <v>6.9608474720226181E-6</v>
+        <v>8.1175112398364827E-6</v>
       </c>
       <c r="U5">
-        <v>-2.7582818307635357E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-1.3600952661245035E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>34</v>
       </c>
       <c r="B6">
-        <v>-8.9272679669241493E-3</v>
+        <v>-4.0399784012075206E-4</v>
       </c>
       <c r="C6">
-        <v>-1.2846255155156888E-6</v>
+        <v>-7.4167292971507907E-7</v>
       </c>
       <c r="D6">
-        <v>-1.2975381570768067E-9</v>
+        <v>-6.3280696888017525E-10</v>
       </c>
       <c r="E6">
-        <v>-9.6125216876268157E-5</v>
+        <v>-6.0580045810905436E-5</v>
       </c>
       <c r="F6">
-        <v>-5.8044004032941429E-5</v>
+        <v>-3.4479108587121973E-5</v>
       </c>
       <c r="G6">
-        <v>2.2758073809183658E-6</v>
+        <v>1.3974100900766761E-6</v>
       </c>
       <c r="H6">
-        <v>1.4426397902955898E-6</v>
+        <v>8.2782613435313574E-7</v>
       </c>
       <c r="I6">
-        <v>-6.6196679993813412E-7</v>
+        <v>-6.9636831173393112E-7</v>
       </c>
       <c r="J6">
-        <v>1.8866481616474779E-6</v>
+        <v>9.2716363013120962E-7</v>
       </c>
       <c r="K6">
-        <v>7.4651638927815251E-7</v>
+        <v>2.716889239190528E-7</v>
       </c>
       <c r="L6">
-        <v>1.246027541628298E-6</v>
+        <v>7.7151970822557849E-7</v>
       </c>
       <c r="M6">
-        <v>2.415759627951395E-6</v>
+        <v>1.5037763911284427E-6</v>
       </c>
       <c r="N6">
-        <v>1.1266685266456383E-6</v>
+        <v>7.4546522907647847E-7</v>
       </c>
       <c r="O6">
-        <v>1.043781585618886E-6</v>
+        <v>6.2708137064256827E-7</v>
       </c>
       <c r="P6">
-        <v>6.2219640625559392E-7</v>
+        <v>3.1106866078535995E-7</v>
       </c>
       <c r="Q6">
-        <v>9.8763863484706962E-7</v>
+        <v>6.3105488135817138E-7</v>
       </c>
       <c r="R6">
-        <v>3.4748827085385132E-7</v>
+        <v>1.7429180126601618E-7</v>
       </c>
       <c r="S6">
-        <v>2.7813512865824845E-7</v>
+        <v>-1.3140910291680933E-8</v>
       </c>
       <c r="T6">
-        <v>6.0956611967859153E-7</v>
+        <v>7.014240940163287E-8</v>
       </c>
       <c r="U6">
-        <v>5.0956563696591661E-5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.0620438279755107E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7">
-        <v>1.0936842331063089E-3</v>
+        <v>4.819539500464101E-3</v>
       </c>
       <c r="C7">
-        <v>-1.6931083284546069E-6</v>
+        <v>-7.844323836705728E-7</v>
       </c>
       <c r="D7">
-        <v>3.5009201937962103E-9</v>
+        <v>-1.060659627372726E-10</v>
       </c>
       <c r="E7">
-        <v>-5.8087556959719042E-5</v>
+        <v>-3.4472436897545409E-5</v>
       </c>
       <c r="F7">
-        <v>-4.4704454499632803E-4</v>
+        <v>-3.9654226490742488E-4</v>
       </c>
       <c r="G7">
-        <v>1.4426397902955898E-6</v>
+        <v>8.2782613435313574E-7</v>
       </c>
       <c r="H7">
-        <v>9.6694774715704331E-6</v>
+        <v>8.3710560933135827E-6</v>
       </c>
       <c r="I7">
-        <v>-5.7326142379600452E-7</v>
+        <v>-7.8452105547540254E-7</v>
       </c>
       <c r="J7">
-        <v>1.9143216428132787E-6</v>
+        <v>1.0597228574672649E-6</v>
       </c>
       <c r="K7">
-        <v>6.7465653533341578E-6</v>
+        <v>6.2201735937463923E-6</v>
       </c>
       <c r="L7">
-        <v>8.4088307852517586E-6</v>
+        <v>7.142394583154503E-6</v>
       </c>
       <c r="M7">
-        <v>1.0561171717445801E-5</v>
+        <v>8.4213203403288307E-6</v>
       </c>
       <c r="N7">
-        <v>8.2034638329221025E-6</v>
+        <v>7.1116897521348283E-6</v>
       </c>
       <c r="O7">
-        <v>1.638787670446916E-6</v>
+        <v>8.44897870876842E-7</v>
       </c>
       <c r="P7">
-        <v>-1.4357599838097473E-7</v>
+        <v>-2.5795297705381688E-8</v>
       </c>
       <c r="Q7">
-        <v>2.5008714605104772E-7</v>
+        <v>2.5022986725293778E-7</v>
       </c>
       <c r="R7">
-        <v>6.1931651741851975E-7</v>
+        <v>2.1819983902178776E-7</v>
       </c>
       <c r="S7">
-        <v>-2.4038956332068334E-7</v>
+        <v>-1.0344012985918166E-7</v>
       </c>
       <c r="T7">
-        <v>4.203600119667606E-7</v>
+        <v>5.4020539057564782E-8</v>
       </c>
       <c r="U7">
-        <v>5.1403689253894474E-5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.4802671098513607E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>23</v>
       </c>
       <c r="B8">
-        <v>8.2461146679909975E-2</v>
+        <v>3.619943595739393E-2</v>
       </c>
       <c r="C8">
-        <v>-2.2108130936924618E-5</v>
+        <v>-8.848070453778449E-6</v>
       </c>
       <c r="D8">
-        <v>2.1644735953997107E-7</v>
+        <v>8.4068701176724991E-8</v>
       </c>
       <c r="E8">
-        <v>2.5635463107200535E-5</v>
+        <v>2.9635908599534234E-5</v>
       </c>
       <c r="F8">
-        <v>4.3656926874755865E-5</v>
+        <v>4.1448809205958609E-5</v>
       </c>
       <c r="G8">
-        <v>-6.6196679993813412E-7</v>
+        <v>-6.9636831173393112E-7</v>
       </c>
       <c r="H8">
-        <v>-5.7326142379600452E-7</v>
+        <v>-7.8452105547540254E-7</v>
       </c>
       <c r="I8">
-        <v>3.5742835125635616E-4</v>
+        <v>1.9581734220659454E-4</v>
       </c>
       <c r="J8">
-        <v>-8.8560606441244301E-5</v>
+        <v>-5.4551532939905219E-5</v>
       </c>
       <c r="K8">
-        <v>3.0591489611239388E-5</v>
+        <v>6.1651533075304273E-6</v>
       </c>
       <c r="L8">
-        <v>9.1348491399454216E-6</v>
+        <v>-6.5889251535706129E-6</v>
       </c>
       <c r="M8">
-        <v>-4.4028019533617934E-6</v>
+        <v>-1.3150447948633611E-5</v>
       </c>
       <c r="N8">
-        <v>-6.9543573823259777E-7</v>
+        <v>-1.0056163772535843E-5</v>
       </c>
       <c r="O8">
-        <v>3.9830282664956808E-6</v>
+        <v>2.1484547148150271E-6</v>
       </c>
       <c r="P8">
-        <v>-6.7936263555133643E-6</v>
+        <v>-2.5556019015484731E-6</v>
       </c>
       <c r="Q8">
-        <v>-8.6791753554066473E-6</v>
+        <v>-3.7913974740405481E-6</v>
       </c>
       <c r="R8">
-        <v>-7.4583589039826227E-7</v>
+        <v>1.1634628834932998E-6</v>
       </c>
       <c r="S8">
-        <v>4.4543053736400301E-7</v>
+        <v>-1.6394825391329607E-7</v>
       </c>
       <c r="T8">
-        <v>-5.2797315671259609E-6</v>
+        <v>-7.1753783556772133E-7</v>
       </c>
       <c r="U8">
-        <v>3.2103307475813493E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1.1070040411017876E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>24</v>
       </c>
       <c r="B9">
-        <v>-0.10105382457524609</v>
+        <v>-6.4654738901315331E-2</v>
       </c>
       <c r="C9">
-        <v>-2.9689699682348396E-5</v>
+        <v>-2.2371028361015454E-5</v>
       </c>
       <c r="D9">
-        <v>4.0595447782955309E-7</v>
+        <v>3.0062631703399667E-7</v>
       </c>
       <c r="E9">
-        <v>-8.9033577313836601E-5</v>
+        <v>-3.2535278073201061E-5</v>
       </c>
       <c r="F9">
-        <v>-1.160824614868648E-4</v>
+        <v>-4.4637627977567326E-5</v>
       </c>
       <c r="G9">
-        <v>1.8866481616474779E-6</v>
+        <v>9.2716363013120962E-7</v>
       </c>
       <c r="H9">
-        <v>1.9143216428132787E-6</v>
+        <v>1.0597228574672649E-6</v>
       </c>
       <c r="I9">
-        <v>-8.8560606441244301E-5</v>
+        <v>-5.4551532939905219E-5</v>
       </c>
       <c r="J9">
-        <v>3.8375741353650526E-4</v>
+        <v>2.152709673054081E-4</v>
       </c>
       <c r="K9">
-        <v>-1.013889615663084E-5</v>
+        <v>7.6883420582401563E-6</v>
       </c>
       <c r="L9">
-        <v>-1.6787365426230332E-5</v>
+        <v>6.2092896584633062E-6</v>
       </c>
       <c r="M9">
-        <v>-2.6121653048079307E-5</v>
+        <v>2.3770285159882846E-6</v>
       </c>
       <c r="N9">
-        <v>-2.1147060824363537E-5</v>
+        <v>4.7551238308400363E-6</v>
       </c>
       <c r="O9">
-        <v>-9.5583774621139916E-6</v>
+        <v>-2.0159434047523185E-6</v>
       </c>
       <c r="P9">
-        <v>-5.1153500367626869E-6</v>
+        <v>-1.0585529929552796E-7</v>
       </c>
       <c r="Q9">
-        <v>-3.5791038827865223E-6</v>
+        <v>-3.7536744929174451E-6</v>
       </c>
       <c r="R9">
-        <v>-7.4103672116575423E-6</v>
+        <v>-3.2196336465071495E-6</v>
       </c>
       <c r="S9">
-        <v>-1.4649821750342313E-6</v>
+        <v>-3.355277192364442E-6</v>
       </c>
       <c r="T9">
-        <v>-3.9064698293048365E-6</v>
+        <v>-3.8618607083429607E-6</v>
       </c>
       <c r="U9">
-        <v>3.8868593361844047E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.105108108651076E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>25</v>
       </c>
       <c r="B10">
-        <v>0.51105718062760763</v>
+        <v>0.31003689043877553</v>
       </c>
       <c r="C10">
-        <v>-2.7697114965211642E-6</v>
+        <v>-2.5864263911761702E-6</v>
       </c>
       <c r="D10">
-        <v>2.3433591932986087E-8</v>
+        <v>2.6877935599648306E-8</v>
       </c>
       <c r="E10">
-        <v>-4.1559145247559029E-5</v>
+        <v>-2.0522211480038699E-5</v>
       </c>
       <c r="F10">
-        <v>-2.5548431473599231E-4</v>
+        <v>-2.4166749920766087E-4</v>
       </c>
       <c r="G10">
-        <v>7.4651638927815251E-7</v>
+        <v>2.716889239190528E-7</v>
       </c>
       <c r="H10">
-        <v>6.7465653533341578E-6</v>
+        <v>6.2201735937463923E-6</v>
       </c>
       <c r="I10">
-        <v>3.0591489611239388E-5</v>
+        <v>6.1651533075304273E-6</v>
       </c>
       <c r="J10">
-        <v>-1.013889615663084E-5</v>
+        <v>7.6883420582401563E-6</v>
       </c>
       <c r="K10">
-        <v>1.5960050295526749E-2</v>
+        <v>1.4788477217889312E-2</v>
       </c>
       <c r="L10">
-        <v>1.4482019222500895E-2</v>
+        <v>1.3723973588626665E-2</v>
       </c>
       <c r="M10">
-        <v>1.4486698535989655E-2</v>
+        <v>1.3725478458173259E-2</v>
       </c>
       <c r="N10">
-        <v>1.4488338152004744E-2</v>
+        <v>1.3724590051971221E-2</v>
       </c>
       <c r="O10">
-        <v>2.7491222958392049E-5</v>
+        <v>1.0241582401140551E-5</v>
       </c>
       <c r="P10">
-        <v>2.1195226050612585E-5</v>
+        <v>4.6080230101046391E-7</v>
       </c>
       <c r="Q10">
-        <v>2.2126792789370283E-5</v>
+        <v>9.1580138178661453E-7</v>
       </c>
       <c r="R10">
-        <v>8.0861670587044116E-6</v>
+        <v>-4.0846913276732866E-6</v>
       </c>
       <c r="S10">
-        <v>7.6593942240455578E-6</v>
+        <v>1.0172019889648803E-5</v>
       </c>
       <c r="T10">
-        <v>1.4813783893215076E-6</v>
+        <v>5.6915539417155687E-6</v>
       </c>
       <c r="U10">
-        <v>-1.444284189389043E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-1.3673583634009482E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>26</v>
       </c>
       <c r="B11">
-        <v>0.81285586416391264</v>
+        <v>0.41236502682918669</v>
       </c>
       <c r="C11">
-        <v>2.898771846588581E-6</v>
+        <v>-1.191126785650171E-6</v>
       </c>
       <c r="D11">
-        <v>-3.9862786421839066E-8</v>
+        <v>1.1183209223956324E-8</v>
       </c>
       <c r="E11">
-        <v>-5.4156976991669072E-5</v>
+        <v>-3.8743398077276591E-5</v>
       </c>
       <c r="F11">
-        <v>-2.8415128973748342E-4</v>
+        <v>-2.6263532686512882E-4</v>
       </c>
       <c r="G11">
-        <v>1.246027541628298E-6</v>
+        <v>7.7151970822557849E-7</v>
       </c>
       <c r="H11">
-        <v>8.4088307852517586E-6</v>
+        <v>7.142394583154503E-6</v>
       </c>
       <c r="I11">
-        <v>9.1348491399454216E-6</v>
+        <v>-6.5889251535706129E-6</v>
       </c>
       <c r="J11">
-        <v>-1.6787365426230332E-5</v>
+        <v>6.2092896584633062E-6</v>
       </c>
       <c r="K11">
-        <v>1.4482019222500895E-2</v>
+        <v>1.3723973588626665E-2</v>
       </c>
       <c r="L11">
-        <v>1.4773274927482222E-2</v>
+        <v>1.3887616859835056E-2</v>
       </c>
       <c r="M11">
-        <v>1.4501212650788329E-2</v>
+        <v>1.373256101012154E-2</v>
       </c>
       <c r="N11">
-        <v>1.4508975413145615E-2</v>
+        <v>1.373398926948077E-2</v>
       </c>
       <c r="O11">
-        <v>2.1923385318478513E-5</v>
+        <v>1.0073996749820739E-5</v>
       </c>
       <c r="P11">
-        <v>2.5767208143661973E-5</v>
+        <v>4.6885765357990888E-6</v>
       </c>
       <c r="Q11">
-        <v>2.5650481909981701E-5</v>
+        <v>3.184227010791013E-6</v>
       </c>
       <c r="R11">
-        <v>6.6517203363896185E-6</v>
+        <v>-2.1584272748696081E-6</v>
       </c>
       <c r="S11">
-        <v>7.2226550198710793E-6</v>
+        <v>1.2072830315728437E-5</v>
       </c>
       <c r="T11">
-        <v>-4.1300130950150467E-6</v>
+        <v>4.9850140060052049E-6</v>
       </c>
       <c r="U11">
-        <v>-1.4563646497825914E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-1.3704533647740011E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>27</v>
       </c>
       <c r="B12">
-        <v>0.95611045522050853</v>
+        <v>0.41178459307589693</v>
       </c>
       <c r="C12">
-        <v>4.4676039417657618E-6</v>
+        <v>-2.4148589438028646E-6</v>
       </c>
       <c r="D12">
-        <v>-2.2772101762793333E-8</v>
+        <v>4.164066553254335E-8</v>
       </c>
       <c r="E12">
-        <v>-7.4181546800714069E-5</v>
+        <v>-5.6520933370749187E-5</v>
       </c>
       <c r="F12">
-        <v>-3.1105408784397911E-4</v>
+        <v>-2.8161037170074197E-4</v>
       </c>
       <c r="G12">
-        <v>2.415759627951395E-6</v>
+        <v>1.5037763911284427E-6</v>
       </c>
       <c r="H12">
-        <v>1.0561171717445801E-5</v>
+        <v>8.4213203403288307E-6</v>
       </c>
       <c r="I12">
-        <v>-4.4028019533617934E-6</v>
+        <v>-1.3150447948633611E-5</v>
       </c>
       <c r="J12">
-        <v>-2.6121653048079307E-5</v>
+        <v>2.3770285159882846E-6</v>
       </c>
       <c r="K12">
-        <v>1.4486698535989655E-2</v>
+        <v>1.3725478458173259E-2</v>
       </c>
       <c r="L12">
-        <v>1.4501212650788329E-2</v>
+        <v>1.373256101012154E-2</v>
       </c>
       <c r="M12">
-        <v>1.4672595554607076E-2</v>
+        <v>1.381105745169843E-2</v>
       </c>
       <c r="N12">
-        <v>1.4591929304815298E-2</v>
+        <v>1.3768392134655714E-2</v>
       </c>
       <c r="O12">
-        <v>2.2519037286228906E-5</v>
+        <v>6.7322478788070826E-6</v>
       </c>
       <c r="P12">
-        <v>2.810199881185402E-5</v>
+        <v>4.3746395301416218E-6</v>
       </c>
       <c r="Q12">
-        <v>2.1714258076295512E-5</v>
+        <v>6.5310632101549064E-7</v>
       </c>
       <c r="R12">
-        <v>1.2034724037946799E-5</v>
+        <v>-1.3683749750238955E-6</v>
       </c>
       <c r="S12">
-        <v>-3.6875191896548106E-6</v>
+        <v>9.1541965563181652E-6</v>
       </c>
       <c r="T12">
-        <v>-2.2613006366635018E-5</v>
+        <v>-4.3422507121616332E-6</v>
       </c>
       <c r="U12">
-        <v>-1.4719991500099372E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-1.3734553492303778E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>28</v>
       </c>
       <c r="B13">
-        <v>0.97569584104542528</v>
+        <v>0.43632070615238799</v>
       </c>
       <c r="C13">
-        <v>2.1644387141768484E-5</v>
+        <v>6.2198094278970661E-6</v>
       </c>
       <c r="D13">
-        <v>-1.6260954306951804E-7</v>
+        <v>-2.7013317677477535E-8</v>
       </c>
       <c r="E13">
-        <v>1.0509863948654063E-5</v>
+        <v>-7.8941382302434842E-6</v>
       </c>
       <c r="F13">
-        <v>-1.6329258416996847E-4</v>
+        <v>-2.0052805381657397E-4</v>
       </c>
       <c r="G13">
-        <v>1.1266685266456383E-6</v>
+        <v>7.4546522907647847E-7</v>
       </c>
       <c r="H13">
-        <v>8.2034638329221025E-6</v>
+        <v>7.1116897521348283E-6</v>
       </c>
       <c r="I13">
-        <v>-6.9543573823259777E-7</v>
+        <v>-1.0056163772535843E-5</v>
       </c>
       <c r="J13">
-        <v>-2.1147060824363537E-5</v>
+        <v>4.7551238308400363E-6</v>
       </c>
       <c r="K13">
-        <v>1.4488338152004744E-2</v>
+        <v>1.3724590051971221E-2</v>
       </c>
       <c r="L13">
-        <v>1.4508975413145615E-2</v>
+        <v>1.373398926948077E-2</v>
       </c>
       <c r="M13">
-        <v>1.4591929304815298E-2</v>
+        <v>1.3768392134655714E-2</v>
       </c>
       <c r="N13">
-        <v>1.5082449843927731E-2</v>
+        <v>1.4014774236644663E-2</v>
       </c>
       <c r="O13">
-        <v>2.7535579681136344E-5</v>
+        <v>1.1904644829947169E-5</v>
       </c>
       <c r="P13">
-        <v>3.6482765876084565E-5</v>
+        <v>9.9502140925106447E-6</v>
       </c>
       <c r="Q13">
-        <v>1.8864608498273119E-5</v>
+        <v>1.1456005630687885E-6</v>
       </c>
       <c r="R13">
-        <v>2.1848255689932184E-5</v>
+        <v>6.2458946885122872E-6</v>
       </c>
       <c r="S13">
-        <v>-2.7180409234654797E-6</v>
+        <v>1.1256617648004799E-5</v>
       </c>
       <c r="T13">
-        <v>-2.1733179174269202E-5</v>
+        <v>-3.8715414732098373E-6</v>
       </c>
       <c r="U13">
-        <v>-1.5247264641309915E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-1.4004668436915075E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>37</v>
       </c>
       <c r="B14">
-        <v>0.12428439373941973</v>
+        <v>3.8760098012527437E-2</v>
       </c>
       <c r="C14">
-        <v>3.1297232276421708E-6</v>
+        <v>4.8067386658810871E-8</v>
       </c>
       <c r="D14">
-        <v>-4.5183227063700985E-8</v>
+        <v>-4.4818957136057131E-9</v>
       </c>
       <c r="E14">
-        <v>-5.1102674870487151E-5</v>
+        <v>-3.1937508175647534E-5</v>
       </c>
       <c r="F14">
-        <v>-1.1194962061175171E-4</v>
+        <v>-6.0738152671358811E-5</v>
       </c>
       <c r="G14">
-        <v>1.043781585618886E-6</v>
+        <v>6.2708137064256827E-7</v>
       </c>
       <c r="H14">
-        <v>1.638787670446916E-6</v>
+        <v>8.44897870876842E-7</v>
       </c>
       <c r="I14">
-        <v>3.9830282664956808E-6</v>
+        <v>2.1484547148150271E-6</v>
       </c>
       <c r="J14">
-        <v>-9.5583774621139916E-6</v>
+        <v>-2.0159434047523185E-6</v>
       </c>
       <c r="K14">
-        <v>2.7491222958392049E-5</v>
+        <v>1.0241582401140551E-5</v>
       </c>
       <c r="L14">
-        <v>2.1923385318478513E-5</v>
+        <v>1.0073996749820739E-5</v>
       </c>
       <c r="M14">
-        <v>2.2519037286228906E-5</v>
+        <v>6.7322478788070826E-6</v>
       </c>
       <c r="N14">
-        <v>2.7535579681136344E-5</v>
+        <v>1.1904644829947169E-5</v>
       </c>
       <c r="O14">
-        <v>8.4526242258118548E-4</v>
+        <v>4.2071716387714317E-4</v>
       </c>
       <c r="P14">
-        <v>3.9403463058944229E-4</v>
+        <v>2.0893725088585148E-4</v>
       </c>
       <c r="Q14">
-        <v>3.9514539381209287E-4</v>
+        <v>2.096627096877712E-4</v>
       </c>
       <c r="R14">
-        <v>3.9387410654610717E-4</v>
+        <v>2.0891448050992879E-4</v>
       </c>
       <c r="S14">
-        <v>-1.159183954749644E-5</v>
+        <v>-5.9503524267335481E-6</v>
       </c>
       <c r="T14">
-        <v>-1.6360300870537539E-5</v>
+        <v>-8.195593165959422E-6</v>
       </c>
       <c r="U14">
-        <v>-4.5341639196352088E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-2.0730470658207646E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>38</v>
       </c>
       <c r="B15">
-        <v>5.2839303256144797E-2</v>
+        <v>2.2066239496345952E-2</v>
       </c>
       <c r="C15">
-        <v>6.3629493690606674E-6</v>
+        <v>2.4576258736991839E-6</v>
       </c>
       <c r="D15">
-        <v>-8.0609988916930968E-8</v>
+        <v>-3.0826060548175828E-8</v>
       </c>
       <c r="E15">
-        <v>-1.9029834220205613E-5</v>
+        <v>-9.8450632127830353E-6</v>
       </c>
       <c r="F15">
-        <v>2.0805794938787947E-5</v>
+        <v>5.9673308383683118E-6</v>
       </c>
       <c r="G15">
-        <v>6.2219640625559392E-7</v>
+        <v>3.1106866078535995E-7</v>
       </c>
       <c r="H15">
-        <v>-1.4357599838097473E-7</v>
+        <v>-2.5795297705381688E-8</v>
       </c>
       <c r="I15">
-        <v>-6.7936263555133643E-6</v>
+        <v>-2.5556019015484731E-6</v>
       </c>
       <c r="J15">
-        <v>-5.1153500367626869E-6</v>
+        <v>-1.0585529929552796E-7</v>
       </c>
       <c r="K15">
-        <v>2.1195226050612585E-5</v>
+        <v>4.6080230101046391E-7</v>
       </c>
       <c r="L15">
-        <v>2.5767208143661973E-5</v>
+        <v>4.6885765357990888E-6</v>
       </c>
       <c r="M15">
-        <v>2.810199881185402E-5</v>
+        <v>4.3746395301416218E-6</v>
       </c>
       <c r="N15">
-        <v>3.6482765876084565E-5</v>
+        <v>9.9502140925106447E-6</v>
       </c>
       <c r="O15">
-        <v>3.9403463058944229E-4</v>
+        <v>2.0893725088585148E-4</v>
       </c>
       <c r="P15">
-        <v>1.0246501751746645E-3</v>
+        <v>5.3434955318472377E-4</v>
       </c>
       <c r="Q15">
-        <v>3.9436433503440372E-4</v>
+        <v>2.0917065105424397E-4</v>
       </c>
       <c r="R15">
-        <v>3.944910407137122E-4</v>
+        <v>2.0929713799501469E-4</v>
       </c>
       <c r="S15">
-        <v>-6.0482900466395487E-6</v>
+        <v>-4.5499489136705029E-6</v>
       </c>
       <c r="T15">
-        <v>-9.6026083338146956E-6</v>
+        <v>-5.6699027756124558E-6</v>
       </c>
       <c r="U15">
-        <v>-5.3280727378317088E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-2.5901929116607268E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>39</v>
       </c>
       <c r="B16">
-        <v>6.3705217939564726E-2</v>
+        <v>6.4239281421810762E-2</v>
       </c>
       <c r="C16">
-        <v>3.1209019464327874E-6</v>
+        <v>1.0897743958416027E-6</v>
       </c>
       <c r="D16">
-        <v>-4.7377863933641638E-8</v>
+        <v>-1.932631586831308E-8</v>
       </c>
       <c r="E16">
-        <v>-4.0050158088986845E-5</v>
+        <v>-2.6993597938759233E-5</v>
       </c>
       <c r="F16">
-        <v>-4.3383546650216088E-5</v>
+        <v>-3.1782920819336018E-5</v>
       </c>
       <c r="G16">
-        <v>9.8763863484706962E-7</v>
+        <v>6.3105488135817138E-7</v>
       </c>
       <c r="H16">
-        <v>2.5008714605104772E-7</v>
+        <v>2.5022986725293778E-7</v>
       </c>
       <c r="I16">
-        <v>-8.6791753554066473E-6</v>
+        <v>-3.7913974740405481E-6</v>
       </c>
       <c r="J16">
-        <v>-3.5791038827865223E-6</v>
+        <v>-3.7536744929174451E-6</v>
       </c>
       <c r="K16">
-        <v>2.2126792789370283E-5</v>
+        <v>9.1580138178661453E-7</v>
       </c>
       <c r="L16">
-        <v>2.5650481909981701E-5</v>
+        <v>3.184227010791013E-6</v>
       </c>
       <c r="M16">
-        <v>2.1714258076295512E-5</v>
+        <v>6.5310632101549064E-7</v>
       </c>
       <c r="N16">
-        <v>1.8864608498273119E-5</v>
+        <v>1.1456005630687885E-6</v>
       </c>
       <c r="O16">
-        <v>3.9514539381209287E-4</v>
+        <v>2.096627096877712E-4</v>
       </c>
       <c r="P16">
-        <v>3.9436433503440372E-4</v>
+        <v>2.0917065105424397E-4</v>
       </c>
       <c r="Q16">
-        <v>7.9462451275269302E-4</v>
+        <v>4.1104035273799685E-4</v>
       </c>
       <c r="R16">
-        <v>3.9413991201388802E-4</v>
+        <v>2.0922380725518671E-4</v>
       </c>
       <c r="S16">
-        <v>-7.8206152357976166E-6</v>
+        <v>-5.6662219955149007E-6</v>
       </c>
       <c r="T16">
-        <v>-1.1220925211390883E-5</v>
+        <v>-6.790827576772508E-6</v>
       </c>
       <c r="U16">
-        <v>-4.4724332840749261E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-2.1364789867134925E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>36</v>
       </c>
       <c r="B17">
-        <v>1.5108084380617825E-2</v>
+        <v>2.2212650739106391E-2</v>
       </c>
       <c r="C17">
-        <v>2.5013660098625245E-6</v>
+        <v>1.1671689382890604E-6</v>
       </c>
       <c r="D17">
-        <v>-3.7429002910934282E-8</v>
+        <v>-1.7252960054289567E-8</v>
       </c>
       <c r="E17">
-        <v>1.0954139479236026E-6</v>
+        <v>1.1046434241641731E-6</v>
       </c>
       <c r="F17">
-        <v>-2.0077398226053585E-5</v>
+        <v>-7.9921667637801675E-6</v>
       </c>
       <c r="G17">
-        <v>3.4748827085385132E-7</v>
+        <v>1.7429180126601618E-7</v>
       </c>
       <c r="H17">
-        <v>6.1931651741851975E-7</v>
+        <v>2.1819983902178776E-7</v>
       </c>
       <c r="I17">
-        <v>-7.4583589039826227E-7</v>
+        <v>1.1634628834932998E-6</v>
       </c>
       <c r="J17">
-        <v>-7.4103672116575423E-6</v>
+        <v>-3.2196336465071495E-6</v>
       </c>
       <c r="K17">
-        <v>8.0861670587044116E-6</v>
+        <v>-4.0846913276732866E-6</v>
       </c>
       <c r="L17">
-        <v>6.6517203363896185E-6</v>
+        <v>-2.1584272748696081E-6</v>
       </c>
       <c r="M17">
-        <v>1.2034724037946799E-5</v>
+        <v>-1.3683749750238955E-6</v>
       </c>
       <c r="N17">
-        <v>2.1848255689932184E-5</v>
+        <v>6.2458946885122872E-6</v>
       </c>
       <c r="O17">
-        <v>3.9387410654610717E-4</v>
+        <v>2.0891448050992879E-4</v>
       </c>
       <c r="P17">
-        <v>3.944910407137122E-4</v>
+        <v>2.0929713799501469E-4</v>
       </c>
       <c r="Q17">
-        <v>3.9413991201388802E-4</v>
+        <v>2.0922380725518671E-4</v>
       </c>
       <c r="R17">
-        <v>5.5828009760885186E-4</v>
+        <v>2.9383329617822416E-4</v>
       </c>
       <c r="S17">
-        <v>-7.060608196128441E-6</v>
+        <v>-4.5339881530581198E-6</v>
       </c>
       <c r="T17">
-        <v>-1.2506996341813627E-5</v>
+        <v>-5.5585360367769597E-6</v>
       </c>
       <c r="U17">
-        <v>-4.4302521242736519E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-2.2832653362600246E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>31</v>
       </c>
       <c r="B18">
-        <v>-0.12929503441779289</v>
+        <v>0.41021634326524364</v>
       </c>
       <c r="C18">
-        <v>6.5220872586495709E-8</v>
+        <v>1.6856677770768654E-6</v>
       </c>
       <c r="D18">
-        <v>-1.2635539363903215E-8</v>
+        <v>-2.3690952303665035E-8</v>
       </c>
       <c r="E18">
-        <v>-8.9468516979209097E-7</v>
+        <v>4.7696642707351446E-6</v>
       </c>
       <c r="F18">
-        <v>3.5585299649267759E-5</v>
+        <v>1.2909146961455837E-5</v>
       </c>
       <c r="G18">
-        <v>2.7813512865824845E-7</v>
+        <v>-1.3140910291680933E-8</v>
       </c>
       <c r="H18">
-        <v>-2.4038956332068334E-7</v>
+        <v>-1.0344012985918166E-7</v>
       </c>
       <c r="I18">
-        <v>4.4543053736400301E-7</v>
+        <v>-1.6394825391329607E-7</v>
       </c>
       <c r="J18">
-        <v>-1.4649821750342313E-6</v>
+        <v>-3.355277192364442E-6</v>
       </c>
       <c r="K18">
-        <v>7.6593942240455578E-6</v>
+        <v>1.0172019889648803E-5</v>
       </c>
       <c r="L18">
-        <v>7.2226550198710793E-6</v>
+        <v>1.2072830315728437E-5</v>
       </c>
       <c r="M18">
-        <v>-3.6875191896548106E-6</v>
+        <v>9.1541965563181652E-6</v>
       </c>
       <c r="N18">
-        <v>-2.7180409234654797E-6</v>
+        <v>1.1256617648004799E-5</v>
       </c>
       <c r="O18">
-        <v>-1.159183954749644E-5</v>
+        <v>-5.9503524267335481E-6</v>
       </c>
       <c r="P18">
-        <v>-6.0482900466395487E-6</v>
+        <v>-4.5499489136705029E-6</v>
       </c>
       <c r="Q18">
-        <v>-7.8206152357976166E-6</v>
+        <v>-5.6662219955149007E-6</v>
       </c>
       <c r="R18">
-        <v>-7.060608196128441E-6</v>
+        <v>-4.5339881530581198E-6</v>
       </c>
       <c r="S18">
-        <v>5.6286775133699684E-4</v>
+        <v>3.614434374768922E-4</v>
       </c>
       <c r="T18">
-        <v>8.9107167392621912E-5</v>
+        <v>4.266006295573477E-5</v>
       </c>
       <c r="U18">
-        <v>-6.4278844129376516E-5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-7.4501609456032079E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>32</v>
       </c>
       <c r="B19">
-        <v>3.9913540105343488E-2</v>
+        <v>0.33319324034514941</v>
       </c>
       <c r="C19">
-        <v>-1.847668256206979E-6</v>
+        <v>1.7294047459000899E-7</v>
       </c>
       <c r="D19">
-        <v>1.5561768791072757E-9</v>
+        <v>-8.5573958576412941E-9</v>
       </c>
       <c r="E19">
-        <v>-1.4299619845155114E-5</v>
+        <v>3.9491590488315449E-6</v>
       </c>
       <c r="F19">
-        <v>6.9608474720226181E-6</v>
+        <v>8.1175112398364827E-6</v>
       </c>
       <c r="G19">
-        <v>6.0956611967859153E-7</v>
+        <v>7.014240940163287E-8</v>
       </c>
       <c r="H19">
-        <v>4.203600119667606E-7</v>
+        <v>5.4020539057564782E-8</v>
       </c>
       <c r="I19">
-        <v>-5.2797315671259609E-6</v>
+        <v>-7.1753783556772133E-7</v>
       </c>
       <c r="J19">
-        <v>-3.9064698293048365E-6</v>
+        <v>-3.8618607083429607E-6</v>
       </c>
       <c r="K19">
-        <v>1.4813783893215076E-6</v>
+        <v>5.6915539417155687E-6</v>
       </c>
       <c r="L19">
-        <v>-4.1300130950150467E-6</v>
+        <v>4.9850140060052049E-6</v>
       </c>
       <c r="M19">
-        <v>-2.2613006366635018E-5</v>
+        <v>-4.3422507121616332E-6</v>
       </c>
       <c r="N19">
-        <v>-2.1733179174269202E-5</v>
+        <v>-3.8715414732098373E-6</v>
       </c>
       <c r="O19">
-        <v>-1.6360300870537539E-5</v>
+        <v>-8.195593165959422E-6</v>
       </c>
       <c r="P19">
-        <v>-9.6026083338146956E-6</v>
+        <v>-5.6699027756124558E-6</v>
       </c>
       <c r="Q19">
-        <v>-1.1220925211390883E-5</v>
+        <v>-6.790827576772508E-6</v>
       </c>
       <c r="R19">
-        <v>-1.2506996341813627E-5</v>
+        <v>-5.5585360367769597E-6</v>
       </c>
       <c r="S19">
-        <v>8.9107167392621912E-5</v>
+        <v>4.266006295573477E-5</v>
       </c>
       <c r="T19">
-        <v>8.6619736872024268E-4</v>
+        <v>4.5430561012884166E-4</v>
       </c>
       <c r="U19">
-        <v>1.4104822730096462E-5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-2.6865397077981296E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>33</v>
       </c>
       <c r="B20">
-        <v>-4.6133528127737682</v>
+        <v>-2.0120112335064597</v>
       </c>
       <c r="C20">
-        <v>-7.6798725286602568E-4</v>
+        <v>-4.9434713268882099E-4</v>
       </c>
       <c r="D20">
-        <v>8.2351551980110485E-6</v>
+        <v>5.3630877564070895E-6</v>
       </c>
       <c r="E20">
-        <v>-2.4735151439129687E-3</v>
+        <v>-1.458504830551482E-3</v>
       </c>
       <c r="F20">
-        <v>-2.7582818307635357E-3</v>
+        <v>-1.3600952661245035E-3</v>
       </c>
       <c r="G20">
-        <v>5.0956563696591661E-5</v>
+        <v>3.0620438279755107E-5</v>
       </c>
       <c r="H20">
-        <v>5.1403689253894474E-5</v>
+        <v>2.4802671098513607E-5</v>
       </c>
       <c r="I20">
-        <v>3.2103307475813493E-4</v>
+        <v>1.1070040411017876E-4</v>
       </c>
       <c r="J20">
-        <v>3.8868593361844047E-4</v>
+        <v>3.105108108651076E-4</v>
       </c>
       <c r="K20">
-        <v>-1.444284189389043E-2</v>
+        <v>-1.3673583634009482E-2</v>
       </c>
       <c r="L20">
-        <v>-1.4563646497825914E-2</v>
+        <v>-1.3704533647740011E-2</v>
       </c>
       <c r="M20">
-        <v>-1.4719991500099372E-2</v>
+        <v>-1.3734553492303778E-2</v>
       </c>
       <c r="N20">
-        <v>-1.5247264641309915E-2</v>
+        <v>-1.4004668436915075E-2</v>
       </c>
       <c r="O20">
-        <v>-4.5341639196352088E-4</v>
+        <v>-2.0730470658207646E-4</v>
       </c>
       <c r="P20">
-        <v>-5.3280727378317088E-4</v>
+        <v>-2.5901929116607268E-4</v>
       </c>
       <c r="Q20">
-        <v>-4.4724332840749261E-4</v>
+        <v>-2.1364789867134925E-4</v>
       </c>
       <c r="R20">
-        <v>-4.4302521242736519E-4</v>
+        <v>-2.2832653362600246E-4</v>
       </c>
       <c r="S20">
-        <v>-6.4278844129376516E-5</v>
+        <v>-7.4501609456032079E-5</v>
       </c>
       <c r="T20">
-        <v>1.4104822730096462E-5</v>
+        <v>-2.6865397077981296E-5</v>
       </c>
       <c r="U20">
-        <v>3.151050412854834E-2</v>
+        <v>2.4573279605540191E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5126,16 +5122,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:U1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -5200,1239 +5194,1239 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>19</v>
       </c>
       <c r="B2">
-        <v>8.774488805090945E-2</v>
+        <v>2.6116325086801777E-2</v>
       </c>
       <c r="C2">
-        <v>3.100832040274602E-5</v>
+        <v>1.8422044783075259E-5</v>
       </c>
       <c r="D2">
-        <v>-3.3650652155852693E-7</v>
+        <v>-1.9974639188979272E-7</v>
       </c>
       <c r="E2">
-        <v>7.7524947911866579E-5</v>
+        <v>5.0556133288466481E-5</v>
       </c>
       <c r="F2">
-        <v>1.1283647563206751E-4</v>
+        <v>6.5106412632185659E-5</v>
       </c>
       <c r="G2">
-        <v>-1.6593866537701591E-6</v>
+        <v>-1.1426420088804611E-6</v>
       </c>
       <c r="H2">
-        <v>-2.238015097356736E-6</v>
+        <v>-1.3650492244183321E-6</v>
       </c>
       <c r="I2">
-        <v>-2.3893432831350503E-5</v>
+        <v>-8.3891740073331638E-6</v>
       </c>
       <c r="J2">
-        <v>-2.0002905107660874E-5</v>
+        <v>-1.9820333523183663E-5</v>
       </c>
       <c r="K2">
-        <v>-4.5952240811606153E-6</v>
+        <v>-2.2422595971592358E-6</v>
       </c>
       <c r="L2">
-        <v>-7.8993665694019623E-6</v>
+        <v>-4.360533029819846E-6</v>
       </c>
       <c r="M2">
-        <v>-1.2937488715070178E-5</v>
+        <v>-7.881345149205062E-6</v>
       </c>
       <c r="N2">
-        <v>2.2652535394156376E-6</v>
+        <v>-7.7800043083093347E-7</v>
       </c>
       <c r="O2">
-        <v>2.8039055504005326E-6</v>
+        <v>8.7114582671721161E-7</v>
       </c>
       <c r="P2">
-        <v>1.2841212194248363E-6</v>
+        <v>6.9222485256819506E-7</v>
       </c>
       <c r="Q2">
-        <v>2.334744511159637E-6</v>
+        <v>9.4695308173589243E-7</v>
       </c>
       <c r="R2">
-        <v>8.1158435342185659E-7</v>
+        <v>6.3318799799346261E-7</v>
       </c>
       <c r="S2">
-        <v>-6.7768235916325072E-7</v>
+        <v>5.5241685008799913E-7</v>
       </c>
       <c r="T2">
-        <v>-1.3182963464722673E-6</v>
+        <v>1.0859807524735428E-7</v>
       </c>
       <c r="U2">
-        <v>-6.3194152414876672E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-3.7766123861744888E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>20</v>
       </c>
       <c r="B3">
-        <v>-9.182288736556978E-4</v>
+        <v>-2.8371995871625101E-4</v>
       </c>
       <c r="C3">
-        <v>-3.3650652155852693E-7</v>
+        <v>-1.9974639188979272E-7</v>
       </c>
       <c r="D3">
-        <v>3.8975974099173515E-9</v>
+        <v>2.3188764368619084E-9</v>
       </c>
       <c r="E3">
-        <v>-1.1119883992802032E-7</v>
+        <v>-7.0175862564550141E-8</v>
       </c>
       <c r="F3">
-        <v>-5.1673687165792785E-7</v>
+        <v>-2.3365348986348527E-7</v>
       </c>
       <c r="G3">
-        <v>-2.7657681214373321E-10</v>
+        <v>8.2636568988900016E-10</v>
       </c>
       <c r="H3">
-        <v>6.190025368951823E-9</v>
+        <v>3.2518312717519458E-9</v>
       </c>
       <c r="I3">
-        <v>1.8220524740473982E-7</v>
+        <v>4.0862165070090953E-8</v>
       </c>
       <c r="J3">
-        <v>2.877764436951481E-7</v>
+        <v>2.6772945081524168E-7</v>
       </c>
       <c r="K3">
-        <v>4.1534321059049876E-8</v>
+        <v>2.3989274317606391E-8</v>
       </c>
       <c r="L3">
-        <v>8.0804465970253933E-8</v>
+        <v>4.9593148999785645E-8</v>
       </c>
       <c r="M3">
-        <v>1.740479714040542E-7</v>
+        <v>1.0492379458038122E-7</v>
       </c>
       <c r="N3">
-        <v>4.9828575577774656E-8</v>
+        <v>4.8748948997778718E-8</v>
       </c>
       <c r="O3">
-        <v>-3.8207717941410721E-8</v>
+        <v>-1.3227098129281356E-8</v>
       </c>
       <c r="P3">
-        <v>-2.6784596268666941E-8</v>
+        <v>-1.4705398658186432E-8</v>
       </c>
       <c r="Q3">
-        <v>-2.9475076389353519E-8</v>
+        <v>-1.4506543928582717E-8</v>
       </c>
       <c r="R3">
-        <v>-9.8707815535896679E-9</v>
+        <v>-8.8302036013600428E-9</v>
       </c>
       <c r="S3">
-        <v>5.8116234271642392E-9</v>
+        <v>-6.2777905186960796E-9</v>
       </c>
       <c r="T3">
-        <v>3.0216140695887568E-9</v>
+        <v>-4.8004146155435656E-9</v>
       </c>
       <c r="U3">
-        <v>6.4173455911124541E-6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.8095274903245802E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>21</v>
       </c>
       <c r="B4">
-        <v>0.88487143663978329</v>
+        <v>0.40887211049933347</v>
       </c>
       <c r="C4">
-        <v>7.7524947911866579E-5</v>
+        <v>5.0556133288466481E-5</v>
       </c>
       <c r="D4">
-        <v>-1.1119883992802032E-7</v>
+        <v>-7.0175862564550141E-8</v>
       </c>
       <c r="E4">
-        <v>4.2630557953604389E-3</v>
+        <v>2.6799690127940982E-3</v>
       </c>
       <c r="F4">
-        <v>2.9929345341599646E-3</v>
+        <v>2.0019456575903092E-3</v>
       </c>
       <c r="G4">
-        <v>-9.5918952630272164E-5</v>
+        <v>-5.9750901990619398E-5</v>
       </c>
       <c r="H4">
-        <v>-6.9389522625746861E-5</v>
+        <v>-4.5470779806624733E-5</v>
       </c>
       <c r="I4">
-        <v>4.1656008765393043E-5</v>
+        <v>3.6167294898816807E-5</v>
       </c>
       <c r="J4">
-        <v>-7.3207592190564048E-5</v>
+        <v>-3.8451410831122284E-5</v>
       </c>
       <c r="K4">
-        <v>-7.9536433618475171E-5</v>
+        <v>-2.6195262680640385E-5</v>
       </c>
       <c r="L4">
-        <v>-9.2754148952367598E-5</v>
+        <v>-3.6149064040463114E-5</v>
       </c>
       <c r="M4">
-        <v>-1.2846775713814726E-4</v>
+        <v>-6.0498326048279063E-5</v>
       </c>
       <c r="N4">
-        <v>-7.2889347884078992E-5</v>
+        <v>-2.9579695410206046E-5</v>
       </c>
       <c r="O4">
-        <v>-2.0467613887471522E-5</v>
+        <v>-1.5812227549712939E-5</v>
       </c>
       <c r="P4">
-        <v>-1.9954969308192534E-5</v>
+        <v>-1.1487903808695257E-5</v>
       </c>
       <c r="Q4">
-        <v>-1.2228164919102909E-5</v>
+        <v>-1.7324164984044356E-5</v>
       </c>
       <c r="R4">
-        <v>3.8674312929412773E-6</v>
+        <v>-2.8539523567681993E-6</v>
       </c>
       <c r="S4">
-        <v>3.1265671290609972E-5</v>
+        <v>1.8044773301669761E-5</v>
       </c>
       <c r="T4">
-        <v>-1.5244330856000703E-5</v>
+        <v>8.4742053283127635E-6</v>
       </c>
       <c r="U4">
-        <v>-2.9991001354662452E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-2.033853749460027E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>22</v>
       </c>
       <c r="B5">
-        <v>0.56461508818924067</v>
+        <v>0.2247903208518067</v>
       </c>
       <c r="C5">
-        <v>1.1283647563206751E-4</v>
+        <v>6.5106412632185659E-5</v>
       </c>
       <c r="D5">
-        <v>-5.1673687165792785E-7</v>
+        <v>-2.3365348986348527E-7</v>
       </c>
       <c r="E5">
-        <v>2.9929345341599646E-3</v>
+        <v>2.0019456575903092E-3</v>
       </c>
       <c r="F5">
-        <v>1.1333367273799367E-2</v>
+        <v>7.9080825295831467E-3</v>
       </c>
       <c r="G5">
-        <v>-6.9172291091385636E-5</v>
+        <v>-4.5386484110865628E-5</v>
       </c>
       <c r="H5">
-        <v>-2.3935806741184434E-4</v>
+        <v>-1.6622112519430751E-4</v>
       </c>
       <c r="I5">
-        <v>2.7695492831242204E-5</v>
+        <v>2.9044877396074575E-5</v>
       </c>
       <c r="J5">
-        <v>-8.9908108081153951E-5</v>
+        <v>-2.5834764546542714E-5</v>
       </c>
       <c r="K5">
-        <v>-2.6641188371969056E-7</v>
+        <v>1.7773923759905382E-5</v>
       </c>
       <c r="L5">
-        <v>-3.5893895572057868E-5</v>
+        <v>-1.9985918441114102E-5</v>
       </c>
       <c r="M5">
-        <v>-7.1680420442059387E-5</v>
+        <v>-4.9328350181425916E-5</v>
       </c>
       <c r="N5">
-        <v>1.2243948702108515E-5</v>
+        <v>2.3519407962478093E-6</v>
       </c>
       <c r="O5">
-        <v>-7.026417869399175E-5</v>
+        <v>-4.6508666397027481E-5</v>
       </c>
       <c r="P5">
-        <v>-3.3342044462742102E-5</v>
+        <v>-2.2699549248173717E-5</v>
       </c>
       <c r="Q5">
-        <v>-5.1293798882825789E-5</v>
+        <v>-4.5069733017318595E-5</v>
       </c>
       <c r="R5">
-        <v>2.1057687190228168E-5</v>
+        <v>3.7923477459837796E-6</v>
       </c>
       <c r="S5">
-        <v>-4.8532821812215341E-6</v>
+        <v>6.7666645257114381E-6</v>
       </c>
       <c r="T5">
-        <v>-2.4103741254495447E-5</v>
+        <v>2.5084361320302545E-6</v>
       </c>
       <c r="U5">
-        <v>-3.7518913086700507E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-2.3490968869317608E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>34</v>
       </c>
       <c r="B6">
-        <v>-1.1459896271934058E-2</v>
+        <v>-4.108736317103269E-3</v>
       </c>
       <c r="C6">
-        <v>-1.6593866537701591E-6</v>
+        <v>-1.1426420088804611E-6</v>
       </c>
       <c r="D6">
-        <v>-2.7657681214373321E-10</v>
+        <v>8.2636568988900016E-10</v>
       </c>
       <c r="E6">
-        <v>-9.5918952630272164E-5</v>
+        <v>-5.9750901990619398E-5</v>
       </c>
       <c r="F6">
-        <v>-6.9172291091385636E-5</v>
+        <v>-4.5386484110865628E-5</v>
       </c>
       <c r="G6">
-        <v>2.3295876259092916E-6</v>
+        <v>1.4203458635103537E-6</v>
       </c>
       <c r="H6">
-        <v>1.7287826148865959E-6</v>
+        <v>1.0989650812722002E-6</v>
       </c>
       <c r="I6">
-        <v>-1.1444558724013674E-6</v>
+        <v>-7.8603510944579721E-7</v>
       </c>
       <c r="J6">
-        <v>1.6982123852882996E-6</v>
+        <v>9.915892980057991E-7</v>
       </c>
       <c r="K6">
-        <v>2.3141204662321318E-6</v>
+        <v>7.647108047780585E-7</v>
       </c>
       <c r="L6">
-        <v>2.8288912000098234E-6</v>
+        <v>9.8325664269941927E-7</v>
       </c>
       <c r="M6">
-        <v>4.164775092160352E-6</v>
+        <v>1.7613798293928685E-6</v>
       </c>
       <c r="N6">
-        <v>3.4465064265085342E-6</v>
+        <v>1.4032493589975144E-6</v>
       </c>
       <c r="O6">
-        <v>-3.0534901680205825E-8</v>
+        <v>7.1500936095517238E-8</v>
       </c>
       <c r="P6">
-        <v>4.9925491241124715E-7</v>
+        <v>2.9423811507426452E-7</v>
       </c>
       <c r="Q6">
-        <v>-4.3797378857120606E-8</v>
+        <v>1.7853895787739223E-7</v>
       </c>
       <c r="R6">
-        <v>-2.1222752581347187E-7</v>
+        <v>-2.5917581507809139E-9</v>
       </c>
       <c r="S6">
-        <v>-5.0698908390639331E-7</v>
+        <v>-3.0914076555104406E-7</v>
       </c>
       <c r="T6">
-        <v>3.0591375685384943E-7</v>
+        <v>-1.1966458059233124E-7</v>
       </c>
       <c r="U6">
-        <v>6.325575096781303E-5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+        <v>4.4243310723193496E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7">
-        <v>-7.9703962396881853E-3</v>
+        <v>-4.2909545524128596E-4</v>
       </c>
       <c r="C7">
-        <v>-2.238015097356736E-6</v>
+        <v>-1.3650492244183321E-6</v>
       </c>
       <c r="D7">
-        <v>6.190025368951823E-9</v>
+        <v>3.2518312717519458E-9</v>
       </c>
       <c r="E7">
-        <v>-6.9389522625746861E-5</v>
+        <v>-4.5470779806624733E-5</v>
       </c>
       <c r="F7">
-        <v>-2.3935806741184434E-4</v>
+        <v>-1.6622112519430751E-4</v>
       </c>
       <c r="G7">
-        <v>1.7287826148865959E-6</v>
+        <v>1.0989650812722002E-6</v>
       </c>
       <c r="H7">
-        <v>5.5407362261324227E-6</v>
+        <v>3.7714966700535081E-6</v>
       </c>
       <c r="I7">
-        <v>6.0858898582660309E-8</v>
+        <v>-1.8061197328099342E-7</v>
       </c>
       <c r="J7">
-        <v>1.3988194124013659E-6</v>
+        <v>4.9230293939102186E-7</v>
       </c>
       <c r="K7">
-        <v>1.25882565940299E-7</v>
+        <v>-2.9089815742489717E-7</v>
       </c>
       <c r="L7">
-        <v>1.3636018156218834E-6</v>
+        <v>6.830412268518512E-7</v>
       </c>
       <c r="M7">
-        <v>2.892782422899862E-6</v>
+        <v>1.7637803714970262E-6</v>
       </c>
       <c r="N7">
-        <v>1.8093966516781869E-6</v>
+        <v>1.1151018297851253E-6</v>
       </c>
       <c r="O7">
-        <v>7.5146619343991334E-7</v>
+        <v>5.4301084369858775E-7</v>
       </c>
       <c r="P7">
-        <v>5.4770681124987334E-7</v>
+        <v>4.433450859699239E-7</v>
       </c>
       <c r="Q7">
-        <v>2.7295165313254608E-7</v>
+        <v>4.6901446269708729E-7</v>
       </c>
       <c r="R7">
-        <v>-1.1225539750592949E-6</v>
+        <v>-4.1636652540532841E-7</v>
       </c>
       <c r="S7">
-        <v>4.2261138296998003E-7</v>
+        <v>-4.9774682331708153E-9</v>
       </c>
       <c r="T7">
-        <v>8.2223304118498791E-7</v>
+        <v>1.1652404752504325E-7</v>
       </c>
       <c r="U7">
-        <v>7.6169817088135103E-5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+        <v>4.8957220323762346E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>23</v>
       </c>
       <c r="B8">
-        <v>0.50449664618420464</v>
+        <v>0.1382336563791689</v>
       </c>
       <c r="C8">
-        <v>-2.3893432831350503E-5</v>
+        <v>-8.3891740073331638E-6</v>
       </c>
       <c r="D8">
-        <v>1.8220524740473982E-7</v>
+        <v>4.0862165070090953E-8</v>
       </c>
       <c r="E8">
-        <v>4.1656008765393043E-5</v>
+        <v>3.6167294898816807E-5</v>
       </c>
       <c r="F8">
-        <v>2.7695492831242204E-5</v>
+        <v>2.9044877396074575E-5</v>
       </c>
       <c r="G8">
-        <v>-1.1444558724013674E-6</v>
+        <v>-7.8603510944579721E-7</v>
       </c>
       <c r="H8">
-        <v>6.0858898582660309E-8</v>
+        <v>-1.8061197328099342E-7</v>
       </c>
       <c r="I8">
-        <v>4.5469098222607212E-4</v>
+        <v>2.9341774253609058E-4</v>
       </c>
       <c r="J8">
-        <v>-1.9184285818953103E-4</v>
+        <v>-1.3837226457612844E-4</v>
       </c>
       <c r="K8">
-        <v>-8.8435669905221291E-6</v>
+        <v>-1.0784057435892146E-5</v>
       </c>
       <c r="L8">
-        <v>5.1453224341304672E-6</v>
+        <v>-1.1729485620777873E-5</v>
       </c>
       <c r="M8">
-        <v>-6.3900723541870388E-7</v>
+        <v>-1.1606228003994656E-5</v>
       </c>
       <c r="N8">
-        <v>7.8391547196949457E-7</v>
+        <v>-7.8941736630585186E-6</v>
       </c>
       <c r="O8">
-        <v>5.3754726367799707E-6</v>
+        <v>-4.0956121873765049E-7</v>
       </c>
       <c r="P8">
-        <v>5.572390276930808E-6</v>
+        <v>3.3053016846209794E-6</v>
       </c>
       <c r="Q8">
-        <v>-4.5073794946818325E-6</v>
+        <v>-3.9103883739800179E-6</v>
       </c>
       <c r="R8">
-        <v>3.4257145941330277E-6</v>
+        <v>1.8483631683979896E-6</v>
       </c>
       <c r="S8">
-        <v>4.359867156799673E-6</v>
+        <v>2.394930831423842E-6</v>
       </c>
       <c r="T8">
-        <v>5.8557025098306829E-6</v>
+        <v>6.3512605936314039E-6</v>
       </c>
       <c r="U8">
-        <v>4.4286604403342148E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1.2648548116214286E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>24</v>
       </c>
       <c r="B9">
-        <v>-4.8133280392593278E-2</v>
+        <v>3.4733792695345322E-3</v>
       </c>
       <c r="C9">
-        <v>-2.0002905107660874E-5</v>
+        <v>-1.9820333523183663E-5</v>
       </c>
       <c r="D9">
-        <v>2.877764436951481E-7</v>
+        <v>2.6772945081524168E-7</v>
       </c>
       <c r="E9">
-        <v>-7.3207592190564048E-5</v>
+        <v>-3.8451410831122284E-5</v>
       </c>
       <c r="F9">
-        <v>-8.9908108081153951E-5</v>
+        <v>-2.5834764546542714E-5</v>
       </c>
       <c r="G9">
-        <v>1.6982123852882996E-6</v>
+        <v>9.915892980057991E-7</v>
       </c>
       <c r="H9">
-        <v>1.3988194124013659E-6</v>
+        <v>4.9230293939102186E-7</v>
       </c>
       <c r="I9">
-        <v>-1.9184285818953103E-4</v>
+        <v>-1.3837226457612844E-4</v>
       </c>
       <c r="J9">
-        <v>3.7231393972080913E-4</v>
+        <v>2.2996020373680491E-4</v>
       </c>
       <c r="K9">
-        <v>3.3671615608490288E-5</v>
+        <v>1.6655945815215043E-5</v>
       </c>
       <c r="L9">
-        <v>1.8482540695252748E-5</v>
+        <v>1.3510160770203219E-5</v>
       </c>
       <c r="M9">
-        <v>1.6518506162419887E-5</v>
+        <v>9.6286875667983606E-6</v>
       </c>
       <c r="N9">
-        <v>2.268867609015406E-5</v>
+        <v>1.1877985631862865E-5</v>
       </c>
       <c r="O9">
-        <v>-7.9496735800323352E-6</v>
+        <v>-1.5999719241224239E-6</v>
       </c>
       <c r="P9">
-        <v>-2.0407312660388601E-6</v>
+        <v>-3.0680008286100138E-6</v>
       </c>
       <c r="Q9">
-        <v>-7.4627087886435856E-6</v>
+        <v>-3.7621046072730345E-6</v>
       </c>
       <c r="R9">
-        <v>-6.5619736428965436E-6</v>
+        <v>-3.7619209196947996E-6</v>
       </c>
       <c r="S9">
-        <v>1.4839132130415644E-6</v>
+        <v>-2.3017820703478376E-6</v>
       </c>
       <c r="T9">
-        <v>-1.9693281318273898E-6</v>
+        <v>-2.8896204133339678E-6</v>
       </c>
       <c r="U9">
-        <v>2.4277059330810722E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.1597572700321443E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>25</v>
       </c>
       <c r="B10">
-        <v>0.48098465525704337</v>
+        <v>0.36807026822932304</v>
       </c>
       <c r="C10">
-        <v>-4.5952240811606153E-6</v>
+        <v>-2.2422595971592358E-6</v>
       </c>
       <c r="D10">
-        <v>4.1534321059049876E-8</v>
+        <v>2.3989274317606391E-8</v>
       </c>
       <c r="E10">
-        <v>-7.9536433618475171E-5</v>
+        <v>-2.6195262680640385E-5</v>
       </c>
       <c r="F10">
-        <v>-2.6641188371969056E-7</v>
+        <v>1.7773923759905382E-5</v>
       </c>
       <c r="G10">
-        <v>2.3141204662321318E-6</v>
+        <v>7.647108047780585E-7</v>
       </c>
       <c r="H10">
-        <v>1.25882565940299E-7</v>
+        <v>-2.9089815742489717E-7</v>
       </c>
       <c r="I10">
-        <v>-8.8435669905221291E-6</v>
+        <v>-1.0784057435892146E-5</v>
       </c>
       <c r="J10">
-        <v>3.3671615608490288E-5</v>
+        <v>1.6655945815215043E-5</v>
       </c>
       <c r="K10">
-        <v>1.0359438874627185E-2</v>
+        <v>1.0529089868701604E-2</v>
       </c>
       <c r="L10">
-        <v>9.2288355750037663E-3</v>
+        <v>9.5815798436672539E-3</v>
       </c>
       <c r="M10">
-        <v>9.2318152349927102E-3</v>
+        <v>9.5821229244391105E-3</v>
       </c>
       <c r="N10">
-        <v>9.2345683599566759E-3</v>
+        <v>9.5831330155656189E-3</v>
       </c>
       <c r="O10">
-        <v>1.8091837707516717E-5</v>
+        <v>7.9462559850009728E-6</v>
       </c>
       <c r="P10">
-        <v>1.7465547494978074E-5</v>
+        <v>6.037142590512216E-6</v>
       </c>
       <c r="Q10">
-        <v>3.0227101559897448E-6</v>
+        <v>-3.940314418075146E-7</v>
       </c>
       <c r="R10">
-        <v>2.7977084493281939E-6</v>
+        <v>-2.6582645214939159E-6</v>
       </c>
       <c r="S10">
-        <v>5.2107118368417764E-6</v>
+        <v>6.5888790711256579E-6</v>
       </c>
       <c r="T10">
-        <v>2.7083623310090318E-5</v>
+        <v>1.4088926509158478E-5</v>
       </c>
       <c r="U10">
-        <v>-9.1490930182491839E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-9.540216634741687E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>26</v>
       </c>
       <c r="B11">
-        <v>1.0047332789077668</v>
+        <v>0.5611563857502152</v>
       </c>
       <c r="C11">
-        <v>-7.8993665694019623E-6</v>
+        <v>-4.360533029819846E-6</v>
       </c>
       <c r="D11">
-        <v>8.0804465970253933E-8</v>
+        <v>4.9593148999785645E-8</v>
       </c>
       <c r="E11">
-        <v>-9.2754148952367598E-5</v>
+        <v>-3.6149064040463114E-5</v>
       </c>
       <c r="F11">
-        <v>-3.5893895572057868E-5</v>
+        <v>-1.9985918441114102E-5</v>
       </c>
       <c r="G11">
-        <v>2.8288912000098234E-6</v>
+        <v>9.8325664269941927E-7</v>
       </c>
       <c r="H11">
-        <v>1.3636018156218834E-6</v>
+        <v>6.830412268518512E-7</v>
       </c>
       <c r="I11">
-        <v>5.1453224341304672E-6</v>
+        <v>-1.1729485620777873E-5</v>
       </c>
       <c r="J11">
-        <v>1.8482540695252748E-5</v>
+        <v>1.3510160770203219E-5</v>
       </c>
       <c r="K11">
-        <v>9.2288355750037663E-3</v>
+        <v>9.5815798436672539E-3</v>
       </c>
       <c r="L11">
-        <v>9.5031932215435214E-3</v>
+        <v>9.735114933403068E-3</v>
       </c>
       <c r="M11">
-        <v>9.2459301471421382E-3</v>
+        <v>9.5877936851268379E-3</v>
       </c>
       <c r="N11">
-        <v>9.2548263195274746E-3</v>
+        <v>9.590163187241825E-3</v>
       </c>
       <c r="O11">
-        <v>1.8433752466039501E-5</v>
+        <v>6.3200499609356102E-6</v>
       </c>
       <c r="P11">
-        <v>1.5005589686721798E-5</v>
+        <v>5.1385139835252058E-6</v>
       </c>
       <c r="Q11">
-        <v>1.0286997135957438E-6</v>
+        <v>-3.1860185632674932E-6</v>
       </c>
       <c r="R11">
-        <v>-2.6402316833109521E-6</v>
+        <v>-6.9768926364818974E-6</v>
       </c>
       <c r="S11">
-        <v>6.9120279260759339E-6</v>
+        <v>9.9444116375559321E-6</v>
       </c>
       <c r="T11">
-        <v>2.4727574391197626E-5</v>
+        <v>1.0878204770852845E-5</v>
       </c>
       <c r="U11">
-        <v>-9.1058309629993769E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-9.5005732998754873E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>27</v>
       </c>
       <c r="B12">
-        <v>1.2337244929217372</v>
+        <v>0.55622279606611191</v>
       </c>
       <c r="C12">
-        <v>-1.2937488715070178E-5</v>
+        <v>-7.881345149205062E-6</v>
       </c>
       <c r="D12">
-        <v>1.740479714040542E-7</v>
+        <v>1.0492379458038122E-7</v>
       </c>
       <c r="E12">
-        <v>-1.2846775713814726E-4</v>
+        <v>-6.0498326048279063E-5</v>
       </c>
       <c r="F12">
-        <v>-7.1680420442059387E-5</v>
+        <v>-4.9328350181425916E-5</v>
       </c>
       <c r="G12">
-        <v>4.164775092160352E-6</v>
+        <v>1.7613798293928685E-6</v>
       </c>
       <c r="H12">
-        <v>2.892782422899862E-6</v>
+        <v>1.7637803714970262E-6</v>
       </c>
       <c r="I12">
-        <v>-6.3900723541870388E-7</v>
+        <v>-1.1606228003994656E-5</v>
       </c>
       <c r="J12">
-        <v>1.6518506162419887E-5</v>
+        <v>9.6286875667983606E-6</v>
       </c>
       <c r="K12">
-        <v>9.2318152349927102E-3</v>
+        <v>9.5821229244391105E-3</v>
       </c>
       <c r="L12">
-        <v>9.2459301471421382E-3</v>
+        <v>9.5877936851268379E-3</v>
       </c>
       <c r="M12">
-        <v>9.4114535860621192E-3</v>
+        <v>9.6610080851098415E-3</v>
       </c>
       <c r="N12">
-        <v>9.33750069303994E-3</v>
+        <v>9.6264859338003224E-3</v>
       </c>
       <c r="O12">
-        <v>1.7572116039646357E-5</v>
+        <v>4.753460804285124E-6</v>
       </c>
       <c r="P12">
-        <v>1.4586241072844926E-5</v>
+        <v>7.6781737648345288E-6</v>
       </c>
       <c r="Q12">
-        <v>7.1832238522778215E-7</v>
+        <v>-2.6235907786396776E-6</v>
       </c>
       <c r="R12">
-        <v>3.0404954523714561E-6</v>
+        <v>-3.8981902684943149E-6</v>
       </c>
       <c r="S12">
-        <v>-2.6024737797333678E-6</v>
+        <v>6.986486992501918E-6</v>
       </c>
       <c r="T12">
-        <v>4.0305216144007191E-6</v>
+        <v>8.3019173600794072E-7</v>
       </c>
       <c r="U12">
-        <v>-9.1359273568503551E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-9.4883712065756288E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>28</v>
       </c>
       <c r="B13">
-        <v>1.249799766134015</v>
+        <v>0.58447724629257181</v>
       </c>
       <c r="C13">
-        <v>2.2652535394156376E-6</v>
+        <v>-7.7800043083093347E-7</v>
       </c>
       <c r="D13">
-        <v>4.9828575577774656E-8</v>
+        <v>4.8748948997778718E-8</v>
       </c>
       <c r="E13">
-        <v>-7.2889347884078992E-5</v>
+        <v>-2.9579695410206046E-5</v>
       </c>
       <c r="F13">
-        <v>1.2243948702108515E-5</v>
+        <v>2.3519407962478093E-6</v>
       </c>
       <c r="G13">
-        <v>3.4465064265085342E-6</v>
+        <v>1.4032493589975144E-6</v>
       </c>
       <c r="H13">
-        <v>1.8093966516781869E-6</v>
+        <v>1.1151018297851253E-6</v>
       </c>
       <c r="I13">
-        <v>7.8391547196949457E-7</v>
+        <v>-7.8941736630585186E-6</v>
       </c>
       <c r="J13">
-        <v>2.268867609015406E-5</v>
+        <v>1.1877985631862865E-5</v>
       </c>
       <c r="K13">
-        <v>9.2345683599566759E-3</v>
+        <v>9.5831330155656189E-3</v>
       </c>
       <c r="L13">
-        <v>9.2548263195274746E-3</v>
+        <v>9.590163187241825E-3</v>
       </c>
       <c r="M13">
-        <v>9.33750069303994E-3</v>
+        <v>9.6264859338003224E-3</v>
       </c>
       <c r="N13">
-        <v>9.7176598105555376E-3</v>
+        <v>9.8160729247681808E-3</v>
       </c>
       <c r="O13">
-        <v>1.7283522527700569E-5</v>
+        <v>4.8949586373917014E-6</v>
       </c>
       <c r="P13">
-        <v>2.5323847985255258E-5</v>
+        <v>1.0658876484756225E-5</v>
       </c>
       <c r="Q13">
-        <v>2.1793661260869615E-6</v>
+        <v>-3.645673649554877E-6</v>
       </c>
       <c r="R13">
-        <v>4.2081259626270589E-6</v>
+        <v>-2.7971185746512579E-6</v>
       </c>
       <c r="S13">
-        <v>-1.6264708935952327E-6</v>
+        <v>7.6682590932723478E-6</v>
       </c>
       <c r="T13">
-        <v>5.2737302667064419E-6</v>
+        <v>2.5789043757884956E-6</v>
       </c>
       <c r="U13">
-        <v>-9.6031873537355313E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-9.7169261594593978E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>37</v>
       </c>
       <c r="B14">
-        <v>9.506080617162338E-2</v>
+        <v>4.7302612784289995E-2</v>
       </c>
       <c r="C14">
-        <v>2.8039055504005326E-6</v>
+        <v>8.7114582671721161E-7</v>
       </c>
       <c r="D14">
-        <v>-3.8207717941410721E-8</v>
+        <v>-1.3227098129281356E-8</v>
       </c>
       <c r="E14">
-        <v>-2.0467613887471522E-5</v>
+        <v>-1.5812227549712939E-5</v>
       </c>
       <c r="F14">
-        <v>-7.026417869399175E-5</v>
+        <v>-4.6508666397027481E-5</v>
       </c>
       <c r="G14">
-        <v>-3.0534901680205825E-8</v>
+        <v>7.1500936095517238E-8</v>
       </c>
       <c r="H14">
-        <v>7.5146619343991334E-7</v>
+        <v>5.4301084369858775E-7</v>
       </c>
       <c r="I14">
-        <v>5.3754726367799707E-6</v>
+        <v>-4.0956121873765049E-7</v>
       </c>
       <c r="J14">
-        <v>-7.9496735800323352E-6</v>
+        <v>-1.5999719241224239E-6</v>
       </c>
       <c r="K14">
-        <v>1.8091837707516717E-5</v>
+        <v>7.9462559850009728E-6</v>
       </c>
       <c r="L14">
-        <v>1.8433752466039501E-5</v>
+        <v>6.3200499609356102E-6</v>
       </c>
       <c r="M14">
-        <v>1.7572116039646357E-5</v>
+        <v>4.753460804285124E-6</v>
       </c>
       <c r="N14">
-        <v>1.7283522527700569E-5</v>
+        <v>4.8949586373917014E-6</v>
       </c>
       <c r="O14">
-        <v>7.6189169842692816E-4</v>
+        <v>3.7972725676833165E-4</v>
       </c>
       <c r="P14">
-        <v>3.7112046595395235E-4</v>
+        <v>1.9677001118205119E-4</v>
       </c>
       <c r="Q14">
-        <v>3.722925116867246E-4</v>
+        <v>1.9775857078510356E-4</v>
       </c>
       <c r="R14">
-        <v>3.7102157239695576E-4</v>
+        <v>1.9690004878396251E-4</v>
       </c>
       <c r="S14">
-        <v>-1.628611982096819E-5</v>
+        <v>-7.0294863704989715E-6</v>
       </c>
       <c r="T14">
-        <v>-9.4574926483285218E-6</v>
+        <v>-5.7791089118610887E-6</v>
       </c>
       <c r="U14">
-        <v>-4.137502615364964E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-2.0101678117440756E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>38</v>
       </c>
       <c r="B15">
-        <v>1.0407334397005244E-2</v>
+        <v>4.2951367371003517E-2</v>
       </c>
       <c r="C15">
-        <v>1.2841212194248363E-6</v>
+        <v>6.9222485256819506E-7</v>
       </c>
       <c r="D15">
-        <v>-2.6784596268666941E-8</v>
+        <v>-1.4705398658186432E-8</v>
       </c>
       <c r="E15">
-        <v>-1.9954969308192534E-5</v>
+        <v>-1.1487903808695257E-5</v>
       </c>
       <c r="F15">
-        <v>-3.3342044462742102E-5</v>
+        <v>-2.2699549248173717E-5</v>
       </c>
       <c r="G15">
-        <v>4.9925491241124715E-7</v>
+        <v>2.9423811507426452E-7</v>
       </c>
       <c r="H15">
-        <v>5.4770681124987334E-7</v>
+        <v>4.433450859699239E-7</v>
       </c>
       <c r="I15">
-        <v>5.572390276930808E-6</v>
+        <v>3.3053016846209794E-6</v>
       </c>
       <c r="J15">
-        <v>-2.0407312660388601E-6</v>
+        <v>-3.0680008286100138E-6</v>
       </c>
       <c r="K15">
-        <v>1.7465547494978074E-5</v>
+        <v>6.037142590512216E-6</v>
       </c>
       <c r="L15">
-        <v>1.5005589686721798E-5</v>
+        <v>5.1385139835252058E-6</v>
       </c>
       <c r="M15">
-        <v>1.4586241072844926E-5</v>
+        <v>7.6781737648345288E-6</v>
       </c>
       <c r="N15">
-        <v>2.5323847985255258E-5</v>
+        <v>1.0658876484756225E-5</v>
       </c>
       <c r="O15">
-        <v>3.7112046595395235E-4</v>
+        <v>1.9677001118205119E-4</v>
       </c>
       <c r="P15">
-        <v>9.1055532455883495E-4</v>
+        <v>4.8259812889693245E-4</v>
       </c>
       <c r="Q15">
-        <v>3.7077556999551135E-4</v>
+        <v>1.9677506304194303E-4</v>
       </c>
       <c r="R15">
-        <v>3.7057441362425164E-4</v>
+        <v>1.967181727688358E-4</v>
       </c>
       <c r="S15">
-        <v>-1.3715779983177077E-5</v>
+        <v>-7.2444222984998187E-6</v>
       </c>
       <c r="T15">
-        <v>-1.402442678436255E-5</v>
+        <v>-8.9778054071919593E-6</v>
       </c>
       <c r="U15">
-        <v>-3.8953171722350095E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-2.0520736947215594E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>39</v>
       </c>
       <c r="B16">
-        <v>7.1802129841086262E-2</v>
+        <v>7.2538266093791492E-2</v>
       </c>
       <c r="C16">
-        <v>2.334744511159637E-6</v>
+        <v>9.4695308173589243E-7</v>
       </c>
       <c r="D16">
-        <v>-2.9475076389353519E-8</v>
+        <v>-1.4506543928582717E-8</v>
       </c>
       <c r="E16">
-        <v>-1.2228164919102909E-5</v>
+        <v>-1.7324164984044356E-5</v>
       </c>
       <c r="F16">
-        <v>-5.1293798882825789E-5</v>
+        <v>-4.5069733017318595E-5</v>
       </c>
       <c r="G16">
-        <v>-4.3797378857120606E-8</v>
+        <v>1.7853895787739223E-7</v>
       </c>
       <c r="H16">
-        <v>2.7295165313254608E-7</v>
+        <v>4.6901446269708729E-7</v>
       </c>
       <c r="I16">
-        <v>-4.5073794946818325E-6</v>
+        <v>-3.9103883739800179E-6</v>
       </c>
       <c r="J16">
-        <v>-7.4627087886435856E-6</v>
+        <v>-3.7621046072730345E-6</v>
       </c>
       <c r="K16">
-        <v>3.0227101559897448E-6</v>
+        <v>-3.940314418075146E-7</v>
       </c>
       <c r="L16">
-        <v>1.0286997135957438E-6</v>
+        <v>-3.1860185632674932E-6</v>
       </c>
       <c r="M16">
-        <v>7.1832238522778215E-7</v>
+        <v>-2.6235907786396776E-6</v>
       </c>
       <c r="N16">
-        <v>2.1793661260869615E-6</v>
+        <v>-3.645673649554877E-6</v>
       </c>
       <c r="O16">
-        <v>3.722925116867246E-4</v>
+        <v>1.9775857078510356E-4</v>
       </c>
       <c r="P16">
-        <v>3.7077556999551135E-4</v>
+        <v>1.9677506304194303E-4</v>
       </c>
       <c r="Q16">
-        <v>7.209773771963174E-4</v>
+        <v>3.6653820177509242E-4</v>
       </c>
       <c r="R16">
-        <v>3.7110252839695499E-4</v>
+        <v>1.9702271274678351E-4</v>
       </c>
       <c r="S16">
-        <v>-1.4570401343359713E-5</v>
+        <v>-7.2741288758516749E-6</v>
       </c>
       <c r="T16">
-        <v>-1.291030701853572E-5</v>
+        <v>-5.5337612029327797E-6</v>
       </c>
       <c r="U16">
-        <v>-3.9273945154040307E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-1.9225865267842715E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>36</v>
       </c>
       <c r="B17">
-        <v>6.3158790368034678E-2</v>
+        <v>4.4571369011109203E-2</v>
       </c>
       <c r="C17">
-        <v>8.1158435342185659E-7</v>
+        <v>6.3318799799346261E-7</v>
       </c>
       <c r="D17">
-        <v>-9.8707815535896679E-9</v>
+        <v>-8.8302036013600428E-9</v>
       </c>
       <c r="E17">
-        <v>3.8674312929412773E-6</v>
+        <v>-2.8539523567681993E-6</v>
       </c>
       <c r="F17">
-        <v>2.1057687190228168E-5</v>
+        <v>3.7923477459837796E-6</v>
       </c>
       <c r="G17">
-        <v>-2.1222752581347187E-7</v>
+        <v>-2.5917581507809139E-9</v>
       </c>
       <c r="H17">
-        <v>-1.1225539750592949E-6</v>
+        <v>-4.1636652540532841E-7</v>
       </c>
       <c r="I17">
-        <v>3.4257145941330277E-6</v>
+        <v>1.8483631683979896E-6</v>
       </c>
       <c r="J17">
-        <v>-6.5619736428965436E-6</v>
+        <v>-3.7619209196947996E-6</v>
       </c>
       <c r="K17">
-        <v>2.7977084493281939E-6</v>
+        <v>-2.6582645214939159E-6</v>
       </c>
       <c r="L17">
-        <v>-2.6402316833109521E-6</v>
+        <v>-6.9768926364818974E-6</v>
       </c>
       <c r="M17">
-        <v>3.0404954523714561E-6</v>
+        <v>-3.8981902684943149E-6</v>
       </c>
       <c r="N17">
-        <v>4.2081259626270589E-6</v>
+        <v>-2.7971185746512579E-6</v>
       </c>
       <c r="O17">
-        <v>3.7102157239695576E-4</v>
+        <v>1.9690004878396251E-4</v>
       </c>
       <c r="P17">
-        <v>3.7057441362425164E-4</v>
+        <v>1.967181727688358E-4</v>
       </c>
       <c r="Q17">
-        <v>3.7110252839695499E-4</v>
+        <v>1.9702271274678351E-4</v>
       </c>
       <c r="R17">
-        <v>5.1658199308140444E-4</v>
+        <v>2.6785742643877918E-4</v>
       </c>
       <c r="S17">
-        <v>-1.3648973854005952E-5</v>
+        <v>-6.7509325117572262E-6</v>
       </c>
       <c r="T17">
-        <v>-1.5585915883907392E-5</v>
+        <v>-7.0732731151443044E-6</v>
       </c>
       <c r="U17">
-        <v>-3.7869882246899358E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-1.9771451001778209E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>31</v>
       </c>
       <c r="B18">
-        <v>-2.4807921822105738E-2</v>
+        <v>0.4382853378810172</v>
       </c>
       <c r="C18">
-        <v>-6.7768235916325072E-7</v>
+        <v>5.5241685008799913E-7</v>
       </c>
       <c r="D18">
-        <v>5.8116234271642392E-9</v>
+        <v>-6.2777905186960796E-9</v>
       </c>
       <c r="E18">
-        <v>3.1265671290609972E-5</v>
+        <v>1.8044773301669761E-5</v>
       </c>
       <c r="F18">
-        <v>-4.8532821812215341E-6</v>
+        <v>6.7666645257114381E-6</v>
       </c>
       <c r="G18">
-        <v>-5.0698908390639331E-7</v>
+        <v>-3.0914076555104406E-7</v>
       </c>
       <c r="H18">
-        <v>4.2261138296998003E-7</v>
+        <v>-4.9774682331708153E-9</v>
       </c>
       <c r="I18">
-        <v>4.359867156799673E-6</v>
+        <v>2.394930831423842E-6</v>
       </c>
       <c r="J18">
-        <v>1.4839132130415644E-6</v>
+        <v>-2.3017820703478376E-6</v>
       </c>
       <c r="K18">
-        <v>5.2107118368417764E-6</v>
+        <v>6.5888790711256579E-6</v>
       </c>
       <c r="L18">
-        <v>6.9120279260759339E-6</v>
+        <v>9.9444116375559321E-6</v>
       </c>
       <c r="M18">
-        <v>-2.6024737797333678E-6</v>
+        <v>6.986486992501918E-6</v>
       </c>
       <c r="N18">
-        <v>-1.6264708935952327E-6</v>
+        <v>7.6682590932723478E-6</v>
       </c>
       <c r="O18">
-        <v>-1.628611982096819E-5</v>
+        <v>-7.0294863704989715E-6</v>
       </c>
       <c r="P18">
-        <v>-1.3715779983177077E-5</v>
+        <v>-7.2444222984998187E-6</v>
       </c>
       <c r="Q18">
-        <v>-1.4570401343359713E-5</v>
+        <v>-7.2741288758516749E-6</v>
       </c>
       <c r="R18">
-        <v>-1.3648973854005952E-5</v>
+        <v>-6.7509325117572262E-6</v>
       </c>
       <c r="S18">
-        <v>5.5390434027278101E-4</v>
+        <v>3.2898316777501662E-4</v>
       </c>
       <c r="T18">
-        <v>7.5355750070279541E-5</v>
+        <v>3.6333207544117782E-5</v>
       </c>
       <c r="U18">
-        <v>-5.4862151394057946E-5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-5.3032578282413454E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>32</v>
       </c>
       <c r="B19">
-        <v>0.15655933932919541</v>
+        <v>0.34243793825525409</v>
       </c>
       <c r="C19">
-        <v>-1.3182963464722673E-6</v>
+        <v>1.0859807524735428E-7</v>
       </c>
       <c r="D19">
-        <v>3.0216140695887568E-9</v>
+        <v>-4.8004146155435656E-9</v>
       </c>
       <c r="E19">
-        <v>-1.5244330856000703E-5</v>
+        <v>8.4742053283127635E-6</v>
       </c>
       <c r="F19">
-        <v>-2.4103741254495447E-5</v>
+        <v>2.5084361320302545E-6</v>
       </c>
       <c r="G19">
-        <v>3.0591375685384943E-7</v>
+        <v>-1.1966458059233124E-7</v>
       </c>
       <c r="H19">
-        <v>8.2223304118498791E-7</v>
+        <v>1.1652404752504325E-7</v>
       </c>
       <c r="I19">
-        <v>5.8557025098306829E-6</v>
+        <v>6.3512605936314039E-6</v>
       </c>
       <c r="J19">
-        <v>-1.9693281318273898E-6</v>
+        <v>-2.8896204133339678E-6</v>
       </c>
       <c r="K19">
-        <v>2.7083623310090318E-5</v>
+        <v>1.4088926509158478E-5</v>
       </c>
       <c r="L19">
-        <v>2.4727574391197626E-5</v>
+        <v>1.0878204770852845E-5</v>
       </c>
       <c r="M19">
-        <v>4.0305216144007191E-6</v>
+        <v>8.3019173600794072E-7</v>
       </c>
       <c r="N19">
-        <v>5.2737302667064419E-6</v>
+        <v>2.5789043757884956E-6</v>
       </c>
       <c r="O19">
-        <v>-9.4574926483285218E-6</v>
+        <v>-5.7791089118610887E-6</v>
       </c>
       <c r="P19">
-        <v>-1.402442678436255E-5</v>
+        <v>-8.9778054071919593E-6</v>
       </c>
       <c r="Q19">
-        <v>-1.291030701853572E-5</v>
+        <v>-5.5337612029327797E-6</v>
       </c>
       <c r="R19">
-        <v>-1.5585915883907392E-5</v>
+        <v>-7.0732731151443044E-6</v>
       </c>
       <c r="S19">
-        <v>7.5355750070279541E-5</v>
+        <v>3.6333207544117782E-5</v>
       </c>
       <c r="T19">
-        <v>8.6002343691424243E-4</v>
+        <v>4.0621042256883068E-4</v>
       </c>
       <c r="U19">
-        <v>-2.4995082133169119E-5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-3.478534136014451E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>33</v>
       </c>
       <c r="B20">
-        <v>-2.5129923012969702</v>
+        <v>-1.3907974610620719</v>
       </c>
       <c r="C20">
-        <v>-6.3194152414876672E-4</v>
+        <v>-3.7766123861744888E-4</v>
       </c>
       <c r="D20">
-        <v>6.4173455911124541E-6</v>
+        <v>3.8095274903245802E-6</v>
       </c>
       <c r="E20">
-        <v>-2.9991001354662452E-3</v>
+        <v>-2.033853749460027E-3</v>
       </c>
       <c r="F20">
-        <v>-3.7518913086700507E-3</v>
+        <v>-2.3490968869317608E-3</v>
       </c>
       <c r="G20">
-        <v>6.325575096781303E-5</v>
+        <v>4.4243310723193496E-5</v>
       </c>
       <c r="H20">
-        <v>7.6169817088135103E-5</v>
+        <v>4.8957220323762346E-5</v>
       </c>
       <c r="I20">
-        <v>4.4286604403342148E-4</v>
+        <v>1.2648548116214286E-4</v>
       </c>
       <c r="J20">
-        <v>2.4277059330810722E-4</v>
+        <v>3.1597572700321443E-4</v>
       </c>
       <c r="K20">
-        <v>-9.1490930182491839E-3</v>
+        <v>-9.540216634741687E-3</v>
       </c>
       <c r="L20">
-        <v>-9.1058309629993769E-3</v>
+        <v>-9.5005732998754873E-3</v>
       </c>
       <c r="M20">
-        <v>-9.1359273568503551E-3</v>
+        <v>-9.4883712065756288E-3</v>
       </c>
       <c r="N20">
-        <v>-9.6031873537355313E-3</v>
+        <v>-9.7169261594593978E-3</v>
       </c>
       <c r="O20">
-        <v>-4.137502615364964E-4</v>
+        <v>-2.0101678117440756E-4</v>
       </c>
       <c r="P20">
-        <v>-3.8953171722350095E-4</v>
+        <v>-2.0520736947215594E-4</v>
       </c>
       <c r="Q20">
-        <v>-3.9273945154040307E-4</v>
+        <v>-1.9225865267842715E-4</v>
       </c>
       <c r="R20">
-        <v>-3.7869882246899358E-4</v>
+        <v>-1.9771451001778209E-4</v>
       </c>
       <c r="S20">
-        <v>-5.4862151394057946E-5</v>
+        <v>-5.3032578282413454E-5</v>
       </c>
       <c r="T20">
-        <v>-2.4995082133169119E-5</v>
+        <v>-3.478534136014451E-5</v>
       </c>
       <c r="U20">
-        <v>2.3646709350612485E-2</v>
+        <v>1.8266282010570491E-2</v>
       </c>
     </row>
   </sheetData>

--- a/input/reg_employmentSelection.xlsx
+++ b/input/reg_employmentSelection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1600CAEA-F849-4B0B-997F-773A5EAEEBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CA15A4-983A-441A-93AB-EA15CA6F0775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-83" yWindow="0" windowWidth="14566" windowHeight="17363" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -733,70 +733,70 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>-1.4608447354950025</v>
+        <v>-1.4795976969130853</v>
       </c>
       <c r="C2">
-        <v>9.6295266674577566E-4</v>
+        <v>8.7054194876326095E-4</v>
       </c>
       <c r="D2">
-        <v>5.9441596358152079E-5</v>
+        <v>5.5581014330928122E-5</v>
       </c>
       <c r="E2">
-        <v>4.3327230781620478E-5</v>
+        <v>4.0084900464899454E-5</v>
       </c>
       <c r="F2">
-        <v>-4.6974686199315156E-7</v>
+        <v>-4.3212026282148085E-7</v>
       </c>
       <c r="G2">
-        <v>-1.3033044856263371E-4</v>
+        <v>-7.2290674711242566E-5</v>
       </c>
       <c r="H2">
-        <v>-4.3193550475469045E-4</v>
+        <v>-3.3620285641154895E-4</v>
       </c>
       <c r="I2">
-        <v>2.5729554219048063E-6</v>
+        <v>1.3656186949231316E-6</v>
       </c>
       <c r="J2">
-        <v>8.2010738452522007E-6</v>
+        <v>6.3754149551958655E-6</v>
       </c>
       <c r="K2">
-        <v>2.0177209077014975E-5</v>
+        <v>1.5764689544986956E-5</v>
       </c>
       <c r="L2">
-        <v>2.9784664690818169E-5</v>
+        <v>2.1723789876394775E-5</v>
       </c>
       <c r="M2">
-        <v>8.1876726324516306E-6</v>
+        <v>7.2305537822838612E-6</v>
       </c>
       <c r="N2">
-        <v>1.1086614158069231E-5</v>
+        <v>1.0818958299622168E-5</v>
       </c>
       <c r="O2">
-        <v>1.5018479845028889E-5</v>
+        <v>1.4584018196135294E-5</v>
       </c>
       <c r="P2">
-        <v>1.2341817298956942E-6</v>
+        <v>3.1032994293324714E-6</v>
       </c>
       <c r="Q2">
-        <v>6.7526019448213863E-6</v>
+        <v>1.5122123244031647E-6</v>
       </c>
       <c r="R2">
-        <v>4.635829723761442E-6</v>
+        <v>-6.5621002516658005E-7</v>
       </c>
       <c r="S2">
-        <v>2.7444682554055377E-6</v>
+        <v>-3.0596266669667003E-6</v>
       </c>
       <c r="T2">
-        <v>-2.5517132136989691E-6</v>
+        <v>-7.5688596822490105E-6</v>
       </c>
       <c r="U2">
-        <v>-6.3480531339584944E-6</v>
+        <v>-4.4704349273525095E-6</v>
       </c>
       <c r="V2">
-        <v>-4.372955893652053E-6</v>
+        <v>-3.0526736742708037E-6</v>
       </c>
       <c r="W2">
-        <v>-1.0071389860635052E-3</v>
+        <v>-9.2640910328123534E-4</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.45">
@@ -804,70 +804,70 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>-1.5881339293260801</v>
+        <v>-1.565166595850781</v>
       </c>
       <c r="C3">
-        <v>5.9441596358152079E-5</v>
+        <v>5.5581014330928122E-5</v>
       </c>
       <c r="D3">
-        <v>1.2778349095834182E-4</v>
+        <v>1.3563386504868952E-4</v>
       </c>
       <c r="E3">
-        <v>7.2915211408958606E-6</v>
+        <v>8.0884296044811577E-6</v>
       </c>
       <c r="F3">
-        <v>-7.9464115086728163E-8</v>
+        <v>-8.9106939849960315E-8</v>
       </c>
       <c r="G3">
-        <v>3.5420492954856429E-6</v>
+        <v>4.7488727612098627E-6</v>
       </c>
       <c r="H3">
-        <v>8.069157641759884E-6</v>
+        <v>1.0510273501836411E-5</v>
       </c>
       <c r="I3">
-        <v>-3.600429131642144E-7</v>
+        <v>-5.0923462321196158E-7</v>
       </c>
       <c r="J3">
-        <v>-8.243753037895196E-7</v>
+        <v>-1.0076794901773679E-6</v>
       </c>
       <c r="K3">
-        <v>-2.2032535471422582E-6</v>
+        <v>-2.7700580220287097E-6</v>
       </c>
       <c r="L3">
-        <v>-7.7662538781118552E-6</v>
+        <v>-1.1463017764926325E-5</v>
       </c>
       <c r="M3">
-        <v>1.3856301277964081E-5</v>
+        <v>1.6758419471655074E-5</v>
       </c>
       <c r="N3">
-        <v>2.5613985993846411E-5</v>
+        <v>2.9753590214786791E-5</v>
       </c>
       <c r="O3">
-        <v>3.3767974050249005E-5</v>
+        <v>3.8130981443472434E-5</v>
       </c>
       <c r="P3">
-        <v>3.375804363539819E-5</v>
+        <v>3.8914969934961287E-5</v>
       </c>
       <c r="Q3">
-        <v>4.3210443102132539E-6</v>
+        <v>1.4266278991035194E-6</v>
       </c>
       <c r="R3">
-        <v>4.9015951912944429E-6</v>
+        <v>1.5448348823321486E-6</v>
       </c>
       <c r="S3">
-        <v>1.8897251609308048E-6</v>
+        <v>-1.987255890533169E-6</v>
       </c>
       <c r="T3">
-        <v>2.3549807470576682E-6</v>
+        <v>-1.3868877475555163E-6</v>
       </c>
       <c r="U3">
-        <v>-1.0356635618192767E-5</v>
+        <v>-7.8764735067822952E-6</v>
       </c>
       <c r="V3">
-        <v>-6.1018550897357862E-6</v>
+        <v>-5.4227109913762549E-6</v>
       </c>
       <c r="W3">
-        <v>-2.0899807815479211E-4</v>
+        <v>-2.1789354324600835E-4</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.45">
@@ -875,70 +875,70 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.1035531451298726</v>
+        <v>9.4128368263700912E-2</v>
       </c>
       <c r="C4">
-        <v>4.3327230781620478E-5</v>
+        <v>4.0084900464899454E-5</v>
       </c>
       <c r="D4">
-        <v>7.2915211408958606E-6</v>
+        <v>8.0884296044811577E-6</v>
       </c>
       <c r="E4">
-        <v>1.4204925095800279E-5</v>
+        <v>1.3582578071297647E-5</v>
       </c>
       <c r="F4">
-        <v>-1.6008607183456622E-7</v>
+        <v>-1.5231083561763933E-7</v>
       </c>
       <c r="G4">
-        <v>2.3654644365677367E-5</v>
+        <v>2.7621024489903275E-5</v>
       </c>
       <c r="H4">
-        <v>3.4610447658408547E-5</v>
+        <v>3.9932894649941488E-5</v>
       </c>
       <c r="I4">
-        <v>-5.1145688868108626E-7</v>
+        <v>-6.1077770029391571E-7</v>
       </c>
       <c r="J4">
-        <v>-6.6282610588853965E-7</v>
+        <v>-7.9391777538433774E-7</v>
       </c>
       <c r="K4">
-        <v>-6.3170938595463141E-6</v>
+        <v>-5.9645385357996262E-6</v>
       </c>
       <c r="L4">
-        <v>-1.3849836575965802E-5</v>
+        <v>-1.361963482508444E-5</v>
       </c>
       <c r="M4">
-        <v>1.0984549845269374E-6</v>
+        <v>8.9402715318750341E-7</v>
       </c>
       <c r="N4">
-        <v>2.2588385306903226E-6</v>
+        <v>1.9650833437429981E-6</v>
       </c>
       <c r="O4">
-        <v>1.9215228275371477E-6</v>
+        <v>1.6317555181854333E-6</v>
       </c>
       <c r="P4">
-        <v>7.6049862341572244E-6</v>
+        <v>7.0733974132739116E-6</v>
       </c>
       <c r="Q4">
-        <v>2.2437707567036377E-7</v>
+        <v>-2.7356808553915465E-8</v>
       </c>
       <c r="R4">
-        <v>1.3273663969615076E-6</v>
+        <v>9.6070412710004455E-7</v>
       </c>
       <c r="S4">
-        <v>5.9882063365977332E-7</v>
+        <v>1.8790536020946648E-7</v>
       </c>
       <c r="T4">
-        <v>5.3592793558268205E-7</v>
+        <v>2.226339046591432E-7</v>
       </c>
       <c r="U4">
-        <v>1.2135077090261731E-6</v>
+        <v>1.297603651645328E-6</v>
       </c>
       <c r="V4">
-        <v>4.7628137894048667E-7</v>
+        <v>5.8620499562661E-7</v>
       </c>
       <c r="W4">
-        <v>-2.9081705459502199E-4</v>
+        <v>-2.7872331672946637E-4</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.45">
@@ -946,70 +946,70 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>-1.2596753336715733E-3</v>
+        <v>-1.1766685792549193E-3</v>
       </c>
       <c r="C5">
-        <v>-4.6974686199315156E-7</v>
+        <v>-4.3212026282148085E-7</v>
       </c>
       <c r="D5">
-        <v>-7.9464115086728163E-8</v>
+        <v>-8.9106939849960315E-8</v>
       </c>
       <c r="E5">
-        <v>-1.6008607183456622E-7</v>
+        <v>-1.5231083561763933E-7</v>
       </c>
       <c r="F5">
-        <v>1.8862184939125443E-9</v>
+        <v>1.7903296651703277E-9</v>
       </c>
       <c r="G5">
-        <v>-2.742339016039967E-8</v>
+        <v>-6.6501359650301922E-8</v>
       </c>
       <c r="H5">
-        <v>-1.6818399578740445E-7</v>
+        <v>-2.2178828869147848E-7</v>
       </c>
       <c r="I5">
-        <v>-1.1947531667752394E-10</v>
+        <v>8.9236465453742174E-10</v>
       </c>
       <c r="J5">
-        <v>1.8887316118449874E-9</v>
+        <v>3.253324476645782E-9</v>
       </c>
       <c r="K5">
-        <v>5.6665230945447812E-8</v>
+        <v>5.3435942445696261E-8</v>
       </c>
       <c r="L5">
-        <v>1.8735983056675787E-7</v>
+        <v>1.8361198819226319E-7</v>
       </c>
       <c r="M5">
-        <v>-1.2828658902818423E-8</v>
+        <v>-9.972563606323345E-9</v>
       </c>
       <c r="N5">
-        <v>-2.5547934215911488E-8</v>
+        <v>-2.1316285980237566E-8</v>
       </c>
       <c r="O5">
-        <v>-9.5687092911662797E-9</v>
+        <v>-5.9562263874862892E-9</v>
       </c>
       <c r="P5">
-        <v>-5.6097093013073447E-8</v>
+        <v>-5.0804861833011967E-8</v>
       </c>
       <c r="Q5">
-        <v>-4.7178957666202475E-9</v>
+        <v>-1.7913657088318224E-9</v>
       </c>
       <c r="R5">
-        <v>-1.7315230998079155E-8</v>
+        <v>-1.291419578067874E-8</v>
       </c>
       <c r="S5">
-        <v>-1.0411923800154031E-8</v>
+        <v>-5.4651999217098371E-9</v>
       </c>
       <c r="T5">
-        <v>-8.3789964874922208E-9</v>
+        <v>-4.4512718549078175E-9</v>
       </c>
       <c r="U5">
-        <v>-1.7286517208351635E-8</v>
+        <v>-1.8208542004170864E-8</v>
       </c>
       <c r="V5">
-        <v>-1.0369790708769978E-8</v>
+        <v>-1.1514460926041617E-8</v>
       </c>
       <c r="W5">
-        <v>3.1152287131471001E-6</v>
+        <v>2.9613352609421576E-6</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.45">
@@ -1017,70 +1017,70 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.20701475057879357</v>
+        <v>5.6997235186946195E-2</v>
       </c>
       <c r="C6">
-        <v>-1.3033044856263371E-4</v>
+        <v>-7.2290674711242566E-5</v>
       </c>
       <c r="D6">
-        <v>3.5420492954856429E-6</v>
+        <v>4.7488727612098627E-6</v>
       </c>
       <c r="E6">
-        <v>2.3654644365677367E-5</v>
+        <v>2.7621024489903275E-5</v>
       </c>
       <c r="F6">
-        <v>-2.742339016039967E-8</v>
+        <v>-6.6501359650301922E-8</v>
       </c>
       <c r="G6">
-        <v>1.5887438842935853E-3</v>
+        <v>1.5306505960062501E-3</v>
       </c>
       <c r="H6">
-        <v>1.0410851347557614E-3</v>
+        <v>1.0423640752311105E-3</v>
       </c>
       <c r="I6">
-        <v>-3.5262819833378013E-5</v>
+        <v>-3.4096091007703211E-5</v>
       </c>
       <c r="J6">
-        <v>-2.3678242457824616E-5</v>
+        <v>-2.3685988844457524E-5</v>
       </c>
       <c r="K6">
-        <v>8.6434543024680966E-6</v>
+        <v>1.5103928089326363E-5</v>
       </c>
       <c r="L6">
-        <v>-3.215362028589726E-5</v>
+        <v>-2.1913920241469884E-5</v>
       </c>
       <c r="M6">
-        <v>-1.5877007313489194E-6</v>
+        <v>-3.6318128642716949E-6</v>
       </c>
       <c r="N6">
-        <v>-9.3455199920371807E-6</v>
+        <v>-1.1637269165688216E-5</v>
       </c>
       <c r="O6">
-        <v>-2.3119676196873553E-5</v>
+        <v>-2.4826536413763813E-5</v>
       </c>
       <c r="P6">
-        <v>3.2095283539373184E-6</v>
+        <v>-3.1555411751243729E-6</v>
       </c>
       <c r="Q6">
-        <v>-1.4790523549982556E-5</v>
+        <v>-9.7169022936648089E-6</v>
       </c>
       <c r="R6">
-        <v>-6.9529610714595409E-6</v>
+        <v>-1.7957205698641599E-6</v>
       </c>
       <c r="S6">
-        <v>-1.4903997662517025E-5</v>
+        <v>-8.7170833635017093E-6</v>
       </c>
       <c r="T6">
-        <v>-2.8960296384616957E-6</v>
+        <v>2.0344025876476733E-6</v>
       </c>
       <c r="U6">
-        <v>5.2578592900275747E-6</v>
+        <v>2.3988764383851093E-6</v>
       </c>
       <c r="V6">
-        <v>4.2128333080199568E-6</v>
+        <v>1.1892825358066596E-6</v>
       </c>
       <c r="W6">
-        <v>-9.4194074600342716E-4</v>
+        <v>-1.0503498140141418E-3</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.45">
@@ -1088,70 +1088,70 @@
         <v>22</v>
       </c>
       <c r="B7">
-        <v>-0.38229937524152424</v>
+        <v>-0.37727246750826859</v>
       </c>
       <c r="C7">
-        <v>-4.3193550475469045E-4</v>
+        <v>-3.3620285641154895E-4</v>
       </c>
       <c r="D7">
-        <v>8.069157641759884E-6</v>
+        <v>1.0510273501836411E-5</v>
       </c>
       <c r="E7">
-        <v>3.4610447658408547E-5</v>
+        <v>3.9932894649941488E-5</v>
       </c>
       <c r="F7">
-        <v>-1.6818399578740445E-7</v>
+        <v>-2.2178828869147848E-7</v>
       </c>
       <c r="G7">
-        <v>1.0410851347557614E-3</v>
+        <v>1.0423640752311105E-3</v>
       </c>
       <c r="H7">
-        <v>4.9438514573633486E-3</v>
+        <v>4.1173126344996834E-3</v>
       </c>
       <c r="I7">
-        <v>-2.3570664585406241E-5</v>
+        <v>-2.3592952066296877E-5</v>
       </c>
       <c r="J7">
-        <v>-1.0228649843875181E-4</v>
+        <v>-8.6825251814317116E-5</v>
       </c>
       <c r="K7">
-        <v>6.1889065877286139E-6</v>
+        <v>1.4276695838404548E-5</v>
       </c>
       <c r="L7">
-        <v>-3.3036477620689825E-5</v>
+        <v>-2.2056089508158189E-5</v>
       </c>
       <c r="M7">
-        <v>2.2914501473427634E-6</v>
+        <v>-3.1306231439696443E-6</v>
       </c>
       <c r="N7">
-        <v>-8.6025920347164138E-6</v>
+        <v>-1.5361231089342517E-5</v>
       </c>
       <c r="O7">
-        <v>-2.3707795422237823E-5</v>
+        <v>-3.0835513184887921E-5</v>
       </c>
       <c r="P7">
-        <v>1.4418801854130061E-5</v>
+        <v>4.0325239838640611E-6</v>
       </c>
       <c r="Q7">
-        <v>-2.0783728507237599E-5</v>
+        <v>-1.2035666169779082E-5</v>
       </c>
       <c r="R7">
-        <v>-6.187550922369687E-6</v>
+        <v>1.9345429530269688E-6</v>
       </c>
       <c r="S7">
-        <v>-1.7850892199371525E-5</v>
+        <v>-8.6762254488725795E-6</v>
       </c>
       <c r="T7">
-        <v>-1.3277618954707798E-6</v>
+        <v>7.1499692171339462E-6</v>
       </c>
       <c r="U7">
-        <v>3.0300654498722656E-6</v>
+        <v>2.6487642667056459E-6</v>
       </c>
       <c r="V7">
-        <v>-7.418382187778684E-6</v>
+        <v>-1.0644997710035504E-5</v>
       </c>
       <c r="W7">
-        <v>-1.1315367511289219E-3</v>
+        <v>-1.2696637984780477E-3</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.45">
@@ -1159,70 +1159,70 @@
         <v>23</v>
       </c>
       <c r="B8">
-        <v>-3.6658957086177489E-3</v>
+        <v>-1.8192478155128118E-3</v>
       </c>
       <c r="C8">
-        <v>2.5729554219048063E-6</v>
+        <v>1.3656186949231316E-6</v>
       </c>
       <c r="D8">
-        <v>-3.600429131642144E-7</v>
+        <v>-5.0923462321196158E-7</v>
       </c>
       <c r="E8">
-        <v>-5.1145688868108626E-7</v>
+        <v>-6.1077770029391571E-7</v>
       </c>
       <c r="F8">
-        <v>-1.1947531667752394E-10</v>
+        <v>8.9236465453742174E-10</v>
       </c>
       <c r="G8">
-        <v>-3.5262819833378013E-5</v>
+        <v>-3.4096091007703211E-5</v>
       </c>
       <c r="H8">
-        <v>-2.3570664585406241E-5</v>
+        <v>-2.3592952066296877E-5</v>
       </c>
       <c r="I8">
-        <v>8.3900055681297422E-7</v>
+        <v>8.1513492586628367E-7</v>
       </c>
       <c r="J8">
-        <v>5.7590965234265821E-7</v>
+        <v>5.7671287258718698E-7</v>
       </c>
       <c r="K8">
-        <v>-2.7482877907758986E-7</v>
+        <v>-3.8045062869109571E-7</v>
       </c>
       <c r="L8">
-        <v>7.9132047757514745E-7</v>
+        <v>6.0553531886841996E-7</v>
       </c>
       <c r="M8">
-        <v>-5.5687158279750794E-8</v>
+        <v>-1.0374973716642912E-8</v>
       </c>
       <c r="N8">
-        <v>2.1313002999560009E-7</v>
+        <v>2.256702094331024E-7</v>
       </c>
       <c r="O8">
-        <v>7.5666859330311475E-7</v>
+        <v>7.4478325230550432E-7</v>
       </c>
       <c r="P8">
-        <v>3.7322544335298081E-7</v>
+        <v>4.3940469272269788E-7</v>
       </c>
       <c r="Q8">
-        <v>2.653969988772113E-7</v>
+        <v>1.7627543013523805E-7</v>
       </c>
       <c r="R8">
-        <v>1.9036035145291696E-7</v>
+        <v>9.8615991236195701E-8</v>
       </c>
       <c r="S8">
-        <v>3.2175246345432441E-7</v>
+        <v>2.1325388753274664E-7</v>
       </c>
       <c r="T8">
-        <v>1.5325274168172059E-7</v>
+        <v>6.7463999772230512E-8</v>
       </c>
       <c r="U8">
-        <v>-1.9229053064119302E-8</v>
+        <v>2.1824740560576683E-8</v>
       </c>
       <c r="V8">
-        <v>2.4042571095013325E-8</v>
+        <v>7.4021356503784895E-8</v>
       </c>
       <c r="W8">
-        <v>2.011272543446515E-5</v>
+        <v>2.2697180907276281E-5</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.45">
@@ -1230,70 +1230,70 @@
         <v>24</v>
       </c>
       <c r="B9">
-        <v>5.2896944129911371E-3</v>
+        <v>4.4117674352285299E-3</v>
       </c>
       <c r="C9">
-        <v>8.2010738452522007E-6</v>
+        <v>6.3754149551958655E-6</v>
       </c>
       <c r="D9">
-        <v>-8.243753037895196E-7</v>
+        <v>-1.0076794901773679E-6</v>
       </c>
       <c r="E9">
-        <v>-6.6282610588853965E-7</v>
+        <v>-7.9391777538433774E-7</v>
       </c>
       <c r="F9">
-        <v>1.8887316118449874E-9</v>
+        <v>3.253324476645782E-9</v>
       </c>
       <c r="G9">
-        <v>-2.3678242457824616E-5</v>
+        <v>-2.3685988844457524E-5</v>
       </c>
       <c r="H9">
-        <v>-1.0228649843875181E-4</v>
+        <v>-8.6825251814317116E-5</v>
       </c>
       <c r="I9">
-        <v>5.7590965234265821E-7</v>
+        <v>5.7671287258718698E-7</v>
       </c>
       <c r="J9">
-        <v>2.3283688832344349E-6</v>
+        <v>2.0306700258460287E-6</v>
       </c>
       <c r="K9">
-        <v>-1.1175819779104784E-7</v>
+        <v>-2.4183921808821723E-7</v>
       </c>
       <c r="L9">
-        <v>7.2243640881555318E-7</v>
+        <v>5.4410360941763857E-7</v>
       </c>
       <c r="M9">
-        <v>3.8384632110115631E-7</v>
+        <v>4.5380336426807632E-7</v>
       </c>
       <c r="N9">
-        <v>9.7584514345277808E-7</v>
+        <v>1.0235060024599897E-6</v>
       </c>
       <c r="O9">
-        <v>1.8580913647236614E-6</v>
+        <v>1.8714918439556742E-6</v>
       </c>
       <c r="P9">
-        <v>1.2740349959162855E-6</v>
+        <v>1.3345410317816242E-6</v>
       </c>
       <c r="Q9">
-        <v>1.5018307897153039E-7</v>
+        <v>2.9461283420181171E-8</v>
       </c>
       <c r="R9">
-        <v>1.1406022179739603E-7</v>
+        <v>-1.0551487586854965E-8</v>
       </c>
       <c r="S9">
-        <v>6.1433014209848061E-8</v>
+        <v>-5.8900323248853818E-8</v>
       </c>
       <c r="T9">
-        <v>1.7213087891994205E-8</v>
+        <v>-1.0445765326728305E-7</v>
       </c>
       <c r="U9">
-        <v>1.2252019497901704E-7</v>
+        <v>1.0928597390634615E-7</v>
       </c>
       <c r="V9">
-        <v>3.4141072015470967E-7</v>
+        <v>3.8540229413403312E-7</v>
       </c>
       <c r="W9">
-        <v>2.1690548766772008E-5</v>
+        <v>2.4958046665649112E-5</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.45">
@@ -1301,70 +1301,70 @@
         <v>25</v>
       </c>
       <c r="B10">
-        <v>4.0704310465464792E-2</v>
+        <v>2.4721478835558548E-2</v>
       </c>
       <c r="C10">
-        <v>2.0177209077014975E-5</v>
+        <v>1.5764689544986956E-5</v>
       </c>
       <c r="D10">
-        <v>-2.2032535471422582E-6</v>
+        <v>-2.7700580220287097E-6</v>
       </c>
       <c r="E10">
-        <v>-6.3170938595463141E-6</v>
+        <v>-5.9645385357996262E-6</v>
       </c>
       <c r="F10">
-        <v>5.6665230945447812E-8</v>
+        <v>5.3435942445696261E-8</v>
       </c>
       <c r="G10">
-        <v>8.6434543024680966E-6</v>
+        <v>1.5103928089326363E-5</v>
       </c>
       <c r="H10">
-        <v>6.1889065877286139E-6</v>
+        <v>1.4276695838404548E-5</v>
       </c>
       <c r="I10">
-        <v>-2.7482877907758986E-7</v>
+        <v>-3.8045062869109571E-7</v>
       </c>
       <c r="J10">
-        <v>-1.1175819779104784E-7</v>
+        <v>-2.4183921808821723E-7</v>
       </c>
       <c r="K10">
-        <v>1.36286195258043E-4</v>
+        <v>1.3012616571067713E-4</v>
       </c>
       <c r="L10">
-        <v>-4.2103799979951362E-5</v>
+        <v>-4.1249172916659538E-5</v>
       </c>
       <c r="M10">
-        <v>-2.7962794483969703E-6</v>
+        <v>-5.5951772651958385E-6</v>
       </c>
       <c r="N10">
-        <v>-1.1093183895943622E-5</v>
+        <v>-1.2766440097290289E-5</v>
       </c>
       <c r="O10">
-        <v>-1.626941480027423E-5</v>
+        <v>-1.7520963058951876E-5</v>
       </c>
       <c r="P10">
-        <v>-1.439240645489255E-5</v>
+        <v>-1.5642172348163993E-5</v>
       </c>
       <c r="Q10">
-        <v>1.4350678412355024E-6</v>
+        <v>1.086435197159719E-6</v>
       </c>
       <c r="R10">
-        <v>-8.1488150705221541E-7</v>
+        <v>-8.2148035944350359E-7</v>
       </c>
       <c r="S10">
-        <v>-1.1406265512827754E-6</v>
+        <v>-1.0797906000025358E-6</v>
       </c>
       <c r="T10">
-        <v>5.0182438573440769E-7</v>
+        <v>3.9400017478046648E-7</v>
       </c>
       <c r="U10">
-        <v>7.3905003032557611E-7</v>
+        <v>6.9408311461128102E-7</v>
       </c>
       <c r="V10">
-        <v>9.7345295638107112E-7</v>
+        <v>9.8488014981063316E-7</v>
       </c>
       <c r="W10">
-        <v>9.7492124948647153E-5</v>
+        <v>9.3586865039786853E-5</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.45">
@@ -1372,70 +1372,70 @@
         <v>26</v>
       </c>
       <c r="B11">
-        <v>-6.7245083075304926E-2</v>
+        <v>-8.0048540029103832E-2</v>
       </c>
       <c r="C11">
-        <v>2.9784664690818169E-5</v>
+        <v>2.1723789876394775E-5</v>
       </c>
       <c r="D11">
-        <v>-7.7662538781118552E-6</v>
+        <v>-1.1463017764926325E-5</v>
       </c>
       <c r="E11">
-        <v>-1.3849836575965802E-5</v>
+        <v>-1.361963482508444E-5</v>
       </c>
       <c r="F11">
-        <v>1.8735983056675787E-7</v>
+        <v>1.8361198819226319E-7</v>
       </c>
       <c r="G11">
-        <v>-3.215362028589726E-5</v>
+        <v>-2.1913920241469884E-5</v>
       </c>
       <c r="H11">
-        <v>-3.3036477620689825E-5</v>
+        <v>-2.2056089508158189E-5</v>
       </c>
       <c r="I11">
-        <v>7.9132047757514745E-7</v>
+        <v>6.0553531886841996E-7</v>
       </c>
       <c r="J11">
-        <v>7.2243640881555318E-7</v>
+        <v>5.4410360941763857E-7</v>
       </c>
       <c r="K11">
-        <v>-4.2103799979951362E-5</v>
+        <v>-4.1249172916659538E-5</v>
       </c>
       <c r="L11">
-        <v>1.50072895397211E-4</v>
+        <v>1.4364193228359393E-4</v>
       </c>
       <c r="M11">
-        <v>-3.0122087507153806E-7</v>
+        <v>1.4296845528931064E-7</v>
       </c>
       <c r="N11">
-        <v>-2.6543941537296526E-6</v>
+        <v>-2.549074428833775E-6</v>
       </c>
       <c r="O11">
-        <v>-6.5106201338163043E-6</v>
+        <v>-6.3806443192428197E-6</v>
       </c>
       <c r="P11">
-        <v>-5.2365639839163739E-6</v>
+        <v>-4.757775180731937E-6</v>
       </c>
       <c r="Q11">
-        <v>-2.4551450486649013E-6</v>
+        <v>-2.9837988984069753E-6</v>
       </c>
       <c r="R11">
-        <v>-1.6813461660369798E-6</v>
+        <v>-1.9354578360677096E-6</v>
       </c>
       <c r="S11">
-        <v>-3.4480613207151528E-6</v>
+        <v>-3.6685217657862115E-6</v>
       </c>
       <c r="T11">
-        <v>-2.8001286502476894E-6</v>
+        <v>-2.9208372268811004E-6</v>
       </c>
       <c r="U11">
-        <v>-2.4305230281734156E-6</v>
+        <v>-2.370413280862765E-6</v>
       </c>
       <c r="V11">
-        <v>-2.7836418475961068E-6</v>
+        <v>-2.7219532701850374E-6</v>
       </c>
       <c r="W11">
-        <v>1.9849925595048524E-4</v>
+        <v>1.9825061827939263E-4</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.45">
@@ -1443,70 +1443,70 @@
         <v>27</v>
       </c>
       <c r="B12">
-        <v>0.19954212694708759</v>
+        <v>0.1663550518068429</v>
       </c>
       <c r="C12">
-        <v>8.1876726324516306E-6</v>
+        <v>7.2305537822838612E-6</v>
       </c>
       <c r="D12">
-        <v>1.3856301277964081E-5</v>
+        <v>1.6758419471655074E-5</v>
       </c>
       <c r="E12">
-        <v>1.0984549845269374E-6</v>
+        <v>8.9402715318750341E-7</v>
       </c>
       <c r="F12">
-        <v>-1.2828658902818423E-8</v>
+        <v>-9.972563606323345E-9</v>
       </c>
       <c r="G12">
-        <v>-1.5877007313489194E-6</v>
+        <v>-3.6318128642716949E-6</v>
       </c>
       <c r="H12">
-        <v>2.2914501473427634E-6</v>
+        <v>-3.1306231439696443E-6</v>
       </c>
       <c r="I12">
-        <v>-5.5687158279750794E-8</v>
+        <v>-1.0374973716642912E-8</v>
       </c>
       <c r="J12">
-        <v>3.8384632110115631E-7</v>
+        <v>4.5380336426807632E-7</v>
       </c>
       <c r="K12">
-        <v>-2.7962794483969703E-6</v>
+        <v>-5.5951772651958385E-6</v>
       </c>
       <c r="L12">
-        <v>-3.0122087507153806E-7</v>
+        <v>1.4296845528931064E-7</v>
       </c>
       <c r="M12">
-        <v>6.538829631341397E-3</v>
+        <v>5.9745633286844846E-3</v>
       </c>
       <c r="N12">
-        <v>5.9645822445313877E-3</v>
+        <v>5.4375057772603069E-3</v>
       </c>
       <c r="O12">
-        <v>5.9660467838965284E-3</v>
+        <v>5.4397518372563767E-3</v>
       </c>
       <c r="P12">
-        <v>5.9652997010630777E-3</v>
+        <v>5.4392579579181331E-3</v>
       </c>
       <c r="Q12">
-        <v>1.1143742849602332E-6</v>
+        <v>2.3452265213325942E-6</v>
       </c>
       <c r="R12">
-        <v>-4.6469278404674035E-6</v>
+        <v>-5.6486047224755696E-6</v>
       </c>
       <c r="S12">
-        <v>-1.2798995553226319E-6</v>
+        <v>-7.6260019117689316E-7</v>
       </c>
       <c r="T12">
-        <v>-3.9338977068127667E-6</v>
+        <v>-3.8834890452222497E-6</v>
       </c>
       <c r="U12">
-        <v>4.8221007072414511E-7</v>
+        <v>8.2113461421459585E-7</v>
       </c>
       <c r="V12">
-        <v>2.9096555077623169E-6</v>
+        <v>1.8103120114257678E-6</v>
       </c>
       <c r="W12">
-        <v>-5.9861037050105651E-3</v>
+        <v>-5.4549512666229949E-3</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.45">
@@ -1514,70 +1514,70 @@
         <v>28</v>
       </c>
       <c r="B13">
-        <v>0.40681754235012502</v>
+        <v>0.3608528072477738</v>
       </c>
       <c r="C13">
-        <v>1.1086614158069231E-5</v>
+        <v>1.0818958299622168E-5</v>
       </c>
       <c r="D13">
-        <v>2.5613985993846411E-5</v>
+        <v>2.9753590214786791E-5</v>
       </c>
       <c r="E13">
-        <v>2.2588385306903226E-6</v>
+        <v>1.9650833437429981E-6</v>
       </c>
       <c r="F13">
-        <v>-2.5547934215911488E-8</v>
+        <v>-2.1316285980237566E-8</v>
       </c>
       <c r="G13">
-        <v>-9.3455199920371807E-6</v>
+        <v>-1.1637269165688216E-5</v>
       </c>
       <c r="H13">
-        <v>-8.6025920347164138E-6</v>
+        <v>-1.5361231089342517E-5</v>
       </c>
       <c r="I13">
-        <v>2.1313002999560009E-7</v>
+        <v>2.256702094331024E-7</v>
       </c>
       <c r="J13">
-        <v>9.7584514345277808E-7</v>
+        <v>1.0235060024599897E-6</v>
       </c>
       <c r="K13">
-        <v>-1.1093183895943622E-5</v>
+        <v>-1.2766440097290289E-5</v>
       </c>
       <c r="L13">
-        <v>-2.6543941537296526E-6</v>
+        <v>-2.549074428833775E-6</v>
       </c>
       <c r="M13">
-        <v>5.9645822445313877E-3</v>
+        <v>5.4375057772603069E-3</v>
       </c>
       <c r="N13">
-        <v>6.0698896224999355E-3</v>
+        <v>5.5390658617784794E-3</v>
       </c>
       <c r="O13">
-        <v>5.9759757545454796E-3</v>
+        <v>5.4502350386245214E-3</v>
       </c>
       <c r="P13">
-        <v>5.9771492202911128E-3</v>
+        <v>5.4517187105231311E-3</v>
       </c>
       <c r="Q13">
-        <v>2.6570658906978443E-6</v>
+        <v>3.1771538194618813E-6</v>
       </c>
       <c r="R13">
-        <v>-1.6400107835103876E-6</v>
+        <v>-3.2161405785187874E-6</v>
       </c>
       <c r="S13">
-        <v>1.6231311468397881E-6</v>
+        <v>1.5595710880360629E-6</v>
       </c>
       <c r="T13">
-        <v>-2.0093568213261625E-6</v>
+        <v>-2.3155935920831007E-6</v>
       </c>
       <c r="U13">
-        <v>-1.2939428223958788E-6</v>
+        <v>-1.7994954644783449E-7</v>
       </c>
       <c r="V13">
-        <v>1.9818298912544804E-6</v>
+        <v>8.2529310360442115E-7</v>
       </c>
       <c r="W13">
-        <v>-6.0209218294330485E-3</v>
+        <v>-5.4884180877261953E-3</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.45">
@@ -1585,70 +1585,70 @@
         <v>37</v>
       </c>
       <c r="B14">
-        <v>0.441236132492552</v>
+        <v>0.37981562840737909</v>
       </c>
       <c r="C14">
-        <v>1.5018479845028889E-5</v>
+        <v>1.4584018196135294E-5</v>
       </c>
       <c r="D14">
-        <v>3.3767974050249005E-5</v>
+        <v>3.8130981443472434E-5</v>
       </c>
       <c r="E14">
-        <v>1.9215228275371477E-6</v>
+        <v>1.6317555181854333E-6</v>
       </c>
       <c r="F14">
-        <v>-9.5687092911662797E-9</v>
+        <v>-5.9562263874862892E-9</v>
       </c>
       <c r="G14">
-        <v>-2.3119676196873553E-5</v>
+        <v>-2.4826536413763813E-5</v>
       </c>
       <c r="H14">
-        <v>-2.3707795422237823E-5</v>
+        <v>-3.0835513184887921E-5</v>
       </c>
       <c r="I14">
-        <v>7.5666859330311475E-7</v>
+        <v>7.4478325230550432E-7</v>
       </c>
       <c r="J14">
-        <v>1.8580913647236614E-6</v>
+        <v>1.8714918439556742E-6</v>
       </c>
       <c r="K14">
-        <v>-1.626941480027423E-5</v>
+        <v>-1.7520963058951876E-5</v>
       </c>
       <c r="L14">
-        <v>-6.5106201338163043E-6</v>
+        <v>-6.3806443192428197E-6</v>
       </c>
       <c r="M14">
-        <v>5.9660467838965284E-3</v>
+        <v>5.4397518372563767E-3</v>
       </c>
       <c r="N14">
-        <v>5.9759757545454796E-3</v>
+        <v>5.4502350386245214E-3</v>
       </c>
       <c r="O14">
-        <v>6.0364009140045629E-3</v>
+        <v>5.5093044911991521E-3</v>
       </c>
       <c r="P14">
-        <v>6.0084677978133596E-3</v>
+        <v>5.4827912271014755E-3</v>
       </c>
       <c r="Q14">
-        <v>5.2917238915084095E-7</v>
+        <v>1.5346253240011262E-6</v>
       </c>
       <c r="R14">
-        <v>-2.0058718627798534E-6</v>
+        <v>-3.2849574443173283E-6</v>
       </c>
       <c r="S14">
-        <v>-1.4680043384195096E-7</v>
+        <v>-4.0139986464531334E-8</v>
       </c>
       <c r="T14">
-        <v>-1.612559253635898E-6</v>
+        <v>-1.8610600010786579E-6</v>
       </c>
       <c r="U14">
-        <v>-4.4557598212428609E-6</v>
+        <v>-3.1326024948988233E-6</v>
       </c>
       <c r="V14">
-        <v>-4.1613267674991045E-6</v>
+        <v>-4.3347681614941383E-6</v>
       </c>
       <c r="W14">
-        <v>-6.0599273410070374E-3</v>
+        <v>-5.5265647423527499E-3</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.45">
@@ -1656,70 +1656,70 @@
         <v>38</v>
       </c>
       <c r="B15">
-        <v>0.45588998708480438</v>
+        <v>0.38648142912967892</v>
       </c>
       <c r="C15">
-        <v>1.2341817298956942E-6</v>
+        <v>3.1032994293324714E-6</v>
       </c>
       <c r="D15">
-        <v>3.375804363539819E-5</v>
+        <v>3.8914969934961287E-5</v>
       </c>
       <c r="E15">
-        <v>7.6049862341572244E-6</v>
+        <v>7.0733974132739116E-6</v>
       </c>
       <c r="F15">
-        <v>-5.6097093013073447E-8</v>
+        <v>-5.0804861833011967E-8</v>
       </c>
       <c r="G15">
-        <v>3.2095283539373184E-6</v>
+        <v>-3.1555411751243729E-6</v>
       </c>
       <c r="H15">
-        <v>1.4418801854130061E-5</v>
+        <v>4.0325239838640611E-6</v>
       </c>
       <c r="I15">
-        <v>3.7322544335298081E-7</v>
+        <v>4.3940469272269788E-7</v>
       </c>
       <c r="J15">
-        <v>1.2740349959162855E-6</v>
+        <v>1.3345410317816242E-6</v>
       </c>
       <c r="K15">
-        <v>-1.439240645489255E-5</v>
+        <v>-1.5642172348163993E-5</v>
       </c>
       <c r="L15">
-        <v>-5.2365639839163739E-6</v>
+        <v>-4.757775180731937E-6</v>
       </c>
       <c r="M15">
-        <v>5.9652997010630777E-3</v>
+        <v>5.4392579579181331E-3</v>
       </c>
       <c r="N15">
-        <v>5.9771492202911128E-3</v>
+        <v>5.4517187105231311E-3</v>
       </c>
       <c r="O15">
-        <v>6.0084677978133596E-3</v>
+        <v>5.4827912271014755E-3</v>
       </c>
       <c r="P15">
-        <v>6.1672534180372785E-3</v>
+        <v>5.6319493345897923E-3</v>
       </c>
       <c r="Q15">
-        <v>3.0188562430969232E-6</v>
+        <v>4.077218808141597E-6</v>
       </c>
       <c r="R15">
-        <v>9.7756291355803908E-7</v>
+        <v>-3.4360717641853864E-7</v>
       </c>
       <c r="S15">
-        <v>-2.7702362356410773E-7</v>
+        <v>-3.0424558331726154E-8</v>
       </c>
       <c r="T15">
-        <v>2.3692158880118713E-6</v>
+        <v>2.3565899877191299E-6</v>
       </c>
       <c r="U15">
-        <v>-3.2307178068363509E-6</v>
+        <v>-1.8293152452719871E-6</v>
       </c>
       <c r="V15">
-        <v>-3.5451029239883484E-6</v>
+        <v>-3.5094853934578407E-6</v>
       </c>
       <c r="W15">
-        <v>-6.2334126859746345E-3</v>
+        <v>-5.6925040055099711E-3</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.45">
@@ -1727,70 +1727,70 @@
         <v>39</v>
       </c>
       <c r="B16">
-        <v>2.0021332352644361E-2</v>
+        <v>1.8780506357941987E-2</v>
       </c>
       <c r="C16">
-        <v>6.7526019448213863E-6</v>
+        <v>1.5122123244031647E-6</v>
       </c>
       <c r="D16">
-        <v>4.3210443102132539E-6</v>
+        <v>1.4266278991035194E-6</v>
       </c>
       <c r="E16">
-        <v>2.2437707567036377E-7</v>
+        <v>-2.7356808553915465E-8</v>
       </c>
       <c r="F16">
-        <v>-4.7178957666202475E-9</v>
+        <v>-1.7913657088318224E-9</v>
       </c>
       <c r="G16">
-        <v>-1.4790523549982556E-5</v>
+        <v>-9.7169022936648089E-6</v>
       </c>
       <c r="H16">
-        <v>-2.0783728507237599E-5</v>
+        <v>-1.2035666169779082E-5</v>
       </c>
       <c r="I16">
-        <v>2.653969988772113E-7</v>
+        <v>1.7627543013523805E-7</v>
       </c>
       <c r="J16">
-        <v>1.5018307897153039E-7</v>
+        <v>2.9461283420181171E-8</v>
       </c>
       <c r="K16">
-        <v>1.4350678412355024E-6</v>
+        <v>1.086435197159719E-6</v>
       </c>
       <c r="L16">
-        <v>-2.4551450486649013E-6</v>
+        <v>-2.9837988984069753E-6</v>
       </c>
       <c r="M16">
-        <v>1.1143742849602332E-6</v>
+        <v>2.3452265213325942E-6</v>
       </c>
       <c r="N16">
-        <v>2.6570658906978443E-6</v>
+        <v>3.1771538194618813E-6</v>
       </c>
       <c r="O16">
-        <v>5.2917238915084095E-7</v>
+        <v>1.5346253240011262E-6</v>
       </c>
       <c r="P16">
-        <v>3.0188562430969232E-6</v>
+        <v>4.077218808141597E-6</v>
       </c>
       <c r="Q16">
-        <v>2.763295118894679E-4</v>
+        <v>2.592335849442702E-4</v>
       </c>
       <c r="R16">
-        <v>1.3373649755008048E-4</v>
+        <v>1.2368258459742896E-4</v>
       </c>
       <c r="S16">
-        <v>1.3420539086749173E-4</v>
+        <v>1.2413259786913633E-4</v>
       </c>
       <c r="T16">
-        <v>1.3365760944491817E-4</v>
+        <v>1.2371309065618694E-4</v>
       </c>
       <c r="U16">
-        <v>-4.0364034309100157E-6</v>
+        <v>-3.5762467822914274E-6</v>
       </c>
       <c r="V16">
-        <v>-5.8056744653379087E-6</v>
+        <v>-5.4196530535933887E-6</v>
       </c>
       <c r="W16">
-        <v>-1.334105166655959E-4</v>
+        <v>-1.1871207397135515E-4</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.45">
@@ -1798,70 +1798,70 @@
         <v>36</v>
       </c>
       <c r="B17">
-        <v>5.335528302941682E-2</v>
+        <v>4.5034383872266943E-2</v>
       </c>
       <c r="C17">
-        <v>4.635829723761442E-6</v>
+        <v>-6.5621002516658005E-7</v>
       </c>
       <c r="D17">
-        <v>4.9015951912944429E-6</v>
+        <v>1.5448348823321486E-6</v>
       </c>
       <c r="E17">
-        <v>1.3273663969615076E-6</v>
+        <v>9.6070412710004455E-7</v>
       </c>
       <c r="F17">
-        <v>-1.7315230998079155E-8</v>
+        <v>-1.291419578067874E-8</v>
       </c>
       <c r="G17">
-        <v>-6.9529610714595409E-6</v>
+        <v>-1.7957205698641599E-6</v>
       </c>
       <c r="H17">
-        <v>-6.187550922369687E-6</v>
+        <v>1.9345429530269688E-6</v>
       </c>
       <c r="I17">
-        <v>1.9036035145291696E-7</v>
+        <v>9.8615991236195701E-8</v>
       </c>
       <c r="J17">
-        <v>1.1406022179739603E-7</v>
+        <v>-1.0551487586854965E-8</v>
       </c>
       <c r="K17">
-        <v>-8.1488150705221541E-7</v>
+        <v>-8.2148035944350359E-7</v>
       </c>
       <c r="L17">
-        <v>-1.6813461660369798E-6</v>
+        <v>-1.9354578360677096E-6</v>
       </c>
       <c r="M17">
-        <v>-4.6469278404674035E-6</v>
+        <v>-5.6486047224755696E-6</v>
       </c>
       <c r="N17">
-        <v>-1.6400107835103876E-6</v>
+        <v>-3.2161405785187874E-6</v>
       </c>
       <c r="O17">
-        <v>-2.0058718627798534E-6</v>
+        <v>-3.2849574443173283E-6</v>
       </c>
       <c r="P17">
-        <v>9.7756291355803908E-7</v>
+        <v>-3.4360717641853864E-7</v>
       </c>
       <c r="Q17">
-        <v>1.3373649755008048E-4</v>
+        <v>1.2368258459742896E-4</v>
       </c>
       <c r="R17">
-        <v>3.5345283984541243E-4</v>
+        <v>3.3502933242727395E-4</v>
       </c>
       <c r="S17">
-        <v>1.3373604657970387E-4</v>
+        <v>1.2375409744493643E-4</v>
       </c>
       <c r="T17">
-        <v>1.3371461993335162E-4</v>
+        <v>1.2385046002438575E-4</v>
       </c>
       <c r="U17">
-        <v>-2.0399616505403426E-6</v>
+        <v>-1.4845770063940109E-6</v>
       </c>
       <c r="V17">
-        <v>-3.1953388108194825E-6</v>
+        <v>-2.6705711635383005E-6</v>
       </c>
       <c r="W17">
-        <v>-1.5530765643467201E-4</v>
+        <v>-1.3673046724220519E-4</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.45">
@@ -1869,70 +1869,70 @@
         <v>29</v>
       </c>
       <c r="B18">
-        <v>6.0039284486208683E-2</v>
+        <v>5.3923243297688057E-2</v>
       </c>
       <c r="C18">
-        <v>2.7444682554055377E-6</v>
+        <v>-3.0596266669667003E-6</v>
       </c>
       <c r="D18">
-        <v>1.8897251609308048E-6</v>
+        <v>-1.987255890533169E-6</v>
       </c>
       <c r="E18">
-        <v>5.9882063365977332E-7</v>
+        <v>1.8790536020946648E-7</v>
       </c>
       <c r="F18">
-        <v>-1.0411923800154031E-8</v>
+        <v>-5.4651999217098371E-9</v>
       </c>
       <c r="G18">
-        <v>-1.4903997662517025E-5</v>
+        <v>-8.7170833635017093E-6</v>
       </c>
       <c r="H18">
-        <v>-1.7850892199371525E-5</v>
+        <v>-8.6762254488725795E-6</v>
       </c>
       <c r="I18">
-        <v>3.2175246345432441E-7</v>
+        <v>2.1325388753274664E-7</v>
       </c>
       <c r="J18">
-        <v>6.1433014209848061E-8</v>
+        <v>-5.8900323248853818E-8</v>
       </c>
       <c r="K18">
-        <v>-1.1406265512827754E-6</v>
+        <v>-1.0797906000025358E-6</v>
       </c>
       <c r="L18">
-        <v>-3.4480613207151528E-6</v>
+        <v>-3.6685217657862115E-6</v>
       </c>
       <c r="M18">
-        <v>-1.2798995553226319E-6</v>
+        <v>-7.6260019117689316E-7</v>
       </c>
       <c r="N18">
-        <v>1.6231311468397881E-6</v>
+        <v>1.5595710880360629E-6</v>
       </c>
       <c r="O18">
-        <v>-1.4680043384195096E-7</v>
+        <v>-4.0139986464531334E-8</v>
       </c>
       <c r="P18">
-        <v>-2.7702362356410773E-7</v>
+        <v>-3.0424558331726154E-8</v>
       </c>
       <c r="Q18">
-        <v>1.3420539086749173E-4</v>
+        <v>1.2413259786913633E-4</v>
       </c>
       <c r="R18">
-        <v>1.3373604657970387E-4</v>
+        <v>1.2375409744493643E-4</v>
       </c>
       <c r="S18">
-        <v>2.6551185745114146E-4</v>
+        <v>2.5060717786770111E-4</v>
       </c>
       <c r="T18">
-        <v>1.337307781801678E-4</v>
+        <v>1.2388775925886207E-4</v>
       </c>
       <c r="U18">
-        <v>-3.7627149280542058E-6</v>
+        <v>-3.2803202213041494E-6</v>
       </c>
       <c r="V18">
-        <v>-5.5840974928389694E-6</v>
+        <v>-5.0764171238355173E-6</v>
       </c>
       <c r="W18">
-        <v>-1.3533032276578753E-4</v>
+        <v>-1.1755102334224514E-4</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.45">
@@ -1940,70 +1940,70 @@
         <v>30</v>
       </c>
       <c r="B19">
-        <v>2.9316564221910674E-2</v>
+        <v>1.7336814957161873E-2</v>
       </c>
       <c r="C19">
-        <v>-2.5517132136989691E-6</v>
+        <v>-7.5688596822490105E-6</v>
       </c>
       <c r="D19">
-        <v>2.3549807470576682E-6</v>
+        <v>-1.3868877475555163E-6</v>
       </c>
       <c r="E19">
-        <v>5.3592793558268205E-7</v>
+        <v>2.226339046591432E-7</v>
       </c>
       <c r="F19">
-        <v>-8.3789964874922208E-9</v>
+        <v>-4.4512718549078175E-9</v>
       </c>
       <c r="G19">
-        <v>-2.8960296384616957E-6</v>
+        <v>2.0344025876476733E-6</v>
       </c>
       <c r="H19">
-        <v>-1.3277618954707798E-6</v>
+        <v>7.1499692171339462E-6</v>
       </c>
       <c r="I19">
-        <v>1.5325274168172059E-7</v>
+        <v>6.7463999772230512E-8</v>
       </c>
       <c r="J19">
-        <v>1.7213087891994205E-8</v>
+        <v>-1.0445765326728305E-7</v>
       </c>
       <c r="K19">
-        <v>5.0182438573440769E-7</v>
+        <v>3.9400017478046648E-7</v>
       </c>
       <c r="L19">
-        <v>-2.8001286502476894E-6</v>
+        <v>-2.9208372268811004E-6</v>
       </c>
       <c r="M19">
-        <v>-3.9338977068127667E-6</v>
+        <v>-3.8834890452222497E-6</v>
       </c>
       <c r="N19">
-        <v>-2.0093568213261625E-6</v>
+        <v>-2.3155935920831007E-6</v>
       </c>
       <c r="O19">
-        <v>-1.612559253635898E-6</v>
+        <v>-1.8610600010786579E-6</v>
       </c>
       <c r="P19">
-        <v>2.3692158880118713E-6</v>
+        <v>2.3565899877191299E-6</v>
       </c>
       <c r="Q19">
-        <v>1.3365760944491817E-4</v>
+        <v>1.2371309065618694E-4</v>
       </c>
       <c r="R19">
-        <v>1.3371461993335162E-4</v>
+        <v>1.2385046002438575E-4</v>
       </c>
       <c r="S19">
-        <v>1.337307781801678E-4</v>
+        <v>1.2388775925886207E-4</v>
       </c>
       <c r="T19">
-        <v>1.8900448045557097E-4</v>
+        <v>1.7722431142183921E-4</v>
       </c>
       <c r="U19">
-        <v>-2.9877432731657596E-6</v>
+        <v>-2.5848732628497911E-6</v>
       </c>
       <c r="V19">
-        <v>-3.9436246428751935E-6</v>
+        <v>-3.708829286399208E-6</v>
       </c>
       <c r="W19">
-        <v>-1.4019082113885434E-4</v>
+        <v>-1.242910927119851E-4</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.45">
@@ -2011,70 +2011,70 @@
         <v>31</v>
       </c>
       <c r="B20">
-        <v>0.33579058600187167</v>
+        <v>0.33787348365763842</v>
       </c>
       <c r="C20">
-        <v>-6.3480531339584944E-6</v>
+        <v>-4.4704349273525095E-6</v>
       </c>
       <c r="D20">
-        <v>-1.0356635618192767E-5</v>
+        <v>-7.8764735067822952E-6</v>
       </c>
       <c r="E20">
-        <v>1.2135077090261731E-6</v>
+        <v>1.297603651645328E-6</v>
       </c>
       <c r="F20">
-        <v>-1.7286517208351635E-8</v>
+        <v>-1.8208542004170864E-8</v>
       </c>
       <c r="G20">
-        <v>5.2578592900275747E-6</v>
+        <v>2.3988764383851093E-6</v>
       </c>
       <c r="H20">
-        <v>3.0300654498722656E-6</v>
+        <v>2.6487642667056459E-6</v>
       </c>
       <c r="I20">
-        <v>-1.9229053064119302E-8</v>
+        <v>2.1824740560576683E-8</v>
       </c>
       <c r="J20">
-        <v>1.2252019497901704E-7</v>
+        <v>1.0928597390634615E-7</v>
       </c>
       <c r="K20">
-        <v>7.3905003032557611E-7</v>
+        <v>6.9408311461128102E-7</v>
       </c>
       <c r="L20">
-        <v>-2.4305230281734156E-6</v>
+        <v>-2.370413280862765E-6</v>
       </c>
       <c r="M20">
-        <v>4.8221007072414511E-7</v>
+        <v>8.2113461421459585E-7</v>
       </c>
       <c r="N20">
-        <v>-1.2939428223958788E-6</v>
+        <v>-1.7994954644783449E-7</v>
       </c>
       <c r="O20">
-        <v>-4.4557598212428609E-6</v>
+        <v>-3.1326024948988233E-6</v>
       </c>
       <c r="P20">
-        <v>-3.2307178068363509E-6</v>
+        <v>-1.8293152452719871E-6</v>
       </c>
       <c r="Q20">
-        <v>-4.0364034309100157E-6</v>
+        <v>-3.5762467822914274E-6</v>
       </c>
       <c r="R20">
-        <v>-2.0399616505403426E-6</v>
+        <v>-1.4845770063940109E-6</v>
       </c>
       <c r="S20">
-        <v>-3.7627149280542058E-6</v>
+        <v>-3.2803202213041494E-6</v>
       </c>
       <c r="T20">
-        <v>-2.9877432731657596E-6</v>
+        <v>-2.5848732628497911E-6</v>
       </c>
       <c r="U20">
-        <v>2.303544981068181E-4</v>
+        <v>2.2123698953092487E-4</v>
       </c>
       <c r="V20">
-        <v>2.881128296972546E-5</v>
+        <v>2.726147808888532E-5</v>
       </c>
       <c r="W20">
-        <v>-3.9258657286508027E-5</v>
+        <v>-4.1714233171519149E-5</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.45">
@@ -2082,70 +2082,70 @@
         <v>32</v>
       </c>
       <c r="B21">
-        <v>0.25058453703089828</v>
+        <v>0.27443603212878315</v>
       </c>
       <c r="C21">
-        <v>-4.372955893652053E-6</v>
+        <v>-3.0526736742708037E-6</v>
       </c>
       <c r="D21">
-        <v>-6.1018550897357862E-6</v>
+        <v>-5.4227109913762549E-6</v>
       </c>
       <c r="E21">
-        <v>4.7628137894048667E-7</v>
+        <v>5.8620499562661E-7</v>
       </c>
       <c r="F21">
-        <v>-1.0369790708769978E-8</v>
+        <v>-1.1514460926041617E-8</v>
       </c>
       <c r="G21">
-        <v>4.2128333080199568E-6</v>
+        <v>1.1892825358066596E-6</v>
       </c>
       <c r="H21">
-        <v>-7.418382187778684E-6</v>
+        <v>-1.0644997710035504E-5</v>
       </c>
       <c r="I21">
-        <v>2.4042571095013325E-8</v>
+        <v>7.4021356503784895E-8</v>
       </c>
       <c r="J21">
-        <v>3.4141072015470967E-7</v>
+        <v>3.8540229413403312E-7</v>
       </c>
       <c r="K21">
-        <v>9.7345295638107112E-7</v>
+        <v>9.8488014981063316E-7</v>
       </c>
       <c r="L21">
-        <v>-2.7836418475961068E-6</v>
+        <v>-2.7219532701850374E-6</v>
       </c>
       <c r="M21">
-        <v>2.9096555077623169E-6</v>
+        <v>1.8103120114257678E-6</v>
       </c>
       <c r="N21">
-        <v>1.9818298912544804E-6</v>
+        <v>8.2529310360442115E-7</v>
       </c>
       <c r="O21">
-        <v>-4.1613267674991045E-6</v>
+        <v>-4.3347681614941383E-6</v>
       </c>
       <c r="P21">
-        <v>-3.5451029239883484E-6</v>
+        <v>-3.5094853934578407E-6</v>
       </c>
       <c r="Q21">
-        <v>-5.8056744653379087E-6</v>
+        <v>-5.4196530535933887E-6</v>
       </c>
       <c r="R21">
-        <v>-3.1953388108194825E-6</v>
+        <v>-2.6705711635383005E-6</v>
       </c>
       <c r="S21">
-        <v>-5.5840974928389694E-6</v>
+        <v>-5.0764171238355173E-6</v>
       </c>
       <c r="T21">
-        <v>-3.9436246428751935E-6</v>
+        <v>-3.708829286399208E-6</v>
       </c>
       <c r="U21">
-        <v>2.881128296972546E-5</v>
+        <v>2.726147808888532E-5</v>
       </c>
       <c r="V21">
-        <v>3.0724502307522732E-4</v>
+        <v>2.9348327543846011E-4</v>
       </c>
       <c r="W21">
-        <v>-2.272653648430121E-5</v>
+        <v>-2.3784017198132947E-5</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.45">
@@ -2153,70 +2153,70 @@
         <v>33</v>
       </c>
       <c r="B22">
-        <v>-2.412125956400724</v>
+        <v>-2.041210509347898</v>
       </c>
       <c r="C22">
-        <v>-1.0071389860635052E-3</v>
+        <v>-9.2640910328123534E-4</v>
       </c>
       <c r="D22">
-        <v>-2.0899807815479211E-4</v>
+        <v>-2.1789354324600835E-4</v>
       </c>
       <c r="E22">
-        <v>-2.9081705459502199E-4</v>
+        <v>-2.7872331672946637E-4</v>
       </c>
       <c r="F22">
-        <v>3.1152287131471001E-6</v>
+        <v>2.9613352609421576E-6</v>
       </c>
       <c r="G22">
-        <v>-9.4194074600342716E-4</v>
+        <v>-1.0503498140141418E-3</v>
       </c>
       <c r="H22">
-        <v>-1.1315367511289219E-3</v>
+        <v>-1.2696637984780477E-3</v>
       </c>
       <c r="I22">
-        <v>2.011272543446515E-5</v>
+        <v>2.2697180907276281E-5</v>
       </c>
       <c r="J22">
-        <v>2.1690548766772008E-5</v>
+        <v>2.4958046665649112E-5</v>
       </c>
       <c r="K22">
-        <v>9.7492124948647153E-5</v>
+        <v>9.3586865039786853E-5</v>
       </c>
       <c r="L22">
-        <v>1.9849925595048524E-4</v>
+        <v>1.9825061827939263E-4</v>
       </c>
       <c r="M22">
-        <v>-5.9861037050105651E-3</v>
+        <v>-5.4549512666229949E-3</v>
       </c>
       <c r="N22">
-        <v>-6.0209218294330485E-3</v>
+        <v>-5.4884180877261953E-3</v>
       </c>
       <c r="O22">
-        <v>-6.0599273410070374E-3</v>
+        <v>-5.5265647423527499E-3</v>
       </c>
       <c r="P22">
-        <v>-6.2334126859746345E-3</v>
+        <v>-5.6925040055099711E-3</v>
       </c>
       <c r="Q22">
-        <v>-1.334105166655959E-4</v>
+        <v>-1.1871207397135515E-4</v>
       </c>
       <c r="R22">
-        <v>-1.5530765643467201E-4</v>
+        <v>-1.3673046724220519E-4</v>
       </c>
       <c r="S22">
-        <v>-1.3533032276578753E-4</v>
+        <v>-1.1755102334224514E-4</v>
       </c>
       <c r="T22">
-        <v>-1.4019082113885434E-4</v>
+        <v>-1.242910927119851E-4</v>
       </c>
       <c r="U22">
-        <v>-3.9258657286508027E-5</v>
+        <v>-4.1714233171519149E-5</v>
       </c>
       <c r="V22">
-        <v>-2.272653648430121E-5</v>
+        <v>-2.3784017198132947E-5</v>
       </c>
       <c r="W22">
-        <v>1.2500317422219189E-2</v>
+        <v>1.1728592543883871E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2311,70 +2311,70 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>-1.5243773344874889</v>
+        <v>-1.5256020142030684</v>
       </c>
       <c r="C2">
-        <v>8.2941555221560984E-4</v>
+        <v>7.351901388040114E-4</v>
       </c>
       <c r="D2">
-        <v>5.4060994961732226E-5</v>
+        <v>5.33251909974775E-5</v>
       </c>
       <c r="E2">
-        <v>3.3997387550416536E-5</v>
+        <v>3.1124310147367263E-5</v>
       </c>
       <c r="F2">
-        <v>-3.8169698691379826E-7</v>
+        <v>-3.4309641631103952E-7</v>
       </c>
       <c r="G2">
-        <v>-8.2024934030524405E-5</v>
+        <v>-2.3954065616617549E-5</v>
       </c>
       <c r="H2">
-        <v>-3.4973090875863776E-4</v>
+        <v>-2.4977842069431525E-4</v>
       </c>
       <c r="I2">
-        <v>1.8367402058503615E-6</v>
+        <v>5.3785752158039071E-7</v>
       </c>
       <c r="J2">
-        <v>6.996385729844091E-6</v>
+        <v>4.9712013902939892E-6</v>
       </c>
       <c r="K2">
-        <v>1.6053978336893239E-5</v>
+        <v>1.3329100642160615E-5</v>
       </c>
       <c r="L2">
-        <v>-4.5569235597031728E-6</v>
+        <v>-7.114285879094987E-6</v>
       </c>
       <c r="M2">
-        <v>-3.0186940861043777E-6</v>
+        <v>-1.5444881009412E-6</v>
       </c>
       <c r="N2">
-        <v>2.6380482700732793E-6</v>
+        <v>4.5648230686193151E-6</v>
       </c>
       <c r="O2">
-        <v>6.2423502819273775E-6</v>
+        <v>7.961190710635991E-6</v>
       </c>
       <c r="P2">
-        <v>-3.2648960271286346E-6</v>
+        <v>1.480514849202814E-6</v>
       </c>
       <c r="Q2">
-        <v>7.1959925279693639E-6</v>
+        <v>1.2537504807410985E-6</v>
       </c>
       <c r="R2">
-        <v>1.2761169673540028E-6</v>
+        <v>-3.2227142674770954E-6</v>
       </c>
       <c r="S2">
-        <v>2.4191918747966222E-6</v>
+        <v>-3.8528218227503623E-6</v>
       </c>
       <c r="T2">
-        <v>-1.0015852300465435E-6</v>
+        <v>-6.9636358804511427E-6</v>
       </c>
       <c r="U2">
-        <v>-7.990994966092673E-6</v>
+        <v>-3.7344025063853172E-6</v>
       </c>
       <c r="V2">
-        <v>-2.1423882938798028E-6</v>
+        <v>-3.9717529034541488E-7</v>
       </c>
       <c r="W2">
-        <v>-7.4546865616241726E-4</v>
+        <v>-6.8738526544745795E-4</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.45">
@@ -2382,70 +2382,70 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>-1.4496400660284015</v>
+        <v>-1.4290758248785416</v>
       </c>
       <c r="C3">
-        <v>5.4060994961732226E-5</v>
+        <v>5.33251909974775E-5</v>
       </c>
       <c r="D3">
-        <v>1.355132691913395E-4</v>
+        <v>1.5675289156263727E-4</v>
       </c>
       <c r="E3">
-        <v>3.9836603557519314E-6</v>
+        <v>5.1785562828157235E-6</v>
       </c>
       <c r="F3">
-        <v>-4.5293062749568811E-8</v>
+        <v>-5.8848556753309212E-8</v>
       </c>
       <c r="G3">
-        <v>2.1523457268163117E-5</v>
+        <v>1.8519375897870153E-5</v>
       </c>
       <c r="H3">
-        <v>1.4359970506243508E-5</v>
+        <v>1.1982471411627594E-5</v>
       </c>
       <c r="I3">
-        <v>-1.8759298706443378E-7</v>
+        <v>-4.1652332543070674E-7</v>
       </c>
       <c r="J3">
-        <v>-3.1310814764874024E-7</v>
+        <v>-5.6716589807765832E-7</v>
       </c>
       <c r="K3">
-        <v>1.7926585287721779E-5</v>
+        <v>2.12113667510394E-5</v>
       </c>
       <c r="L3">
-        <v>2.2199729511521053E-6</v>
+        <v>3.2755094165966065E-7</v>
       </c>
       <c r="M3">
-        <v>6.8174883534379829E-6</v>
+        <v>1.0838740320127054E-5</v>
       </c>
       <c r="N3">
-        <v>2.6124475121720696E-5</v>
+        <v>3.360444681367523E-5</v>
       </c>
       <c r="O3">
-        <v>3.6998500785737748E-5</v>
+        <v>4.4992343937162E-5</v>
       </c>
       <c r="P3">
-        <v>3.7881574491580127E-5</v>
+        <v>4.6576726815357217E-5</v>
       </c>
       <c r="Q3">
-        <v>9.3926125757064221E-6</v>
+        <v>4.7523742628483124E-6</v>
       </c>
       <c r="R3">
-        <v>8.7429790980343397E-6</v>
+        <v>4.1631769048144894E-6</v>
       </c>
       <c r="S3">
-        <v>7.3752357360686691E-6</v>
+        <v>1.4098148350714732E-6</v>
       </c>
       <c r="T3">
-        <v>8.2667029123247681E-6</v>
+        <v>1.1702931028162063E-6</v>
       </c>
       <c r="U3">
-        <v>-1.2167256952009685E-5</v>
+        <v>-5.3568094622349558E-6</v>
       </c>
       <c r="V3">
-        <v>-6.972097867208136E-6</v>
+        <v>-3.6812858774055786E-6</v>
       </c>
       <c r="W3">
-        <v>-1.7181115487462776E-4</v>
+        <v>-1.8708866164124588E-4</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.45">
@@ -2453,70 +2453,70 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>3.9501005795621248E-2</v>
+        <v>2.6310115714585552E-2</v>
       </c>
       <c r="C4">
-        <v>3.3997387550416536E-5</v>
+        <v>3.1124310147367263E-5</v>
       </c>
       <c r="D4">
-        <v>3.9836603557519314E-6</v>
+        <v>5.1785562828157235E-6</v>
       </c>
       <c r="E4">
-        <v>1.1516437536120188E-5</v>
+        <v>1.0678797884498143E-5</v>
       </c>
       <c r="F4">
-        <v>-1.2565511349505903E-7</v>
+        <v>-1.1499023039996294E-7</v>
       </c>
       <c r="G4">
-        <v>3.1094601653761606E-5</v>
+        <v>3.6336971229427122E-5</v>
       </c>
       <c r="H4">
-        <v>4.4342658176514697E-5</v>
+        <v>4.7932578399084014E-5</v>
       </c>
       <c r="I4">
-        <v>-6.837588800322595E-7</v>
+        <v>-8.1290700626225652E-7</v>
       </c>
       <c r="J4">
-        <v>-9.0787456318686518E-7</v>
+        <v>-1.0103829403217239E-6</v>
       </c>
       <c r="K4">
-        <v>-4.1771184348820484E-6</v>
+        <v>-3.0211147690073352E-6</v>
       </c>
       <c r="L4">
-        <v>-1.3653818196543394E-5</v>
+        <v>-1.273512411760021E-5</v>
       </c>
       <c r="M4">
-        <v>-4.5350116784508867E-7</v>
+        <v>-3.7325441661780986E-7</v>
       </c>
       <c r="N4">
-        <v>-9.6112078684662278E-7</v>
+        <v>-8.550093304541791E-7</v>
       </c>
       <c r="O4">
-        <v>-2.5412459390473409E-6</v>
+        <v>-2.196004910141186E-6</v>
       </c>
       <c r="P4">
-        <v>2.3019178073926716E-6</v>
+        <v>2.2171841438523027E-6</v>
       </c>
       <c r="Q4">
-        <v>2.0446226746274165E-7</v>
+        <v>-1.9226902777169384E-8</v>
       </c>
       <c r="R4">
-        <v>2.2236608834385556E-7</v>
+        <v>-6.3861112706232673E-8</v>
       </c>
       <c r="S4">
-        <v>2.2261379581563085E-7</v>
+        <v>-2.0122430103251064E-8</v>
       </c>
       <c r="T4">
-        <v>1.3342168742475851E-7</v>
+        <v>-1.2528490505625069E-7</v>
       </c>
       <c r="U4">
-        <v>4.8279570392519803E-7</v>
+        <v>6.1406074108005305E-7</v>
       </c>
       <c r="V4">
-        <v>8.7196570883540952E-8</v>
+        <v>1.8456774906579308E-7</v>
       </c>
       <c r="W4">
-        <v>-2.3748532191510274E-4</v>
+        <v>-2.2370113686263332E-4</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.45">
@@ -2524,70 +2524,70 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>-4.6760745362575522E-4</v>
+        <v>-3.5235026585950485E-4</v>
       </c>
       <c r="C5">
-        <v>-3.8169698691379826E-7</v>
+        <v>-3.4309641631103952E-7</v>
       </c>
       <c r="D5">
-        <v>-4.5293062749568811E-8</v>
+        <v>-5.8848556753309212E-8</v>
       </c>
       <c r="E5">
-        <v>-1.2565511349505903E-7</v>
+        <v>-1.1499023039996294E-7</v>
       </c>
       <c r="F5">
-        <v>1.4690611487231626E-9</v>
+        <v>1.3387382191520032E-9</v>
       </c>
       <c r="G5">
-        <v>-5.1833425743731924E-8</v>
+        <v>-9.1832878949208368E-8</v>
       </c>
       <c r="H5">
-        <v>-2.1044185306481927E-7</v>
+        <v>-2.3157557921367673E-7</v>
       </c>
       <c r="I5">
-        <v>3.6939155375072039E-10</v>
+        <v>1.3931835749079057E-9</v>
       </c>
       <c r="J5">
-        <v>3.0006272103682699E-9</v>
+        <v>3.7302984900749272E-9</v>
       </c>
       <c r="K5">
-        <v>4.5252449205153409E-9</v>
+        <v>-5.1417605208518092E-9</v>
       </c>
       <c r="L5">
-        <v>1.869217658644493E-7</v>
+        <v>1.740689497696347E-7</v>
       </c>
       <c r="M5">
-        <v>2.8311499590966951E-9</v>
+        <v>4.8098417329051643E-9</v>
       </c>
       <c r="N5">
-        <v>1.0217229726988316E-8</v>
+        <v>1.1778477081331466E-8</v>
       </c>
       <c r="O5">
-        <v>4.0297735721285188E-8</v>
+        <v>3.7959064708337069E-8</v>
       </c>
       <c r="P5">
-        <v>1.3325727347236695E-9</v>
+        <v>2.1077431778908707E-9</v>
       </c>
       <c r="Q5">
-        <v>-4.3917008448752607E-9</v>
+        <v>-1.5590650393156018E-9</v>
       </c>
       <c r="R5">
-        <v>-6.49892516367798E-9</v>
+        <v>-2.9033541236993846E-9</v>
       </c>
       <c r="S5">
-        <v>-4.7526867656193949E-9</v>
+        <v>-1.660440848402081E-9</v>
       </c>
       <c r="T5">
-        <v>-2.6097197775856867E-9</v>
+        <v>6.5107107984451833E-10</v>
       </c>
       <c r="U5">
-        <v>-6.4471871326461096E-9</v>
+        <v>-7.9060710518169073E-9</v>
       </c>
       <c r="V5">
-        <v>-4.1389268706963573E-9</v>
+        <v>-5.2375228517421975E-9</v>
       </c>
       <c r="W5">
-        <v>2.4175537424909493E-6</v>
+        <v>2.2257922577793687E-6</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.45">
@@ -2595,70 +2595,70 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.66952692734249153</v>
+        <v>0.25861769158333781</v>
       </c>
       <c r="C6">
-        <v>-8.2024934030524405E-5</v>
+        <v>-2.3954065616617549E-5</v>
       </c>
       <c r="D6">
-        <v>2.1523457268163117E-5</v>
+        <v>1.8519375897870153E-5</v>
       </c>
       <c r="E6">
-        <v>3.1094601653761606E-5</v>
+        <v>3.6336971229427122E-5</v>
       </c>
       <c r="F6">
-        <v>-5.1833425743731924E-8</v>
+        <v>-9.1832878949208368E-8</v>
       </c>
       <c r="G6">
-        <v>1.6173968062859151E-3</v>
+        <v>1.627958624878781E-3</v>
       </c>
       <c r="H6">
-        <v>1.2483765055935612E-3</v>
+        <v>1.3075265525345988E-3</v>
       </c>
       <c r="I6">
-        <v>-3.6181964811579328E-5</v>
+        <v>-3.6589703105054401E-5</v>
       </c>
       <c r="J6">
-        <v>-2.8368965619544966E-5</v>
+        <v>-2.9719490164041454E-5</v>
       </c>
       <c r="K6">
-        <v>1.6269210969463266E-5</v>
+        <v>1.9885690203156442E-5</v>
       </c>
       <c r="L6">
-        <v>-2.4229531068566545E-5</v>
+        <v>-2.2365508510064186E-5</v>
       </c>
       <c r="M6">
-        <v>-1.0823749781338878E-5</v>
+        <v>-2.8071013574304396E-6</v>
       </c>
       <c r="N6">
-        <v>-1.4928489587311003E-5</v>
+        <v>-9.728843630976247E-6</v>
       </c>
       <c r="O6">
-        <v>-2.8468463475412372E-5</v>
+        <v>-2.231956411724871E-5</v>
       </c>
       <c r="P6">
-        <v>-8.4555846227667413E-6</v>
+        <v>-6.5848085823846589E-6</v>
       </c>
       <c r="Q6">
-        <v>-1.0833893181538231E-5</v>
+        <v>-6.1791710799476019E-6</v>
       </c>
       <c r="R6">
-        <v>-1.0014243197720106E-5</v>
+        <v>-6.2609972572570588E-6</v>
       </c>
       <c r="S6">
-        <v>-1.2420427850084852E-5</v>
+        <v>-5.4170295407604806E-6</v>
       </c>
       <c r="T6">
-        <v>-6.0893172607784078E-6</v>
+        <v>-6.3291235394078058E-7</v>
       </c>
       <c r="U6">
-        <v>1.2105301694191473E-5</v>
+        <v>8.6911837125229625E-6</v>
       </c>
       <c r="V6">
-        <v>7.7153475456632772E-6</v>
+        <v>3.6453116417133608E-6</v>
       </c>
       <c r="W6">
-        <v>-1.2312503965962926E-3</v>
+        <v>-1.392857353586579E-3</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.45">
@@ -2666,70 +2666,70 @@
         <v>22</v>
       </c>
       <c r="B7">
-        <v>5.2704353524702874E-2</v>
+        <v>-0.23479425259018666</v>
       </c>
       <c r="C7">
-        <v>-3.4973090875863776E-4</v>
+        <v>-2.4977842069431525E-4</v>
       </c>
       <c r="D7">
-        <v>1.4359970506243508E-5</v>
+        <v>1.1982471411627594E-5</v>
       </c>
       <c r="E7">
-        <v>4.4342658176514697E-5</v>
+        <v>4.7932578399084014E-5</v>
       </c>
       <c r="F7">
-        <v>-2.1044185306481927E-7</v>
+        <v>-2.3157557921367673E-7</v>
       </c>
       <c r="G7">
-        <v>1.2483765055935612E-3</v>
+        <v>1.3075265525345988E-3</v>
       </c>
       <c r="H7">
-        <v>3.2473761925870311E-3</v>
+        <v>2.9383902205570235E-3</v>
       </c>
       <c r="I7">
-        <v>-2.8228868309541339E-5</v>
+        <v>-2.9605705045748162E-5</v>
       </c>
       <c r="J7">
-        <v>-7.0111557381767823E-5</v>
+        <v>-6.44657060772006E-5</v>
       </c>
       <c r="K7">
-        <v>3.8387935945094359E-6</v>
+        <v>9.3386714371631721E-6</v>
       </c>
       <c r="L7">
-        <v>-2.2740513726246546E-5</v>
+        <v>-2.0624246235071484E-5</v>
       </c>
       <c r="M7">
-        <v>1.4056201829175038E-6</v>
+        <v>6.2132552840425247E-6</v>
       </c>
       <c r="N7">
-        <v>-1.596982912773989E-5</v>
+        <v>-1.2588980359701848E-5</v>
       </c>
       <c r="O7">
-        <v>-3.0471339486381295E-5</v>
+        <v>-2.5379597187078396E-5</v>
       </c>
       <c r="P7">
-        <v>7.0764636670437361E-7</v>
+        <v>-1.577918017488418E-6</v>
       </c>
       <c r="Q7">
-        <v>-2.1431377949067397E-5</v>
+        <v>-1.4900554657739059E-5</v>
       </c>
       <c r="R7">
-        <v>-1.0902488086059293E-5</v>
+        <v>-7.2541724980038014E-6</v>
       </c>
       <c r="S7">
-        <v>-2.0830186644244119E-5</v>
+        <v>-1.2230053749681101E-5</v>
       </c>
       <c r="T7">
-        <v>1.3095882806600224E-6</v>
+        <v>5.700791829341519E-6</v>
       </c>
       <c r="U7">
-        <v>7.6704548984093221E-6</v>
+        <v>3.7249046357145541E-6</v>
       </c>
       <c r="V7">
-        <v>-3.3507220089985995E-6</v>
+        <v>-4.1264766914555814E-6</v>
       </c>
       <c r="W7">
-        <v>-1.4750070199182875E-3</v>
+        <v>-1.6037107000982848E-3</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.45">
@@ -2737,70 +2737,70 @@
         <v>23</v>
       </c>
       <c r="B8">
-        <v>-7.4966954323647129E-3</v>
+        <v>-3.83663299815004E-3</v>
       </c>
       <c r="C8">
-        <v>1.8367402058503615E-6</v>
+        <v>5.3785752158039071E-7</v>
       </c>
       <c r="D8">
-        <v>-1.8759298706443378E-7</v>
+        <v>-4.1652332543070674E-7</v>
       </c>
       <c r="E8">
-        <v>-6.837588800322595E-7</v>
+        <v>-8.1290700626225652E-7</v>
       </c>
       <c r="F8">
-        <v>3.6939155375072039E-10</v>
+        <v>1.3931835749079057E-9</v>
       </c>
       <c r="G8">
-        <v>-3.6181964811579328E-5</v>
+        <v>-3.6589703105054401E-5</v>
       </c>
       <c r="H8">
-        <v>-2.8228868309541339E-5</v>
+        <v>-2.9605705045748162E-5</v>
       </c>
       <c r="I8">
-        <v>8.7229736487736124E-7</v>
+        <v>8.8430030961682592E-7</v>
       </c>
       <c r="J8">
-        <v>6.9002536711569969E-7</v>
+        <v>7.2247716937488836E-7</v>
       </c>
       <c r="K8">
-        <v>-3.3650039866663779E-7</v>
+        <v>-4.5371898642880693E-7</v>
       </c>
       <c r="L8">
-        <v>6.1280689256980425E-7</v>
+        <v>5.6112922885918803E-7</v>
       </c>
       <c r="M8">
-        <v>3.7760538392756983E-7</v>
+        <v>6.5440396798252998E-8</v>
       </c>
       <c r="N8">
-        <v>5.9239984484717387E-7</v>
+        <v>2.8459706833031463E-7</v>
       </c>
       <c r="O8">
-        <v>1.0890637722277017E-6</v>
+        <v>7.3212399848337732E-7</v>
       </c>
       <c r="P8">
-        <v>8.4058227112341588E-7</v>
+        <v>5.4336370636943597E-7</v>
       </c>
       <c r="Q8">
-        <v>7.9292468775500773E-8</v>
+        <v>-1.0011741528024124E-8</v>
       </c>
       <c r="R8">
-        <v>2.159628698618698E-7</v>
+        <v>1.3840892420170294E-7</v>
       </c>
       <c r="S8">
-        <v>1.3692564193061409E-7</v>
+        <v>2.7933436134615276E-8</v>
       </c>
       <c r="T8">
-        <v>6.3105169007978507E-8</v>
+        <v>-2.5029470617387905E-8</v>
       </c>
       <c r="U8">
-        <v>-1.572113906028167E-7</v>
+        <v>-1.3367564569682128E-7</v>
       </c>
       <c r="V8">
-        <v>-7.2996400796518757E-8</v>
+        <v>-2.047995709113353E-8</v>
       </c>
       <c r="W8">
-        <v>2.6148374564530763E-5</v>
+        <v>3.0255628309720361E-5</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.45">
@@ -2808,70 +2808,70 @@
         <v>24</v>
       </c>
       <c r="B9">
-        <v>3.6943394499537648E-3</v>
+        <v>5.0612088430743675E-3</v>
       </c>
       <c r="C9">
-        <v>6.996385729844091E-6</v>
+        <v>4.9712013902939892E-6</v>
       </c>
       <c r="D9">
-        <v>-3.1310814764874024E-7</v>
+        <v>-5.6716589807765832E-7</v>
       </c>
       <c r="E9">
-        <v>-9.0787456318686518E-7</v>
+        <v>-1.0103829403217239E-6</v>
       </c>
       <c r="F9">
-        <v>3.0006272103682699E-9</v>
+        <v>3.7302984900749272E-9</v>
       </c>
       <c r="G9">
-        <v>-2.8368965619544966E-5</v>
+        <v>-2.9719490164041454E-5</v>
       </c>
       <c r="H9">
-        <v>-7.0111557381767823E-5</v>
+        <v>-6.44657060772006E-5</v>
       </c>
       <c r="I9">
-        <v>6.9002536711569969E-7</v>
+        <v>7.2247716937488836E-7</v>
       </c>
       <c r="J9">
-        <v>1.6844365659454936E-6</v>
+        <v>1.5722197670025877E-6</v>
       </c>
       <c r="K9">
-        <v>2.7608551466340485E-7</v>
+        <v>7.8736677726512195E-8</v>
       </c>
       <c r="L9">
-        <v>4.0467914069841969E-7</v>
+        <v>3.7357013971615546E-7</v>
       </c>
       <c r="M9">
-        <v>1.8215582506336556E-7</v>
+        <v>-4.3889318523646057E-8</v>
       </c>
       <c r="N9">
-        <v>9.2574406554633917E-7</v>
+        <v>6.3149950637215697E-7</v>
       </c>
       <c r="O9">
-        <v>1.5821415221452121E-6</v>
+        <v>1.1930134534952507E-6</v>
       </c>
       <c r="P9">
-        <v>1.1696223122850472E-6</v>
+        <v>8.8528842192677946E-7</v>
       </c>
       <c r="Q9">
-        <v>1.7676020485192721E-7</v>
+        <v>8.5886719516667009E-8</v>
       </c>
       <c r="R9">
-        <v>1.7179678252118744E-7</v>
+        <v>1.18969235845705E-7</v>
       </c>
       <c r="S9">
-        <v>1.0437863484187082E-7</v>
+        <v>6.400479795734774E-9</v>
       </c>
       <c r="T9">
-        <v>-2.8322360581471141E-7</v>
+        <v>-3.0396282163918238E-7</v>
       </c>
       <c r="U9">
-        <v>1.4416508957218465E-8</v>
+        <v>3.2238115031082556E-8</v>
       </c>
       <c r="V9">
-        <v>2.3837397751174756E-7</v>
+        <v>2.0901570634201691E-7</v>
       </c>
       <c r="W9">
-        <v>2.9894092396200698E-5</v>
+        <v>3.3464803922330443E-5</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.45">
@@ -2879,70 +2879,70 @@
         <v>25</v>
       </c>
       <c r="B10">
-        <v>0.19802746623150908</v>
+        <v>0.17405357070319247</v>
       </c>
       <c r="C10">
-        <v>1.6053978336893239E-5</v>
+        <v>1.3329100642160615E-5</v>
       </c>
       <c r="D10">
-        <v>1.7926585287721779E-5</v>
+        <v>2.12113667510394E-5</v>
       </c>
       <c r="E10">
-        <v>-4.1771184348820484E-6</v>
+        <v>-3.0211147690073352E-6</v>
       </c>
       <c r="F10">
-        <v>4.5252449205153409E-9</v>
+        <v>-5.1417605208518092E-9</v>
       </c>
       <c r="G10">
-        <v>1.6269210969463266E-5</v>
+        <v>1.9885690203156442E-5</v>
       </c>
       <c r="H10">
-        <v>3.8387935945094359E-6</v>
+        <v>9.3386714371631721E-6</v>
       </c>
       <c r="I10">
-        <v>-3.3650039866663779E-7</v>
+        <v>-4.5371898642880693E-7</v>
       </c>
       <c r="J10">
-        <v>2.7608551466340485E-7</v>
+        <v>7.8736677726512195E-8</v>
       </c>
       <c r="K10">
-        <v>2.0565147485240566E-4</v>
+        <v>1.8927094659682402E-4</v>
       </c>
       <c r="L10">
-        <v>-1.0388122956151943E-4</v>
+        <v>-9.8730895902673647E-5</v>
       </c>
       <c r="M10">
-        <v>-6.6980143145742071E-6</v>
+        <v>-4.6399495779726996E-6</v>
       </c>
       <c r="N10">
-        <v>-9.1268983136207726E-6</v>
+        <v>-6.1531541017952996E-6</v>
       </c>
       <c r="O10">
-        <v>-1.0117958402731111E-5</v>
+        <v>-6.6203719313030346E-6</v>
       </c>
       <c r="P10">
-        <v>-8.0017851186414358E-6</v>
+        <v>-5.1814596918929191E-6</v>
       </c>
       <c r="Q10">
-        <v>1.8010784436398542E-6</v>
+        <v>9.7562620090226774E-7</v>
       </c>
       <c r="R10">
-        <v>2.6549698076149699E-6</v>
+        <v>1.691185150956014E-6</v>
       </c>
       <c r="S10">
-        <v>-2.2560782406653678E-7</v>
+        <v>-7.4154358738699596E-7</v>
       </c>
       <c r="T10">
-        <v>2.8309730350348471E-6</v>
+        <v>1.3527610856502642E-6</v>
       </c>
       <c r="U10">
-        <v>2.0471118700970398E-6</v>
+        <v>2.7630163051278654E-6</v>
       </c>
       <c r="V10">
-        <v>4.4212803203448492E-6</v>
+        <v>4.5709518041670425E-6</v>
       </c>
       <c r="W10">
-        <v>6.585371723564381E-5</v>
+        <v>4.5487191679535071E-5</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.45">
@@ -2950,70 +2950,70 @@
         <v>26</v>
       </c>
       <c r="B11">
-        <v>-1.0836002452806179E-2</v>
+        <v>-1.9573489315217692E-2</v>
       </c>
       <c r="C11">
-        <v>-4.5569235597031728E-6</v>
+        <v>-7.114285879094987E-6</v>
       </c>
       <c r="D11">
-        <v>2.2199729511521053E-6</v>
+        <v>3.2755094165966065E-7</v>
       </c>
       <c r="E11">
-        <v>-1.3653818196543394E-5</v>
+        <v>-1.273512411760021E-5</v>
       </c>
       <c r="F11">
-        <v>1.869217658644493E-7</v>
+        <v>1.740689497696347E-7</v>
       </c>
       <c r="G11">
-        <v>-2.4229531068566545E-5</v>
+        <v>-2.2365508510064186E-5</v>
       </c>
       <c r="H11">
-        <v>-2.2740513726246546E-5</v>
+        <v>-2.0624246235071484E-5</v>
       </c>
       <c r="I11">
-        <v>6.1280689256980425E-7</v>
+        <v>5.6112922885918803E-7</v>
       </c>
       <c r="J11">
-        <v>4.0467914069841969E-7</v>
+        <v>3.7357013971615546E-7</v>
       </c>
       <c r="K11">
-        <v>-1.0388122956151943E-4</v>
+        <v>-9.8730895902673647E-5</v>
       </c>
       <c r="L11">
-        <v>1.7416171550209349E-4</v>
+        <v>1.6244249353446528E-4</v>
       </c>
       <c r="M11">
-        <v>5.8298743327665753E-6</v>
+        <v>5.3775377145673977E-6</v>
       </c>
       <c r="N11">
-        <v>4.8319846502375882E-6</v>
+        <v>4.7183021494038224E-6</v>
       </c>
       <c r="O11">
-        <v>1.8534238607075432E-6</v>
+        <v>1.9196643809828661E-6</v>
       </c>
       <c r="P11">
-        <v>2.9937612530206794E-6</v>
+        <v>2.6282852884176617E-6</v>
       </c>
       <c r="Q11">
-        <v>-1.1484335518807014E-6</v>
+        <v>-1.6193340596884465E-6</v>
       </c>
       <c r="R11">
-        <v>-1.0645058160316232E-6</v>
+        <v>-1.3666686515056677E-6</v>
       </c>
       <c r="S11">
-        <v>-2.2733808417844173E-6</v>
+        <v>-2.8407949135519674E-6</v>
       </c>
       <c r="T11">
-        <v>-2.4446638210528197E-6</v>
+        <v>-2.846217683722948E-6</v>
       </c>
       <c r="U11">
-        <v>-1.8953080739141892E-6</v>
+        <v>-1.7486753851529854E-6</v>
       </c>
       <c r="V11">
-        <v>-2.0657000809283213E-6</v>
+        <v>-1.8676444353846286E-6</v>
       </c>
       <c r="W11">
-        <v>2.1809129998202545E-4</v>
+        <v>2.0668244432518599E-4</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.45">
@@ -3021,70 +3021,70 @@
         <v>27</v>
       </c>
       <c r="B12">
-        <v>0.33491153162800658</v>
+        <v>0.278258949737752</v>
       </c>
       <c r="C12">
-        <v>-3.0186940861043777E-6</v>
+        <v>-1.5444881009412E-6</v>
       </c>
       <c r="D12">
-        <v>6.8174883534379829E-6</v>
+        <v>1.0838740320127054E-5</v>
       </c>
       <c r="E12">
-        <v>-4.5350116784508867E-7</v>
+        <v>-3.7325441661780986E-7</v>
       </c>
       <c r="F12">
-        <v>2.8311499590966951E-9</v>
+        <v>4.8098417329051643E-9</v>
       </c>
       <c r="G12">
-        <v>-1.0823749781338878E-5</v>
+        <v>-2.8071013574304396E-6</v>
       </c>
       <c r="H12">
-        <v>1.4056201829175038E-6</v>
+        <v>6.2132552840425247E-6</v>
       </c>
       <c r="I12">
-        <v>3.7760538392756983E-7</v>
+        <v>6.5440396798252998E-8</v>
       </c>
       <c r="J12">
-        <v>1.8215582506336556E-7</v>
+        <v>-4.3889318523646057E-8</v>
       </c>
       <c r="K12">
-        <v>-6.6980143145742071E-6</v>
+        <v>-4.6399495779726996E-6</v>
       </c>
       <c r="L12">
-        <v>5.8298743327665753E-6</v>
+        <v>5.3775377145673977E-6</v>
       </c>
       <c r="M12">
-        <v>5.3080551404199646E-3</v>
+        <v>4.4357261814839859E-3</v>
       </c>
       <c r="N12">
-        <v>4.8125000086136453E-3</v>
+        <v>3.9914862402110332E-3</v>
       </c>
       <c r="O12">
-        <v>4.8131381033741111E-3</v>
+        <v>3.9922553147534699E-3</v>
       </c>
       <c r="P12">
-        <v>4.8128279748437357E-3</v>
+        <v>3.9919060606126095E-3</v>
       </c>
       <c r="Q12">
-        <v>1.7623002165971819E-6</v>
+        <v>-1.1070515000335685E-6</v>
       </c>
       <c r="R12">
-        <v>7.6047555047197289E-7</v>
+        <v>-4.6006316207640495E-7</v>
       </c>
       <c r="S12">
-        <v>8.6772652753135007E-7</v>
+        <v>-6.9311473388196306E-7</v>
       </c>
       <c r="T12">
-        <v>-2.5032092652766021E-6</v>
+        <v>-4.1176042803545159E-6</v>
       </c>
       <c r="U12">
-        <v>2.3256081894096016E-6</v>
+        <v>3.0747431986595996E-6</v>
       </c>
       <c r="V12">
-        <v>3.3824911299414734E-6</v>
+        <v>2.6527253295089566E-6</v>
       </c>
       <c r="W12">
-        <v>-4.8024139771561921E-3</v>
+        <v>-3.9848967865180104E-3</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.45">
@@ -3092,70 +3092,70 @@
         <v>28</v>
       </c>
       <c r="B13">
-        <v>0.624096119747655</v>
+        <v>0.55044447042258349</v>
       </c>
       <c r="C13">
-        <v>2.6380482700732793E-6</v>
+        <v>4.5648230686193151E-6</v>
       </c>
       <c r="D13">
-        <v>2.6124475121720696E-5</v>
+        <v>3.360444681367523E-5</v>
       </c>
       <c r="E13">
-        <v>-9.6112078684662278E-7</v>
+        <v>-8.550093304541791E-7</v>
       </c>
       <c r="F13">
-        <v>1.0217229726988316E-8</v>
+        <v>1.1778477081331466E-8</v>
       </c>
       <c r="G13">
-        <v>-1.4928489587311003E-5</v>
+        <v>-9.728843630976247E-6</v>
       </c>
       <c r="H13">
-        <v>-1.596982912773989E-5</v>
+        <v>-1.2588980359701848E-5</v>
       </c>
       <c r="I13">
-        <v>5.9239984484717387E-7</v>
+        <v>2.8459706833031463E-7</v>
       </c>
       <c r="J13">
-        <v>9.2574406554633917E-7</v>
+        <v>6.3149950637215697E-7</v>
       </c>
       <c r="K13">
-        <v>-9.1268983136207726E-6</v>
+        <v>-6.1531541017952996E-6</v>
       </c>
       <c r="L13">
-        <v>4.8319846502375882E-6</v>
+        <v>4.7183021494038224E-6</v>
       </c>
       <c r="M13">
-        <v>4.8125000086136453E-3</v>
+        <v>3.9914862402110332E-3</v>
       </c>
       <c r="N13">
-        <v>4.9192037668428848E-3</v>
+        <v>4.0908812708104082E-3</v>
       </c>
       <c r="O13">
-        <v>4.825490151553485E-3</v>
+        <v>4.0054028380658163E-3</v>
       </c>
       <c r="P13">
-        <v>4.8269906717387356E-3</v>
+        <v>4.0069561792185513E-3</v>
       </c>
       <c r="Q13">
-        <v>4.2989920106577129E-6</v>
+        <v>1.1685511380774227E-6</v>
       </c>
       <c r="R13">
-        <v>2.1633012213569729E-6</v>
+        <v>6.1980725347391443E-7</v>
       </c>
       <c r="S13">
-        <v>1.5622904839645153E-6</v>
+        <v>-5.4154617852545544E-7</v>
       </c>
       <c r="T13">
-        <v>-1.3793774695880384E-6</v>
+        <v>-3.7901199216333698E-6</v>
       </c>
       <c r="U13">
-        <v>2.5294335072164292E-6</v>
+        <v>4.3239219407610817E-6</v>
       </c>
       <c r="V13">
-        <v>1.8634304458282195E-6</v>
+        <v>1.2707928878765181E-6</v>
       </c>
       <c r="W13">
-        <v>-4.8143952962827648E-3</v>
+        <v>-3.9957477403151113E-3</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.45">
@@ -3163,70 +3163,70 @@
         <v>37</v>
       </c>
       <c r="B14">
-        <v>0.68176793825740978</v>
+        <v>0.56873605664602378</v>
       </c>
       <c r="C14">
-        <v>6.2423502819273775E-6</v>
+        <v>7.961190710635991E-6</v>
       </c>
       <c r="D14">
-        <v>3.6998500785737748E-5</v>
+        <v>4.4992343937162E-5</v>
       </c>
       <c r="E14">
-        <v>-2.5412459390473409E-6</v>
+        <v>-2.196004910141186E-6</v>
       </c>
       <c r="F14">
-        <v>4.0297735721285188E-8</v>
+        <v>3.7959064708337069E-8</v>
       </c>
       <c r="G14">
-        <v>-2.8468463475412372E-5</v>
+        <v>-2.231956411724871E-5</v>
       </c>
       <c r="H14">
-        <v>-3.0471339486381295E-5</v>
+        <v>-2.5379597187078396E-5</v>
       </c>
       <c r="I14">
-        <v>1.0890637722277017E-6</v>
+        <v>7.3212399848337732E-7</v>
       </c>
       <c r="J14">
-        <v>1.5821415221452121E-6</v>
+        <v>1.1930134534952507E-6</v>
       </c>
       <c r="K14">
-        <v>-1.0117958402731111E-5</v>
+        <v>-6.6203719313030346E-6</v>
       </c>
       <c r="L14">
-        <v>1.8534238607075432E-6</v>
+        <v>1.9196643809828661E-6</v>
       </c>
       <c r="M14">
-        <v>4.8131381033741111E-3</v>
+        <v>3.9922553147534699E-3</v>
       </c>
       <c r="N14">
-        <v>4.825490151553485E-3</v>
+        <v>4.0054028380658163E-3</v>
       </c>
       <c r="O14">
-        <v>4.8842765056034297E-3</v>
+        <v>4.0597515554139521E-3</v>
       </c>
       <c r="P14">
-        <v>4.858984124462562E-3</v>
+        <v>4.0366188648493333E-3</v>
       </c>
       <c r="Q14">
-        <v>4.380102086272753E-6</v>
+        <v>9.4612789046927265E-7</v>
       </c>
       <c r="R14">
-        <v>3.5593671194829774E-6</v>
+        <v>1.0476916085037485E-6</v>
       </c>
       <c r="S14">
-        <v>2.5037917791025346E-6</v>
+        <v>-2.2905802000117127E-7</v>
       </c>
       <c r="T14">
-        <v>1.2652813893703572E-6</v>
+        <v>-1.9823773767944211E-6</v>
       </c>
       <c r="U14">
-        <v>-5.0042588451562007E-8</v>
+        <v>1.8622833135235882E-6</v>
       </c>
       <c r="V14">
-        <v>-4.825685046793965E-6</v>
+        <v>-4.2196742025588815E-6</v>
       </c>
       <c r="W14">
-        <v>-4.8342792607126922E-3</v>
+        <v>-4.0150519902158619E-3</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.45">
@@ -3234,70 +3234,70 @@
         <v>38</v>
       </c>
       <c r="B15">
-        <v>0.70340667518950417</v>
+        <v>0.57490102578351754</v>
       </c>
       <c r="C15">
-        <v>-3.2648960271286346E-6</v>
+        <v>1.480514849202814E-6</v>
       </c>
       <c r="D15">
-        <v>3.7881574491580127E-5</v>
+        <v>4.6576726815357217E-5</v>
       </c>
       <c r="E15">
-        <v>2.3019178073926716E-6</v>
+        <v>2.2171841438523027E-6</v>
       </c>
       <c r="F15">
-        <v>1.3325727347236695E-9</v>
+        <v>2.1077431778908707E-9</v>
       </c>
       <c r="G15">
-        <v>-8.4555846227667413E-6</v>
+        <v>-6.5848085823846589E-6</v>
       </c>
       <c r="H15">
-        <v>7.0764636670437361E-7</v>
+        <v>-1.577918017488418E-6</v>
       </c>
       <c r="I15">
-        <v>8.4058227112341588E-7</v>
+        <v>5.4336370636943597E-7</v>
       </c>
       <c r="J15">
-        <v>1.1696223122850472E-6</v>
+        <v>8.8528842192677946E-7</v>
       </c>
       <c r="K15">
-        <v>-8.0017851186414358E-6</v>
+        <v>-5.1814596918929191E-6</v>
       </c>
       <c r="L15">
-        <v>2.9937612530206794E-6</v>
+        <v>2.6282852884176617E-6</v>
       </c>
       <c r="M15">
-        <v>4.8128279748437357E-3</v>
+        <v>3.9919060606126095E-3</v>
       </c>
       <c r="N15">
-        <v>4.8269906717387356E-3</v>
+        <v>4.0069561792185513E-3</v>
       </c>
       <c r="O15">
-        <v>4.858984124462562E-3</v>
+        <v>4.0366188648493333E-3</v>
       </c>
       <c r="P15">
-        <v>4.9866222707676752E-3</v>
+        <v>4.1506037045618838E-3</v>
       </c>
       <c r="Q15">
-        <v>4.8074088140564699E-6</v>
+        <v>1.5370240526337004E-6</v>
       </c>
       <c r="R15">
-        <v>5.3277499117524043E-6</v>
+        <v>3.0466307860171535E-6</v>
       </c>
       <c r="S15">
-        <v>1.7493089064862463E-6</v>
+        <v>-1.2612883718289797E-7</v>
       </c>
       <c r="T15">
-        <v>1.9969993271814297E-6</v>
+        <v>-6.9734200187666499E-7</v>
       </c>
       <c r="U15">
-        <v>5.4733095356829535E-9</v>
+        <v>2.0107659929304409E-6</v>
       </c>
       <c r="V15">
-        <v>-3.9242729142733372E-6</v>
+        <v>-3.6289283869312131E-6</v>
       </c>
       <c r="W15">
-        <v>-4.9859003391398444E-3</v>
+        <v>-4.1518559197866777E-3</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.45">
@@ -3305,70 +3305,70 @@
         <v>39</v>
       </c>
       <c r="B16">
-        <v>2.0073061711154042E-2</v>
+        <v>1.6079748811425317E-2</v>
       </c>
       <c r="C16">
-        <v>7.1959925279693639E-6</v>
+        <v>1.2537504807410985E-6</v>
       </c>
       <c r="D16">
-        <v>9.3926125757064221E-6</v>
+        <v>4.7523742628483124E-6</v>
       </c>
       <c r="E16">
-        <v>2.0446226746274165E-7</v>
+        <v>-1.9226902777169384E-8</v>
       </c>
       <c r="F16">
-        <v>-4.3917008448752607E-9</v>
+        <v>-1.5590650393156018E-9</v>
       </c>
       <c r="G16">
-        <v>-1.0833893181538231E-5</v>
+        <v>-6.1791710799476019E-6</v>
       </c>
       <c r="H16">
-        <v>-2.1431377949067397E-5</v>
+        <v>-1.4900554657739059E-5</v>
       </c>
       <c r="I16">
-        <v>7.9292468775500773E-8</v>
+        <v>-1.0011741528024124E-8</v>
       </c>
       <c r="J16">
-        <v>1.7676020485192721E-7</v>
+        <v>8.5886719516667009E-8</v>
       </c>
       <c r="K16">
-        <v>1.8010784436398542E-6</v>
+        <v>9.7562620090226774E-7</v>
       </c>
       <c r="L16">
-        <v>-1.1484335518807014E-6</v>
+        <v>-1.6193340596884465E-6</v>
       </c>
       <c r="M16">
-        <v>1.7623002165971819E-6</v>
+        <v>-1.1070515000335685E-6</v>
       </c>
       <c r="N16">
-        <v>4.2989920106577129E-6</v>
+        <v>1.1685511380774227E-6</v>
       </c>
       <c r="O16">
-        <v>4.380102086272753E-6</v>
+        <v>9.4612789046927265E-7</v>
       </c>
       <c r="P16">
-        <v>4.8074088140564699E-6</v>
+        <v>1.5370240526337004E-6</v>
       </c>
       <c r="Q16">
-        <v>2.5909508792109449E-4</v>
+        <v>2.2744177146595277E-4</v>
       </c>
       <c r="R16">
-        <v>1.2772204356120841E-4</v>
+        <v>1.0850566306817063E-4</v>
       </c>
       <c r="S16">
-        <v>1.2819639162735795E-4</v>
+        <v>1.087720233643787E-4</v>
       </c>
       <c r="T16">
-        <v>1.2785362694282517E-4</v>
+        <v>1.0847209581188161E-4</v>
       </c>
       <c r="U16">
-        <v>-4.3346533776664819E-6</v>
+        <v>-3.2537608835960755E-6</v>
       </c>
       <c r="V16">
-        <v>-5.2703267262930462E-6</v>
+        <v>-4.463396424762494E-6</v>
       </c>
       <c r="W16">
-        <v>-1.2824369443721872E-4</v>
+        <v>-1.0023579479884346E-4</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.45">
@@ -3376,70 +3376,70 @@
         <v>36</v>
       </c>
       <c r="B17">
-        <v>6.7176620935346432E-2</v>
+        <v>3.173087436103017E-2</v>
       </c>
       <c r="C17">
-        <v>1.2761169673540028E-6</v>
+        <v>-3.2227142674770954E-6</v>
       </c>
       <c r="D17">
-        <v>8.7429790980343397E-6</v>
+        <v>4.1631769048144894E-6</v>
       </c>
       <c r="E17">
-        <v>2.2236608834385556E-7</v>
+        <v>-6.3861112706232673E-8</v>
       </c>
       <c r="F17">
-        <v>-6.49892516367798E-9</v>
+        <v>-2.9033541236993846E-9</v>
       </c>
       <c r="G17">
-        <v>-1.0014243197720106E-5</v>
+        <v>-6.2609972572570588E-6</v>
       </c>
       <c r="H17">
-        <v>-1.0902488086059293E-5</v>
+        <v>-7.2541724980038014E-6</v>
       </c>
       <c r="I17">
-        <v>2.159628698618698E-7</v>
+        <v>1.3840892420170294E-7</v>
       </c>
       <c r="J17">
-        <v>1.7179678252118744E-7</v>
+        <v>1.18969235845705E-7</v>
       </c>
       <c r="K17">
-        <v>2.6549698076149699E-6</v>
+        <v>1.691185150956014E-6</v>
       </c>
       <c r="L17">
-        <v>-1.0645058160316232E-6</v>
+        <v>-1.3666686515056677E-6</v>
       </c>
       <c r="M17">
-        <v>7.6047555047197289E-7</v>
+        <v>-4.6006316207640495E-7</v>
       </c>
       <c r="N17">
-        <v>2.1633012213569729E-6</v>
+        <v>6.1980725347391443E-7</v>
       </c>
       <c r="O17">
-        <v>3.5593671194829774E-6</v>
+        <v>1.0476916085037485E-6</v>
       </c>
       <c r="P17">
-        <v>5.3277499117524043E-6</v>
+        <v>3.0466307860171535E-6</v>
       </c>
       <c r="Q17">
-        <v>1.2772204356120841E-4</v>
+        <v>1.0850566306817063E-4</v>
       </c>
       <c r="R17">
-        <v>3.2962726284356845E-4</v>
+        <v>2.9488632731356564E-4</v>
       </c>
       <c r="S17">
-        <v>1.2759340405227662E-4</v>
+        <v>1.0842784138438191E-4</v>
       </c>
       <c r="T17">
-        <v>1.275461026251008E-4</v>
+        <v>1.0835838229676192E-4</v>
       </c>
       <c r="U17">
-        <v>-4.1596509137828705E-6</v>
+        <v>-2.7686949793727101E-6</v>
       </c>
       <c r="V17">
-        <v>-5.4824368204940916E-6</v>
+        <v>-4.0580957269497595E-6</v>
       </c>
       <c r="W17">
-        <v>-1.2929185912556452E-4</v>
+        <v>-1.0138700427759889E-4</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.45">
@@ -3447,70 +3447,70 @@
         <v>29</v>
       </c>
       <c r="B18">
-        <v>5.55847506969755E-2</v>
+        <v>3.6035306460765706E-2</v>
       </c>
       <c r="C18">
-        <v>2.4191918747966222E-6</v>
+        <v>-3.8528218227503623E-6</v>
       </c>
       <c r="D18">
-        <v>7.3752357360686691E-6</v>
+        <v>1.4098148350714732E-6</v>
       </c>
       <c r="E18">
-        <v>2.2261379581563085E-7</v>
+        <v>-2.0122430103251064E-8</v>
       </c>
       <c r="F18">
-        <v>-4.7526867656193949E-9</v>
+        <v>-1.660440848402081E-9</v>
       </c>
       <c r="G18">
-        <v>-1.2420427850084852E-5</v>
+        <v>-5.4170295407604806E-6</v>
       </c>
       <c r="H18">
-        <v>-2.0830186644244119E-5</v>
+        <v>-1.2230053749681101E-5</v>
       </c>
       <c r="I18">
-        <v>1.3692564193061409E-7</v>
+        <v>2.7933436134615276E-8</v>
       </c>
       <c r="J18">
-        <v>1.0437863484187082E-7</v>
+        <v>6.400479795734774E-9</v>
       </c>
       <c r="K18">
-        <v>-2.2560782406653678E-7</v>
+        <v>-7.4154358738699596E-7</v>
       </c>
       <c r="L18">
-        <v>-2.2733808417844173E-6</v>
+        <v>-2.8407949135519674E-6</v>
       </c>
       <c r="M18">
-        <v>8.6772652753135007E-7</v>
+        <v>-6.9311473388196306E-7</v>
       </c>
       <c r="N18">
-        <v>1.5622904839645153E-6</v>
+        <v>-5.4154617852545544E-7</v>
       </c>
       <c r="O18">
-        <v>2.5037917791025346E-6</v>
+        <v>-2.2905802000117127E-7</v>
       </c>
       <c r="P18">
-        <v>1.7493089064862463E-6</v>
+        <v>-1.2612883718289797E-7</v>
       </c>
       <c r="Q18">
-        <v>1.2819639162735795E-4</v>
+        <v>1.087720233643787E-4</v>
       </c>
       <c r="R18">
-        <v>1.2759340405227662E-4</v>
+        <v>1.0842784138438191E-4</v>
       </c>
       <c r="S18">
-        <v>2.4732712451039146E-4</v>
+        <v>2.189960546280478E-4</v>
       </c>
       <c r="T18">
-        <v>1.2784730937255109E-4</v>
+        <v>1.0855801334629409E-4</v>
       </c>
       <c r="U18">
-        <v>-4.3551260054562376E-6</v>
+        <v>-3.2052992184466176E-6</v>
       </c>
       <c r="V18">
-        <v>-5.0156147209076525E-6</v>
+        <v>-3.8052779277319109E-6</v>
       </c>
       <c r="W18">
-        <v>-1.2401384453298735E-4</v>
+        <v>-9.8016961325226229E-5</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.45">
@@ -3518,70 +3518,70 @@
         <v>30</v>
       </c>
       <c r="B19">
-        <v>4.4553701130670212E-2</v>
+        <v>1.4387023184972668E-2</v>
       </c>
       <c r="C19">
-        <v>-1.0015852300465435E-6</v>
+        <v>-6.9636358804511427E-6</v>
       </c>
       <c r="D19">
-        <v>8.2667029123247681E-6</v>
+        <v>1.1702931028162063E-6</v>
       </c>
       <c r="E19">
-        <v>1.3342168742475851E-7</v>
+        <v>-1.2528490505625069E-7</v>
       </c>
       <c r="F19">
-        <v>-2.6097197775856867E-9</v>
+        <v>6.5107107984451833E-10</v>
       </c>
       <c r="G19">
-        <v>-6.0893172607784078E-6</v>
+        <v>-6.3291235394078058E-7</v>
       </c>
       <c r="H19">
-        <v>1.3095882806600224E-6</v>
+        <v>5.700791829341519E-6</v>
       </c>
       <c r="I19">
-        <v>6.3105169007978507E-8</v>
+        <v>-2.5029470617387905E-8</v>
       </c>
       <c r="J19">
-        <v>-2.8322360581471141E-7</v>
+        <v>-3.0396282163918238E-7</v>
       </c>
       <c r="K19">
-        <v>2.8309730350348471E-6</v>
+        <v>1.3527610856502642E-6</v>
       </c>
       <c r="L19">
-        <v>-2.4446638210528197E-6</v>
+        <v>-2.846217683722948E-6</v>
       </c>
       <c r="M19">
-        <v>-2.5032092652766021E-6</v>
+        <v>-4.1176042803545159E-6</v>
       </c>
       <c r="N19">
-        <v>-1.3793774695880384E-6</v>
+        <v>-3.7901199216333698E-6</v>
       </c>
       <c r="O19">
-        <v>1.2652813893703572E-6</v>
+        <v>-1.9823773767944211E-6</v>
       </c>
       <c r="P19">
-        <v>1.9969993271814297E-6</v>
+        <v>-6.9734200187666499E-7</v>
       </c>
       <c r="Q19">
-        <v>1.2785362694282517E-4</v>
+        <v>1.0847209581188161E-4</v>
       </c>
       <c r="R19">
-        <v>1.275461026251008E-4</v>
+        <v>1.0835838229676192E-4</v>
       </c>
       <c r="S19">
-        <v>1.2784730937255109E-4</v>
+        <v>1.0855801334629409E-4</v>
       </c>
       <c r="T19">
-        <v>1.7722828092949511E-4</v>
+        <v>1.5458958197778498E-4</v>
       </c>
       <c r="U19">
-        <v>-3.97990477426306E-6</v>
+        <v>-2.9381386639306059E-6</v>
       </c>
       <c r="V19">
-        <v>-5.1898227411096832E-6</v>
+        <v>-4.0211619304797903E-6</v>
       </c>
       <c r="W19">
-        <v>-1.276771733628218E-4</v>
+        <v>-9.9604687705161417E-5</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.45">
@@ -3589,70 +3589,70 @@
         <v>31</v>
       </c>
       <c r="B20">
-        <v>0.37546556229824429</v>
+        <v>0.38037921992467771</v>
       </c>
       <c r="C20">
-        <v>-7.990994966092673E-6</v>
+        <v>-3.7344025063853172E-6</v>
       </c>
       <c r="D20">
-        <v>-1.2167256952009685E-5</v>
+        <v>-5.3568094622349558E-6</v>
       </c>
       <c r="E20">
-        <v>4.8279570392519803E-7</v>
+        <v>6.1406074108005305E-7</v>
       </c>
       <c r="F20">
-        <v>-6.4471871326461096E-9</v>
+        <v>-7.9060710518169073E-9</v>
       </c>
       <c r="G20">
-        <v>1.2105301694191473E-5</v>
+        <v>8.6911837125229625E-6</v>
       </c>
       <c r="H20">
-        <v>7.6704548984093221E-6</v>
+        <v>3.7249046357145541E-6</v>
       </c>
       <c r="I20">
-        <v>-1.572113906028167E-7</v>
+        <v>-1.3367564569682128E-7</v>
       </c>
       <c r="J20">
-        <v>1.4416508957218465E-8</v>
+        <v>3.2238115031082556E-8</v>
       </c>
       <c r="K20">
-        <v>2.0471118700970398E-6</v>
+        <v>2.7630163051278654E-6</v>
       </c>
       <c r="L20">
-        <v>-1.8953080739141892E-6</v>
+        <v>-1.7486753851529854E-6</v>
       </c>
       <c r="M20">
-        <v>2.3256081894096016E-6</v>
+        <v>3.0747431986595996E-6</v>
       </c>
       <c r="N20">
-        <v>2.5294335072164292E-6</v>
+        <v>4.3239219407610817E-6</v>
       </c>
       <c r="O20">
-        <v>-5.0042588451562007E-8</v>
+        <v>1.8622833135235882E-6</v>
       </c>
       <c r="P20">
-        <v>5.4733095356829535E-9</v>
+        <v>2.0107659929304409E-6</v>
       </c>
       <c r="Q20">
-        <v>-4.3346533776664819E-6</v>
+        <v>-3.2537608835960755E-6</v>
       </c>
       <c r="R20">
-        <v>-4.1596509137828705E-6</v>
+        <v>-2.7686949793727101E-6</v>
       </c>
       <c r="S20">
-        <v>-4.3551260054562376E-6</v>
+        <v>-3.2052992184466176E-6</v>
       </c>
       <c r="T20">
-        <v>-3.97990477426306E-6</v>
+        <v>-2.9381386639306059E-6</v>
       </c>
       <c r="U20">
-        <v>2.1938096725814354E-4</v>
+        <v>2.0205966769866216E-4</v>
       </c>
       <c r="V20">
-        <v>2.6272362920976812E-5</v>
+        <v>2.3281818603228917E-5</v>
       </c>
       <c r="W20">
-        <v>-3.2132491983203326E-5</v>
+        <v>-3.5978447774524728E-5</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.45">
@@ -3660,70 +3660,70 @@
         <v>32</v>
       </c>
       <c r="B21">
-        <v>0.26513056981247701</v>
+        <v>0.2966010406462839</v>
       </c>
       <c r="C21">
-        <v>-2.1423882938798028E-6</v>
+        <v>-3.9717529034541488E-7</v>
       </c>
       <c r="D21">
-        <v>-6.972097867208136E-6</v>
+        <v>-3.6812858774055786E-6</v>
       </c>
       <c r="E21">
-        <v>8.7196570883540952E-8</v>
+        <v>1.8456774906579308E-7</v>
       </c>
       <c r="F21">
-        <v>-4.1389268706963573E-9</v>
+        <v>-5.2375228517421975E-9</v>
       </c>
       <c r="G21">
-        <v>7.7153475456632772E-6</v>
+        <v>3.6453116417133608E-6</v>
       </c>
       <c r="H21">
-        <v>-3.3507220089985995E-6</v>
+        <v>-4.1264766914555814E-6</v>
       </c>
       <c r="I21">
-        <v>-7.2996400796518757E-8</v>
+        <v>-2.047995709113353E-8</v>
       </c>
       <c r="J21">
-        <v>2.3837397751174756E-7</v>
+        <v>2.0901570634201691E-7</v>
       </c>
       <c r="K21">
-        <v>4.4212803203448492E-6</v>
+        <v>4.5709518041670425E-6</v>
       </c>
       <c r="L21">
-        <v>-2.0657000809283213E-6</v>
+        <v>-1.8676444353846286E-6</v>
       </c>
       <c r="M21">
-        <v>3.3824911299414734E-6</v>
+        <v>2.6527253295089566E-6</v>
       </c>
       <c r="N21">
-        <v>1.8634304458282195E-6</v>
+        <v>1.2707928878765181E-6</v>
       </c>
       <c r="O21">
-        <v>-4.825685046793965E-6</v>
+        <v>-4.2196742025588815E-6</v>
       </c>
       <c r="P21">
-        <v>-3.9242729142733372E-6</v>
+        <v>-3.6289283869312131E-6</v>
       </c>
       <c r="Q21">
-        <v>-5.2703267262930462E-6</v>
+        <v>-4.463396424762494E-6</v>
       </c>
       <c r="R21">
-        <v>-5.4824368204940916E-6</v>
+        <v>-4.0580957269497595E-6</v>
       </c>
       <c r="S21">
-        <v>-5.0156147209076525E-6</v>
+        <v>-3.8052779277319109E-6</v>
       </c>
       <c r="T21">
-        <v>-5.1898227411096832E-6</v>
+        <v>-4.0211619304797903E-6</v>
       </c>
       <c r="U21">
-        <v>2.6272362920976812E-5</v>
+        <v>2.3281818603228917E-5</v>
       </c>
       <c r="V21">
-        <v>2.8799553450069548E-4</v>
+        <v>2.6237156625638365E-4</v>
       </c>
       <c r="W21">
-        <v>-1.7624848438282727E-5</v>
+        <v>-1.841851192623601E-5</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.45">
@@ -3731,70 +3731,70 @@
         <v>33</v>
       </c>
       <c r="B22">
-        <v>-1.7950792310827621</v>
+        <v>-1.1011706164997708</v>
       </c>
       <c r="C22">
-        <v>-7.4546865616241726E-4</v>
+        <v>-6.8738526544745795E-4</v>
       </c>
       <c r="D22">
-        <v>-1.7181115487462776E-4</v>
+        <v>-1.8708866164124588E-4</v>
       </c>
       <c r="E22">
-        <v>-2.3748532191510274E-4</v>
+        <v>-2.2370113686263332E-4</v>
       </c>
       <c r="F22">
-        <v>2.4175537424909493E-6</v>
+        <v>2.2257922577793687E-6</v>
       </c>
       <c r="G22">
-        <v>-1.2312503965962926E-3</v>
+        <v>-1.392857353586579E-3</v>
       </c>
       <c r="H22">
-        <v>-1.4750070199182875E-3</v>
+        <v>-1.6037107000982848E-3</v>
       </c>
       <c r="I22">
-        <v>2.6148374564530763E-5</v>
+        <v>3.0255628309720361E-5</v>
       </c>
       <c r="J22">
-        <v>2.9894092396200698E-5</v>
+        <v>3.3464803922330443E-5</v>
       </c>
       <c r="K22">
-        <v>6.585371723564381E-5</v>
+        <v>4.5487191679535071E-5</v>
       </c>
       <c r="L22">
-        <v>2.1809129998202545E-4</v>
+        <v>2.0668244432518599E-4</v>
       </c>
       <c r="M22">
-        <v>-4.8024139771561921E-3</v>
+        <v>-3.9848967865180104E-3</v>
       </c>
       <c r="N22">
-        <v>-4.8143952962827648E-3</v>
+        <v>-3.9957477403151113E-3</v>
       </c>
       <c r="O22">
-        <v>-4.8342792607126922E-3</v>
+        <v>-4.0150519902158619E-3</v>
       </c>
       <c r="P22">
-        <v>-4.9859003391398444E-3</v>
+        <v>-4.1518559197866777E-3</v>
       </c>
       <c r="Q22">
-        <v>-1.2824369443721872E-4</v>
+        <v>-1.0023579479884346E-4</v>
       </c>
       <c r="R22">
-        <v>-1.2929185912556452E-4</v>
+        <v>-1.0138700427759889E-4</v>
       </c>
       <c r="S22">
-        <v>-1.2401384453298735E-4</v>
+        <v>-9.8016961325226229E-5</v>
       </c>
       <c r="T22">
-        <v>-1.276771733628218E-4</v>
+        <v>-9.9604687705161417E-5</v>
       </c>
       <c r="U22">
-        <v>-3.2132491983203326E-5</v>
+        <v>-3.5978447774524728E-5</v>
       </c>
       <c r="V22">
-        <v>-1.7624848438282727E-5</v>
+        <v>-1.841851192623601E-5</v>
       </c>
       <c r="W22">
-        <v>1.0340682453142968E-2</v>
+        <v>9.2877108276024634E-3</v>
       </c>
     </row>
   </sheetData>
@@ -3883,64 +3883,64 @@
         <v>19</v>
       </c>
       <c r="B2">
-        <v>7.7966086257403117E-2</v>
+        <v>0.26459031208796063</v>
       </c>
       <c r="C2">
-        <v>2.4517156216321084E-5</v>
+        <v>5.9276092499002699E-5</v>
       </c>
       <c r="D2">
-        <v>-2.7829621519374347E-7</v>
+        <v>-6.6743705968067782E-7</v>
       </c>
       <c r="E2">
-        <v>3.4822223458096773E-5</v>
+        <v>1.3432077794461105E-4</v>
       </c>
       <c r="F2">
-        <v>4.0734356482437556E-5</v>
+        <v>1.7101513800537314E-4</v>
       </c>
       <c r="G2">
-        <v>-7.4167292971507907E-7</v>
+        <v>-3.0058850121903204E-6</v>
       </c>
       <c r="H2">
-        <v>-7.844323836705728E-7</v>
+        <v>-3.5697536862590659E-6</v>
       </c>
       <c r="I2">
-        <v>-8.848070453778449E-6</v>
+        <v>-2.607804939262791E-5</v>
       </c>
       <c r="J2">
-        <v>-2.2371028361015454E-5</v>
+        <v>-7.2652793965850119E-5</v>
       </c>
       <c r="K2">
-        <v>-2.5864263911761702E-6</v>
+        <v>-1.9716317731276103E-5</v>
       </c>
       <c r="L2">
-        <v>-1.191126785650171E-6</v>
+        <v>-1.085701047308851E-5</v>
       </c>
       <c r="M2">
-        <v>-2.4148589438028646E-6</v>
+        <v>-7.8137797136837699E-6</v>
       </c>
       <c r="N2">
-        <v>6.2198094278970661E-6</v>
+        <v>1.6593967778294537E-5</v>
       </c>
       <c r="O2">
-        <v>4.8067386658810871E-8</v>
+        <v>2.9240548718308453E-6</v>
       </c>
       <c r="P2">
-        <v>2.4576258736991839E-6</v>
+        <v>7.6971715755710972E-6</v>
       </c>
       <c r="Q2">
-        <v>1.0897743958416027E-6</v>
+        <v>7.4632939441485012E-7</v>
       </c>
       <c r="R2">
-        <v>1.1671689382890604E-6</v>
+        <v>2.8512201258403278E-6</v>
       </c>
       <c r="S2">
-        <v>1.6856677770768654E-6</v>
+        <v>-4.38761771313765E-8</v>
       </c>
       <c r="T2">
-        <v>1.7294047459000899E-7</v>
+        <v>-7.2806618323197194E-7</v>
       </c>
       <c r="U2">
-        <v>-4.9434713268882099E-4</v>
+        <v>-1.1661023866641647E-3</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.45">
@@ -3948,64 +3948,64 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>-9.1547503387709526E-4</v>
+        <v>-2.9771100396440327E-3</v>
       </c>
       <c r="C3">
-        <v>-2.7829621519374347E-7</v>
+        <v>-6.6743705968067782E-7</v>
       </c>
       <c r="D3">
-        <v>3.2805845257929222E-9</v>
+        <v>7.8625628265274509E-9</v>
       </c>
       <c r="E3">
-        <v>-1.4462525557229504E-8</v>
+        <v>-4.7318494428089655E-7</v>
       </c>
       <c r="F3">
-        <v>-8.2093003009059312E-8</v>
+        <v>-8.9697883696313696E-7</v>
       </c>
       <c r="G3">
-        <v>-6.3280696888017525E-10</v>
+        <v>8.0902823822908926E-9</v>
       </c>
       <c r="H3">
-        <v>-1.060659627372726E-10</v>
+        <v>1.4715425978821681E-8</v>
       </c>
       <c r="I3">
-        <v>8.4068701176724991E-8</v>
+        <v>2.4106180482982483E-7</v>
       </c>
       <c r="J3">
-        <v>3.0062631703399667E-7</v>
+        <v>9.5083001489544681E-7</v>
       </c>
       <c r="K3">
-        <v>2.6877935599648306E-8</v>
+        <v>2.3370645815699958E-7</v>
       </c>
       <c r="L3">
-        <v>1.1183209223956324E-8</v>
+        <v>1.3432758790493775E-7</v>
       </c>
       <c r="M3">
-        <v>4.164066553254335E-8</v>
+        <v>1.5317153603865832E-7</v>
       </c>
       <c r="N3">
-        <v>-2.7013317677477535E-8</v>
+        <v>-4.7009671948680891E-8</v>
       </c>
       <c r="O3">
-        <v>-4.4818957136057131E-9</v>
+        <v>-4.5406106738897641E-8</v>
       </c>
       <c r="P3">
-        <v>-3.0826060548175828E-8</v>
+        <v>-9.7097197464366132E-8</v>
       </c>
       <c r="Q3">
-        <v>-1.932631586831308E-8</v>
+        <v>-2.5401442782800869E-8</v>
       </c>
       <c r="R3">
-        <v>-1.7252960054289567E-8</v>
+        <v>-4.4468732091558021E-8</v>
       </c>
       <c r="S3">
-        <v>-2.3690952303665035E-8</v>
+        <v>-2.3306206529549021E-8</v>
       </c>
       <c r="T3">
-        <v>-8.5573958576412941E-9</v>
+        <v>-2.0625699536412852E-8</v>
       </c>
       <c r="U3">
-        <v>5.3630877564070895E-6</v>
+        <v>1.244259828242257E-5</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.45">
@@ -4013,64 +4013,64 @@
         <v>21</v>
       </c>
       <c r="B4">
-        <v>7.6996588336017552E-2</v>
+        <v>6.192370414353221E-3</v>
       </c>
       <c r="C4">
-        <v>3.4822223458096773E-5</v>
+        <v>1.3432077794461105E-4</v>
       </c>
       <c r="D4">
-        <v>-1.4462525557229504E-8</v>
+        <v>-4.7318494428089655E-7</v>
       </c>
       <c r="E4">
-        <v>2.7791442525466658E-3</v>
+        <v>6.3237634871380986E-3</v>
       </c>
       <c r="F4">
-        <v>1.5226000089801884E-3</v>
+        <v>4.2057488019650834E-3</v>
       </c>
       <c r="G4">
-        <v>-6.0580045810905436E-5</v>
+        <v>-1.4100323102183331E-4</v>
       </c>
       <c r="H4">
-        <v>-3.4472436897545409E-5</v>
+        <v>-9.6436978937958714E-5</v>
       </c>
       <c r="I4">
-        <v>2.9635908599534234E-5</v>
+        <v>9.5396177946813093E-5</v>
       </c>
       <c r="J4">
-        <v>-3.2535278073201061E-5</v>
+        <v>-8.8322948945042946E-5</v>
       </c>
       <c r="K4">
-        <v>-2.0522211480038699E-5</v>
+        <v>-8.7601660898330071E-5</v>
       </c>
       <c r="L4">
-        <v>-3.8743398077276591E-5</v>
+        <v>-1.0928960962935117E-4</v>
       </c>
       <c r="M4">
-        <v>-5.6520933370749187E-5</v>
+        <v>-1.3690636818556841E-4</v>
       </c>
       <c r="N4">
-        <v>-7.8941382302434842E-6</v>
+        <v>-2.3372588721056516E-5</v>
       </c>
       <c r="O4">
-        <v>-3.1937508175647534E-5</v>
+        <v>-5.3667010845298793E-5</v>
       </c>
       <c r="P4">
-        <v>-9.8450632127830353E-6</v>
+        <v>6.378680176461797E-6</v>
       </c>
       <c r="Q4">
-        <v>-2.6993597938759233E-5</v>
+        <v>-2.4399490496616449E-5</v>
       </c>
       <c r="R4">
-        <v>1.1046434241641731E-6</v>
+        <v>2.5974376236776271E-5</v>
       </c>
       <c r="S4">
-        <v>4.7696642707351446E-6</v>
+        <v>-3.2800220162315798E-6</v>
       </c>
       <c r="T4">
-        <v>3.9491590488315449E-6</v>
+        <v>-1.0077366492660972E-5</v>
       </c>
       <c r="U4">
-        <v>-1.458504830551482E-3</v>
+        <v>-4.7831452193518725E-3</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.45">
@@ -4078,64 +4078,64 @@
         <v>22</v>
       </c>
       <c r="B5">
-        <v>-0.20781246160445424</v>
+        <v>-0.42871246235034499</v>
       </c>
       <c r="C5">
-        <v>4.0734356482437556E-5</v>
+        <v>1.7101513800537314E-4</v>
       </c>
       <c r="D5">
-        <v>-8.2093003009059312E-8</v>
+        <v>-8.9697883696313696E-7</v>
       </c>
       <c r="E5">
-        <v>1.5226000089801884E-3</v>
+        <v>4.2057488019650834E-3</v>
       </c>
       <c r="F5">
-        <v>1.9753146223514845E-2</v>
+        <v>2.3907621219339523E-2</v>
       </c>
       <c r="G5">
-        <v>-3.4479108587121973E-5</v>
+        <v>-9.6394090831756557E-5</v>
       </c>
       <c r="H5">
-        <v>-3.9654226490742488E-4</v>
+        <v>-4.9772875659744021E-4</v>
       </c>
       <c r="I5">
-        <v>4.1448809205958609E-5</v>
+        <v>1.4275903955119899E-4</v>
       </c>
       <c r="J5">
-        <v>-4.4637627977567326E-5</v>
+        <v>-9.4815798466726649E-5</v>
       </c>
       <c r="K5">
-        <v>-2.4166749920766087E-4</v>
+        <v>-3.8978348548711133E-4</v>
       </c>
       <c r="L5">
-        <v>-2.6263532686512882E-4</v>
+        <v>-4.6492222478457289E-4</v>
       </c>
       <c r="M5">
-        <v>-2.8161037170074197E-4</v>
+        <v>-4.9944293915480395E-4</v>
       </c>
       <c r="N5">
-        <v>-2.0052805381657397E-4</v>
+        <v>-2.8975476848354864E-4</v>
       </c>
       <c r="O5">
-        <v>-6.0738152671358811E-5</v>
+        <v>-5.7023222965137238E-5</v>
       </c>
       <c r="P5">
-        <v>5.9673308383683118E-6</v>
+        <v>5.8361547334230042E-5</v>
       </c>
       <c r="Q5">
-        <v>-3.1782920819336018E-5</v>
+        <v>5.0033270723302093E-5</v>
       </c>
       <c r="R5">
-        <v>-7.9921667637801675E-6</v>
+        <v>7.9563585242659724E-5</v>
       </c>
       <c r="S5">
-        <v>1.2909146961455837E-5</v>
+        <v>5.3581230504285121E-5</v>
       </c>
       <c r="T5">
-        <v>8.1175112398364827E-6</v>
+        <v>-1.3722049001957326E-5</v>
       </c>
       <c r="U5">
-        <v>-1.3600952661245035E-3</v>
+        <v>-5.2649526861342829E-3</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.45">
@@ -4143,64 +4143,64 @@
         <v>34</v>
       </c>
       <c r="B6">
-        <v>-4.0399784012075206E-4</v>
+        <v>-5.879251318074475E-3</v>
       </c>
       <c r="C6">
-        <v>-7.4167292971507907E-7</v>
+        <v>-3.0058850121903204E-6</v>
       </c>
       <c r="D6">
-        <v>-6.3280696888017525E-10</v>
+        <v>8.0902823822908926E-9</v>
       </c>
       <c r="E6">
-        <v>-6.0580045810905436E-5</v>
+        <v>-1.4100323102183331E-4</v>
       </c>
       <c r="F6">
-        <v>-3.4479108587121973E-5</v>
+        <v>-9.6394090831756557E-5</v>
       </c>
       <c r="G6">
-        <v>1.3974100900766761E-6</v>
+        <v>3.4007000489951884E-6</v>
       </c>
       <c r="H6">
-        <v>8.2782613435313574E-7</v>
+        <v>2.3929208980932653E-6</v>
       </c>
       <c r="I6">
-        <v>-6.9636831173393112E-7</v>
+        <v>-1.9875297832200538E-6</v>
       </c>
       <c r="J6">
-        <v>9.2716363013120962E-7</v>
+        <v>2.5064566562323631E-6</v>
       </c>
       <c r="K6">
-        <v>2.716889239190528E-7</v>
+        <v>1.4860978006725142E-6</v>
       </c>
       <c r="L6">
-        <v>7.7151970822557849E-7</v>
+        <v>2.3658245465989016E-6</v>
       </c>
       <c r="M6">
-        <v>1.5037763911284427E-6</v>
+        <v>3.9637874788383862E-6</v>
       </c>
       <c r="N6">
-        <v>7.4546522907647847E-7</v>
+        <v>2.2480597719844636E-6</v>
       </c>
       <c r="O6">
-        <v>6.2708137064256827E-7</v>
+        <v>1.030099289339323E-6</v>
       </c>
       <c r="P6">
-        <v>3.1106866078535995E-7</v>
+        <v>1.6893819398865277E-7</v>
       </c>
       <c r="Q6">
-        <v>6.3105488135817138E-7</v>
+        <v>7.5284361600126298E-7</v>
       </c>
       <c r="R6">
-        <v>1.7429180126601618E-7</v>
+        <v>6.0995408464014597E-8</v>
       </c>
       <c r="S6">
-        <v>-1.3140910291680933E-8</v>
+        <v>6.2756764377595341E-7</v>
       </c>
       <c r="T6">
-        <v>7.014240940163287E-8</v>
+        <v>8.8470068049100521E-7</v>
       </c>
       <c r="U6">
-        <v>3.0620438279755107E-5</v>
+        <v>1.0312009835784872E-4</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.45">
@@ -4208,64 +4208,64 @@
         <v>35</v>
       </c>
       <c r="B7">
-        <v>4.819539500464101E-3</v>
+        <v>-3.0694649515659238E-4</v>
       </c>
       <c r="C7">
-        <v>-7.844323836705728E-7</v>
+        <v>-3.5697536862590659E-6</v>
       </c>
       <c r="D7">
-        <v>-1.060659627372726E-10</v>
+        <v>1.4715425978821681E-8</v>
       </c>
       <c r="E7">
-        <v>-3.4472436897545409E-5</v>
+        <v>-9.6436978937958714E-5</v>
       </c>
       <c r="F7">
-        <v>-3.9654226490742488E-4</v>
+        <v>-4.9772875659744021E-4</v>
       </c>
       <c r="G7">
-        <v>8.2782613435313574E-7</v>
+        <v>2.3929208980932653E-6</v>
       </c>
       <c r="H7">
-        <v>8.3710560933135827E-6</v>
+        <v>1.12731854344238E-5</v>
       </c>
       <c r="I7">
-        <v>-7.8452105547540254E-7</v>
+        <v>-2.3743529739639884E-6</v>
       </c>
       <c r="J7">
-        <v>1.0597228574672649E-6</v>
+        <v>2.41854422902334E-6</v>
       </c>
       <c r="K7">
-        <v>6.2201735937463923E-6</v>
+        <v>1.233584196960057E-5</v>
       </c>
       <c r="L7">
-        <v>7.142394583154503E-6</v>
+        <v>1.4835867592395918E-5</v>
       </c>
       <c r="M7">
-        <v>8.4213203403288307E-6</v>
+        <v>1.7757567795819835E-5</v>
       </c>
       <c r="N7">
-        <v>7.1116897521348283E-6</v>
+        <v>1.4409881347784871E-5</v>
       </c>
       <c r="O7">
-        <v>8.44897870876842E-7</v>
+        <v>4.4213666482896402E-7</v>
       </c>
       <c r="P7">
-        <v>-2.5795297705381688E-8</v>
+        <v>-7.2492581993343898E-7</v>
       </c>
       <c r="Q7">
-        <v>2.5022986725293778E-7</v>
+        <v>-1.5188927948489681E-6</v>
       </c>
       <c r="R7">
-        <v>2.1819983902178776E-7</v>
+        <v>-1.056647450166404E-6</v>
       </c>
       <c r="S7">
-        <v>-1.0344012985918166E-7</v>
+        <v>-5.4520082873216874E-8</v>
       </c>
       <c r="T7">
-        <v>5.4020539057564782E-8</v>
+        <v>1.2348961468255829E-6</v>
       </c>
       <c r="U7">
-        <v>2.4802671098513607E-5</v>
+        <v>1.0260262700990918E-4</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.45">
@@ -4273,64 +4273,64 @@
         <v>23</v>
       </c>
       <c r="B8">
-        <v>3.619943595739393E-2</v>
+        <v>-1.9348549868052758E-2</v>
       </c>
       <c r="C8">
-        <v>-8.848070453778449E-6</v>
+        <v>-2.607804939262791E-5</v>
       </c>
       <c r="D8">
-        <v>8.4068701176724991E-8</v>
+        <v>2.4106180482982483E-7</v>
       </c>
       <c r="E8">
-        <v>2.9635908599534234E-5</v>
+        <v>9.5396177946813093E-5</v>
       </c>
       <c r="F8">
-        <v>4.1448809205958609E-5</v>
+        <v>1.4275903955119899E-4</v>
       </c>
       <c r="G8">
-        <v>-6.9636831173393112E-7</v>
+        <v>-1.9875297832200538E-6</v>
       </c>
       <c r="H8">
-        <v>-7.8452105547540254E-7</v>
+        <v>-2.3743529739639884E-6</v>
       </c>
       <c r="I8">
-        <v>1.9581734220659454E-4</v>
+        <v>5.5794902250465837E-4</v>
       </c>
       <c r="J8">
-        <v>-5.4551532939905219E-5</v>
+        <v>-1.7601096555596154E-4</v>
       </c>
       <c r="K8">
-        <v>6.1651533075304273E-6</v>
+        <v>-2.1288149529665969E-5</v>
       </c>
       <c r="L8">
-        <v>-6.5889251535706129E-6</v>
+        <v>-4.9044042204994558E-5</v>
       </c>
       <c r="M8">
-        <v>-1.3150447948633611E-5</v>
+        <v>-6.7161816266978315E-5</v>
       </c>
       <c r="N8">
-        <v>-1.0056163772535843E-5</v>
+        <v>-5.7365396760427901E-5</v>
       </c>
       <c r="O8">
-        <v>2.1484547148150271E-6</v>
+        <v>1.1139745381369428E-6</v>
       </c>
       <c r="P8">
-        <v>-2.5556019015484731E-6</v>
+        <v>-7.6776931036671548E-6</v>
       </c>
       <c r="Q8">
-        <v>-3.7913974740405481E-6</v>
+        <v>-4.0223702490361469E-6</v>
       </c>
       <c r="R8">
-        <v>1.1634628834932998E-6</v>
+        <v>2.9349186315392025E-6</v>
       </c>
       <c r="S8">
-        <v>-1.6394825391329607E-7</v>
+        <v>1.8455517672582148E-6</v>
       </c>
       <c r="T8">
-        <v>-7.1753783556772133E-7</v>
+        <v>4.1090938146348896E-7</v>
       </c>
       <c r="U8">
-        <v>1.1070040411017876E-4</v>
+        <v>3.7828134955044009E-4</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.45">
@@ -4338,64 +4338,64 @@
         <v>24</v>
       </c>
       <c r="B9">
-        <v>-6.4654738901315331E-2</v>
+        <v>-0.24153737972290157</v>
       </c>
       <c r="C9">
-        <v>-2.2371028361015454E-5</v>
+        <v>-7.2652793965850119E-5</v>
       </c>
       <c r="D9">
-        <v>3.0062631703399667E-7</v>
+        <v>9.5083001489544681E-7</v>
       </c>
       <c r="E9">
-        <v>-3.2535278073201061E-5</v>
+        <v>-8.8322948945042946E-5</v>
       </c>
       <c r="F9">
-        <v>-4.4637627977567326E-5</v>
+        <v>-9.4815798466726649E-5</v>
       </c>
       <c r="G9">
-        <v>9.2716363013120962E-7</v>
+        <v>2.5064566562323631E-6</v>
       </c>
       <c r="H9">
-        <v>1.0597228574672649E-6</v>
+        <v>2.41854422902334E-6</v>
       </c>
       <c r="I9">
-        <v>-5.4551532939905219E-5</v>
+        <v>-1.7601096555596154E-4</v>
       </c>
       <c r="J9">
-        <v>2.152709673054081E-4</v>
+        <v>6.5670924740075679E-4</v>
       </c>
       <c r="K9">
-        <v>7.6883420582401563E-6</v>
+        <v>5.6609950163355981E-5</v>
       </c>
       <c r="L9">
-        <v>6.2092896584633062E-6</v>
+        <v>4.3322594700535388E-5</v>
       </c>
       <c r="M9">
-        <v>2.3770285159882846E-6</v>
+        <v>2.5948867052731943E-5</v>
       </c>
       <c r="N9">
-        <v>4.7551238308400363E-6</v>
+        <v>3.4747649062057259E-5</v>
       </c>
       <c r="O9">
-        <v>-2.0159434047523185E-6</v>
+        <v>-1.7202759379754484E-5</v>
       </c>
       <c r="P9">
-        <v>-1.0585529929552796E-7</v>
+        <v>-1.6012882533425193E-5</v>
       </c>
       <c r="Q9">
-        <v>-3.7536744929174451E-6</v>
+        <v>-1.6985484855113209E-5</v>
       </c>
       <c r="R9">
-        <v>-3.2196336465071495E-6</v>
+        <v>-1.528012633423268E-5</v>
       </c>
       <c r="S9">
-        <v>-3.355277192364442E-6</v>
+        <v>-7.2403496609749299E-6</v>
       </c>
       <c r="T9">
-        <v>-3.8618607083429607E-6</v>
+        <v>-9.4907651800663787E-6</v>
       </c>
       <c r="U9">
-        <v>3.105108108651076E-4</v>
+        <v>1.0471880973204391E-3</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.45">
@@ -4403,64 +4403,64 @@
         <v>25</v>
       </c>
       <c r="B10">
-        <v>0.31003689043877553</v>
+        <v>0.22217157488803232</v>
       </c>
       <c r="C10">
-        <v>-2.5864263911761702E-6</v>
+        <v>-1.9716317731276103E-5</v>
       </c>
       <c r="D10">
-        <v>2.6877935599648306E-8</v>
+        <v>2.3370645815699958E-7</v>
       </c>
       <c r="E10">
-        <v>-2.0522211480038699E-5</v>
+        <v>-8.7601660898330071E-5</v>
       </c>
       <c r="F10">
-        <v>-2.4166749920766087E-4</v>
+        <v>-3.8978348548711133E-4</v>
       </c>
       <c r="G10">
-        <v>2.716889239190528E-7</v>
+        <v>1.4860978006725142E-6</v>
       </c>
       <c r="H10">
-        <v>6.2201735937463923E-6</v>
+        <v>1.233584196960057E-5</v>
       </c>
       <c r="I10">
-        <v>6.1651533075304273E-6</v>
+        <v>-2.1288149529665969E-5</v>
       </c>
       <c r="J10">
-        <v>7.6883420582401563E-6</v>
+        <v>5.6609950163355981E-5</v>
       </c>
       <c r="K10">
-        <v>1.4788477217889312E-2</v>
+        <v>2.5595784349121277E-2</v>
       </c>
       <c r="L10">
-        <v>1.3723973588626665E-2</v>
+        <v>2.3628432827299085E-2</v>
       </c>
       <c r="M10">
-        <v>1.3725478458173259E-2</v>
+        <v>2.364424177453853E-2</v>
       </c>
       <c r="N10">
-        <v>1.3724590051971221E-2</v>
+        <v>2.3646642049974499E-2</v>
       </c>
       <c r="O10">
-        <v>1.0241582401140551E-5</v>
+        <v>6.3888067422503624E-5</v>
       </c>
       <c r="P10">
-        <v>4.6080230101046391E-7</v>
+        <v>1.0900422737806343E-5</v>
       </c>
       <c r="Q10">
-        <v>9.1580138178661453E-7</v>
+        <v>4.1630176834599013E-5</v>
       </c>
       <c r="R10">
-        <v>-4.0846913276732866E-6</v>
+        <v>2.0277010052941792E-5</v>
       </c>
       <c r="S10">
-        <v>1.0172019889648803E-5</v>
+        <v>3.4392156508488087E-5</v>
       </c>
       <c r="T10">
-        <v>5.6915539417155687E-6</v>
+        <v>1.5796213345738702E-5</v>
       </c>
       <c r="U10">
-        <v>-1.3673583634009482E-2</v>
+        <v>-2.3297053443965592E-2</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.45">
@@ -4468,64 +4468,64 @@
         <v>26</v>
       </c>
       <c r="B11">
-        <v>0.41236502682918669</v>
+        <v>0.58675469746477626</v>
       </c>
       <c r="C11">
-        <v>-1.191126785650171E-6</v>
+        <v>-1.085701047308851E-5</v>
       </c>
       <c r="D11">
-        <v>1.1183209223956324E-8</v>
+        <v>1.3432758790493775E-7</v>
       </c>
       <c r="E11">
-        <v>-3.8743398077276591E-5</v>
+        <v>-1.0928960962935117E-4</v>
       </c>
       <c r="F11">
-        <v>-2.6263532686512882E-4</v>
+        <v>-4.6492222478457289E-4</v>
       </c>
       <c r="G11">
-        <v>7.7151970822557849E-7</v>
+        <v>2.3658245465989016E-6</v>
       </c>
       <c r="H11">
-        <v>7.142394583154503E-6</v>
+        <v>1.4835867592395918E-5</v>
       </c>
       <c r="I11">
-        <v>-6.5889251535706129E-6</v>
+        <v>-4.9044042204994558E-5</v>
       </c>
       <c r="J11">
-        <v>6.2092896584633062E-6</v>
+        <v>4.3322594700535388E-5</v>
       </c>
       <c r="K11">
-        <v>1.3723973588626665E-2</v>
+        <v>2.3628432827299085E-2</v>
       </c>
       <c r="L11">
-        <v>1.3887616859835056E-2</v>
+        <v>2.4044434738344091E-2</v>
       </c>
       <c r="M11">
-        <v>1.373256101012154E-2</v>
+        <v>2.3667373130661806E-2</v>
       </c>
       <c r="N11">
-        <v>1.373398926948077E-2</v>
+        <v>2.3679932395673071E-2</v>
       </c>
       <c r="O11">
-        <v>1.0073996749820739E-5</v>
+        <v>7.2526070298025108E-5</v>
       </c>
       <c r="P11">
-        <v>4.6885765357990888E-6</v>
+        <v>1.7821262591942444E-5</v>
       </c>
       <c r="Q11">
-        <v>3.184227010791013E-6</v>
+        <v>5.478924136143753E-5</v>
       </c>
       <c r="R11">
-        <v>-2.1584272748696081E-6</v>
+        <v>2.8724587853694967E-5</v>
       </c>
       <c r="S11">
-        <v>1.2072830315728437E-5</v>
+        <v>2.2720254623279786E-5</v>
       </c>
       <c r="T11">
-        <v>4.9850140060052049E-6</v>
+        <v>1.5466710937438461E-5</v>
       </c>
       <c r="U11">
-        <v>-1.3704533647740011E-2</v>
+        <v>-2.3494422756308378E-2</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.45">
@@ -4533,64 +4533,64 @@
         <v>27</v>
       </c>
       <c r="B12">
-        <v>0.41178459307589693</v>
+        <v>0.73145584686782206</v>
       </c>
       <c r="C12">
-        <v>-2.4148589438028646E-6</v>
+        <v>-7.8137797136837699E-6</v>
       </c>
       <c r="D12">
-        <v>4.164066553254335E-8</v>
+        <v>1.5317153603865832E-7</v>
       </c>
       <c r="E12">
-        <v>-5.6520933370749187E-5</v>
+        <v>-1.3690636818556841E-4</v>
       </c>
       <c r="F12">
-        <v>-2.8161037170074197E-4</v>
+        <v>-4.9944293915480395E-4</v>
       </c>
       <c r="G12">
-        <v>1.5037763911284427E-6</v>
+        <v>3.9637874788383862E-6</v>
       </c>
       <c r="H12">
-        <v>8.4213203403288307E-6</v>
+        <v>1.7757567795819835E-5</v>
       </c>
       <c r="I12">
-        <v>-1.3150447948633611E-5</v>
+        <v>-6.7161816266978315E-5</v>
       </c>
       <c r="J12">
-        <v>2.3770285159882846E-6</v>
+        <v>2.5948867052731943E-5</v>
       </c>
       <c r="K12">
-        <v>1.3725478458173259E-2</v>
+        <v>2.364424177453853E-2</v>
       </c>
       <c r="L12">
-        <v>1.373256101012154E-2</v>
+        <v>2.3667373130661806E-2</v>
       </c>
       <c r="M12">
-        <v>1.381105745169843E-2</v>
+        <v>2.3931910772914365E-2</v>
       </c>
       <c r="N12">
-        <v>1.3768392134655714E-2</v>
+        <v>2.3814489301951583E-2</v>
       </c>
       <c r="O12">
-        <v>6.7322478788070826E-6</v>
+        <v>6.9005452108285672E-5</v>
       </c>
       <c r="P12">
-        <v>4.3746395301416218E-6</v>
+        <v>2.6607730415671303E-5</v>
       </c>
       <c r="Q12">
-        <v>6.5310632101549064E-7</v>
+        <v>4.747389683889858E-5</v>
       </c>
       <c r="R12">
-        <v>-1.3683749750238955E-6</v>
+        <v>3.1769009464014167E-5</v>
       </c>
       <c r="S12">
-        <v>9.1541965563181652E-6</v>
+        <v>9.4925821020636639E-6</v>
       </c>
       <c r="T12">
-        <v>-4.3422507121616332E-6</v>
+        <v>-2.0071007102213032E-5</v>
       </c>
       <c r="U12">
-        <v>-1.3734553492303778E-2</v>
+        <v>-2.3748950311876103E-2</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.45">
@@ -4598,64 +4598,64 @@
         <v>28</v>
       </c>
       <c r="B13">
-        <v>0.43632070615238799</v>
+        <v>0.75400438966557837</v>
       </c>
       <c r="C13">
-        <v>6.2198094278970661E-6</v>
+        <v>1.6593967778294537E-5</v>
       </c>
       <c r="D13">
-        <v>-2.7013317677477535E-8</v>
+        <v>-4.7009671948680891E-8</v>
       </c>
       <c r="E13">
-        <v>-7.8941382302434842E-6</v>
+        <v>-2.3372588721056516E-5</v>
       </c>
       <c r="F13">
-        <v>-2.0052805381657397E-4</v>
+        <v>-2.8975476848354864E-4</v>
       </c>
       <c r="G13">
-        <v>7.4546522907647847E-7</v>
+        <v>2.2480597719844636E-6</v>
       </c>
       <c r="H13">
-        <v>7.1116897521348283E-6</v>
+        <v>1.4409881347784871E-5</v>
       </c>
       <c r="I13">
-        <v>-1.0056163772535843E-5</v>
+        <v>-5.7365396760427901E-5</v>
       </c>
       <c r="J13">
-        <v>4.7551238308400363E-6</v>
+        <v>3.4747649062057259E-5</v>
       </c>
       <c r="K13">
-        <v>1.3724590051971221E-2</v>
+        <v>2.3646642049974499E-2</v>
       </c>
       <c r="L13">
-        <v>1.373398926948077E-2</v>
+        <v>2.3679932395673071E-2</v>
       </c>
       <c r="M13">
-        <v>1.3768392134655714E-2</v>
+        <v>2.3814489301951583E-2</v>
       </c>
       <c r="N13">
-        <v>1.4014774236644663E-2</v>
+        <v>2.4509932001075225E-2</v>
       </c>
       <c r="O13">
-        <v>1.1904644829947169E-5</v>
+        <v>7.7392270532882087E-5</v>
       </c>
       <c r="P13">
-        <v>9.9502140925106447E-6</v>
+        <v>4.4395241441319382E-5</v>
       </c>
       <c r="Q13">
-        <v>1.1456005630687885E-6</v>
+        <v>4.1330451484033711E-5</v>
       </c>
       <c r="R13">
-        <v>6.2458946885122872E-6</v>
+        <v>4.9440046511875502E-5</v>
       </c>
       <c r="S13">
-        <v>1.1256617648004799E-5</v>
+        <v>1.6707417932743624E-5</v>
       </c>
       <c r="T13">
-        <v>-3.8715414732098373E-6</v>
+        <v>-1.6102578172932514E-5</v>
       </c>
       <c r="U13">
-        <v>-1.4004668436915075E-2</v>
+        <v>-2.4501456325266537E-2</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.45">
@@ -4663,64 +4663,64 @@
         <v>37</v>
       </c>
       <c r="B14">
-        <v>3.8760098012527437E-2</v>
+        <v>6.6680563649373692E-2</v>
       </c>
       <c r="C14">
-        <v>4.8067386658810871E-8</v>
+        <v>2.9240548718308453E-6</v>
       </c>
       <c r="D14">
-        <v>-4.4818957136057131E-9</v>
+        <v>-4.5406106738897641E-8</v>
       </c>
       <c r="E14">
-        <v>-3.1937508175647534E-5</v>
+        <v>-5.3667010845298793E-5</v>
       </c>
       <c r="F14">
-        <v>-6.0738152671358811E-5</v>
+        <v>-5.7023222965137238E-5</v>
       </c>
       <c r="G14">
-        <v>6.2708137064256827E-7</v>
+        <v>1.030099289339323E-6</v>
       </c>
       <c r="H14">
-        <v>8.44897870876842E-7</v>
+        <v>4.4213666482896402E-7</v>
       </c>
       <c r="I14">
-        <v>2.1484547148150271E-6</v>
+        <v>1.1139745381369428E-6</v>
       </c>
       <c r="J14">
-        <v>-2.0159434047523185E-6</v>
+        <v>-1.7202759379754484E-5</v>
       </c>
       <c r="K14">
-        <v>1.0241582401140551E-5</v>
+        <v>6.3888067422503624E-5</v>
       </c>
       <c r="L14">
-        <v>1.0073996749820739E-5</v>
+        <v>7.2526070298025108E-5</v>
       </c>
       <c r="M14">
-        <v>6.7322478788070826E-6</v>
+        <v>6.9005452108285672E-5</v>
       </c>
       <c r="N14">
-        <v>1.1904644829947169E-5</v>
+        <v>7.7392270532882087E-5</v>
       </c>
       <c r="O14">
-        <v>4.2071716387714317E-4</v>
+        <v>1.2015811375434356E-3</v>
       </c>
       <c r="P14">
-        <v>2.0893725088585148E-4</v>
+        <v>5.6557479067388715E-4</v>
       </c>
       <c r="Q14">
-        <v>2.096627096877712E-4</v>
+        <v>5.668330112013635E-4</v>
       </c>
       <c r="R14">
-        <v>2.0891448050992879E-4</v>
+        <v>5.6550953449851832E-4</v>
       </c>
       <c r="S14">
-        <v>-5.9503524267335481E-6</v>
+        <v>-2.7276295378347213E-5</v>
       </c>
       <c r="T14">
-        <v>-8.195593165959422E-6</v>
+        <v>-2.5450541455626305E-5</v>
       </c>
       <c r="U14">
-        <v>-2.0730470658207646E-4</v>
+        <v>-6.5210911215016589E-4</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.45">
@@ -4728,64 +4728,64 @@
         <v>38</v>
       </c>
       <c r="B15">
-        <v>2.2066239496345952E-2</v>
+        <v>1.6564947570735251E-2</v>
       </c>
       <c r="C15">
-        <v>2.4576258736991839E-6</v>
+        <v>7.6971715755710972E-6</v>
       </c>
       <c r="D15">
-        <v>-3.0826060548175828E-8</v>
+        <v>-9.7097197464366132E-8</v>
       </c>
       <c r="E15">
-        <v>-9.8450632127830353E-6</v>
+        <v>6.378680176461797E-6</v>
       </c>
       <c r="F15">
-        <v>5.9673308383683118E-6</v>
+        <v>5.8361547334230042E-5</v>
       </c>
       <c r="G15">
-        <v>3.1106866078535995E-7</v>
+        <v>1.6893819398865277E-7</v>
       </c>
       <c r="H15">
-        <v>-2.5795297705381688E-8</v>
+        <v>-7.2492581993343898E-7</v>
       </c>
       <c r="I15">
-        <v>-2.5556019015484731E-6</v>
+        <v>-7.6776931036671548E-6</v>
       </c>
       <c r="J15">
-        <v>-1.0585529929552796E-7</v>
+        <v>-1.6012882533425193E-5</v>
       </c>
       <c r="K15">
-        <v>4.6080230101046391E-7</v>
+        <v>1.0900422737806343E-5</v>
       </c>
       <c r="L15">
-        <v>4.6885765357990888E-6</v>
+        <v>1.7821262591942444E-5</v>
       </c>
       <c r="M15">
-        <v>4.3746395301416218E-6</v>
+        <v>2.6607730415671303E-5</v>
       </c>
       <c r="N15">
-        <v>9.9502140925106447E-6</v>
+        <v>4.4395241441319382E-5</v>
       </c>
       <c r="O15">
-        <v>2.0893725088585148E-4</v>
+        <v>5.6557479067388715E-4</v>
       </c>
       <c r="P15">
-        <v>5.3434955318472377E-4</v>
+        <v>1.5094946707136861E-3</v>
       </c>
       <c r="Q15">
-        <v>2.0917065105424397E-4</v>
+        <v>5.6603320399648731E-4</v>
       </c>
       <c r="R15">
-        <v>2.0929713799501469E-4</v>
+        <v>5.6745316039262777E-4</v>
       </c>
       <c r="S15">
-        <v>-4.5499489136705029E-6</v>
+        <v>-8.1661010890792235E-6</v>
       </c>
       <c r="T15">
-        <v>-5.6699027756124558E-6</v>
+        <v>-5.6107155768120802E-6</v>
       </c>
       <c r="U15">
-        <v>-2.5901929116607268E-4</v>
+        <v>-7.2651091548959969E-4</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.45">
@@ -4793,64 +4793,64 @@
         <v>39</v>
       </c>
       <c r="B16">
-        <v>6.4239281421810762E-2</v>
+        <v>-1.7735226680773133E-3</v>
       </c>
       <c r="C16">
-        <v>1.0897743958416027E-6</v>
+        <v>7.4632939441485012E-7</v>
       </c>
       <c r="D16">
-        <v>-1.932631586831308E-8</v>
+        <v>-2.5401442782800869E-8</v>
       </c>
       <c r="E16">
-        <v>-2.6993597938759233E-5</v>
+        <v>-2.4399490496616449E-5</v>
       </c>
       <c r="F16">
-        <v>-3.1782920819336018E-5</v>
+        <v>5.0033270723302093E-5</v>
       </c>
       <c r="G16">
-        <v>6.3105488135817138E-7</v>
+        <v>7.5284361600126298E-7</v>
       </c>
       <c r="H16">
-        <v>2.5022986725293778E-7</v>
+        <v>-1.5188927948489681E-6</v>
       </c>
       <c r="I16">
-        <v>-3.7913974740405481E-6</v>
+        <v>-4.0223702490361469E-6</v>
       </c>
       <c r="J16">
-        <v>-3.7536744929174451E-6</v>
+        <v>-1.6985484855113209E-5</v>
       </c>
       <c r="K16">
-        <v>9.1580138178661453E-7</v>
+        <v>4.1630176834599013E-5</v>
       </c>
       <c r="L16">
-        <v>3.184227010791013E-6</v>
+        <v>5.478924136143753E-5</v>
       </c>
       <c r="M16">
-        <v>6.5310632101549064E-7</v>
+        <v>4.747389683889858E-5</v>
       </c>
       <c r="N16">
-        <v>1.1456005630687885E-6</v>
+        <v>4.1330451484033711E-5</v>
       </c>
       <c r="O16">
-        <v>2.096627096877712E-4</v>
+        <v>5.668330112013635E-4</v>
       </c>
       <c r="P16">
-        <v>2.0917065105424397E-4</v>
+        <v>5.6603320399648731E-4</v>
       </c>
       <c r="Q16">
-        <v>4.1104035273799685E-4</v>
+        <v>1.1376082605081244E-3</v>
       </c>
       <c r="R16">
-        <v>2.0922380725518671E-4</v>
+        <v>5.6697846091656218E-4</v>
       </c>
       <c r="S16">
-        <v>-5.6662219955149007E-6</v>
+        <v>-1.1930550022961835E-5</v>
       </c>
       <c r="T16">
-        <v>-6.790827576772508E-6</v>
+        <v>-2.6702124397823022E-5</v>
       </c>
       <c r="U16">
-        <v>-2.1364789867134925E-4</v>
+        <v>-5.8626760661884404E-4</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.45">
@@ -4858,64 +4858,64 @@
         <v>36</v>
       </c>
       <c r="B17">
-        <v>2.2212650739106391E-2</v>
+        <v>-3.5088812739243101E-2</v>
       </c>
       <c r="C17">
-        <v>1.1671689382890604E-6</v>
+        <v>2.8512201258403278E-6</v>
       </c>
       <c r="D17">
-        <v>-1.7252960054289567E-8</v>
+        <v>-4.4468732091558021E-8</v>
       </c>
       <c r="E17">
-        <v>1.1046434241641731E-6</v>
+        <v>2.5974376236776271E-5</v>
       </c>
       <c r="F17">
-        <v>-7.9921667637801675E-6</v>
+        <v>7.9563585242659724E-5</v>
       </c>
       <c r="G17">
-        <v>1.7429180126601618E-7</v>
+        <v>6.0995408464014597E-8</v>
       </c>
       <c r="H17">
-        <v>2.1819983902178776E-7</v>
+        <v>-1.056647450166404E-6</v>
       </c>
       <c r="I17">
-        <v>1.1634628834932998E-6</v>
+        <v>2.9349186315392025E-6</v>
       </c>
       <c r="J17">
-        <v>-3.2196336465071495E-6</v>
+        <v>-1.528012633423268E-5</v>
       </c>
       <c r="K17">
-        <v>-4.0846913276732866E-6</v>
+        <v>2.0277010052941792E-5</v>
       </c>
       <c r="L17">
-        <v>-2.1584272748696081E-6</v>
+        <v>2.8724587853694967E-5</v>
       </c>
       <c r="M17">
-        <v>-1.3683749750238955E-6</v>
+        <v>3.1769009464014167E-5</v>
       </c>
       <c r="N17">
-        <v>6.2458946885122872E-6</v>
+        <v>4.9440046511875502E-5</v>
       </c>
       <c r="O17">
-        <v>2.0891448050992879E-4</v>
+        <v>5.6550953449851832E-4</v>
       </c>
       <c r="P17">
-        <v>2.0929713799501469E-4</v>
+        <v>5.6745316039262777E-4</v>
       </c>
       <c r="Q17">
-        <v>2.0922380725518671E-4</v>
+        <v>5.6697846091656218E-4</v>
       </c>
       <c r="R17">
-        <v>2.9383329617822416E-4</v>
+        <v>8.052551611381246E-4</v>
       </c>
       <c r="S17">
-        <v>-4.5339881530581198E-6</v>
+        <v>-1.2070339054587654E-5</v>
       </c>
       <c r="T17">
-        <v>-5.5585360367769597E-6</v>
+        <v>-1.8686814351628811E-5</v>
       </c>
       <c r="U17">
-        <v>-2.2832653362600246E-4</v>
+        <v>-6.4599866274865051E-4</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.45">
@@ -4923,64 +4923,64 @@
         <v>31</v>
       </c>
       <c r="B18">
-        <v>0.41021634326524364</v>
+        <v>-0.13459198161218847</v>
       </c>
       <c r="C18">
-        <v>1.6856677770768654E-6</v>
+        <v>-4.38761771313765E-8</v>
       </c>
       <c r="D18">
-        <v>-2.3690952303665035E-8</v>
+        <v>-2.3306206529549021E-8</v>
       </c>
       <c r="E18">
-        <v>4.7696642707351446E-6</v>
+        <v>-3.2800220162315798E-6</v>
       </c>
       <c r="F18">
-        <v>1.2909146961455837E-5</v>
+        <v>5.3581230504285121E-5</v>
       </c>
       <c r="G18">
-        <v>-1.3140910291680933E-8</v>
+        <v>6.2756764377595341E-7</v>
       </c>
       <c r="H18">
-        <v>-1.0344012985918166E-7</v>
+        <v>-5.4520082873216874E-8</v>
       </c>
       <c r="I18">
-        <v>-1.6394825391329607E-7</v>
+        <v>1.8455517672582148E-6</v>
       </c>
       <c r="J18">
-        <v>-3.355277192364442E-6</v>
+        <v>-7.2403496609749299E-6</v>
       </c>
       <c r="K18">
-        <v>1.0172019889648803E-5</v>
+        <v>3.4392156508488087E-5</v>
       </c>
       <c r="L18">
-        <v>1.2072830315728437E-5</v>
+        <v>2.2720254623279786E-5</v>
       </c>
       <c r="M18">
-        <v>9.1541965563181652E-6</v>
+        <v>9.4925821020636639E-6</v>
       </c>
       <c r="N18">
-        <v>1.1256617648004799E-5</v>
+        <v>1.6707417932743624E-5</v>
       </c>
       <c r="O18">
-        <v>-5.9503524267335481E-6</v>
+        <v>-2.7276295378347213E-5</v>
       </c>
       <c r="P18">
-        <v>-4.5499489136705029E-6</v>
+        <v>-8.1661010890792235E-6</v>
       </c>
       <c r="Q18">
-        <v>-5.6662219955149007E-6</v>
+        <v>-1.1930550022961835E-5</v>
       </c>
       <c r="R18">
-        <v>-4.5339881530581198E-6</v>
+        <v>-1.2070339054587654E-5</v>
       </c>
       <c r="S18">
-        <v>3.614434374768922E-4</v>
+        <v>7.8133527740904135E-4</v>
       </c>
       <c r="T18">
-        <v>4.266006295573477E-5</v>
+        <v>1.3118333683885368E-4</v>
       </c>
       <c r="U18">
-        <v>-7.4501609456032079E-5</v>
+        <v>-9.7595416223156842E-5</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.45">
@@ -4988,64 +4988,64 @@
         <v>32</v>
       </c>
       <c r="B19">
-        <v>0.33319324034514941</v>
+        <v>4.5237966579321616E-2</v>
       </c>
       <c r="C19">
-        <v>1.7294047459000899E-7</v>
+        <v>-7.2806618323197194E-7</v>
       </c>
       <c r="D19">
-        <v>-8.5573958576412941E-9</v>
+        <v>-2.0625699536412852E-8</v>
       </c>
       <c r="E19">
-        <v>3.9491590488315449E-6</v>
+        <v>-1.0077366492660972E-5</v>
       </c>
       <c r="F19">
-        <v>8.1175112398364827E-6</v>
+        <v>-1.3722049001957326E-5</v>
       </c>
       <c r="G19">
-        <v>7.014240940163287E-8</v>
+        <v>8.8470068049100521E-7</v>
       </c>
       <c r="H19">
-        <v>5.4020539057564782E-8</v>
+        <v>1.2348961468255829E-6</v>
       </c>
       <c r="I19">
-        <v>-7.1753783556772133E-7</v>
+        <v>4.1090938146348896E-7</v>
       </c>
       <c r="J19">
-        <v>-3.8618607083429607E-6</v>
+        <v>-9.4907651800663787E-6</v>
       </c>
       <c r="K19">
-        <v>5.6915539417155687E-6</v>
+        <v>1.5796213345738702E-5</v>
       </c>
       <c r="L19">
-        <v>4.9850140060052049E-6</v>
+        <v>1.5466710937438461E-5</v>
       </c>
       <c r="M19">
-        <v>-4.3422507121616332E-6</v>
+        <v>-2.0071007102213032E-5</v>
       </c>
       <c r="N19">
-        <v>-3.8715414732098373E-6</v>
+        <v>-1.6102578172932514E-5</v>
       </c>
       <c r="O19">
-        <v>-8.195593165959422E-6</v>
+        <v>-2.5450541455626305E-5</v>
       </c>
       <c r="P19">
-        <v>-5.6699027756124558E-6</v>
+        <v>-5.6107155768120802E-6</v>
       </c>
       <c r="Q19">
-        <v>-6.790827576772508E-6</v>
+        <v>-2.6702124397823022E-5</v>
       </c>
       <c r="R19">
-        <v>-5.5585360367769597E-6</v>
+        <v>-1.8686814351628811E-5</v>
       </c>
       <c r="S19">
-        <v>4.266006295573477E-5</v>
+        <v>1.3118333683885368E-4</v>
       </c>
       <c r="T19">
-        <v>4.5430561012884166E-4</v>
+        <v>1.2761965472574701E-3</v>
       </c>
       <c r="U19">
-        <v>-2.6865397077981296E-5</v>
+        <v>-4.5252482200122266E-5</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.45">
@@ -5053,64 +5053,64 @@
         <v>33</v>
       </c>
       <c r="B20">
-        <v>-2.0120112335064597</v>
+        <v>-4.5578553482906061</v>
       </c>
       <c r="C20">
-        <v>-4.9434713268882099E-4</v>
+        <v>-1.1661023866641647E-3</v>
       </c>
       <c r="D20">
-        <v>5.3630877564070895E-6</v>
+        <v>1.244259828242257E-5</v>
       </c>
       <c r="E20">
-        <v>-1.458504830551482E-3</v>
+        <v>-4.7831452193518725E-3</v>
       </c>
       <c r="F20">
-        <v>-1.3600952661245035E-3</v>
+        <v>-5.2649526861342829E-3</v>
       </c>
       <c r="G20">
-        <v>3.0620438279755107E-5</v>
+        <v>1.0312009835784872E-4</v>
       </c>
       <c r="H20">
-        <v>2.4802671098513607E-5</v>
+        <v>1.0260262700990918E-4</v>
       </c>
       <c r="I20">
-        <v>1.1070040411017876E-4</v>
+        <v>3.7828134955044009E-4</v>
       </c>
       <c r="J20">
-        <v>3.105108108651076E-4</v>
+        <v>1.0471880973204391E-3</v>
       </c>
       <c r="K20">
-        <v>-1.3673583634009482E-2</v>
+        <v>-2.3297053443965592E-2</v>
       </c>
       <c r="L20">
-        <v>-1.3704533647740011E-2</v>
+        <v>-2.3494422756308378E-2</v>
       </c>
       <c r="M20">
-        <v>-1.3734553492303778E-2</v>
+        <v>-2.3748950311876103E-2</v>
       </c>
       <c r="N20">
-        <v>-1.4004668436915075E-2</v>
+        <v>-2.4501456325266537E-2</v>
       </c>
       <c r="O20">
-        <v>-2.0730470658207646E-4</v>
+        <v>-6.5210911215016589E-4</v>
       </c>
       <c r="P20">
-        <v>-2.5901929116607268E-4</v>
+        <v>-7.2651091548959969E-4</v>
       </c>
       <c r="Q20">
-        <v>-2.1364789867134925E-4</v>
+        <v>-5.8626760661884404E-4</v>
       </c>
       <c r="R20">
-        <v>-2.2832653362600246E-4</v>
+        <v>-6.4599866274865051E-4</v>
       </c>
       <c r="S20">
-        <v>-7.4501609456032079E-5</v>
+        <v>-9.7595416223156842E-5</v>
       </c>
       <c r="T20">
-        <v>-2.6865397077981296E-5</v>
+        <v>-4.5252482200122266E-5</v>
       </c>
       <c r="U20">
-        <v>2.4573279605540191E-2</v>
+        <v>4.9099951935095927E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5199,64 +5199,64 @@
         <v>19</v>
       </c>
       <c r="B2">
-        <v>2.6116325086801777E-2</v>
+        <v>0.10194048555510152</v>
       </c>
       <c r="C2">
-        <v>1.8422044783075259E-5</v>
+        <v>4.5041348170062454E-5</v>
       </c>
       <c r="D2">
-        <v>-1.9974639188979272E-7</v>
+        <v>-4.8400401969083945E-7</v>
       </c>
       <c r="E2">
-        <v>5.0556133288466481E-5</v>
+        <v>1.6444836295300381E-4</v>
       </c>
       <c r="F2">
-        <v>6.5106412632185659E-5</v>
+        <v>1.9539572528847246E-4</v>
       </c>
       <c r="G2">
-        <v>-1.1426420088804611E-6</v>
+        <v>-3.7302894609838719E-6</v>
       </c>
       <c r="H2">
-        <v>-1.3650492244183321E-6</v>
+        <v>-4.1751924614040558E-6</v>
       </c>
       <c r="I2">
-        <v>-8.3891740073331638E-6</v>
+        <v>-1.4997238729064443E-5</v>
       </c>
       <c r="J2">
-        <v>-1.9820333523183663E-5</v>
+        <v>-5.653243289321843E-5</v>
       </c>
       <c r="K2">
-        <v>-2.2422595971592358E-6</v>
+        <v>-1.409448744565039E-5</v>
       </c>
       <c r="L2">
-        <v>-4.360533029819846E-6</v>
+        <v>-1.6934697141672594E-5</v>
       </c>
       <c r="M2">
-        <v>-7.881345149205062E-6</v>
+        <v>-2.3619197826870776E-5</v>
       </c>
       <c r="N2">
-        <v>-7.7800043083093347E-7</v>
+        <v>-3.4175769057437962E-6</v>
       </c>
       <c r="O2">
-        <v>8.7114582671721161E-7</v>
+        <v>4.0411169291330977E-6</v>
       </c>
       <c r="P2">
-        <v>6.9222485256819506E-7</v>
+        <v>2.6373024952165774E-6</v>
       </c>
       <c r="Q2">
-        <v>9.4695308173589243E-7</v>
+        <v>1.5712654221149956E-6</v>
       </c>
       <c r="R2">
-        <v>6.3318799799346261E-7</v>
+        <v>1.6272256724649968E-6</v>
       </c>
       <c r="S2">
-        <v>5.5241685008799913E-7</v>
+        <v>-3.903316154629896E-7</v>
       </c>
       <c r="T2">
-        <v>1.0859807524735428E-7</v>
+        <v>2.6880687356086342E-7</v>
       </c>
       <c r="U2">
-        <v>-3.7766123861744888E-4</v>
+        <v>-9.2077169289626329E-4</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.45">
@@ -5264,64 +5264,64 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>-2.8371995871625101E-4</v>
+        <v>-1.0853072377747005E-3</v>
       </c>
       <c r="C3">
-        <v>-1.9974639188979272E-7</v>
+        <v>-4.8400401969083945E-7</v>
       </c>
       <c r="D3">
-        <v>2.3188764368619084E-9</v>
+        <v>5.645478763730614E-9</v>
       </c>
       <c r="E3">
-        <v>-7.0175862564550141E-8</v>
+        <v>-4.6103317755011685E-7</v>
       </c>
       <c r="F3">
-        <v>-2.3365348986348527E-7</v>
+        <v>-8.1337611893028093E-7</v>
       </c>
       <c r="G3">
-        <v>8.2636568988900016E-10</v>
+        <v>7.4680281222278271E-9</v>
       </c>
       <c r="H3">
-        <v>3.2518312717519458E-9</v>
+        <v>1.2335942455759375E-8</v>
       </c>
       <c r="I3">
-        <v>4.0862165070090953E-8</v>
+        <v>-5.8691445886078578E-10</v>
       </c>
       <c r="J3">
-        <v>2.6772945081524168E-7</v>
+        <v>7.7419062578159236E-7</v>
       </c>
       <c r="K3">
-        <v>2.3989274317606391E-8</v>
+        <v>1.6119774516013074E-7</v>
       </c>
       <c r="L3">
-        <v>4.9593148999785645E-8</v>
+        <v>1.954212861125099E-7</v>
       </c>
       <c r="M3">
-        <v>1.0492379458038122E-7</v>
+        <v>3.1925812685902693E-7</v>
       </c>
       <c r="N3">
-        <v>4.8748948997778718E-8</v>
+        <v>1.5812819102450985E-7</v>
       </c>
       <c r="O3">
-        <v>-1.3227098129281356E-8</v>
+        <v>-5.6826455283571124E-8</v>
       </c>
       <c r="P3">
-        <v>-1.4705398658186432E-8</v>
+        <v>-4.4486399875867984E-8</v>
       </c>
       <c r="Q3">
-        <v>-1.4506543928582717E-8</v>
+        <v>-2.5422708571988103E-8</v>
       </c>
       <c r="R3">
-        <v>-8.8302036013600428E-9</v>
+        <v>-2.2087700289580834E-8</v>
       </c>
       <c r="S3">
-        <v>-6.2777905186960796E-9</v>
+        <v>-5.642623586388932E-9</v>
       </c>
       <c r="T3">
-        <v>-4.8004146155435656E-9</v>
+        <v>-1.3055223105935444E-8</v>
       </c>
       <c r="U3">
-        <v>3.8095274903245802E-6</v>
+        <v>9.098328965910068E-6</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.45">
@@ -5329,64 +5329,64 @@
         <v>21</v>
       </c>
       <c r="B4">
-        <v>0.40887211049933347</v>
+        <v>0.16054290977439367</v>
       </c>
       <c r="C4">
-        <v>5.0556133288466481E-5</v>
+        <v>1.6444836295300381E-4</v>
       </c>
       <c r="D4">
-        <v>-7.0175862564550141E-8</v>
+        <v>-4.6103317755011685E-7</v>
       </c>
       <c r="E4">
-        <v>2.6799690127940982E-3</v>
+        <v>6.9457597657403593E-3</v>
       </c>
       <c r="F4">
-        <v>2.0019456575903092E-3</v>
+        <v>5.5705541807132865E-3</v>
       </c>
       <c r="G4">
-        <v>-5.9750901990619398E-5</v>
+        <v>-1.5720710790165799E-4</v>
       </c>
       <c r="H4">
-        <v>-4.5470779806624733E-5</v>
+        <v>-1.2756686604663026E-4</v>
       </c>
       <c r="I4">
-        <v>3.6167294898816807E-5</v>
+        <v>8.6264648018826993E-5</v>
       </c>
       <c r="J4">
-        <v>-3.8451410831122284E-5</v>
+        <v>-8.9263403946265288E-5</v>
       </c>
       <c r="K4">
-        <v>-2.6195262680640385E-5</v>
+        <v>-9.7936646179711158E-5</v>
       </c>
       <c r="L4">
-        <v>-3.6149064040463114E-5</v>
+        <v>-1.2526256854728185E-4</v>
       </c>
       <c r="M4">
-        <v>-6.0498326048279063E-5</v>
+        <v>-1.7602261494019779E-4</v>
       </c>
       <c r="N4">
-        <v>-2.9579695410206046E-5</v>
+        <v>-8.3209425171551499E-5</v>
       </c>
       <c r="O4">
-        <v>-1.5812227549712939E-5</v>
+        <v>-3.6003158887303827E-5</v>
       </c>
       <c r="P4">
-        <v>-1.1487903808695257E-5</v>
+        <v>-8.0647081272360981E-6</v>
       </c>
       <c r="Q4">
-        <v>-1.7324164984044356E-5</v>
+        <v>-2.5665387459089002E-5</v>
       </c>
       <c r="R4">
-        <v>-2.8539523567681993E-6</v>
+        <v>8.4495319684769728E-6</v>
       </c>
       <c r="S4">
-        <v>1.8044773301669761E-5</v>
+        <v>2.6335574820941874E-5</v>
       </c>
       <c r="T4">
-        <v>8.4742053283127635E-6</v>
+        <v>3.1896580112442276E-5</v>
       </c>
       <c r="U4">
-        <v>-2.033853749460027E-3</v>
+        <v>-6.0944466400584471E-3</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.45">
@@ -5394,64 +5394,64 @@
         <v>22</v>
       </c>
       <c r="B5">
-        <v>0.2247903208518067</v>
+        <v>4.6510286196705483E-2</v>
       </c>
       <c r="C5">
-        <v>6.5106412632185659E-5</v>
+        <v>1.9539572528847246E-4</v>
       </c>
       <c r="D5">
-        <v>-2.3365348986348527E-7</v>
+        <v>-8.1337611893028093E-7</v>
       </c>
       <c r="E5">
-        <v>2.0019456575903092E-3</v>
+        <v>5.5705541807132865E-3</v>
       </c>
       <c r="F5">
-        <v>7.9080825295831467E-3</v>
+        <v>1.4219307663726236E-2</v>
       </c>
       <c r="G5">
-        <v>-4.5386484110865628E-5</v>
+        <v>-1.2758358693024528E-4</v>
       </c>
       <c r="H5">
-        <v>-1.6622112519430751E-4</v>
+        <v>-3.0862287627905804E-4</v>
       </c>
       <c r="I5">
-        <v>2.9044877396074575E-5</v>
+        <v>7.0694006443844154E-5</v>
       </c>
       <c r="J5">
-        <v>-2.5834764546542714E-5</v>
+        <v>-6.7514929992311762E-5</v>
       </c>
       <c r="K5">
-        <v>1.7773923759905382E-5</v>
+        <v>-5.7293702789505338E-5</v>
       </c>
       <c r="L5">
-        <v>-1.9985918441114102E-5</v>
+        <v>-1.1173633432282754E-4</v>
       </c>
       <c r="M5">
-        <v>-4.9328350181425916E-5</v>
+        <v>-1.6547290984331728E-4</v>
       </c>
       <c r="N5">
-        <v>2.3519407962478093E-6</v>
+        <v>-5.6513504120967849E-5</v>
       </c>
       <c r="O5">
-        <v>-4.6508666397027481E-5</v>
+        <v>-9.0045317157600688E-5</v>
       </c>
       <c r="P5">
-        <v>-2.2699549248173717E-5</v>
+        <v>-3.272789898831787E-5</v>
       </c>
       <c r="Q5">
-        <v>-4.5069733017318595E-5</v>
+        <v>-7.3053587482792604E-5</v>
       </c>
       <c r="R5">
-        <v>3.7923477459837796E-6</v>
+        <v>3.9359758802402694E-5</v>
       </c>
       <c r="S5">
-        <v>6.7666645257114381E-6</v>
+        <v>5.8763797132997198E-6</v>
       </c>
       <c r="T5">
-        <v>2.5084361320302545E-6</v>
+        <v>2.3409824389112238E-8</v>
       </c>
       <c r="U5">
-        <v>-2.3490968869317608E-3</v>
+        <v>-6.7299169418866241E-3</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.45">
@@ -5459,64 +5459,64 @@
         <v>34</v>
       </c>
       <c r="B6">
-        <v>-4.108736317103269E-3</v>
+        <v>-3.911454954050657E-3</v>
       </c>
       <c r="C6">
-        <v>-1.1426420088804611E-6</v>
+        <v>-3.7302894609838719E-6</v>
       </c>
       <c r="D6">
-        <v>8.2636568988900016E-10</v>
+        <v>7.4680281222278271E-9</v>
       </c>
       <c r="E6">
-        <v>-5.9750901990619398E-5</v>
+        <v>-1.5720710790165799E-4</v>
       </c>
       <c r="F6">
-        <v>-4.5386484110865628E-5</v>
+        <v>-1.2758358693024528E-4</v>
       </c>
       <c r="G6">
-        <v>1.4203458635103537E-6</v>
+        <v>3.8512003259046963E-6</v>
       </c>
       <c r="H6">
-        <v>1.0989650812722002E-6</v>
+        <v>3.1574788228794738E-6</v>
       </c>
       <c r="I6">
-        <v>-7.8603510944579721E-7</v>
+        <v>-1.6732340209033804E-6</v>
       </c>
       <c r="J6">
-        <v>9.915892980057991E-7</v>
+        <v>2.1610620634106082E-6</v>
       </c>
       <c r="K6">
-        <v>7.647108047780585E-7</v>
+        <v>1.872878895263166E-6</v>
       </c>
       <c r="L6">
-        <v>9.8325664269941927E-7</v>
+        <v>2.7832578148261864E-6</v>
       </c>
       <c r="M6">
-        <v>1.7613798293928685E-6</v>
+        <v>4.5821254938637929E-6</v>
       </c>
       <c r="N6">
-        <v>1.4032493589975144E-6</v>
+        <v>3.1819268066554849E-6</v>
       </c>
       <c r="O6">
-        <v>7.1500936095517238E-8</v>
+        <v>-5.2242280120102663E-8</v>
       </c>
       <c r="P6">
-        <v>2.9423811507426452E-7</v>
+        <v>8.5074308680758491E-9</v>
       </c>
       <c r="Q6">
-        <v>1.7853895787739223E-7</v>
+        <v>3.7070264700468883E-9</v>
       </c>
       <c r="R6">
-        <v>-2.5917581507809139E-9</v>
+        <v>-4.5053435197640638E-7</v>
       </c>
       <c r="S6">
-        <v>-3.0914076555104406E-7</v>
+        <v>-3.1626912542428067E-7</v>
       </c>
       <c r="T6">
-        <v>-1.1966458059233124E-7</v>
+        <v>-4.155602238737118E-7</v>
       </c>
       <c r="U6">
-        <v>4.4243310723193496E-5</v>
+        <v>1.3392230604586158E-4</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.45">
@@ -5524,64 +5524,64 @@
         <v>35</v>
       </c>
       <c r="B7">
-        <v>-4.2909545524128596E-4</v>
+        <v>-5.3947372579218646E-3</v>
       </c>
       <c r="C7">
-        <v>-1.3650492244183321E-6</v>
+        <v>-4.1751924614040558E-6</v>
       </c>
       <c r="D7">
-        <v>3.2518312717519458E-9</v>
+        <v>1.2335942455759375E-8</v>
       </c>
       <c r="E7">
-        <v>-4.5470779806624733E-5</v>
+        <v>-1.2756686604663026E-4</v>
       </c>
       <c r="F7">
-        <v>-1.6622112519430751E-4</v>
+        <v>-3.0862287627905804E-4</v>
       </c>
       <c r="G7">
-        <v>1.0989650812722002E-6</v>
+        <v>3.1574788228794738E-6</v>
       </c>
       <c r="H7">
-        <v>3.7714966700535081E-6</v>
+        <v>7.3718702132294137E-6</v>
       </c>
       <c r="I7">
-        <v>-1.8061197328099342E-7</v>
+        <v>-3.0252535070108241E-7</v>
       </c>
       <c r="J7">
-        <v>4.9230293939102186E-7</v>
+        <v>1.1488173557757745E-6</v>
       </c>
       <c r="K7">
-        <v>-2.9089815742489717E-7</v>
+        <v>7.3916147230687374E-7</v>
       </c>
       <c r="L7">
-        <v>6.830412268518512E-7</v>
+        <v>2.6044441241830451E-6</v>
       </c>
       <c r="M7">
-        <v>1.7637803714970262E-6</v>
+        <v>4.7897831399448248E-6</v>
       </c>
       <c r="N7">
-        <v>1.1151018297851253E-6</v>
+        <v>3.2722709029907191E-6</v>
       </c>
       <c r="O7">
-        <v>5.4301084369858775E-7</v>
+        <v>7.9688999756866232E-7</v>
       </c>
       <c r="P7">
-        <v>4.433450859699239E-7</v>
+        <v>3.8182841735519432E-7</v>
       </c>
       <c r="Q7">
-        <v>4.6901446269708729E-7</v>
+        <v>2.9986772485748692E-7</v>
       </c>
       <c r="R7">
-        <v>-4.1636652540532841E-7</v>
+        <v>-1.7336340046152474E-6</v>
       </c>
       <c r="S7">
-        <v>-4.9774682331708153E-9</v>
+        <v>3.8873440761564135E-7</v>
       </c>
       <c r="T7">
-        <v>1.1652404752504325E-7</v>
+        <v>6.0140872892994072E-7</v>
       </c>
       <c r="U7">
-        <v>4.8957220323762346E-5</v>
+        <v>1.42887473960487E-4</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.45">
@@ -5589,64 +5589,64 @@
         <v>23</v>
       </c>
       <c r="B8">
-        <v>0.1382336563791689</v>
+        <v>0.22697800147880562</v>
       </c>
       <c r="C8">
-        <v>-8.3891740073331638E-6</v>
+        <v>-1.4997238729064443E-5</v>
       </c>
       <c r="D8">
-        <v>4.0862165070090953E-8</v>
+        <v>-5.8691445886078578E-10</v>
       </c>
       <c r="E8">
-        <v>3.6167294898816807E-5</v>
+        <v>8.6264648018826993E-5</v>
       </c>
       <c r="F8">
-        <v>2.9044877396074575E-5</v>
+        <v>7.0694006443844154E-5</v>
       </c>
       <c r="G8">
-        <v>-7.8603510944579721E-7</v>
+        <v>-1.6732340209033804E-6</v>
       </c>
       <c r="H8">
-        <v>-1.8061197328099342E-7</v>
+        <v>-3.0252535070108241E-7</v>
       </c>
       <c r="I8">
-        <v>2.9341774253609058E-4</v>
+        <v>7.9230396387509666E-4</v>
       </c>
       <c r="J8">
-        <v>-1.3837226457612844E-4</v>
+        <v>-4.3797650768580081E-4</v>
       </c>
       <c r="K8">
-        <v>-1.0784057435892146E-5</v>
+        <v>-3.7403361680942582E-6</v>
       </c>
       <c r="L8">
-        <v>-1.1729485620777873E-5</v>
+        <v>7.8702041733455118E-6</v>
       </c>
       <c r="M8">
-        <v>-1.1606228003994656E-5</v>
+        <v>1.6140923737176694E-5</v>
       </c>
       <c r="N8">
-        <v>-7.8941736630585186E-6</v>
+        <v>2.1145402028035606E-5</v>
       </c>
       <c r="O8">
-        <v>-4.0956121873765049E-7</v>
+        <v>9.6140838588967348E-9</v>
       </c>
       <c r="P8">
-        <v>3.3053016846209794E-6</v>
+        <v>6.0013001351858896E-6</v>
       </c>
       <c r="Q8">
-        <v>-3.9103883739800179E-6</v>
+        <v>-9.8402757963076774E-6</v>
       </c>
       <c r="R8">
-        <v>1.8483631683979896E-6</v>
+        <v>4.4584268787740863E-6</v>
       </c>
       <c r="S8">
-        <v>2.394930831423842E-6</v>
+        <v>1.2673107490562316E-5</v>
       </c>
       <c r="T8">
-        <v>6.3512605936314039E-6</v>
+        <v>1.8210108742906457E-5</v>
       </c>
       <c r="U8">
-        <v>1.2648548116214286E-4</v>
+        <v>2.2504398975367617E-4</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.45">
@@ -5654,64 +5654,64 @@
         <v>24</v>
       </c>
       <c r="B9">
-        <v>3.4733792695345322E-3</v>
+        <v>0.10605355423801449</v>
       </c>
       <c r="C9">
-        <v>-1.9820333523183663E-5</v>
+        <v>-5.653243289321843E-5</v>
       </c>
       <c r="D9">
-        <v>2.6772945081524168E-7</v>
+        <v>7.7419062578159236E-7</v>
       </c>
       <c r="E9">
-        <v>-3.8451410831122284E-5</v>
+        <v>-8.9263403946265288E-5</v>
       </c>
       <c r="F9">
-        <v>-2.5834764546542714E-5</v>
+        <v>-6.7514929992311762E-5</v>
       </c>
       <c r="G9">
-        <v>9.915892980057991E-7</v>
+        <v>2.1610620634106082E-6</v>
       </c>
       <c r="H9">
-        <v>4.9230293939102186E-7</v>
+        <v>1.1488173557757745E-6</v>
       </c>
       <c r="I9">
-        <v>-1.3837226457612844E-4</v>
+        <v>-4.3797650768580081E-4</v>
       </c>
       <c r="J9">
-        <v>2.2996020373680491E-4</v>
+        <v>7.3743839871130451E-4</v>
       </c>
       <c r="K9">
-        <v>1.6655945815215043E-5</v>
+        <v>3.5373619427727266E-5</v>
       </c>
       <c r="L9">
-        <v>1.3510160770203219E-5</v>
+        <v>1.9603500569592269E-5</v>
       </c>
       <c r="M9">
-        <v>9.6286875667983606E-6</v>
+        <v>8.6299547943463032E-6</v>
       </c>
       <c r="N9">
-        <v>1.1877985631862865E-5</v>
+        <v>1.4347491494567379E-5</v>
       </c>
       <c r="O9">
-        <v>-1.5999719241224239E-6</v>
+        <v>-1.5073568161235754E-5</v>
       </c>
       <c r="P9">
-        <v>-3.0680008286100138E-6</v>
+        <v>-1.3710476893851146E-5</v>
       </c>
       <c r="Q9">
-        <v>-3.7621046072730345E-6</v>
+        <v>-1.655640184478549E-5</v>
       </c>
       <c r="R9">
-        <v>-3.7619209196947996E-6</v>
+        <v>-1.7598118243873497E-5</v>
       </c>
       <c r="S9">
-        <v>-2.3017820703478376E-6</v>
+        <v>-8.6833885780616797E-6</v>
       </c>
       <c r="T9">
-        <v>-2.8896204133339678E-6</v>
+        <v>-1.6564071795962087E-6</v>
       </c>
       <c r="U9">
-        <v>3.1597572700321443E-4</v>
+        <v>9.2878539272960036E-4</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.45">
@@ -5719,64 +5719,64 @@
         <v>25</v>
       </c>
       <c r="B10">
-        <v>0.36807026822932304</v>
+        <v>0.35988932411043373</v>
       </c>
       <c r="C10">
-        <v>-2.2422595971592358E-6</v>
+        <v>-1.409448744565039E-5</v>
       </c>
       <c r="D10">
-        <v>2.3989274317606391E-8</v>
+        <v>1.6119774516013074E-7</v>
       </c>
       <c r="E10">
-        <v>-2.6195262680640385E-5</v>
+        <v>-9.7936646179711158E-5</v>
       </c>
       <c r="F10">
-        <v>1.7773923759905382E-5</v>
+        <v>-5.7293702789505338E-5</v>
       </c>
       <c r="G10">
-        <v>7.647108047780585E-7</v>
+        <v>1.872878895263166E-6</v>
       </c>
       <c r="H10">
-        <v>-2.9089815742489717E-7</v>
+        <v>7.3916147230687374E-7</v>
       </c>
       <c r="I10">
-        <v>-1.0784057435892146E-5</v>
+        <v>-3.7403361680942582E-6</v>
       </c>
       <c r="J10">
-        <v>1.6655945815215043E-5</v>
+        <v>3.5373619427727266E-5</v>
       </c>
       <c r="K10">
-        <v>1.0529089868701604E-2</v>
+        <v>1.4859554299738998E-2</v>
       </c>
       <c r="L10">
-        <v>9.5815798436672539E-3</v>
+        <v>1.33598867258763E-2</v>
       </c>
       <c r="M10">
-        <v>9.5821229244391105E-3</v>
+        <v>1.3368569595872883E-2</v>
       </c>
       <c r="N10">
-        <v>9.5831330155656189E-3</v>
+        <v>1.3370271405790224E-2</v>
       </c>
       <c r="O10">
-        <v>7.9462559850009728E-6</v>
+        <v>2.0562703978766242E-7</v>
       </c>
       <c r="P10">
-        <v>6.037142590512216E-6</v>
+        <v>1.5346633501790697E-7</v>
       </c>
       <c r="Q10">
-        <v>-3.940314418075146E-7</v>
+        <v>-1.7187009579605958E-5</v>
       </c>
       <c r="R10">
-        <v>-2.6582645214939159E-6</v>
+        <v>-1.1681557810110885E-5</v>
       </c>
       <c r="S10">
-        <v>6.5888790711256579E-6</v>
+        <v>-1.9854662477649605E-6</v>
       </c>
       <c r="T10">
-        <v>1.4088926509158478E-5</v>
+        <v>4.7323176053213641E-5</v>
       </c>
       <c r="U10">
-        <v>-9.540216634741687E-3</v>
+        <v>-1.3075020924756812E-2</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.45">
@@ -5784,64 +5784,64 @@
         <v>26</v>
       </c>
       <c r="B11">
-        <v>0.5611563857502152</v>
+        <v>0.88250300647795088</v>
       </c>
       <c r="C11">
-        <v>-4.360533029819846E-6</v>
+        <v>-1.6934697141672594E-5</v>
       </c>
       <c r="D11">
-        <v>4.9593148999785645E-8</v>
+        <v>1.954212861125099E-7</v>
       </c>
       <c r="E11">
-        <v>-3.6149064040463114E-5</v>
+        <v>-1.2526256854728185E-4</v>
       </c>
       <c r="F11">
-        <v>-1.9985918441114102E-5</v>
+        <v>-1.1173633432282754E-4</v>
       </c>
       <c r="G11">
-        <v>9.8325664269941927E-7</v>
+        <v>2.7832578148261864E-6</v>
       </c>
       <c r="H11">
-        <v>6.830412268518512E-7</v>
+        <v>2.6044441241830451E-6</v>
       </c>
       <c r="I11">
-        <v>-1.1729485620777873E-5</v>
+        <v>7.8702041733455118E-6</v>
       </c>
       <c r="J11">
-        <v>1.3510160770203219E-5</v>
+        <v>1.9603500569592269E-5</v>
       </c>
       <c r="K11">
-        <v>9.5815798436672539E-3</v>
+        <v>1.33598867258763E-2</v>
       </c>
       <c r="L11">
-        <v>9.735114933403068E-3</v>
+        <v>1.3751314166983459E-2</v>
       </c>
       <c r="M11">
-        <v>9.5877936851268379E-3</v>
+        <v>1.3388475515505673E-2</v>
       </c>
       <c r="N11">
-        <v>9.590163187241825E-3</v>
+        <v>1.3398789319283108E-2</v>
       </c>
       <c r="O11">
-        <v>6.3200499609356102E-6</v>
+        <v>-4.9637291602043292E-6</v>
       </c>
       <c r="P11">
-        <v>5.1385139835252058E-6</v>
+        <v>-1.1310689558180086E-5</v>
       </c>
       <c r="Q11">
-        <v>-3.1860185632674932E-6</v>
+        <v>-2.2639657755429981E-5</v>
       </c>
       <c r="R11">
-        <v>-6.9768926364818974E-6</v>
+        <v>-2.7068332051595061E-5</v>
       </c>
       <c r="S11">
-        <v>9.9444116375559321E-6</v>
+        <v>5.2244586082593694E-7</v>
       </c>
       <c r="T11">
-        <v>1.0878204770852845E-5</v>
+        <v>4.1688308426712316E-5</v>
       </c>
       <c r="U11">
-        <v>-9.5005732998754873E-3</v>
+        <v>-1.3043473633516326E-2</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.45">
@@ -5849,64 +5849,64 @@
         <v>27</v>
       </c>
       <c r="B12">
-        <v>0.55622279606611191</v>
+        <v>1.0334640622216458</v>
       </c>
       <c r="C12">
-        <v>-7.881345149205062E-6</v>
+        <v>-2.3619197826870776E-5</v>
       </c>
       <c r="D12">
-        <v>1.0492379458038122E-7</v>
+        <v>3.1925812685902693E-7</v>
       </c>
       <c r="E12">
-        <v>-6.0498326048279063E-5</v>
+        <v>-1.7602261494019779E-4</v>
       </c>
       <c r="F12">
-        <v>-4.9328350181425916E-5</v>
+        <v>-1.6547290984331728E-4</v>
       </c>
       <c r="G12">
-        <v>1.7613798293928685E-6</v>
+        <v>4.5821254938637929E-6</v>
       </c>
       <c r="H12">
-        <v>1.7637803714970262E-6</v>
+        <v>4.7897831399448248E-6</v>
       </c>
       <c r="I12">
-        <v>-1.1606228003994656E-5</v>
+        <v>1.6140923737176694E-5</v>
       </c>
       <c r="J12">
-        <v>9.6286875667983606E-6</v>
+        <v>8.6299547943463032E-6</v>
       </c>
       <c r="K12">
-        <v>9.5821229244391105E-3</v>
+        <v>1.3368569595872883E-2</v>
       </c>
       <c r="L12">
-        <v>9.5877936851268379E-3</v>
+        <v>1.3388475515505673E-2</v>
       </c>
       <c r="M12">
-        <v>9.6610080851098415E-3</v>
+        <v>1.3625281120272715E-2</v>
       </c>
       <c r="N12">
-        <v>9.6264859338003224E-3</v>
+        <v>1.3520974285546135E-2</v>
       </c>
       <c r="O12">
-        <v>4.753460804285124E-6</v>
+        <v>-4.3708418362711169E-6</v>
       </c>
       <c r="P12">
-        <v>7.6781737648345288E-6</v>
+        <v>-9.9814489174089138E-6</v>
       </c>
       <c r="Q12">
-        <v>-2.6235907786396776E-6</v>
+        <v>-2.3158475664564768E-5</v>
       </c>
       <c r="R12">
-        <v>-3.8981902684943149E-6</v>
+        <v>-1.6839937432820679E-5</v>
       </c>
       <c r="S12">
-        <v>6.986486992501918E-6</v>
+        <v>-1.7830974976558378E-5</v>
       </c>
       <c r="T12">
-        <v>8.3019173600794072E-7</v>
+        <v>1.9566145932764318E-5</v>
       </c>
       <c r="U12">
-        <v>-9.4883712065756288E-3</v>
+        <v>-1.309867041868785E-2</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.45">
@@ -5914,64 +5914,64 @@
         <v>28</v>
       </c>
       <c r="B13">
-        <v>0.58447724629257181</v>
+        <v>1.0565924133682432</v>
       </c>
       <c r="C13">
-        <v>-7.7800043083093347E-7</v>
+        <v>-3.4175769057437962E-6</v>
       </c>
       <c r="D13">
-        <v>4.8748948997778718E-8</v>
+        <v>1.5812819102450985E-7</v>
       </c>
       <c r="E13">
-        <v>-2.9579695410206046E-5</v>
+        <v>-8.3209425171551499E-5</v>
       </c>
       <c r="F13">
-        <v>2.3519407962478093E-6</v>
+        <v>-5.6513504120967849E-5</v>
       </c>
       <c r="G13">
-        <v>1.4032493589975144E-6</v>
+        <v>3.1819268066554849E-6</v>
       </c>
       <c r="H13">
-        <v>1.1151018297851253E-6</v>
+        <v>3.2722709029907191E-6</v>
       </c>
       <c r="I13">
-        <v>-7.8941736630585186E-6</v>
+        <v>2.1145402028035606E-5</v>
       </c>
       <c r="J13">
-        <v>1.1877985631862865E-5</v>
+        <v>1.4347491494567379E-5</v>
       </c>
       <c r="K13">
-        <v>9.5831330155656189E-3</v>
+        <v>1.3370271405790224E-2</v>
       </c>
       <c r="L13">
-        <v>9.590163187241825E-3</v>
+        <v>1.3398789319283108E-2</v>
       </c>
       <c r="M13">
-        <v>9.6264859338003224E-3</v>
+        <v>1.3520974285546135E-2</v>
       </c>
       <c r="N13">
-        <v>9.8160729247681808E-3</v>
+        <v>1.4033837623501782E-2</v>
       </c>
       <c r="O13">
-        <v>4.8949586373917014E-6</v>
+        <v>-2.509278593426905E-6</v>
       </c>
       <c r="P13">
-        <v>1.0658876484756225E-5</v>
+        <v>3.4381253094764759E-6</v>
       </c>
       <c r="Q13">
-        <v>-3.645673649554877E-6</v>
+        <v>-1.9439242611873599E-5</v>
       </c>
       <c r="R13">
-        <v>-2.7971185746512579E-6</v>
+        <v>-1.1835560332892252E-5</v>
       </c>
       <c r="S13">
-        <v>7.6682590932723478E-6</v>
+        <v>-1.8842572319412477E-5</v>
       </c>
       <c r="T13">
-        <v>2.5789043757884956E-6</v>
+        <v>2.1688828370444199E-5</v>
       </c>
       <c r="U13">
-        <v>-9.7169261594593978E-3</v>
+        <v>-1.3727594861136869E-2</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.45">
@@ -5979,64 +5979,64 @@
         <v>37</v>
       </c>
       <c r="B14">
-        <v>4.7302612784289995E-2</v>
+        <v>4.8320784673508428E-2</v>
       </c>
       <c r="C14">
-        <v>8.7114582671721161E-7</v>
+        <v>4.0411169291330977E-6</v>
       </c>
       <c r="D14">
-        <v>-1.3227098129281356E-8</v>
+        <v>-5.6826455283571124E-8</v>
       </c>
       <c r="E14">
-        <v>-1.5812227549712939E-5</v>
+        <v>-3.6003158887303827E-5</v>
       </c>
       <c r="F14">
-        <v>-4.6508666397027481E-5</v>
+        <v>-9.0045317157600688E-5</v>
       </c>
       <c r="G14">
-        <v>7.1500936095517238E-8</v>
+        <v>-5.2242280120102663E-8</v>
       </c>
       <c r="H14">
-        <v>5.4301084369858775E-7</v>
+        <v>7.9688999756866232E-7</v>
       </c>
       <c r="I14">
-        <v>-4.0956121873765049E-7</v>
+        <v>9.6140838588967348E-9</v>
       </c>
       <c r="J14">
-        <v>-1.5999719241224239E-6</v>
+        <v>-1.5073568161235754E-5</v>
       </c>
       <c r="K14">
-        <v>7.9462559850009728E-6</v>
+        <v>2.0562703978766242E-7</v>
       </c>
       <c r="L14">
-        <v>6.3200499609356102E-6</v>
+        <v>-4.9637291602043292E-6</v>
       </c>
       <c r="M14">
-        <v>4.753460804285124E-6</v>
+        <v>-4.3708418362711169E-6</v>
       </c>
       <c r="N14">
-        <v>4.8949586373917014E-6</v>
+        <v>-2.509278593426905E-6</v>
       </c>
       <c r="O14">
-        <v>3.7972725676833165E-4</v>
+        <v>1.0366030706747509E-3</v>
       </c>
       <c r="P14">
-        <v>1.9677001118205119E-4</v>
+        <v>4.9601724242453191E-4</v>
       </c>
       <c r="Q14">
-        <v>1.9775857078510356E-4</v>
+        <v>4.9756145062205507E-4</v>
       </c>
       <c r="R14">
-        <v>1.9690004878396251E-4</v>
+        <v>4.9569423829760179E-4</v>
       </c>
       <c r="S14">
-        <v>-7.0294863704989715E-6</v>
+        <v>-1.9365405244285786E-5</v>
       </c>
       <c r="T14">
-        <v>-5.7791089118610887E-6</v>
+        <v>-2.1748863685968911E-5</v>
       </c>
       <c r="U14">
-        <v>-2.0101678117440756E-4</v>
+        <v>-5.108464473667757E-4</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.45">
@@ -6044,64 +6044,64 @@
         <v>38</v>
       </c>
       <c r="B15">
-        <v>4.2951367371003517E-2</v>
+        <v>-2.8770212894918146E-2</v>
       </c>
       <c r="C15">
-        <v>6.9222485256819506E-7</v>
+        <v>2.6373024952165774E-6</v>
       </c>
       <c r="D15">
-        <v>-1.4705398658186432E-8</v>
+        <v>-4.4486399875867984E-8</v>
       </c>
       <c r="E15">
-        <v>-1.1487903808695257E-5</v>
+        <v>-8.0647081272360981E-6</v>
       </c>
       <c r="F15">
-        <v>-2.2699549248173717E-5</v>
+        <v>-3.272789898831787E-5</v>
       </c>
       <c r="G15">
-        <v>2.9423811507426452E-7</v>
+        <v>8.5074308680758491E-9</v>
       </c>
       <c r="H15">
-        <v>4.433450859699239E-7</v>
+        <v>3.8182841735519432E-7</v>
       </c>
       <c r="I15">
-        <v>3.3053016846209794E-6</v>
+        <v>6.0013001351858896E-6</v>
       </c>
       <c r="J15">
-        <v>-3.0680008286100138E-6</v>
+        <v>-1.3710476893851146E-5</v>
       </c>
       <c r="K15">
-        <v>6.037142590512216E-6</v>
+        <v>1.5346633501790697E-7</v>
       </c>
       <c r="L15">
-        <v>5.1385139835252058E-6</v>
+        <v>-1.1310689558180086E-5</v>
       </c>
       <c r="M15">
-        <v>7.6781737648345288E-6</v>
+        <v>-9.9814489174089138E-6</v>
       </c>
       <c r="N15">
-        <v>1.0658876484756225E-5</v>
+        <v>3.4381253094764759E-6</v>
       </c>
       <c r="O15">
-        <v>1.9677001118205119E-4</v>
+        <v>4.9601724242453191E-4</v>
       </c>
       <c r="P15">
-        <v>4.8259812889693245E-4</v>
+        <v>1.2751711155132874E-3</v>
       </c>
       <c r="Q15">
-        <v>1.9677506304194303E-4</v>
+        <v>4.9560953567092032E-4</v>
       </c>
       <c r="R15">
-        <v>1.967181727688358E-4</v>
+        <v>4.9522215609405741E-4</v>
       </c>
       <c r="S15">
-        <v>-7.2444222984998187E-6</v>
+        <v>-1.2531495406569855E-5</v>
       </c>
       <c r="T15">
-        <v>-8.9778054071919593E-6</v>
+        <v>-2.000313525201397E-5</v>
       </c>
       <c r="U15">
-        <v>-2.0520736947215594E-4</v>
+        <v>-5.0194826117492446E-4</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.45">
@@ -6109,64 +6109,64 @@
         <v>39</v>
       </c>
       <c r="B16">
-        <v>7.2538266093791492E-2</v>
+        <v>-4.4477195364546092E-2</v>
       </c>
       <c r="C16">
-        <v>9.4695308173589243E-7</v>
+        <v>1.5712654221149956E-6</v>
       </c>
       <c r="D16">
-        <v>-1.4506543928582717E-8</v>
+        <v>-2.5422708571988103E-8</v>
       </c>
       <c r="E16">
-        <v>-1.7324164984044356E-5</v>
+        <v>-2.5665387459089002E-5</v>
       </c>
       <c r="F16">
-        <v>-4.5069733017318595E-5</v>
+        <v>-7.3053587482792604E-5</v>
       </c>
       <c r="G16">
-        <v>1.7853895787739223E-7</v>
+        <v>3.7070264700468883E-9</v>
       </c>
       <c r="H16">
-        <v>4.6901446269708729E-7</v>
+        <v>2.9986772485748692E-7</v>
       </c>
       <c r="I16">
-        <v>-3.9103883739800179E-6</v>
+        <v>-9.8402757963076774E-6</v>
       </c>
       <c r="J16">
-        <v>-3.7621046072730345E-6</v>
+        <v>-1.655640184478549E-5</v>
       </c>
       <c r="K16">
-        <v>-3.940314418075146E-7</v>
+        <v>-1.7187009579605958E-5</v>
       </c>
       <c r="L16">
-        <v>-3.1860185632674932E-6</v>
+        <v>-2.2639657755429981E-5</v>
       </c>
       <c r="M16">
-        <v>-2.6235907786396776E-6</v>
+        <v>-2.3158475664564768E-5</v>
       </c>
       <c r="N16">
-        <v>-3.645673649554877E-6</v>
+        <v>-1.9439242611873599E-5</v>
       </c>
       <c r="O16">
-        <v>1.9775857078510356E-4</v>
+        <v>4.9756145062205507E-4</v>
       </c>
       <c r="P16">
-        <v>1.9677506304194303E-4</v>
+        <v>4.9560953567092032E-4</v>
       </c>
       <c r="Q16">
-        <v>3.6653820177509242E-4</v>
+        <v>9.5719885192520695E-4</v>
       </c>
       <c r="R16">
-        <v>1.9702271274678351E-4</v>
+        <v>4.9600795300492099E-4</v>
       </c>
       <c r="S16">
-        <v>-7.2741288758516749E-6</v>
+        <v>-1.6372483292344301E-5</v>
       </c>
       <c r="T16">
-        <v>-5.5337612029327797E-6</v>
+        <v>-2.3900824029930033E-5</v>
       </c>
       <c r="U16">
-        <v>-1.9225865267842715E-4</v>
+        <v>-4.5147061095313339E-4</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.45">
@@ -6174,64 +6174,64 @@
         <v>36</v>
       </c>
       <c r="B17">
-        <v>4.4571369011109203E-2</v>
+        <v>1.3564715299439218E-3</v>
       </c>
       <c r="C17">
-        <v>6.3318799799346261E-7</v>
+        <v>1.6272256724649968E-6</v>
       </c>
       <c r="D17">
-        <v>-8.8302036013600428E-9</v>
+        <v>-2.2087700289580834E-8</v>
       </c>
       <c r="E17">
-        <v>-2.8539523567681993E-6</v>
+        <v>8.4495319684769728E-6</v>
       </c>
       <c r="F17">
-        <v>3.7923477459837796E-6</v>
+        <v>3.9359758802402694E-5</v>
       </c>
       <c r="G17">
-        <v>-2.5917581507809139E-9</v>
+        <v>-4.5053435197640638E-7</v>
       </c>
       <c r="H17">
-        <v>-4.1636652540532841E-7</v>
+        <v>-1.7336340046152474E-6</v>
       </c>
       <c r="I17">
-        <v>1.8483631683979896E-6</v>
+        <v>4.4584268787740863E-6</v>
       </c>
       <c r="J17">
-        <v>-3.7619209196947996E-6</v>
+        <v>-1.7598118243873497E-5</v>
       </c>
       <c r="K17">
-        <v>-2.6582645214939159E-6</v>
+        <v>-1.1681557810110885E-5</v>
       </c>
       <c r="L17">
-        <v>-6.9768926364818974E-6</v>
+        <v>-2.7068332051595061E-5</v>
       </c>
       <c r="M17">
-        <v>-3.8981902684943149E-6</v>
+        <v>-1.6839937432820679E-5</v>
       </c>
       <c r="N17">
-        <v>-2.7971185746512579E-6</v>
+        <v>-1.1835560332892252E-5</v>
       </c>
       <c r="O17">
-        <v>1.9690004878396251E-4</v>
+        <v>4.9569423829760179E-4</v>
       </c>
       <c r="P17">
-        <v>1.967181727688358E-4</v>
+        <v>4.9522215609405741E-4</v>
       </c>
       <c r="Q17">
-        <v>1.9702271274678351E-4</v>
+        <v>4.9600795300492099E-4</v>
       </c>
       <c r="R17">
-        <v>2.6785742643877918E-4</v>
+        <v>7.0452297447238881E-4</v>
       </c>
       <c r="S17">
-        <v>-6.7509325117572262E-6</v>
+        <v>-1.6528856530606866E-5</v>
       </c>
       <c r="T17">
-        <v>-7.0732731151443044E-6</v>
+        <v>-2.1514958803065359E-5</v>
       </c>
       <c r="U17">
-        <v>-1.9771451001778209E-4</v>
+        <v>-4.8570274491946034E-4</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.45">
@@ -6239,64 +6239,64 @@
         <v>31</v>
       </c>
       <c r="B18">
-        <v>0.4382853378810172</v>
+        <v>-1.9136134326859993E-2</v>
       </c>
       <c r="C18">
-        <v>5.5241685008799913E-7</v>
+        <v>-3.903316154629896E-7</v>
       </c>
       <c r="D18">
-        <v>-6.2777905186960796E-9</v>
+        <v>-5.642623586388932E-9</v>
       </c>
       <c r="E18">
-        <v>1.8044773301669761E-5</v>
+        <v>2.6335574820941874E-5</v>
       </c>
       <c r="F18">
-        <v>6.7666645257114381E-6</v>
+        <v>5.8763797132997198E-6</v>
       </c>
       <c r="G18">
-        <v>-3.0914076555104406E-7</v>
+        <v>-3.1626912542428067E-7</v>
       </c>
       <c r="H18">
-        <v>-4.9774682331708153E-9</v>
+        <v>3.8873440761564135E-7</v>
       </c>
       <c r="I18">
-        <v>2.394930831423842E-6</v>
+        <v>1.2673107490562316E-5</v>
       </c>
       <c r="J18">
-        <v>-2.3017820703478376E-6</v>
+        <v>-8.6833885780616797E-6</v>
       </c>
       <c r="K18">
-        <v>6.5888790711256579E-6</v>
+        <v>-1.9854662477649605E-6</v>
       </c>
       <c r="L18">
-        <v>9.9444116375559321E-6</v>
+        <v>5.2244586082593694E-7</v>
       </c>
       <c r="M18">
-        <v>6.986486992501918E-6</v>
+        <v>-1.7830974976558378E-5</v>
       </c>
       <c r="N18">
-        <v>7.6682590932723478E-6</v>
+        <v>-1.8842572319412477E-5</v>
       </c>
       <c r="O18">
-        <v>-7.0294863704989715E-6</v>
+        <v>-1.9365405244285786E-5</v>
       </c>
       <c r="P18">
-        <v>-7.2444222984998187E-6</v>
+        <v>-1.2531495406569855E-5</v>
       </c>
       <c r="Q18">
-        <v>-7.2741288758516749E-6</v>
+        <v>-1.6372483292344301E-5</v>
       </c>
       <c r="R18">
-        <v>-6.7509325117572262E-6</v>
+        <v>-1.6528856530606866E-5</v>
       </c>
       <c r="S18">
-        <v>3.2898316777501662E-4</v>
+        <v>7.0811407020921987E-4</v>
       </c>
       <c r="T18">
-        <v>3.6333207544117782E-5</v>
+        <v>1.0710702218499653E-4</v>
       </c>
       <c r="U18">
-        <v>-5.3032578282413454E-5</v>
+        <v>-6.6904154873590984E-5</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.45">
@@ -6304,64 +6304,64 @@
         <v>32</v>
       </c>
       <c r="B19">
-        <v>0.34243793825525409</v>
+        <v>0.17848554472755659</v>
       </c>
       <c r="C19">
-        <v>1.0859807524735428E-7</v>
+        <v>2.6880687356086342E-7</v>
       </c>
       <c r="D19">
-        <v>-4.8004146155435656E-9</v>
+        <v>-1.3055223105935444E-8</v>
       </c>
       <c r="E19">
-        <v>8.4742053283127635E-6</v>
+        <v>3.1896580112442276E-5</v>
       </c>
       <c r="F19">
-        <v>2.5084361320302545E-6</v>
+        <v>2.3409824389112238E-8</v>
       </c>
       <c r="G19">
-        <v>-1.1966458059233124E-7</v>
+        <v>-4.155602238737118E-7</v>
       </c>
       <c r="H19">
-        <v>1.1652404752504325E-7</v>
+        <v>6.0140872892994072E-7</v>
       </c>
       <c r="I19">
-        <v>6.3512605936314039E-6</v>
+        <v>1.8210108742906457E-5</v>
       </c>
       <c r="J19">
-        <v>-2.8896204133339678E-6</v>
+        <v>-1.6564071795962087E-6</v>
       </c>
       <c r="K19">
-        <v>1.4088926509158478E-5</v>
+        <v>4.7323176053213641E-5</v>
       </c>
       <c r="L19">
-        <v>1.0878204770852845E-5</v>
+        <v>4.1688308426712316E-5</v>
       </c>
       <c r="M19">
-        <v>8.3019173600794072E-7</v>
+        <v>1.9566145932764318E-5</v>
       </c>
       <c r="N19">
-        <v>2.5789043757884956E-6</v>
+        <v>2.1688828370444199E-5</v>
       </c>
       <c r="O19">
-        <v>-5.7791089118610887E-6</v>
+        <v>-2.1748863685968911E-5</v>
       </c>
       <c r="P19">
-        <v>-8.9778054071919593E-6</v>
+        <v>-2.000313525201397E-5</v>
       </c>
       <c r="Q19">
-        <v>-5.5337612029327797E-6</v>
+        <v>-2.3900824029930033E-5</v>
       </c>
       <c r="R19">
-        <v>-7.0732731151443044E-6</v>
+        <v>-2.1514958803065359E-5</v>
       </c>
       <c r="S19">
-        <v>3.6333207544117782E-5</v>
+        <v>1.0710702218499653E-4</v>
       </c>
       <c r="T19">
-        <v>4.0621042256883068E-4</v>
+        <v>1.2181861414524405E-3</v>
       </c>
       <c r="U19">
-        <v>-3.478534136014451E-5</v>
+        <v>-1.2229763629016858E-4</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.45">
@@ -6369,64 +6369,64 @@
         <v>33</v>
       </c>
       <c r="B20">
-        <v>-1.3907974610620719</v>
+        <v>-1.9652408986717043</v>
       </c>
       <c r="C20">
-        <v>-3.7766123861744888E-4</v>
+        <v>-9.2077169289626329E-4</v>
       </c>
       <c r="D20">
-        <v>3.8095274903245802E-6</v>
+        <v>9.098328965910068E-6</v>
       </c>
       <c r="E20">
-        <v>-2.033853749460027E-3</v>
+        <v>-6.0944466400584471E-3</v>
       </c>
       <c r="F20">
-        <v>-2.3490968869317608E-3</v>
+        <v>-6.7299169418866241E-3</v>
       </c>
       <c r="G20">
-        <v>4.4243310723193496E-5</v>
+        <v>1.3392230604586158E-4</v>
       </c>
       <c r="H20">
-        <v>4.8957220323762346E-5</v>
+        <v>1.42887473960487E-4</v>
       </c>
       <c r="I20">
-        <v>1.2648548116214286E-4</v>
+        <v>2.2504398975367617E-4</v>
       </c>
       <c r="J20">
-        <v>3.1597572700321443E-4</v>
+        <v>9.2878539272960036E-4</v>
       </c>
       <c r="K20">
-        <v>-9.540216634741687E-3</v>
+        <v>-1.3075020924756812E-2</v>
       </c>
       <c r="L20">
-        <v>-9.5005732998754873E-3</v>
+        <v>-1.3043473633516326E-2</v>
       </c>
       <c r="M20">
-        <v>-9.4883712065756288E-3</v>
+        <v>-1.309867041868785E-2</v>
       </c>
       <c r="N20">
-        <v>-9.7169261594593978E-3</v>
+        <v>-1.3727594861136869E-2</v>
       </c>
       <c r="O20">
-        <v>-2.0101678117440756E-4</v>
+        <v>-5.108464473667757E-4</v>
       </c>
       <c r="P20">
-        <v>-2.0520736947215594E-4</v>
+        <v>-5.0194826117492446E-4</v>
       </c>
       <c r="Q20">
-        <v>-1.9225865267842715E-4</v>
+        <v>-4.5147061095313339E-4</v>
       </c>
       <c r="R20">
-        <v>-1.9771451001778209E-4</v>
+        <v>-4.8570274491946034E-4</v>
       </c>
       <c r="S20">
-        <v>-5.3032578282413454E-5</v>
+        <v>-6.6904154873590984E-5</v>
       </c>
       <c r="T20">
-        <v>-3.478534136014451E-5</v>
+        <v>-1.2229763629016858E-4</v>
       </c>
       <c r="U20">
-        <v>1.8266282010570491E-2</v>
+        <v>3.4670745319532931E-2</v>
       </c>
     </row>
   </sheetData>
